--- a/socialstyrelsen/statistik-covid19-avlidna_2021-03-14.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_2021-03-14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="276" windowWidth="2880" windowHeight="5328" tabRatio="751"/>
+    <workbookView xWindow="720" yWindow="270" windowWidth="2880" windowHeight="5325" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="Om statistiken" sheetId="11" r:id="rId1"/>
@@ -5140,6 +5140,42 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5158,12 +5194,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5172,36 +5202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5430,7 +5430,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5792,7 +5791,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5894,7 +5892,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6191,7 +6188,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6293,7 +6289,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6583,7 +6578,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6685,7 +6679,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6987,7 +6980,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16850,6 +16842,7 @@
               </a:solidFill>
               <a:latin typeface="Century Gothic"/>
             </a:rPr>
+            <a:pPr/>
             <a:t>2021-01-26</a:t>
           </a:fld>
           <a:endParaRPr lang="sv-SE" sz="1900" smtClean="0"/>
@@ -20702,397 +20695,397 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="258" max="258" width="23.42578125" customWidth="1"/>
-    <col min="259" max="259" width="40.42578125" customWidth="1"/>
-    <col min="260" max="260" width="9.28515625" customWidth="1"/>
-    <col min="261" max="261" width="46.140625" customWidth="1"/>
-    <col min="262" max="262" width="55.42578125" customWidth="1"/>
-    <col min="263" max="263" width="29.7109375" customWidth="1"/>
-    <col min="514" max="514" width="23.42578125" customWidth="1"/>
-    <col min="515" max="515" width="40.42578125" customWidth="1"/>
-    <col min="516" max="516" width="9.28515625" customWidth="1"/>
-    <col min="517" max="517" width="46.140625" customWidth="1"/>
-    <col min="518" max="518" width="55.42578125" customWidth="1"/>
-    <col min="519" max="519" width="29.7109375" customWidth="1"/>
-    <col min="770" max="770" width="23.42578125" customWidth="1"/>
-    <col min="771" max="771" width="40.42578125" customWidth="1"/>
-    <col min="772" max="772" width="9.28515625" customWidth="1"/>
-    <col min="773" max="773" width="46.140625" customWidth="1"/>
-    <col min="774" max="774" width="55.42578125" customWidth="1"/>
-    <col min="775" max="775" width="29.7109375" customWidth="1"/>
-    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
-    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
-    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
-    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
-    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
-    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
-    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
-    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
-    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
-    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
-    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
-    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
-    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
-    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
-    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
-    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
-    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
-    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
-    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
-    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
-    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
-    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
-    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
-    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
-    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
-    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
-    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
-    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
-    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
-    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
-    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
-    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
-    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
-    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
-    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
-    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
-    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
-    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
-    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
-    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
-    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
-    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
-    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
-    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
-    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
-    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
-    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
-    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
-    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
-    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
-    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
-    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
-    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
-    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
-    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
-    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
-    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
-    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
-    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
-    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
-    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
-    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
-    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
-    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
-    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
-    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
-    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
-    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
-    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
-    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
-    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
-    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
-    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
-    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
-    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
-    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
-    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
-    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
-    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
-    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
-    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
-    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
-    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
-    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
-    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
-    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
-    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
-    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
-    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
-    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
-    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
-    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
-    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
-    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
-    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
-    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
-    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
-    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
-    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
-    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
-    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
-    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
-    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
-    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
-    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
-    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
-    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
-    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
-    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
-    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
-    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
-    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
-    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
-    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
-    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
-    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
-    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
-    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
-    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
-    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
-    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
-    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
-    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
-    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
-    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
-    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
-    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
-    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
-    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
-    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
-    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
-    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
-    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
-    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
-    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
-    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
-    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
-    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
-    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
-    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
-    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
-    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
-    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
-    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
-    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
-    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
-    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
-    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
-    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
-    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
-    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
-    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
-    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
-    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
-    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
-    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
-    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
-    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
-    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
-    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
-    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
-    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
-    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
-    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
-    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
-    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
-    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
-    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
-    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
-    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
-    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
-    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
-    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
-    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
-    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
-    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
-    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
-    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
-    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
-    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
-    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
-    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
-    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
-    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
-    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
-    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
-    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
-    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
-    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
-    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
-    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
-    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
-    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
-    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
-    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
-    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
-    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
-    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
-    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
-    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
-    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
-    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
-    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
-    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
-    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
-    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
-    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
-    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
-    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
-    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
-    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
-    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
-    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
-    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
-    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
-    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
-    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
-    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
-    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
-    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
-    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
-    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
-    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
-    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
-    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
-    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
-    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
-    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
-    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
-    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
-    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
-    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
-    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
-    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
-    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
-    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
-    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
-    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
-    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
-    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
-    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
-    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
-    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
-    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
-    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
-    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
-    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
-    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
-    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
-    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
-    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
-    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
-    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
-    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
-    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
-    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
-    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
-    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
-    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
-    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
-    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
-    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
-    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
-    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
-    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
-    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
-    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
-    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
-    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
-    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
-    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
-    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
-    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
-    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
-    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
-    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
-    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
-    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
-    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
-    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
-    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
-    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
-    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
-    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
-    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
-    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
-    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
-    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
-    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
-    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
-    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
-    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
-    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
-    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
-    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
-    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
-    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
-    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
-    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
-    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" customWidth="1"/>
+    <col min="6" max="6" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="258" max="258" width="23.5" customWidth="1"/>
+    <col min="259" max="259" width="40.5" customWidth="1"/>
+    <col min="260" max="260" width="9.33203125" customWidth="1"/>
+    <col min="261" max="261" width="46.1640625" customWidth="1"/>
+    <col min="262" max="262" width="55.5" customWidth="1"/>
+    <col min="263" max="263" width="29.6640625" customWidth="1"/>
+    <col min="514" max="514" width="23.5" customWidth="1"/>
+    <col min="515" max="515" width="40.5" customWidth="1"/>
+    <col min="516" max="516" width="9.33203125" customWidth="1"/>
+    <col min="517" max="517" width="46.1640625" customWidth="1"/>
+    <col min="518" max="518" width="55.5" customWidth="1"/>
+    <col min="519" max="519" width="29.6640625" customWidth="1"/>
+    <col min="770" max="770" width="23.5" customWidth="1"/>
+    <col min="771" max="771" width="40.5" customWidth="1"/>
+    <col min="772" max="772" width="9.33203125" customWidth="1"/>
+    <col min="773" max="773" width="46.1640625" customWidth="1"/>
+    <col min="774" max="774" width="55.5" customWidth="1"/>
+    <col min="775" max="775" width="29.6640625" customWidth="1"/>
+    <col min="1026" max="1026" width="23.5" customWidth="1"/>
+    <col min="1027" max="1027" width="40.5" customWidth="1"/>
+    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
+    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.5" customWidth="1"/>
+    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
+    <col min="1282" max="1282" width="23.5" customWidth="1"/>
+    <col min="1283" max="1283" width="40.5" customWidth="1"/>
+    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
+    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.5" customWidth="1"/>
+    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
+    <col min="1538" max="1538" width="23.5" customWidth="1"/>
+    <col min="1539" max="1539" width="40.5" customWidth="1"/>
+    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
+    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.5" customWidth="1"/>
+    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
+    <col min="1794" max="1794" width="23.5" customWidth="1"/>
+    <col min="1795" max="1795" width="40.5" customWidth="1"/>
+    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
+    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.5" customWidth="1"/>
+    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
+    <col min="2050" max="2050" width="23.5" customWidth="1"/>
+    <col min="2051" max="2051" width="40.5" customWidth="1"/>
+    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
+    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.5" customWidth="1"/>
+    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
+    <col min="2306" max="2306" width="23.5" customWidth="1"/>
+    <col min="2307" max="2307" width="40.5" customWidth="1"/>
+    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
+    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.5" customWidth="1"/>
+    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
+    <col min="2562" max="2562" width="23.5" customWidth="1"/>
+    <col min="2563" max="2563" width="40.5" customWidth="1"/>
+    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
+    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.5" customWidth="1"/>
+    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
+    <col min="2818" max="2818" width="23.5" customWidth="1"/>
+    <col min="2819" max="2819" width="40.5" customWidth="1"/>
+    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
+    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.5" customWidth="1"/>
+    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
+    <col min="3074" max="3074" width="23.5" customWidth="1"/>
+    <col min="3075" max="3075" width="40.5" customWidth="1"/>
+    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
+    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.5" customWidth="1"/>
+    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
+    <col min="3330" max="3330" width="23.5" customWidth="1"/>
+    <col min="3331" max="3331" width="40.5" customWidth="1"/>
+    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
+    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.5" customWidth="1"/>
+    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
+    <col min="3586" max="3586" width="23.5" customWidth="1"/>
+    <col min="3587" max="3587" width="40.5" customWidth="1"/>
+    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
+    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.5" customWidth="1"/>
+    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
+    <col min="3842" max="3842" width="23.5" customWidth="1"/>
+    <col min="3843" max="3843" width="40.5" customWidth="1"/>
+    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
+    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.5" customWidth="1"/>
+    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
+    <col min="4098" max="4098" width="23.5" customWidth="1"/>
+    <col min="4099" max="4099" width="40.5" customWidth="1"/>
+    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
+    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.5" customWidth="1"/>
+    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
+    <col min="4354" max="4354" width="23.5" customWidth="1"/>
+    <col min="4355" max="4355" width="40.5" customWidth="1"/>
+    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
+    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.5" customWidth="1"/>
+    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
+    <col min="4610" max="4610" width="23.5" customWidth="1"/>
+    <col min="4611" max="4611" width="40.5" customWidth="1"/>
+    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
+    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.5" customWidth="1"/>
+    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
+    <col min="4866" max="4866" width="23.5" customWidth="1"/>
+    <col min="4867" max="4867" width="40.5" customWidth="1"/>
+    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
+    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.5" customWidth="1"/>
+    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
+    <col min="5122" max="5122" width="23.5" customWidth="1"/>
+    <col min="5123" max="5123" width="40.5" customWidth="1"/>
+    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
+    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.5" customWidth="1"/>
+    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
+    <col min="5378" max="5378" width="23.5" customWidth="1"/>
+    <col min="5379" max="5379" width="40.5" customWidth="1"/>
+    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
+    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.5" customWidth="1"/>
+    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
+    <col min="5634" max="5634" width="23.5" customWidth="1"/>
+    <col min="5635" max="5635" width="40.5" customWidth="1"/>
+    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
+    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.5" customWidth="1"/>
+    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
+    <col min="5890" max="5890" width="23.5" customWidth="1"/>
+    <col min="5891" max="5891" width="40.5" customWidth="1"/>
+    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
+    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.5" customWidth="1"/>
+    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
+    <col min="6146" max="6146" width="23.5" customWidth="1"/>
+    <col min="6147" max="6147" width="40.5" customWidth="1"/>
+    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
+    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.5" customWidth="1"/>
+    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
+    <col min="6402" max="6402" width="23.5" customWidth="1"/>
+    <col min="6403" max="6403" width="40.5" customWidth="1"/>
+    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
+    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.5" customWidth="1"/>
+    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
+    <col min="6658" max="6658" width="23.5" customWidth="1"/>
+    <col min="6659" max="6659" width="40.5" customWidth="1"/>
+    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
+    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.5" customWidth="1"/>
+    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
+    <col min="6914" max="6914" width="23.5" customWidth="1"/>
+    <col min="6915" max="6915" width="40.5" customWidth="1"/>
+    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
+    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.5" customWidth="1"/>
+    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
+    <col min="7170" max="7170" width="23.5" customWidth="1"/>
+    <col min="7171" max="7171" width="40.5" customWidth="1"/>
+    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
+    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.5" customWidth="1"/>
+    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
+    <col min="7426" max="7426" width="23.5" customWidth="1"/>
+    <col min="7427" max="7427" width="40.5" customWidth="1"/>
+    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
+    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.5" customWidth="1"/>
+    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
+    <col min="7682" max="7682" width="23.5" customWidth="1"/>
+    <col min="7683" max="7683" width="40.5" customWidth="1"/>
+    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
+    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.5" customWidth="1"/>
+    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
+    <col min="7938" max="7938" width="23.5" customWidth="1"/>
+    <col min="7939" max="7939" width="40.5" customWidth="1"/>
+    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
+    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.5" customWidth="1"/>
+    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
+    <col min="8194" max="8194" width="23.5" customWidth="1"/>
+    <col min="8195" max="8195" width="40.5" customWidth="1"/>
+    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
+    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.5" customWidth="1"/>
+    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
+    <col min="8450" max="8450" width="23.5" customWidth="1"/>
+    <col min="8451" max="8451" width="40.5" customWidth="1"/>
+    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
+    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.5" customWidth="1"/>
+    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
+    <col min="8706" max="8706" width="23.5" customWidth="1"/>
+    <col min="8707" max="8707" width="40.5" customWidth="1"/>
+    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
+    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.5" customWidth="1"/>
+    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
+    <col min="8962" max="8962" width="23.5" customWidth="1"/>
+    <col min="8963" max="8963" width="40.5" customWidth="1"/>
+    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
+    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.5" customWidth="1"/>
+    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
+    <col min="9218" max="9218" width="23.5" customWidth="1"/>
+    <col min="9219" max="9219" width="40.5" customWidth="1"/>
+    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
+    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.5" customWidth="1"/>
+    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
+    <col min="9474" max="9474" width="23.5" customWidth="1"/>
+    <col min="9475" max="9475" width="40.5" customWidth="1"/>
+    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
+    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.5" customWidth="1"/>
+    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
+    <col min="9730" max="9730" width="23.5" customWidth="1"/>
+    <col min="9731" max="9731" width="40.5" customWidth="1"/>
+    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
+    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.5" customWidth="1"/>
+    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
+    <col min="9986" max="9986" width="23.5" customWidth="1"/>
+    <col min="9987" max="9987" width="40.5" customWidth="1"/>
+    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
+    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.5" customWidth="1"/>
+    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
+    <col min="10242" max="10242" width="23.5" customWidth="1"/>
+    <col min="10243" max="10243" width="40.5" customWidth="1"/>
+    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
+    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.5" customWidth="1"/>
+    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
+    <col min="10498" max="10498" width="23.5" customWidth="1"/>
+    <col min="10499" max="10499" width="40.5" customWidth="1"/>
+    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
+    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.5" customWidth="1"/>
+    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
+    <col min="10754" max="10754" width="23.5" customWidth="1"/>
+    <col min="10755" max="10755" width="40.5" customWidth="1"/>
+    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
+    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.5" customWidth="1"/>
+    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
+    <col min="11010" max="11010" width="23.5" customWidth="1"/>
+    <col min="11011" max="11011" width="40.5" customWidth="1"/>
+    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
+    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.5" customWidth="1"/>
+    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
+    <col min="11266" max="11266" width="23.5" customWidth="1"/>
+    <col min="11267" max="11267" width="40.5" customWidth="1"/>
+    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
+    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.5" customWidth="1"/>
+    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
+    <col min="11522" max="11522" width="23.5" customWidth="1"/>
+    <col min="11523" max="11523" width="40.5" customWidth="1"/>
+    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
+    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.5" customWidth="1"/>
+    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
+    <col min="11778" max="11778" width="23.5" customWidth="1"/>
+    <col min="11779" max="11779" width="40.5" customWidth="1"/>
+    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
+    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.5" customWidth="1"/>
+    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
+    <col min="12034" max="12034" width="23.5" customWidth="1"/>
+    <col min="12035" max="12035" width="40.5" customWidth="1"/>
+    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
+    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.5" customWidth="1"/>
+    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
+    <col min="12290" max="12290" width="23.5" customWidth="1"/>
+    <col min="12291" max="12291" width="40.5" customWidth="1"/>
+    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
+    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.5" customWidth="1"/>
+    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
+    <col min="12546" max="12546" width="23.5" customWidth="1"/>
+    <col min="12547" max="12547" width="40.5" customWidth="1"/>
+    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
+    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.5" customWidth="1"/>
+    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
+    <col min="12802" max="12802" width="23.5" customWidth="1"/>
+    <col min="12803" max="12803" width="40.5" customWidth="1"/>
+    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
+    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.5" customWidth="1"/>
+    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
+    <col min="13058" max="13058" width="23.5" customWidth="1"/>
+    <col min="13059" max="13059" width="40.5" customWidth="1"/>
+    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
+    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.5" customWidth="1"/>
+    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
+    <col min="13314" max="13314" width="23.5" customWidth="1"/>
+    <col min="13315" max="13315" width="40.5" customWidth="1"/>
+    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
+    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.5" customWidth="1"/>
+    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
+    <col min="13570" max="13570" width="23.5" customWidth="1"/>
+    <col min="13571" max="13571" width="40.5" customWidth="1"/>
+    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
+    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.5" customWidth="1"/>
+    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
+    <col min="13826" max="13826" width="23.5" customWidth="1"/>
+    <col min="13827" max="13827" width="40.5" customWidth="1"/>
+    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
+    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.5" customWidth="1"/>
+    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
+    <col min="14082" max="14082" width="23.5" customWidth="1"/>
+    <col min="14083" max="14083" width="40.5" customWidth="1"/>
+    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
+    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.5" customWidth="1"/>
+    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
+    <col min="14338" max="14338" width="23.5" customWidth="1"/>
+    <col min="14339" max="14339" width="40.5" customWidth="1"/>
+    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
+    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.5" customWidth="1"/>
+    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
+    <col min="14594" max="14594" width="23.5" customWidth="1"/>
+    <col min="14595" max="14595" width="40.5" customWidth="1"/>
+    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
+    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.5" customWidth="1"/>
+    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
+    <col min="14850" max="14850" width="23.5" customWidth="1"/>
+    <col min="14851" max="14851" width="40.5" customWidth="1"/>
+    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
+    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.5" customWidth="1"/>
+    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
+    <col min="15106" max="15106" width="23.5" customWidth="1"/>
+    <col min="15107" max="15107" width="40.5" customWidth="1"/>
+    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
+    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.5" customWidth="1"/>
+    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
+    <col min="15362" max="15362" width="23.5" customWidth="1"/>
+    <col min="15363" max="15363" width="40.5" customWidth="1"/>
+    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
+    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.5" customWidth="1"/>
+    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
+    <col min="15618" max="15618" width="23.5" customWidth="1"/>
+    <col min="15619" max="15619" width="40.5" customWidth="1"/>
+    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
+    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.5" customWidth="1"/>
+    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
+    <col min="15874" max="15874" width="23.5" customWidth="1"/>
+    <col min="15875" max="15875" width="40.5" customWidth="1"/>
+    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
+    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.5" customWidth="1"/>
+    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
+    <col min="16130" max="16130" width="23.5" customWidth="1"/>
+    <col min="16131" max="16131" width="40.5" customWidth="1"/>
+    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
+    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.5" customWidth="1"/>
+    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="60" customHeight="1"/>
-    <row r="2" spans="2:6" ht="11.4" thickBot="1"/>
+    <row r="2" spans="2:6" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:6" ht="15.6" customHeight="1">
       <c r="B3" s="273" t="s">
         <v>237</v>
@@ -21102,7 +21095,7 @@
       <c r="E3" s="274"/>
       <c r="F3" s="275"/>
     </row>
-    <row r="4" spans="2:6" s="81" customFormat="1" ht="30.9" customHeight="1">
+    <row r="4" spans="2:6" s="81" customFormat="1" ht="30.95" customHeight="1">
       <c r="B4" s="276" t="s">
         <v>269</v>
       </c>
@@ -21376,18 +21369,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" style="81" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="81" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="81" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="60" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="81" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="81" customWidth="1"/>
-    <col min="10" max="16384" width="9.28515625" style="81"/>
+    <col min="2" max="2" width="16.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1640625" style="81" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="81" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="60" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="81" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" style="81" customWidth="1"/>
+    <col min="10" max="16384" width="9.33203125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.100000000000001" customHeight="1">
@@ -21418,7 +21411,7 @@
       <c r="F3" s="253"/>
       <c r="G3" s="131"/>
     </row>
-    <row r="5" spans="1:11" ht="11.4" thickBot="1"/>
+    <row r="5" spans="1:11" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:11" ht="27" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>195</v>
@@ -21463,7 +21456,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="11.4" thickBot="1">
+    <row r="8" spans="1:11" ht="14.25" thickBot="1">
       <c r="A8" s="138" t="s">
         <v>239</v>
       </c>
@@ -22165,7 +22158,7 @@
       <c r="J34" s="116"/>
       <c r="K34" s="116"/>
     </row>
-    <row r="35" spans="1:11" ht="11.4" thickBot="1">
+    <row r="35" spans="1:11" ht="14.25" thickBot="1">
       <c r="A35" s="139"/>
       <c r="B35" s="20" t="s">
         <v>322</v>
@@ -22401,7 +22394,7 @@
       <c r="J43" s="116"/>
       <c r="K43" s="116"/>
     </row>
-    <row r="44" spans="1:11" ht="11.4" thickBot="1">
+    <row r="44" spans="1:11" ht="14.25" thickBot="1">
       <c r="A44" s="139"/>
       <c r="B44" s="20" t="s">
         <v>329</v>
@@ -22663,7 +22656,7 @@
       <c r="J53" s="116"/>
       <c r="K53" s="116"/>
     </row>
-    <row r="54" spans="1:11" ht="11.4" thickBot="1">
+    <row r="54" spans="1:11" ht="14.25" thickBot="1">
       <c r="A54" s="139"/>
       <c r="B54" s="20" t="s">
         <v>338</v>
@@ -23029,7 +23022,7 @@
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
     </row>
-    <row r="68" spans="1:11" ht="11.4" thickBot="1">
+    <row r="68" spans="1:11" ht="14.25" thickBot="1">
       <c r="A68" s="139"/>
       <c r="B68" s="20" t="s">
         <v>351</v>
@@ -23395,7 +23388,7 @@
       <c r="J81" s="116"/>
       <c r="K81" s="116"/>
     </row>
-    <row r="82" spans="1:11" ht="11.4" thickBot="1">
+    <row r="82" spans="1:11" ht="14.25" thickBot="1">
       <c r="A82" s="139"/>
       <c r="B82" s="20" t="s">
         <v>363</v>
@@ -23631,7 +23624,7 @@
       <c r="J90" s="116"/>
       <c r="K90" s="116"/>
     </row>
-    <row r="91" spans="1:11" ht="11.4" thickBot="1">
+    <row r="91" spans="1:11" ht="14.25" thickBot="1">
       <c r="A91" s="139"/>
       <c r="B91" s="20" t="s">
         <v>371</v>
@@ -23971,7 +23964,7 @@
       <c r="J103" s="116"/>
       <c r="K103" s="116"/>
     </row>
-    <row r="104" spans="1:11" ht="11.4" thickBot="1">
+    <row r="104" spans="1:11" ht="14.25" thickBot="1">
       <c r="A104" s="139"/>
       <c r="B104" s="20" t="s">
         <v>382</v>
@@ -24025,7 +24018,7 @@
       <c r="J105" s="116"/>
       <c r="K105" s="116"/>
     </row>
-    <row r="106" spans="1:11" ht="11.4" thickBot="1">
+    <row r="106" spans="1:11" ht="14.25" thickBot="1">
       <c r="A106" s="139"/>
       <c r="B106" s="20" t="s">
         <v>275</v>
@@ -24183,7 +24176,7 @@
       <c r="J111" s="116"/>
       <c r="K111" s="116"/>
     </row>
-    <row r="112" spans="1:11" ht="11.4" thickBot="1">
+    <row r="112" spans="1:11" ht="14.25" thickBot="1">
       <c r="A112" s="139"/>
       <c r="B112" s="20" t="s">
         <v>387</v>
@@ -25069,7 +25062,7 @@
       <c r="J145" s="116"/>
       <c r="K145" s="116"/>
     </row>
-    <row r="146" spans="1:11" ht="11.4" thickBot="1">
+    <row r="146" spans="1:11" ht="14.25" thickBot="1">
       <c r="A146" s="139"/>
       <c r="B146" s="20" t="s">
         <v>420</v>
@@ -25254,7 +25247,7 @@
       <c r="J152" s="116"/>
       <c r="K152" s="116"/>
     </row>
-    <row r="153" spans="1:11" ht="11.4" thickBot="1">
+    <row r="153" spans="1:11" ht="14.25" thickBot="1">
       <c r="A153" s="139"/>
       <c r="B153" s="20" t="s">
         <v>426</v>
@@ -26556,7 +26549,7 @@
       <c r="J202" s="116"/>
       <c r="K202" s="116"/>
     </row>
-    <row r="203" spans="1:11" ht="11.4" thickBot="1">
+    <row r="203" spans="1:11" ht="14.25" thickBot="1">
       <c r="A203" s="139"/>
       <c r="B203" s="20" t="s">
         <v>475</v>
@@ -27000,7 +26993,7 @@
       <c r="J219" s="116"/>
       <c r="K219" s="116"/>
     </row>
-    <row r="220" spans="1:11" ht="11.4" thickBot="1">
+    <row r="220" spans="1:11" ht="14.25" thickBot="1">
       <c r="A220" s="139"/>
       <c r="B220" s="20" t="s">
         <v>491</v>
@@ -27340,7 +27333,7 @@
       <c r="J232" s="116"/>
       <c r="K232" s="116"/>
     </row>
-    <row r="233" spans="1:11" ht="11.4" thickBot="1">
+    <row r="233" spans="1:11" ht="14.25" thickBot="1">
       <c r="A233" s="139"/>
       <c r="B233" s="20" t="s">
         <v>502</v>
@@ -27628,7 +27621,7 @@
       <c r="J243" s="116"/>
       <c r="K243" s="116"/>
     </row>
-    <row r="244" spans="1:11" ht="11.4" thickBot="1">
+    <row r="244" spans="1:11" ht="14.25" thickBot="1">
       <c r="A244" s="139"/>
       <c r="B244" s="20" t="s">
         <v>512</v>
@@ -28046,7 +28039,7 @@
       <c r="J259" s="116"/>
       <c r="K259" s="116"/>
     </row>
-    <row r="260" spans="1:11" ht="11.4" thickBot="1">
+    <row r="260" spans="1:11" ht="14.25" thickBot="1">
       <c r="A260" s="139"/>
       <c r="B260" s="20" t="s">
         <v>527</v>
@@ -28334,7 +28327,7 @@
       <c r="J270" s="116"/>
       <c r="K270" s="116"/>
     </row>
-    <row r="271" spans="1:11" ht="11.4" thickBot="1">
+    <row r="271" spans="1:11" ht="14.25" thickBot="1">
       <c r="A271" s="139"/>
       <c r="B271" s="20" t="s">
         <v>537</v>
@@ -28544,7 +28537,7 @@
       <c r="J278" s="116"/>
       <c r="K278" s="116"/>
     </row>
-    <row r="279" spans="1:11" ht="11.4" thickBot="1">
+    <row r="279" spans="1:11" ht="14.25" thickBot="1">
       <c r="A279" s="139"/>
       <c r="B279" s="20" t="s">
         <v>544</v>
@@ -28780,7 +28773,7 @@
       <c r="J287" s="116"/>
       <c r="K287" s="116"/>
     </row>
-    <row r="288" spans="1:11" ht="11.4" thickBot="1">
+    <row r="288" spans="1:11" ht="14.25" thickBot="1">
       <c r="A288" s="139"/>
       <c r="B288" s="20" t="s">
         <v>552</v>
@@ -29198,7 +29191,7 @@
       <c r="J303" s="116"/>
       <c r="K303" s="116"/>
     </row>
-    <row r="304" spans="1:11" ht="11.4" thickBot="1">
+    <row r="304" spans="1:11" ht="14.25" thickBot="1">
       <c r="A304" s="139"/>
       <c r="B304" s="20" t="s">
         <v>567</v>
@@ -29590,7 +29583,7 @@
       <c r="J318" s="116"/>
       <c r="K318" s="116"/>
     </row>
-    <row r="319" spans="1:11" ht="11.4" thickBot="1">
+    <row r="319" spans="1:11" ht="14.25" thickBot="1">
       <c r="A319" s="140"/>
       <c r="B319" s="20" t="s">
         <v>581</v>
@@ -29616,7 +29609,7 @@
       <c r="J319" s="116"/>
       <c r="K319" s="116"/>
     </row>
-    <row r="320" spans="1:11" s="88" customFormat="1" ht="12" thickTop="1">
+    <row r="320" spans="1:11" s="88" customFormat="1" ht="14.25" thickTop="1">
       <c r="A320" s="132" t="s">
         <v>184</v>
       </c>
@@ -29628,7 +29621,7 @@
       <c r="G320" s="133"/>
       <c r="H320" s="256"/>
     </row>
-    <row r="321" spans="1:8" s="88" customFormat="1" ht="11.4">
+    <row r="321" spans="1:8" s="88" customFormat="1">
       <c r="A321" s="127" t="s">
         <v>236</v>
       </c>
@@ -29637,7 +29630,7 @@
       <c r="F321" s="257"/>
       <c r="H321" s="259"/>
     </row>
-    <row r="322" spans="1:8" s="88" customFormat="1" ht="11.4">
+    <row r="322" spans="1:8" s="88" customFormat="1">
       <c r="A322" s="127" t="s">
         <v>266</v>
       </c>
@@ -29646,7 +29639,7 @@
       <c r="F322" s="257"/>
       <c r="H322" s="259"/>
     </row>
-    <row r="323" spans="1:8" s="88" customFormat="1" ht="11.4">
+    <row r="323" spans="1:8" s="88" customFormat="1">
       <c r="A323" s="127" t="s">
         <v>149</v>
       </c>
@@ -29658,7 +29651,7 @@
     <row r="324" spans="1:8">
       <c r="C324" s="21"/>
     </row>
-    <row r="325" spans="1:8" ht="11.4">
+    <row r="325" spans="1:8">
       <c r="A325" s="127"/>
       <c r="C325" s="21"/>
     </row>
@@ -29687,13 +29680,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.83203125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="21" max="21" width="14.5" customWidth="1"/>
+    <col min="22" max="22" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
@@ -35031,7 +35024,7 @@
         <v/>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="11.4" thickBot="1">
+    <row r="372" spans="1:3" ht="14.25" thickBot="1">
       <c r="A372" s="222" t="s">
         <v>946</v>
       </c>
@@ -35043,7 +35036,7 @@
         <v>0.21262675825973176</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="12" thickTop="1">
+    <row r="373" spans="1:3" ht="14.25" thickTop="1">
       <c r="A373" s="342"/>
       <c r="B373" s="342"/>
       <c r="C373" s="342"/>
@@ -35067,14 +35060,14 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="176" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="173" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="173" customWidth="1"/>
-    <col min="4" max="6" width="9.28515625" style="173"/>
-    <col min="7" max="7" width="7.85546875" style="173" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="173"/>
+    <col min="1" max="1" width="21.83203125" style="176" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="173" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="173" customWidth="1"/>
+    <col min="4" max="6" width="9.33203125" style="173"/>
+    <col min="7" max="7" width="7.83203125" style="173" customWidth="1"/>
+    <col min="8" max="16384" width="9.33203125" style="173"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1">
@@ -35088,7 +35081,7 @@
       <c r="F1" s="81"/>
       <c r="G1" s="81"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.25">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -35100,10 +35093,10 @@
       <c r="F2" s="81"/>
       <c r="G2" s="81"/>
     </row>
-    <row r="4" spans="1:7" ht="13.8">
+    <row r="4" spans="1:7">
       <c r="A4" s="174"/>
     </row>
-    <row r="5" spans="1:7" ht="50.4" customHeight="1">
+    <row r="5" spans="1:7" ht="50.45" customHeight="1">
       <c r="A5" s="303" t="str">
         <f>"Källa: dödsorsaksintyg
 * andel av totalt antal avlidna
@@ -35166,7 +35159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="14.25">
       <c r="A9" s="217" t="s">
         <v>582</v>
       </c>
@@ -35189,7 +35182,7 @@
         <v>27.18</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.25">
       <c r="A10" s="218" t="s">
         <v>947</v>
       </c>
@@ -35212,16 +35205,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="14.25">
       <c r="A11" s="219" t="s">
         <v>948</v>
       </c>
       <c r="B11" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="C11" s="216">
-        <v>0.02</v>
-      </c>
+      <c r="C11" s="216"/>
       <c r="D11" s="216">
         <v>0</v>
       </c>
@@ -35235,16 +35226,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="14.25">
       <c r="A12" s="219" t="s">
         <v>949</v>
       </c>
       <c r="B12" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="C12" s="216">
-        <v>0.02</v>
-      </c>
+      <c r="C12" s="216"/>
       <c r="D12" s="216">
         <v>0</v>
       </c>
@@ -35258,7 +35247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="14.25">
       <c r="A13" s="219" t="s">
         <v>950</v>
       </c>
@@ -35281,7 +35270,7 @@
         <v>31.82</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="14.25">
       <c r="A14" s="219" t="s">
         <v>951</v>
       </c>
@@ -35304,7 +35293,7 @@
         <v>21.93</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="14.25">
       <c r="A15" s="219" t="s">
         <v>952</v>
       </c>
@@ -35327,7 +35316,7 @@
         <v>25.42</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="14.25">
       <c r="A16" s="219" t="s">
         <v>953</v>
       </c>
@@ -35350,7 +35339,7 @@
         <v>26.87</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="14.25">
       <c r="A17" s="219" t="s">
         <v>954</v>
       </c>
@@ -35373,7 +35362,7 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="14.25">
       <c r="A18" s="219" t="s">
         <v>955</v>
       </c>
@@ -35396,7 +35385,7 @@
         <v>24.87</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="14.25">
       <c r="A19" s="219" t="s">
         <v>956</v>
       </c>
@@ -35419,7 +35408,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="14.25">
       <c r="A20" s="219" t="s">
         <v>957</v>
       </c>
@@ -35442,7 +35431,7 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="14.25">
       <c r="A21" s="219" t="s">
         <v>958</v>
       </c>
@@ -35465,7 +35454,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="14.25">
       <c r="A22" s="219" t="s">
         <v>959</v>
       </c>
@@ -35488,7 +35477,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="14.25">
       <c r="A23" s="219" t="s">
         <v>960</v>
       </c>
@@ -35511,7 +35500,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="14.25">
       <c r="A24" s="219" t="s">
         <v>961</v>
       </c>
@@ -35534,7 +35523,7 @@
         <v>34.65</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="14.25">
       <c r="A25" s="219" t="s">
         <v>962</v>
       </c>
@@ -35557,7 +35546,7 @@
         <v>29.26</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="14.25">
       <c r="A26" s="219" t="s">
         <v>963</v>
       </c>
@@ -35580,7 +35569,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="14.25">
       <c r="A27" s="219" t="s">
         <v>964</v>
       </c>
@@ -35603,7 +35592,7 @@
         <v>28.57</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="14.25">
       <c r="A28" s="219" t="s">
         <v>965</v>
       </c>
@@ -35626,7 +35615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="14.25">
       <c r="A29" s="219" t="s">
         <v>966</v>
       </c>
@@ -35649,7 +35638,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="14.25">
       <c r="A30" s="219" t="s">
         <v>967</v>
       </c>
@@ -35672,7 +35661,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="14.25">
       <c r="A31" s="219" t="s">
         <v>968</v>
       </c>
@@ -35695,7 +35684,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="14.25">
       <c r="A32" s="219" t="s">
         <v>969</v>
       </c>
@@ -35718,7 +35707,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="14.25">
       <c r="A33" s="219" t="s">
         <v>970</v>
       </c>
@@ -35742,7 +35731,7 @@
       </c>
       <c r="H33" s="175"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="14.25">
       <c r="A34" s="219" t="s">
         <v>971</v>
       </c>
@@ -35761,11 +35750,9 @@
       <c r="F34" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G34" s="216">
-        <v>18.75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="G34" s="216"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.25">
       <c r="A35" s="219" t="s">
         <v>972</v>
       </c>
@@ -35788,7 +35775,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="14.25">
       <c r="A36" s="219" t="s">
         <v>973</v>
       </c>
@@ -35801,9 +35788,7 @@
       <c r="D36" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E36" s="216">
-        <v>15.38</v>
-      </c>
+      <c r="E36" s="216"/>
       <c r="F36" s="216">
         <v>5</v>
       </c>
@@ -35811,7 +35796,7 @@
         <v>38.46</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="219" t="s">
         <v>974</v>
       </c>
@@ -35834,7 +35819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="14.25">
       <c r="A38" s="219" t="s">
         <v>975</v>
       </c>
@@ -35857,7 +35842,7 @@
         <v>30.77</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="219" t="s">
         <v>976</v>
       </c>
@@ -35870,17 +35855,13 @@
       <c r="D39" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E39" s="216">
-        <v>22.22</v>
-      </c>
+      <c r="E39" s="216"/>
       <c r="F39" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G39" s="216">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="G39" s="216"/>
+    </row>
+    <row r="40" spans="1:8" ht="14.25">
       <c r="A40" s="219" t="s">
         <v>977</v>
       </c>
@@ -35893,17 +35874,13 @@
       <c r="D40" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E40" s="216">
-        <v>23.08</v>
-      </c>
+      <c r="E40" s="216"/>
       <c r="F40" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G40" s="216">
-        <v>23.08</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" s="216"/>
+    </row>
+    <row r="41" spans="1:8" ht="14.25">
       <c r="A41" s="219" t="s">
         <v>978</v>
       </c>
@@ -35922,11 +35899,9 @@
       <c r="F41" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="G41" s="216">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="G41" s="216"/>
+    </row>
+    <row r="42" spans="1:8" ht="14.25">
       <c r="A42" s="219" t="s">
         <v>979</v>
       </c>
@@ -35949,7 +35924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="219" t="s">
         <v>980</v>
       </c>
@@ -35972,7 +35947,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="219" t="s">
         <v>981</v>
       </c>
@@ -35995,7 +35970,7 @@
         <v>20.59</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="14.25">
       <c r="A45" s="219" t="s">
         <v>982</v>
       </c>
@@ -36018,7 +35993,7 @@
         <v>20.83</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="14.25">
       <c r="A46" s="219" t="s">
         <v>983</v>
       </c>
@@ -36041,7 +36016,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="14.25">
       <c r="A47" s="219" t="s">
         <v>984</v>
       </c>
@@ -36064,7 +36039,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="14.25">
       <c r="A48" s="219" t="s">
         <v>985</v>
       </c>
@@ -36087,7 +36062,7 @@
         <v>19.54</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" ht="14.25">
       <c r="A49" s="219" t="s">
         <v>986</v>
       </c>
@@ -36110,7 +36085,7 @@
         <v>27.17</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" ht="14.25">
       <c r="A50" s="219" t="s">
         <v>987</v>
       </c>
@@ -36133,7 +36108,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" ht="14.25">
       <c r="A51" s="219" t="s">
         <v>988</v>
       </c>
@@ -36156,7 +36131,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="219" t="s">
         <v>989</v>
       </c>
@@ -36179,7 +36154,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" ht="14.25">
       <c r="A53" s="219" t="s">
         <v>990</v>
       </c>
@@ -36202,7 +36177,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" ht="14.25">
       <c r="A54" s="219" t="s">
         <v>991</v>
       </c>
@@ -36225,7 +36200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" ht="14.25">
       <c r="A55" s="219" t="s">
         <v>992</v>
       </c>
@@ -36248,7 +36223,7 @@
         <v>28.07</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" ht="14.25">
       <c r="A56" s="219" t="s">
         <v>993</v>
       </c>
@@ -36271,7 +36246,7 @@
         <v>25.61</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" ht="14.25">
       <c r="A57" s="219" t="s">
         <v>994</v>
       </c>
@@ -36294,7 +36269,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" ht="14.25">
       <c r="A58" s="219" t="s">
         <v>995</v>
       </c>
@@ -36317,7 +36292,7 @@
         <v>30.75</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" ht="14.25">
       <c r="A59" s="219" t="s">
         <v>996</v>
       </c>
@@ -36340,7 +36315,7 @@
         <v>25.88</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="14.25">
       <c r="A60" s="219" t="s">
         <v>997</v>
       </c>
@@ -36363,7 +36338,7 @@
         <v>34.94</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" ht="14.25">
       <c r="A61" s="219" t="s">
         <v>998</v>
       </c>
@@ -36386,7 +36361,7 @@
         <v>29.37</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" ht="14.25">
       <c r="A62" s="219" t="s">
         <v>999</v>
       </c>
@@ -36409,7 +36384,7 @@
         <v>45.87</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" ht="14.25">
       <c r="A63" s="219" t="s">
         <v>1000</v>
       </c>
@@ -36432,7 +36407,7 @@
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="13.8" thickBot="1">
+    <row r="64" spans="1:7" ht="15" thickBot="1">
       <c r="A64" s="219" t="s">
         <v>1001</v>
       </c>
@@ -36445,9 +36420,7 @@
       <c r="D64" s="216" t="s">
         <v>315</v>
       </c>
-      <c r="E64" s="216">
-        <v>7.5</v>
-      </c>
+      <c r="E64" s="216"/>
       <c r="F64" s="216">
         <v>14</v>
       </c>
@@ -36455,7 +36428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="13.8" thickTop="1">
+    <row r="65" spans="1:7" ht="13.5" thickTop="1">
       <c r="A65" s="343"/>
       <c r="B65" s="343"/>
       <c r="C65" s="343"/>
@@ -36489,396 +36462,396 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="76.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
-    <col min="258" max="258" width="23.42578125" customWidth="1"/>
-    <col min="259" max="259" width="40.42578125" customWidth="1"/>
-    <col min="260" max="260" width="9.28515625" customWidth="1"/>
-    <col min="261" max="261" width="46.140625" customWidth="1"/>
-    <col min="262" max="262" width="55.42578125" customWidth="1"/>
-    <col min="263" max="263" width="29.7109375" customWidth="1"/>
-    <col min="514" max="514" width="23.42578125" customWidth="1"/>
-    <col min="515" max="515" width="40.42578125" customWidth="1"/>
-    <col min="516" max="516" width="9.28515625" customWidth="1"/>
-    <col min="517" max="517" width="46.140625" customWidth="1"/>
-    <col min="518" max="518" width="55.42578125" customWidth="1"/>
-    <col min="519" max="519" width="29.7109375" customWidth="1"/>
-    <col min="770" max="770" width="23.42578125" customWidth="1"/>
-    <col min="771" max="771" width="40.42578125" customWidth="1"/>
-    <col min="772" max="772" width="9.28515625" customWidth="1"/>
-    <col min="773" max="773" width="46.140625" customWidth="1"/>
-    <col min="774" max="774" width="55.42578125" customWidth="1"/>
-    <col min="775" max="775" width="29.7109375" customWidth="1"/>
-    <col min="1026" max="1026" width="23.42578125" customWidth="1"/>
-    <col min="1027" max="1027" width="40.42578125" customWidth="1"/>
-    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
-    <col min="1029" max="1029" width="46.140625" customWidth="1"/>
-    <col min="1030" max="1030" width="55.42578125" customWidth="1"/>
-    <col min="1031" max="1031" width="29.7109375" customWidth="1"/>
-    <col min="1282" max="1282" width="23.42578125" customWidth="1"/>
-    <col min="1283" max="1283" width="40.42578125" customWidth="1"/>
-    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
-    <col min="1285" max="1285" width="46.140625" customWidth="1"/>
-    <col min="1286" max="1286" width="55.42578125" customWidth="1"/>
-    <col min="1287" max="1287" width="29.7109375" customWidth="1"/>
-    <col min="1538" max="1538" width="23.42578125" customWidth="1"/>
-    <col min="1539" max="1539" width="40.42578125" customWidth="1"/>
-    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
-    <col min="1541" max="1541" width="46.140625" customWidth="1"/>
-    <col min="1542" max="1542" width="55.42578125" customWidth="1"/>
-    <col min="1543" max="1543" width="29.7109375" customWidth="1"/>
-    <col min="1794" max="1794" width="23.42578125" customWidth="1"/>
-    <col min="1795" max="1795" width="40.42578125" customWidth="1"/>
-    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
-    <col min="1797" max="1797" width="46.140625" customWidth="1"/>
-    <col min="1798" max="1798" width="55.42578125" customWidth="1"/>
-    <col min="1799" max="1799" width="29.7109375" customWidth="1"/>
-    <col min="2050" max="2050" width="23.42578125" customWidth="1"/>
-    <col min="2051" max="2051" width="40.42578125" customWidth="1"/>
-    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
-    <col min="2053" max="2053" width="46.140625" customWidth="1"/>
-    <col min="2054" max="2054" width="55.42578125" customWidth="1"/>
-    <col min="2055" max="2055" width="29.7109375" customWidth="1"/>
-    <col min="2306" max="2306" width="23.42578125" customWidth="1"/>
-    <col min="2307" max="2307" width="40.42578125" customWidth="1"/>
-    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
-    <col min="2309" max="2309" width="46.140625" customWidth="1"/>
-    <col min="2310" max="2310" width="55.42578125" customWidth="1"/>
-    <col min="2311" max="2311" width="29.7109375" customWidth="1"/>
-    <col min="2562" max="2562" width="23.42578125" customWidth="1"/>
-    <col min="2563" max="2563" width="40.42578125" customWidth="1"/>
-    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
-    <col min="2565" max="2565" width="46.140625" customWidth="1"/>
-    <col min="2566" max="2566" width="55.42578125" customWidth="1"/>
-    <col min="2567" max="2567" width="29.7109375" customWidth="1"/>
-    <col min="2818" max="2818" width="23.42578125" customWidth="1"/>
-    <col min="2819" max="2819" width="40.42578125" customWidth="1"/>
-    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
-    <col min="2821" max="2821" width="46.140625" customWidth="1"/>
-    <col min="2822" max="2822" width="55.42578125" customWidth="1"/>
-    <col min="2823" max="2823" width="29.7109375" customWidth="1"/>
-    <col min="3074" max="3074" width="23.42578125" customWidth="1"/>
-    <col min="3075" max="3075" width="40.42578125" customWidth="1"/>
-    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
-    <col min="3077" max="3077" width="46.140625" customWidth="1"/>
-    <col min="3078" max="3078" width="55.42578125" customWidth="1"/>
-    <col min="3079" max="3079" width="29.7109375" customWidth="1"/>
-    <col min="3330" max="3330" width="23.42578125" customWidth="1"/>
-    <col min="3331" max="3331" width="40.42578125" customWidth="1"/>
-    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
-    <col min="3333" max="3333" width="46.140625" customWidth="1"/>
-    <col min="3334" max="3334" width="55.42578125" customWidth="1"/>
-    <col min="3335" max="3335" width="29.7109375" customWidth="1"/>
-    <col min="3586" max="3586" width="23.42578125" customWidth="1"/>
-    <col min="3587" max="3587" width="40.42578125" customWidth="1"/>
-    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
-    <col min="3589" max="3589" width="46.140625" customWidth="1"/>
-    <col min="3590" max="3590" width="55.42578125" customWidth="1"/>
-    <col min="3591" max="3591" width="29.7109375" customWidth="1"/>
-    <col min="3842" max="3842" width="23.42578125" customWidth="1"/>
-    <col min="3843" max="3843" width="40.42578125" customWidth="1"/>
-    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
-    <col min="3845" max="3845" width="46.140625" customWidth="1"/>
-    <col min="3846" max="3846" width="55.42578125" customWidth="1"/>
-    <col min="3847" max="3847" width="29.7109375" customWidth="1"/>
-    <col min="4098" max="4098" width="23.42578125" customWidth="1"/>
-    <col min="4099" max="4099" width="40.42578125" customWidth="1"/>
-    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
-    <col min="4101" max="4101" width="46.140625" customWidth="1"/>
-    <col min="4102" max="4102" width="55.42578125" customWidth="1"/>
-    <col min="4103" max="4103" width="29.7109375" customWidth="1"/>
-    <col min="4354" max="4354" width="23.42578125" customWidth="1"/>
-    <col min="4355" max="4355" width="40.42578125" customWidth="1"/>
-    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
-    <col min="4357" max="4357" width="46.140625" customWidth="1"/>
-    <col min="4358" max="4358" width="55.42578125" customWidth="1"/>
-    <col min="4359" max="4359" width="29.7109375" customWidth="1"/>
-    <col min="4610" max="4610" width="23.42578125" customWidth="1"/>
-    <col min="4611" max="4611" width="40.42578125" customWidth="1"/>
-    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
-    <col min="4613" max="4613" width="46.140625" customWidth="1"/>
-    <col min="4614" max="4614" width="55.42578125" customWidth="1"/>
-    <col min="4615" max="4615" width="29.7109375" customWidth="1"/>
-    <col min="4866" max="4866" width="23.42578125" customWidth="1"/>
-    <col min="4867" max="4867" width="40.42578125" customWidth="1"/>
-    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
-    <col min="4869" max="4869" width="46.140625" customWidth="1"/>
-    <col min="4870" max="4870" width="55.42578125" customWidth="1"/>
-    <col min="4871" max="4871" width="29.7109375" customWidth="1"/>
-    <col min="5122" max="5122" width="23.42578125" customWidth="1"/>
-    <col min="5123" max="5123" width="40.42578125" customWidth="1"/>
-    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
-    <col min="5125" max="5125" width="46.140625" customWidth="1"/>
-    <col min="5126" max="5126" width="55.42578125" customWidth="1"/>
-    <col min="5127" max="5127" width="29.7109375" customWidth="1"/>
-    <col min="5378" max="5378" width="23.42578125" customWidth="1"/>
-    <col min="5379" max="5379" width="40.42578125" customWidth="1"/>
-    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
-    <col min="5381" max="5381" width="46.140625" customWidth="1"/>
-    <col min="5382" max="5382" width="55.42578125" customWidth="1"/>
-    <col min="5383" max="5383" width="29.7109375" customWidth="1"/>
-    <col min="5634" max="5634" width="23.42578125" customWidth="1"/>
-    <col min="5635" max="5635" width="40.42578125" customWidth="1"/>
-    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
-    <col min="5637" max="5637" width="46.140625" customWidth="1"/>
-    <col min="5638" max="5638" width="55.42578125" customWidth="1"/>
-    <col min="5639" max="5639" width="29.7109375" customWidth="1"/>
-    <col min="5890" max="5890" width="23.42578125" customWidth="1"/>
-    <col min="5891" max="5891" width="40.42578125" customWidth="1"/>
-    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
-    <col min="5893" max="5893" width="46.140625" customWidth="1"/>
-    <col min="5894" max="5894" width="55.42578125" customWidth="1"/>
-    <col min="5895" max="5895" width="29.7109375" customWidth="1"/>
-    <col min="6146" max="6146" width="23.42578125" customWidth="1"/>
-    <col min="6147" max="6147" width="40.42578125" customWidth="1"/>
-    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
-    <col min="6149" max="6149" width="46.140625" customWidth="1"/>
-    <col min="6150" max="6150" width="55.42578125" customWidth="1"/>
-    <col min="6151" max="6151" width="29.7109375" customWidth="1"/>
-    <col min="6402" max="6402" width="23.42578125" customWidth="1"/>
-    <col min="6403" max="6403" width="40.42578125" customWidth="1"/>
-    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
-    <col min="6405" max="6405" width="46.140625" customWidth="1"/>
-    <col min="6406" max="6406" width="55.42578125" customWidth="1"/>
-    <col min="6407" max="6407" width="29.7109375" customWidth="1"/>
-    <col min="6658" max="6658" width="23.42578125" customWidth="1"/>
-    <col min="6659" max="6659" width="40.42578125" customWidth="1"/>
-    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
-    <col min="6661" max="6661" width="46.140625" customWidth="1"/>
-    <col min="6662" max="6662" width="55.42578125" customWidth="1"/>
-    <col min="6663" max="6663" width="29.7109375" customWidth="1"/>
-    <col min="6914" max="6914" width="23.42578125" customWidth="1"/>
-    <col min="6915" max="6915" width="40.42578125" customWidth="1"/>
-    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
-    <col min="6917" max="6917" width="46.140625" customWidth="1"/>
-    <col min="6918" max="6918" width="55.42578125" customWidth="1"/>
-    <col min="6919" max="6919" width="29.7109375" customWidth="1"/>
-    <col min="7170" max="7170" width="23.42578125" customWidth="1"/>
-    <col min="7171" max="7171" width="40.42578125" customWidth="1"/>
-    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
-    <col min="7173" max="7173" width="46.140625" customWidth="1"/>
-    <col min="7174" max="7174" width="55.42578125" customWidth="1"/>
-    <col min="7175" max="7175" width="29.7109375" customWidth="1"/>
-    <col min="7426" max="7426" width="23.42578125" customWidth="1"/>
-    <col min="7427" max="7427" width="40.42578125" customWidth="1"/>
-    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
-    <col min="7429" max="7429" width="46.140625" customWidth="1"/>
-    <col min="7430" max="7430" width="55.42578125" customWidth="1"/>
-    <col min="7431" max="7431" width="29.7109375" customWidth="1"/>
-    <col min="7682" max="7682" width="23.42578125" customWidth="1"/>
-    <col min="7683" max="7683" width="40.42578125" customWidth="1"/>
-    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
-    <col min="7685" max="7685" width="46.140625" customWidth="1"/>
-    <col min="7686" max="7686" width="55.42578125" customWidth="1"/>
-    <col min="7687" max="7687" width="29.7109375" customWidth="1"/>
-    <col min="7938" max="7938" width="23.42578125" customWidth="1"/>
-    <col min="7939" max="7939" width="40.42578125" customWidth="1"/>
-    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
-    <col min="7941" max="7941" width="46.140625" customWidth="1"/>
-    <col min="7942" max="7942" width="55.42578125" customWidth="1"/>
-    <col min="7943" max="7943" width="29.7109375" customWidth="1"/>
-    <col min="8194" max="8194" width="23.42578125" customWidth="1"/>
-    <col min="8195" max="8195" width="40.42578125" customWidth="1"/>
-    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
-    <col min="8197" max="8197" width="46.140625" customWidth="1"/>
-    <col min="8198" max="8198" width="55.42578125" customWidth="1"/>
-    <col min="8199" max="8199" width="29.7109375" customWidth="1"/>
-    <col min="8450" max="8450" width="23.42578125" customWidth="1"/>
-    <col min="8451" max="8451" width="40.42578125" customWidth="1"/>
-    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
-    <col min="8453" max="8453" width="46.140625" customWidth="1"/>
-    <col min="8454" max="8454" width="55.42578125" customWidth="1"/>
-    <col min="8455" max="8455" width="29.7109375" customWidth="1"/>
-    <col min="8706" max="8706" width="23.42578125" customWidth="1"/>
-    <col min="8707" max="8707" width="40.42578125" customWidth="1"/>
-    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
-    <col min="8709" max="8709" width="46.140625" customWidth="1"/>
-    <col min="8710" max="8710" width="55.42578125" customWidth="1"/>
-    <col min="8711" max="8711" width="29.7109375" customWidth="1"/>
-    <col min="8962" max="8962" width="23.42578125" customWidth="1"/>
-    <col min="8963" max="8963" width="40.42578125" customWidth="1"/>
-    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
-    <col min="8965" max="8965" width="46.140625" customWidth="1"/>
-    <col min="8966" max="8966" width="55.42578125" customWidth="1"/>
-    <col min="8967" max="8967" width="29.7109375" customWidth="1"/>
-    <col min="9218" max="9218" width="23.42578125" customWidth="1"/>
-    <col min="9219" max="9219" width="40.42578125" customWidth="1"/>
-    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
-    <col min="9221" max="9221" width="46.140625" customWidth="1"/>
-    <col min="9222" max="9222" width="55.42578125" customWidth="1"/>
-    <col min="9223" max="9223" width="29.7109375" customWidth="1"/>
-    <col min="9474" max="9474" width="23.42578125" customWidth="1"/>
-    <col min="9475" max="9475" width="40.42578125" customWidth="1"/>
-    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
-    <col min="9477" max="9477" width="46.140625" customWidth="1"/>
-    <col min="9478" max="9478" width="55.42578125" customWidth="1"/>
-    <col min="9479" max="9479" width="29.7109375" customWidth="1"/>
-    <col min="9730" max="9730" width="23.42578125" customWidth="1"/>
-    <col min="9731" max="9731" width="40.42578125" customWidth="1"/>
-    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
-    <col min="9733" max="9733" width="46.140625" customWidth="1"/>
-    <col min="9734" max="9734" width="55.42578125" customWidth="1"/>
-    <col min="9735" max="9735" width="29.7109375" customWidth="1"/>
-    <col min="9986" max="9986" width="23.42578125" customWidth="1"/>
-    <col min="9987" max="9987" width="40.42578125" customWidth="1"/>
-    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
-    <col min="9989" max="9989" width="46.140625" customWidth="1"/>
-    <col min="9990" max="9990" width="55.42578125" customWidth="1"/>
-    <col min="9991" max="9991" width="29.7109375" customWidth="1"/>
-    <col min="10242" max="10242" width="23.42578125" customWidth="1"/>
-    <col min="10243" max="10243" width="40.42578125" customWidth="1"/>
-    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
-    <col min="10245" max="10245" width="46.140625" customWidth="1"/>
-    <col min="10246" max="10246" width="55.42578125" customWidth="1"/>
-    <col min="10247" max="10247" width="29.7109375" customWidth="1"/>
-    <col min="10498" max="10498" width="23.42578125" customWidth="1"/>
-    <col min="10499" max="10499" width="40.42578125" customWidth="1"/>
-    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
-    <col min="10501" max="10501" width="46.140625" customWidth="1"/>
-    <col min="10502" max="10502" width="55.42578125" customWidth="1"/>
-    <col min="10503" max="10503" width="29.7109375" customWidth="1"/>
-    <col min="10754" max="10754" width="23.42578125" customWidth="1"/>
-    <col min="10755" max="10755" width="40.42578125" customWidth="1"/>
-    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
-    <col min="10757" max="10757" width="46.140625" customWidth="1"/>
-    <col min="10758" max="10758" width="55.42578125" customWidth="1"/>
-    <col min="10759" max="10759" width="29.7109375" customWidth="1"/>
-    <col min="11010" max="11010" width="23.42578125" customWidth="1"/>
-    <col min="11011" max="11011" width="40.42578125" customWidth="1"/>
-    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
-    <col min="11013" max="11013" width="46.140625" customWidth="1"/>
-    <col min="11014" max="11014" width="55.42578125" customWidth="1"/>
-    <col min="11015" max="11015" width="29.7109375" customWidth="1"/>
-    <col min="11266" max="11266" width="23.42578125" customWidth="1"/>
-    <col min="11267" max="11267" width="40.42578125" customWidth="1"/>
-    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
-    <col min="11269" max="11269" width="46.140625" customWidth="1"/>
-    <col min="11270" max="11270" width="55.42578125" customWidth="1"/>
-    <col min="11271" max="11271" width="29.7109375" customWidth="1"/>
-    <col min="11522" max="11522" width="23.42578125" customWidth="1"/>
-    <col min="11523" max="11523" width="40.42578125" customWidth="1"/>
-    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
-    <col min="11525" max="11525" width="46.140625" customWidth="1"/>
-    <col min="11526" max="11526" width="55.42578125" customWidth="1"/>
-    <col min="11527" max="11527" width="29.7109375" customWidth="1"/>
-    <col min="11778" max="11778" width="23.42578125" customWidth="1"/>
-    <col min="11779" max="11779" width="40.42578125" customWidth="1"/>
-    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
-    <col min="11781" max="11781" width="46.140625" customWidth="1"/>
-    <col min="11782" max="11782" width="55.42578125" customWidth="1"/>
-    <col min="11783" max="11783" width="29.7109375" customWidth="1"/>
-    <col min="12034" max="12034" width="23.42578125" customWidth="1"/>
-    <col min="12035" max="12035" width="40.42578125" customWidth="1"/>
-    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
-    <col min="12037" max="12037" width="46.140625" customWidth="1"/>
-    <col min="12038" max="12038" width="55.42578125" customWidth="1"/>
-    <col min="12039" max="12039" width="29.7109375" customWidth="1"/>
-    <col min="12290" max="12290" width="23.42578125" customWidth="1"/>
-    <col min="12291" max="12291" width="40.42578125" customWidth="1"/>
-    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
-    <col min="12293" max="12293" width="46.140625" customWidth="1"/>
-    <col min="12294" max="12294" width="55.42578125" customWidth="1"/>
-    <col min="12295" max="12295" width="29.7109375" customWidth="1"/>
-    <col min="12546" max="12546" width="23.42578125" customWidth="1"/>
-    <col min="12547" max="12547" width="40.42578125" customWidth="1"/>
-    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
-    <col min="12549" max="12549" width="46.140625" customWidth="1"/>
-    <col min="12550" max="12550" width="55.42578125" customWidth="1"/>
-    <col min="12551" max="12551" width="29.7109375" customWidth="1"/>
-    <col min="12802" max="12802" width="23.42578125" customWidth="1"/>
-    <col min="12803" max="12803" width="40.42578125" customWidth="1"/>
-    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
-    <col min="12805" max="12805" width="46.140625" customWidth="1"/>
-    <col min="12806" max="12806" width="55.42578125" customWidth="1"/>
-    <col min="12807" max="12807" width="29.7109375" customWidth="1"/>
-    <col min="13058" max="13058" width="23.42578125" customWidth="1"/>
-    <col min="13059" max="13059" width="40.42578125" customWidth="1"/>
-    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
-    <col min="13061" max="13061" width="46.140625" customWidth="1"/>
-    <col min="13062" max="13062" width="55.42578125" customWidth="1"/>
-    <col min="13063" max="13063" width="29.7109375" customWidth="1"/>
-    <col min="13314" max="13314" width="23.42578125" customWidth="1"/>
-    <col min="13315" max="13315" width="40.42578125" customWidth="1"/>
-    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
-    <col min="13317" max="13317" width="46.140625" customWidth="1"/>
-    <col min="13318" max="13318" width="55.42578125" customWidth="1"/>
-    <col min="13319" max="13319" width="29.7109375" customWidth="1"/>
-    <col min="13570" max="13570" width="23.42578125" customWidth="1"/>
-    <col min="13571" max="13571" width="40.42578125" customWidth="1"/>
-    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
-    <col min="13573" max="13573" width="46.140625" customWidth="1"/>
-    <col min="13574" max="13574" width="55.42578125" customWidth="1"/>
-    <col min="13575" max="13575" width="29.7109375" customWidth="1"/>
-    <col min="13826" max="13826" width="23.42578125" customWidth="1"/>
-    <col min="13827" max="13827" width="40.42578125" customWidth="1"/>
-    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
-    <col min="13829" max="13829" width="46.140625" customWidth="1"/>
-    <col min="13830" max="13830" width="55.42578125" customWidth="1"/>
-    <col min="13831" max="13831" width="29.7109375" customWidth="1"/>
-    <col min="14082" max="14082" width="23.42578125" customWidth="1"/>
-    <col min="14083" max="14083" width="40.42578125" customWidth="1"/>
-    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
-    <col min="14085" max="14085" width="46.140625" customWidth="1"/>
-    <col min="14086" max="14086" width="55.42578125" customWidth="1"/>
-    <col min="14087" max="14087" width="29.7109375" customWidth="1"/>
-    <col min="14338" max="14338" width="23.42578125" customWidth="1"/>
-    <col min="14339" max="14339" width="40.42578125" customWidth="1"/>
-    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
-    <col min="14341" max="14341" width="46.140625" customWidth="1"/>
-    <col min="14342" max="14342" width="55.42578125" customWidth="1"/>
-    <col min="14343" max="14343" width="29.7109375" customWidth="1"/>
-    <col min="14594" max="14594" width="23.42578125" customWidth="1"/>
-    <col min="14595" max="14595" width="40.42578125" customWidth="1"/>
-    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
-    <col min="14597" max="14597" width="46.140625" customWidth="1"/>
-    <col min="14598" max="14598" width="55.42578125" customWidth="1"/>
-    <col min="14599" max="14599" width="29.7109375" customWidth="1"/>
-    <col min="14850" max="14850" width="23.42578125" customWidth="1"/>
-    <col min="14851" max="14851" width="40.42578125" customWidth="1"/>
-    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
-    <col min="14853" max="14853" width="46.140625" customWidth="1"/>
-    <col min="14854" max="14854" width="55.42578125" customWidth="1"/>
-    <col min="14855" max="14855" width="29.7109375" customWidth="1"/>
-    <col min="15106" max="15106" width="23.42578125" customWidth="1"/>
-    <col min="15107" max="15107" width="40.42578125" customWidth="1"/>
-    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
-    <col min="15109" max="15109" width="46.140625" customWidth="1"/>
-    <col min="15110" max="15110" width="55.42578125" customWidth="1"/>
-    <col min="15111" max="15111" width="29.7109375" customWidth="1"/>
-    <col min="15362" max="15362" width="23.42578125" customWidth="1"/>
-    <col min="15363" max="15363" width="40.42578125" customWidth="1"/>
-    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
-    <col min="15365" max="15365" width="46.140625" customWidth="1"/>
-    <col min="15366" max="15366" width="55.42578125" customWidth="1"/>
-    <col min="15367" max="15367" width="29.7109375" customWidth="1"/>
-    <col min="15618" max="15618" width="23.42578125" customWidth="1"/>
-    <col min="15619" max="15619" width="40.42578125" customWidth="1"/>
-    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
-    <col min="15621" max="15621" width="46.140625" customWidth="1"/>
-    <col min="15622" max="15622" width="55.42578125" customWidth="1"/>
-    <col min="15623" max="15623" width="29.7109375" customWidth="1"/>
-    <col min="15874" max="15874" width="23.42578125" customWidth="1"/>
-    <col min="15875" max="15875" width="40.42578125" customWidth="1"/>
-    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
-    <col min="15877" max="15877" width="46.140625" customWidth="1"/>
-    <col min="15878" max="15878" width="55.42578125" customWidth="1"/>
-    <col min="15879" max="15879" width="29.7109375" customWidth="1"/>
-    <col min="16130" max="16130" width="23.42578125" customWidth="1"/>
-    <col min="16131" max="16131" width="40.42578125" customWidth="1"/>
-    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
-    <col min="16133" max="16133" width="46.140625" customWidth="1"/>
-    <col min="16134" max="16134" width="55.42578125" customWidth="1"/>
-    <col min="16135" max="16135" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="76.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="258" max="258" width="23.5" customWidth="1"/>
+    <col min="259" max="259" width="40.5" customWidth="1"/>
+    <col min="260" max="260" width="9.33203125" customWidth="1"/>
+    <col min="261" max="261" width="46.1640625" customWidth="1"/>
+    <col min="262" max="262" width="55.5" customWidth="1"/>
+    <col min="263" max="263" width="29.6640625" customWidth="1"/>
+    <col min="514" max="514" width="23.5" customWidth="1"/>
+    <col min="515" max="515" width="40.5" customWidth="1"/>
+    <col min="516" max="516" width="9.33203125" customWidth="1"/>
+    <col min="517" max="517" width="46.1640625" customWidth="1"/>
+    <col min="518" max="518" width="55.5" customWidth="1"/>
+    <col min="519" max="519" width="29.6640625" customWidth="1"/>
+    <col min="770" max="770" width="23.5" customWidth="1"/>
+    <col min="771" max="771" width="40.5" customWidth="1"/>
+    <col min="772" max="772" width="9.33203125" customWidth="1"/>
+    <col min="773" max="773" width="46.1640625" customWidth="1"/>
+    <col min="774" max="774" width="55.5" customWidth="1"/>
+    <col min="775" max="775" width="29.6640625" customWidth="1"/>
+    <col min="1026" max="1026" width="23.5" customWidth="1"/>
+    <col min="1027" max="1027" width="40.5" customWidth="1"/>
+    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
+    <col min="1029" max="1029" width="46.1640625" customWidth="1"/>
+    <col min="1030" max="1030" width="55.5" customWidth="1"/>
+    <col min="1031" max="1031" width="29.6640625" customWidth="1"/>
+    <col min="1282" max="1282" width="23.5" customWidth="1"/>
+    <col min="1283" max="1283" width="40.5" customWidth="1"/>
+    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
+    <col min="1285" max="1285" width="46.1640625" customWidth="1"/>
+    <col min="1286" max="1286" width="55.5" customWidth="1"/>
+    <col min="1287" max="1287" width="29.6640625" customWidth="1"/>
+    <col min="1538" max="1538" width="23.5" customWidth="1"/>
+    <col min="1539" max="1539" width="40.5" customWidth="1"/>
+    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
+    <col min="1541" max="1541" width="46.1640625" customWidth="1"/>
+    <col min="1542" max="1542" width="55.5" customWidth="1"/>
+    <col min="1543" max="1543" width="29.6640625" customWidth="1"/>
+    <col min="1794" max="1794" width="23.5" customWidth="1"/>
+    <col min="1795" max="1795" width="40.5" customWidth="1"/>
+    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
+    <col min="1797" max="1797" width="46.1640625" customWidth="1"/>
+    <col min="1798" max="1798" width="55.5" customWidth="1"/>
+    <col min="1799" max="1799" width="29.6640625" customWidth="1"/>
+    <col min="2050" max="2050" width="23.5" customWidth="1"/>
+    <col min="2051" max="2051" width="40.5" customWidth="1"/>
+    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
+    <col min="2053" max="2053" width="46.1640625" customWidth="1"/>
+    <col min="2054" max="2054" width="55.5" customWidth="1"/>
+    <col min="2055" max="2055" width="29.6640625" customWidth="1"/>
+    <col min="2306" max="2306" width="23.5" customWidth="1"/>
+    <col min="2307" max="2307" width="40.5" customWidth="1"/>
+    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
+    <col min="2309" max="2309" width="46.1640625" customWidth="1"/>
+    <col min="2310" max="2310" width="55.5" customWidth="1"/>
+    <col min="2311" max="2311" width="29.6640625" customWidth="1"/>
+    <col min="2562" max="2562" width="23.5" customWidth="1"/>
+    <col min="2563" max="2563" width="40.5" customWidth="1"/>
+    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
+    <col min="2565" max="2565" width="46.1640625" customWidth="1"/>
+    <col min="2566" max="2566" width="55.5" customWidth="1"/>
+    <col min="2567" max="2567" width="29.6640625" customWidth="1"/>
+    <col min="2818" max="2818" width="23.5" customWidth="1"/>
+    <col min="2819" max="2819" width="40.5" customWidth="1"/>
+    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
+    <col min="2821" max="2821" width="46.1640625" customWidth="1"/>
+    <col min="2822" max="2822" width="55.5" customWidth="1"/>
+    <col min="2823" max="2823" width="29.6640625" customWidth="1"/>
+    <col min="3074" max="3074" width="23.5" customWidth="1"/>
+    <col min="3075" max="3075" width="40.5" customWidth="1"/>
+    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
+    <col min="3077" max="3077" width="46.1640625" customWidth="1"/>
+    <col min="3078" max="3078" width="55.5" customWidth="1"/>
+    <col min="3079" max="3079" width="29.6640625" customWidth="1"/>
+    <col min="3330" max="3330" width="23.5" customWidth="1"/>
+    <col min="3331" max="3331" width="40.5" customWidth="1"/>
+    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
+    <col min="3333" max="3333" width="46.1640625" customWidth="1"/>
+    <col min="3334" max="3334" width="55.5" customWidth="1"/>
+    <col min="3335" max="3335" width="29.6640625" customWidth="1"/>
+    <col min="3586" max="3586" width="23.5" customWidth="1"/>
+    <col min="3587" max="3587" width="40.5" customWidth="1"/>
+    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
+    <col min="3589" max="3589" width="46.1640625" customWidth="1"/>
+    <col min="3590" max="3590" width="55.5" customWidth="1"/>
+    <col min="3591" max="3591" width="29.6640625" customWidth="1"/>
+    <col min="3842" max="3842" width="23.5" customWidth="1"/>
+    <col min="3843" max="3843" width="40.5" customWidth="1"/>
+    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
+    <col min="3845" max="3845" width="46.1640625" customWidth="1"/>
+    <col min="3846" max="3846" width="55.5" customWidth="1"/>
+    <col min="3847" max="3847" width="29.6640625" customWidth="1"/>
+    <col min="4098" max="4098" width="23.5" customWidth="1"/>
+    <col min="4099" max="4099" width="40.5" customWidth="1"/>
+    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
+    <col min="4101" max="4101" width="46.1640625" customWidth="1"/>
+    <col min="4102" max="4102" width="55.5" customWidth="1"/>
+    <col min="4103" max="4103" width="29.6640625" customWidth="1"/>
+    <col min="4354" max="4354" width="23.5" customWidth="1"/>
+    <col min="4355" max="4355" width="40.5" customWidth="1"/>
+    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
+    <col min="4357" max="4357" width="46.1640625" customWidth="1"/>
+    <col min="4358" max="4358" width="55.5" customWidth="1"/>
+    <col min="4359" max="4359" width="29.6640625" customWidth="1"/>
+    <col min="4610" max="4610" width="23.5" customWidth="1"/>
+    <col min="4611" max="4611" width="40.5" customWidth="1"/>
+    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
+    <col min="4613" max="4613" width="46.1640625" customWidth="1"/>
+    <col min="4614" max="4614" width="55.5" customWidth="1"/>
+    <col min="4615" max="4615" width="29.6640625" customWidth="1"/>
+    <col min="4866" max="4866" width="23.5" customWidth="1"/>
+    <col min="4867" max="4867" width="40.5" customWidth="1"/>
+    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
+    <col min="4869" max="4869" width="46.1640625" customWidth="1"/>
+    <col min="4870" max="4870" width="55.5" customWidth="1"/>
+    <col min="4871" max="4871" width="29.6640625" customWidth="1"/>
+    <col min="5122" max="5122" width="23.5" customWidth="1"/>
+    <col min="5123" max="5123" width="40.5" customWidth="1"/>
+    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
+    <col min="5125" max="5125" width="46.1640625" customWidth="1"/>
+    <col min="5126" max="5126" width="55.5" customWidth="1"/>
+    <col min="5127" max="5127" width="29.6640625" customWidth="1"/>
+    <col min="5378" max="5378" width="23.5" customWidth="1"/>
+    <col min="5379" max="5379" width="40.5" customWidth="1"/>
+    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
+    <col min="5381" max="5381" width="46.1640625" customWidth="1"/>
+    <col min="5382" max="5382" width="55.5" customWidth="1"/>
+    <col min="5383" max="5383" width="29.6640625" customWidth="1"/>
+    <col min="5634" max="5634" width="23.5" customWidth="1"/>
+    <col min="5635" max="5635" width="40.5" customWidth="1"/>
+    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
+    <col min="5637" max="5637" width="46.1640625" customWidth="1"/>
+    <col min="5638" max="5638" width="55.5" customWidth="1"/>
+    <col min="5639" max="5639" width="29.6640625" customWidth="1"/>
+    <col min="5890" max="5890" width="23.5" customWidth="1"/>
+    <col min="5891" max="5891" width="40.5" customWidth="1"/>
+    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
+    <col min="5893" max="5893" width="46.1640625" customWidth="1"/>
+    <col min="5894" max="5894" width="55.5" customWidth="1"/>
+    <col min="5895" max="5895" width="29.6640625" customWidth="1"/>
+    <col min="6146" max="6146" width="23.5" customWidth="1"/>
+    <col min="6147" max="6147" width="40.5" customWidth="1"/>
+    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
+    <col min="6149" max="6149" width="46.1640625" customWidth="1"/>
+    <col min="6150" max="6150" width="55.5" customWidth="1"/>
+    <col min="6151" max="6151" width="29.6640625" customWidth="1"/>
+    <col min="6402" max="6402" width="23.5" customWidth="1"/>
+    <col min="6403" max="6403" width="40.5" customWidth="1"/>
+    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
+    <col min="6405" max="6405" width="46.1640625" customWidth="1"/>
+    <col min="6406" max="6406" width="55.5" customWidth="1"/>
+    <col min="6407" max="6407" width="29.6640625" customWidth="1"/>
+    <col min="6658" max="6658" width="23.5" customWidth="1"/>
+    <col min="6659" max="6659" width="40.5" customWidth="1"/>
+    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
+    <col min="6661" max="6661" width="46.1640625" customWidth="1"/>
+    <col min="6662" max="6662" width="55.5" customWidth="1"/>
+    <col min="6663" max="6663" width="29.6640625" customWidth="1"/>
+    <col min="6914" max="6914" width="23.5" customWidth="1"/>
+    <col min="6915" max="6915" width="40.5" customWidth="1"/>
+    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
+    <col min="6917" max="6917" width="46.1640625" customWidth="1"/>
+    <col min="6918" max="6918" width="55.5" customWidth="1"/>
+    <col min="6919" max="6919" width="29.6640625" customWidth="1"/>
+    <col min="7170" max="7170" width="23.5" customWidth="1"/>
+    <col min="7171" max="7171" width="40.5" customWidth="1"/>
+    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
+    <col min="7173" max="7173" width="46.1640625" customWidth="1"/>
+    <col min="7174" max="7174" width="55.5" customWidth="1"/>
+    <col min="7175" max="7175" width="29.6640625" customWidth="1"/>
+    <col min="7426" max="7426" width="23.5" customWidth="1"/>
+    <col min="7427" max="7427" width="40.5" customWidth="1"/>
+    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
+    <col min="7429" max="7429" width="46.1640625" customWidth="1"/>
+    <col min="7430" max="7430" width="55.5" customWidth="1"/>
+    <col min="7431" max="7431" width="29.6640625" customWidth="1"/>
+    <col min="7682" max="7682" width="23.5" customWidth="1"/>
+    <col min="7683" max="7683" width="40.5" customWidth="1"/>
+    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
+    <col min="7685" max="7685" width="46.1640625" customWidth="1"/>
+    <col min="7686" max="7686" width="55.5" customWidth="1"/>
+    <col min="7687" max="7687" width="29.6640625" customWidth="1"/>
+    <col min="7938" max="7938" width="23.5" customWidth="1"/>
+    <col min="7939" max="7939" width="40.5" customWidth="1"/>
+    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
+    <col min="7941" max="7941" width="46.1640625" customWidth="1"/>
+    <col min="7942" max="7942" width="55.5" customWidth="1"/>
+    <col min="7943" max="7943" width="29.6640625" customWidth="1"/>
+    <col min="8194" max="8194" width="23.5" customWidth="1"/>
+    <col min="8195" max="8195" width="40.5" customWidth="1"/>
+    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
+    <col min="8197" max="8197" width="46.1640625" customWidth="1"/>
+    <col min="8198" max="8198" width="55.5" customWidth="1"/>
+    <col min="8199" max="8199" width="29.6640625" customWidth="1"/>
+    <col min="8450" max="8450" width="23.5" customWidth="1"/>
+    <col min="8451" max="8451" width="40.5" customWidth="1"/>
+    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
+    <col min="8453" max="8453" width="46.1640625" customWidth="1"/>
+    <col min="8454" max="8454" width="55.5" customWidth="1"/>
+    <col min="8455" max="8455" width="29.6640625" customWidth="1"/>
+    <col min="8706" max="8706" width="23.5" customWidth="1"/>
+    <col min="8707" max="8707" width="40.5" customWidth="1"/>
+    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
+    <col min="8709" max="8709" width="46.1640625" customWidth="1"/>
+    <col min="8710" max="8710" width="55.5" customWidth="1"/>
+    <col min="8711" max="8711" width="29.6640625" customWidth="1"/>
+    <col min="8962" max="8962" width="23.5" customWidth="1"/>
+    <col min="8963" max="8963" width="40.5" customWidth="1"/>
+    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
+    <col min="8965" max="8965" width="46.1640625" customWidth="1"/>
+    <col min="8966" max="8966" width="55.5" customWidth="1"/>
+    <col min="8967" max="8967" width="29.6640625" customWidth="1"/>
+    <col min="9218" max="9218" width="23.5" customWidth="1"/>
+    <col min="9219" max="9219" width="40.5" customWidth="1"/>
+    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
+    <col min="9221" max="9221" width="46.1640625" customWidth="1"/>
+    <col min="9222" max="9222" width="55.5" customWidth="1"/>
+    <col min="9223" max="9223" width="29.6640625" customWidth="1"/>
+    <col min="9474" max="9474" width="23.5" customWidth="1"/>
+    <col min="9475" max="9475" width="40.5" customWidth="1"/>
+    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
+    <col min="9477" max="9477" width="46.1640625" customWidth="1"/>
+    <col min="9478" max="9478" width="55.5" customWidth="1"/>
+    <col min="9479" max="9479" width="29.6640625" customWidth="1"/>
+    <col min="9730" max="9730" width="23.5" customWidth="1"/>
+    <col min="9731" max="9731" width="40.5" customWidth="1"/>
+    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
+    <col min="9733" max="9733" width="46.1640625" customWidth="1"/>
+    <col min="9734" max="9734" width="55.5" customWidth="1"/>
+    <col min="9735" max="9735" width="29.6640625" customWidth="1"/>
+    <col min="9986" max="9986" width="23.5" customWidth="1"/>
+    <col min="9987" max="9987" width="40.5" customWidth="1"/>
+    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
+    <col min="9989" max="9989" width="46.1640625" customWidth="1"/>
+    <col min="9990" max="9990" width="55.5" customWidth="1"/>
+    <col min="9991" max="9991" width="29.6640625" customWidth="1"/>
+    <col min="10242" max="10242" width="23.5" customWidth="1"/>
+    <col min="10243" max="10243" width="40.5" customWidth="1"/>
+    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
+    <col min="10245" max="10245" width="46.1640625" customWidth="1"/>
+    <col min="10246" max="10246" width="55.5" customWidth="1"/>
+    <col min="10247" max="10247" width="29.6640625" customWidth="1"/>
+    <col min="10498" max="10498" width="23.5" customWidth="1"/>
+    <col min="10499" max="10499" width="40.5" customWidth="1"/>
+    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
+    <col min="10501" max="10501" width="46.1640625" customWidth="1"/>
+    <col min="10502" max="10502" width="55.5" customWidth="1"/>
+    <col min="10503" max="10503" width="29.6640625" customWidth="1"/>
+    <col min="10754" max="10754" width="23.5" customWidth="1"/>
+    <col min="10755" max="10755" width="40.5" customWidth="1"/>
+    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
+    <col min="10757" max="10757" width="46.1640625" customWidth="1"/>
+    <col min="10758" max="10758" width="55.5" customWidth="1"/>
+    <col min="10759" max="10759" width="29.6640625" customWidth="1"/>
+    <col min="11010" max="11010" width="23.5" customWidth="1"/>
+    <col min="11011" max="11011" width="40.5" customWidth="1"/>
+    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
+    <col min="11013" max="11013" width="46.1640625" customWidth="1"/>
+    <col min="11014" max="11014" width="55.5" customWidth="1"/>
+    <col min="11015" max="11015" width="29.6640625" customWidth="1"/>
+    <col min="11266" max="11266" width="23.5" customWidth="1"/>
+    <col min="11267" max="11267" width="40.5" customWidth="1"/>
+    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
+    <col min="11269" max="11269" width="46.1640625" customWidth="1"/>
+    <col min="11270" max="11270" width="55.5" customWidth="1"/>
+    <col min="11271" max="11271" width="29.6640625" customWidth="1"/>
+    <col min="11522" max="11522" width="23.5" customWidth="1"/>
+    <col min="11523" max="11523" width="40.5" customWidth="1"/>
+    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
+    <col min="11525" max="11525" width="46.1640625" customWidth="1"/>
+    <col min="11526" max="11526" width="55.5" customWidth="1"/>
+    <col min="11527" max="11527" width="29.6640625" customWidth="1"/>
+    <col min="11778" max="11778" width="23.5" customWidth="1"/>
+    <col min="11779" max="11779" width="40.5" customWidth="1"/>
+    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
+    <col min="11781" max="11781" width="46.1640625" customWidth="1"/>
+    <col min="11782" max="11782" width="55.5" customWidth="1"/>
+    <col min="11783" max="11783" width="29.6640625" customWidth="1"/>
+    <col min="12034" max="12034" width="23.5" customWidth="1"/>
+    <col min="12035" max="12035" width="40.5" customWidth="1"/>
+    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
+    <col min="12037" max="12037" width="46.1640625" customWidth="1"/>
+    <col min="12038" max="12038" width="55.5" customWidth="1"/>
+    <col min="12039" max="12039" width="29.6640625" customWidth="1"/>
+    <col min="12290" max="12290" width="23.5" customWidth="1"/>
+    <col min="12291" max="12291" width="40.5" customWidth="1"/>
+    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
+    <col min="12293" max="12293" width="46.1640625" customWidth="1"/>
+    <col min="12294" max="12294" width="55.5" customWidth="1"/>
+    <col min="12295" max="12295" width="29.6640625" customWidth="1"/>
+    <col min="12546" max="12546" width="23.5" customWidth="1"/>
+    <col min="12547" max="12547" width="40.5" customWidth="1"/>
+    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
+    <col min="12549" max="12549" width="46.1640625" customWidth="1"/>
+    <col min="12550" max="12550" width="55.5" customWidth="1"/>
+    <col min="12551" max="12551" width="29.6640625" customWidth="1"/>
+    <col min="12802" max="12802" width="23.5" customWidth="1"/>
+    <col min="12803" max="12803" width="40.5" customWidth="1"/>
+    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
+    <col min="12805" max="12805" width="46.1640625" customWidth="1"/>
+    <col min="12806" max="12806" width="55.5" customWidth="1"/>
+    <col min="12807" max="12807" width="29.6640625" customWidth="1"/>
+    <col min="13058" max="13058" width="23.5" customWidth="1"/>
+    <col min="13059" max="13059" width="40.5" customWidth="1"/>
+    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
+    <col min="13061" max="13061" width="46.1640625" customWidth="1"/>
+    <col min="13062" max="13062" width="55.5" customWidth="1"/>
+    <col min="13063" max="13063" width="29.6640625" customWidth="1"/>
+    <col min="13314" max="13314" width="23.5" customWidth="1"/>
+    <col min="13315" max="13315" width="40.5" customWidth="1"/>
+    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
+    <col min="13317" max="13317" width="46.1640625" customWidth="1"/>
+    <col min="13318" max="13318" width="55.5" customWidth="1"/>
+    <col min="13319" max="13319" width="29.6640625" customWidth="1"/>
+    <col min="13570" max="13570" width="23.5" customWidth="1"/>
+    <col min="13571" max="13571" width="40.5" customWidth="1"/>
+    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
+    <col min="13573" max="13573" width="46.1640625" customWidth="1"/>
+    <col min="13574" max="13574" width="55.5" customWidth="1"/>
+    <col min="13575" max="13575" width="29.6640625" customWidth="1"/>
+    <col min="13826" max="13826" width="23.5" customWidth="1"/>
+    <col min="13827" max="13827" width="40.5" customWidth="1"/>
+    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
+    <col min="13829" max="13829" width="46.1640625" customWidth="1"/>
+    <col min="13830" max="13830" width="55.5" customWidth="1"/>
+    <col min="13831" max="13831" width="29.6640625" customWidth="1"/>
+    <col min="14082" max="14082" width="23.5" customWidth="1"/>
+    <col min="14083" max="14083" width="40.5" customWidth="1"/>
+    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
+    <col min="14085" max="14085" width="46.1640625" customWidth="1"/>
+    <col min="14086" max="14086" width="55.5" customWidth="1"/>
+    <col min="14087" max="14087" width="29.6640625" customWidth="1"/>
+    <col min="14338" max="14338" width="23.5" customWidth="1"/>
+    <col min="14339" max="14339" width="40.5" customWidth="1"/>
+    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
+    <col min="14341" max="14341" width="46.1640625" customWidth="1"/>
+    <col min="14342" max="14342" width="55.5" customWidth="1"/>
+    <col min="14343" max="14343" width="29.6640625" customWidth="1"/>
+    <col min="14594" max="14594" width="23.5" customWidth="1"/>
+    <col min="14595" max="14595" width="40.5" customWidth="1"/>
+    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
+    <col min="14597" max="14597" width="46.1640625" customWidth="1"/>
+    <col min="14598" max="14598" width="55.5" customWidth="1"/>
+    <col min="14599" max="14599" width="29.6640625" customWidth="1"/>
+    <col min="14850" max="14850" width="23.5" customWidth="1"/>
+    <col min="14851" max="14851" width="40.5" customWidth="1"/>
+    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
+    <col min="14853" max="14853" width="46.1640625" customWidth="1"/>
+    <col min="14854" max="14854" width="55.5" customWidth="1"/>
+    <col min="14855" max="14855" width="29.6640625" customWidth="1"/>
+    <col min="15106" max="15106" width="23.5" customWidth="1"/>
+    <col min="15107" max="15107" width="40.5" customWidth="1"/>
+    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
+    <col min="15109" max="15109" width="46.1640625" customWidth="1"/>
+    <col min="15110" max="15110" width="55.5" customWidth="1"/>
+    <col min="15111" max="15111" width="29.6640625" customWidth="1"/>
+    <col min="15362" max="15362" width="23.5" customWidth="1"/>
+    <col min="15363" max="15363" width="40.5" customWidth="1"/>
+    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
+    <col min="15365" max="15365" width="46.1640625" customWidth="1"/>
+    <col min="15366" max="15366" width="55.5" customWidth="1"/>
+    <col min="15367" max="15367" width="29.6640625" customWidth="1"/>
+    <col min="15618" max="15618" width="23.5" customWidth="1"/>
+    <col min="15619" max="15619" width="40.5" customWidth="1"/>
+    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
+    <col min="15621" max="15621" width="46.1640625" customWidth="1"/>
+    <col min="15622" max="15622" width="55.5" customWidth="1"/>
+    <col min="15623" max="15623" width="29.6640625" customWidth="1"/>
+    <col min="15874" max="15874" width="23.5" customWidth="1"/>
+    <col min="15875" max="15875" width="40.5" customWidth="1"/>
+    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
+    <col min="15877" max="15877" width="46.1640625" customWidth="1"/>
+    <col min="15878" max="15878" width="55.5" customWidth="1"/>
+    <col min="15879" max="15879" width="29.6640625" customWidth="1"/>
+    <col min="16130" max="16130" width="23.5" customWidth="1"/>
+    <col min="16131" max="16131" width="40.5" customWidth="1"/>
+    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
+    <col min="16133" max="16133" width="46.1640625" customWidth="1"/>
+    <col min="16134" max="16134" width="55.5" customWidth="1"/>
+    <col min="16135" max="16135" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="13.2">
+    <row r="4" spans="2:6" ht="14.25">
       <c r="B4" s="93" t="s">
         <v>166</v>
       </c>
@@ -36915,7 +36888,7 @@
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
     </row>
-    <row r="12" spans="2:6" ht="11.4" thickBot="1">
+    <row r="12" spans="2:6" ht="14.25" thickBot="1">
       <c r="B12" s="70" t="s">
         <v>116</v>
       </c>
@@ -36943,7 +36916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="11.4" thickBot="1">
+    <row r="15" spans="2:6" ht="14.25" thickBot="1">
       <c r="B15" s="16" t="s">
         <v>118</v>
       </c>
@@ -36951,7 +36924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="11.4" thickBot="1">
+    <row r="17" spans="2:6" ht="14.25" thickBot="1">
       <c r="B17" s="10" t="s">
         <v>115</v>
       </c>
@@ -37027,7 +37000,7 @@
       </c>
       <c r="F22" s="73"/>
     </row>
-    <row r="23" spans="2:6" ht="21.6">
+    <row r="23" spans="2:6" ht="27">
       <c r="B23" s="73"/>
       <c r="C23" s="11" t="s">
         <v>200</v>
@@ -37128,7 +37101,7 @@
       </c>
       <c r="F31" s="74"/>
     </row>
-    <row r="32" spans="2:6" ht="21.6">
+    <row r="32" spans="2:6" ht="27">
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
       <c r="D32" s="74" t="s">
@@ -37150,7 +37123,7 @@
       </c>
       <c r="F33" s="74"/>
     </row>
-    <row r="34" spans="2:6" ht="11.4" thickBot="1">
+    <row r="34" spans="2:6" ht="14.25" thickBot="1">
       <c r="B34" s="96"/>
       <c r="C34" s="99"/>
       <c r="D34" s="96" t="s">
@@ -37161,17 +37134,17 @@
       </c>
       <c r="F34" s="96"/>
     </row>
-    <row r="35" spans="2:6" ht="22.2" thickTop="1">
-      <c r="B35" s="301" t="s">
+    <row r="35" spans="2:6" ht="27.75" thickTop="1">
+      <c r="B35" s="282" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="302" t="s">
+      <c r="D35" s="284" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="302" t="s">
+      <c r="E35" s="284" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -37179,50 +37152,50 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="296"/>
+      <c r="B36" s="283"/>
       <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="293"/>
-      <c r="E36" s="293"/>
+      <c r="D36" s="285"/>
+      <c r="E36" s="285"/>
       <c r="F36" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="296"/>
+      <c r="B37" s="283"/>
       <c r="C37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="293"/>
-      <c r="E37" s="293"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="285"/>
       <c r="F37" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="296"/>
+      <c r="B38" s="283"/>
       <c r="C38" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="293"/>
-      <c r="E38" s="293"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
       <c r="F38" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="21.6">
-      <c r="B39" s="296"/>
+    <row r="39" spans="2:6" ht="27">
+      <c r="B39" s="283"/>
       <c r="C39" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D39" s="293"/>
-      <c r="E39" s="293"/>
+      <c r="D39" s="285"/>
+      <c r="E39" s="285"/>
       <c r="F39" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="32.4">
+    <row r="40" spans="2:6" ht="27">
       <c r="B40" s="73"/>
       <c r="C40" s="144" t="s">
         <v>201</v>
@@ -37247,24 +37220,24 @@
       <c r="F41" s="74"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="289"/>
-      <c r="C42" s="289"/>
-      <c r="D42" s="293" t="s">
+      <c r="B42" s="286"/>
+      <c r="C42" s="286"/>
+      <c r="D42" s="285" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="293" t="s">
+      <c r="E42" s="285" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="293"/>
+      <c r="F42" s="285"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="289"/>
-      <c r="C43" s="289"/>
-      <c r="D43" s="293"/>
-      <c r="E43" s="293"/>
-      <c r="F43" s="293"/>
-    </row>
-    <row r="44" spans="2:6" ht="11.4" thickBot="1">
+      <c r="B43" s="286"/>
+      <c r="C43" s="286"/>
+      <c r="D43" s="285"/>
+      <c r="E43" s="285"/>
+      <c r="F43" s="285"/>
+    </row>
+    <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="96"/>
       <c r="C44" s="96"/>
       <c r="D44" s="97" t="s">
@@ -37275,17 +37248,17 @@
       </c>
       <c r="F44" s="97"/>
     </row>
-    <row r="45" spans="2:6" ht="11.4" thickTop="1">
-      <c r="B45" s="295" t="s">
+    <row r="45" spans="2:6" ht="14.25" thickTop="1">
+      <c r="B45" s="288" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="297" t="s">
+      <c r="D45" s="289" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="297" t="s">
+      <c r="E45" s="289" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="73" t="s">
@@ -37293,33 +37266,33 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="296"/>
+      <c r="B46" s="283"/>
       <c r="C46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="289"/>
-      <c r="E46" s="289"/>
+      <c r="D46" s="286"/>
+      <c r="E46" s="286"/>
       <c r="F46" s="73"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="296"/>
+      <c r="B47" s="283"/>
       <c r="C47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="289"/>
-      <c r="E47" s="289"/>
+      <c r="D47" s="286"/>
+      <c r="E47" s="286"/>
       <c r="F47" s="73"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="296"/>
+      <c r="B48" s="283"/>
       <c r="C48" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="289"/>
-      <c r="E48" s="289"/>
+      <c r="D48" s="286"/>
+      <c r="E48" s="286"/>
       <c r="F48" s="73"/>
     </row>
-    <row r="49" spans="2:6" ht="21.6">
+    <row r="49" spans="2:6" ht="27">
       <c r="B49" s="73"/>
       <c r="C49" s="11" t="s">
         <v>200</v>
@@ -37332,7 +37305,7 @@
       </c>
       <c r="F49" s="74"/>
     </row>
-    <row r="50" spans="2:6" ht="32.4">
+    <row r="50" spans="2:6" ht="27">
       <c r="B50" s="73"/>
       <c r="C50" s="144" t="s">
         <v>201</v>
@@ -37356,7 +37329,7 @@
       </c>
       <c r="F51" s="73"/>
     </row>
-    <row r="52" spans="2:6" ht="11.4" thickBot="1">
+    <row r="52" spans="2:6" ht="14.25" thickBot="1">
       <c r="B52" s="96"/>
       <c r="C52" s="99"/>
       <c r="D52" s="96" t="s">
@@ -37367,49 +37340,49 @@
       </c>
       <c r="F52" s="96"/>
     </row>
-    <row r="53" spans="2:6" ht="11.4" thickTop="1">
-      <c r="B53" s="298" t="s">
+    <row r="53" spans="2:6" ht="14.25" thickTop="1">
+      <c r="B53" s="290" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="299" t="s">
+      <c r="D53" s="292" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="299" t="s">
+      <c r="E53" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="300"/>
+      <c r="F53" s="293"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="288"/>
+      <c r="B54" s="291"/>
       <c r="C54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="293"/>
-      <c r="E54" s="293"/>
-      <c r="F54" s="294"/>
+      <c r="D54" s="285"/>
+      <c r="E54" s="285"/>
+      <c r="F54" s="287"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="288"/>
+      <c r="B55" s="291"/>
       <c r="C55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="293"/>
-      <c r="E55" s="293"/>
-      <c r="F55" s="294"/>
+      <c r="D55" s="285"/>
+      <c r="E55" s="285"/>
+      <c r="F55" s="287"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="288"/>
+      <c r="B56" s="291"/>
       <c r="C56" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="293"/>
-      <c r="E56" s="293"/>
-      <c r="F56" s="294"/>
-    </row>
-    <row r="57" spans="2:6" ht="21.6">
+      <c r="D56" s="285"/>
+      <c r="E56" s="285"/>
+      <c r="F56" s="287"/>
+    </row>
+    <row r="57" spans="2:6" ht="27">
       <c r="B57" s="72"/>
       <c r="C57" s="11" t="s">
         <v>200</v>
@@ -37423,22 +37396,22 @@
       <c r="F57" s="71"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="288"/>
-      <c r="C58" s="289"/>
-      <c r="D58" s="293" t="s">
+      <c r="B58" s="291"/>
+      <c r="C58" s="286"/>
+      <c r="D58" s="285" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="293" t="s">
+      <c r="E58" s="285" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="294"/>
+      <c r="F58" s="287"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="288"/>
-      <c r="C59" s="289"/>
-      <c r="D59" s="293"/>
-      <c r="E59" s="293"/>
-      <c r="F59" s="294"/>
+      <c r="B59" s="291"/>
+      <c r="C59" s="286"/>
+      <c r="D59" s="285"/>
+      <c r="E59" s="285"/>
+      <c r="F59" s="287"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="72"/>
@@ -37495,7 +37468,7 @@
       </c>
       <c r="F64" s="71"/>
     </row>
-    <row r="65" spans="2:6" ht="21.6">
+    <row r="65" spans="2:6" ht="27">
       <c r="B65" s="72"/>
       <c r="C65" s="73"/>
       <c r="D65" s="74" t="s">
@@ -37506,7 +37479,7 @@
       </c>
       <c r="F65" s="71"/>
     </row>
-    <row r="66" spans="2:6" ht="21.6">
+    <row r="66" spans="2:6">
       <c r="B66" s="72"/>
       <c r="C66" s="73"/>
       <c r="D66" s="74" t="s">
@@ -37561,7 +37534,7 @@
       </c>
       <c r="F70" s="71"/>
     </row>
-    <row r="71" spans="2:6" ht="11.4" thickBot="1">
+    <row r="71" spans="2:6" ht="14.25" thickBot="1">
       <c r="B71" s="95"/>
       <c r="C71" s="96"/>
       <c r="D71" s="97" t="s">
@@ -37572,7 +37545,7 @@
       </c>
       <c r="F71" s="98"/>
     </row>
-    <row r="72" spans="2:6" ht="11.4" thickTop="1"/>
+    <row r="72" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="74" spans="2:6" ht="13.5" customHeight="1">
       <c r="B74" s="145" t="s">
         <v>189</v>
@@ -37582,10 +37555,10 @@
       <c r="E74" s="146"/>
     </row>
     <row r="75" spans="2:6" s="81" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B75" s="287" t="s">
+      <c r="B75" s="299" t="s">
         <v>265</v>
       </c>
-      <c r="C75" s="287"/>
+      <c r="C75" s="299"/>
       <c r="D75" s="150"/>
       <c r="E75" s="76"/>
     </row>
@@ -37625,11 +37598,11 @@
       </c>
       <c r="D79" s="148"/>
     </row>
-    <row r="80" spans="2:6" ht="11.4" thickTop="1"/>
+    <row r="80" spans="2:6" ht="14.25" thickTop="1"/>
     <row r="81" spans="2:5">
       <c r="C81" s="87"/>
     </row>
-    <row r="82" spans="2:5" ht="11.4" thickBot="1">
+    <row r="82" spans="2:5" ht="14.25" thickBot="1">
       <c r="B82" s="92" t="s">
         <v>190</v>
       </c>
@@ -37649,7 +37622,7 @@
       <c r="B84" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="290" t="s">
+      <c r="C84" s="300" t="s">
         <v>211</v>
       </c>
       <c r="D84" s="151"/>
@@ -37658,18 +37631,18 @@
       <c r="B85" s="167" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="291"/>
+      <c r="C85" s="301"/>
       <c r="D85" s="151"/>
     </row>
     <row r="86" spans="2:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="B86" s="168" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="292"/>
+      <c r="C86" s="302"/>
       <c r="D86" s="152"/>
     </row>
-    <row r="87" spans="2:5" ht="11.4" thickTop="1"/>
-    <row r="89" spans="2:5" ht="11.4" thickBot="1">
+    <row r="87" spans="2:5" ht="14.25" thickTop="1"/>
+    <row r="89" spans="2:5" ht="14.25" thickBot="1">
       <c r="B89" s="81" t="s">
         <v>224</v>
       </c>
@@ -37685,8 +37658,8 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="21.6">
-      <c r="B91" s="282" t="s">
+    <row r="91" spans="2:5" ht="27">
+      <c r="B91" s="294" t="s">
         <v>220</v>
       </c>
       <c r="C91" s="166" t="s">
@@ -37694,28 +37667,27 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="27" customHeight="1">
-      <c r="B92" s="283"/>
-      <c r="C92" s="285" t="s">
+      <c r="B92" s="295"/>
+      <c r="C92" s="297" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="11.4" thickBot="1">
-      <c r="B93" s="284"/>
-      <c r="C93" s="286"/>
-    </row>
-    <row r="94" spans="2:5" ht="11.4" thickTop="1">
+    <row r="93" spans="2:5" ht="14.25" thickBot="1">
+      <c r="B93" s="296"/>
+      <c r="C93" s="298"/>
+    </row>
+    <row r="94" spans="2:5" ht="14.25" thickTop="1">
       <c r="B94" s="81"/>
       <c r="C94" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C84:C86"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
@@ -37727,12 +37699,13 @@
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="F53:F56"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Definitioner!B12" display="Dödsorsak covid-19"/>
@@ -37753,9 +37726,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5" customHeight="1">
@@ -37857,11 +37830,11 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="7" width="8.42578125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="7" width="8.5" style="2" customWidth="1"/>
+    <col min="8" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1">
@@ -37900,7 +37873,7 @@
       <c r="F4" s="309"/>
       <c r="G4" s="309"/>
     </row>
-    <row r="5" spans="1:22" ht="11.4" thickBot="1"/>
+    <row r="5" spans="1:22" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:22">
       <c r="A6" s="4"/>
       <c r="B6" s="310" t="s">
@@ -38680,7 +38653,7 @@
       <c r="F40" s="303"/>
       <c r="G40" s="303"/>
     </row>
-    <row r="41" spans="1:7" ht="11.4">
+    <row r="41" spans="1:7">
       <c r="A41" s="313" t="s">
         <v>143</v>
       </c>
@@ -38691,7 +38664,7 @@
       <c r="F41" s="313"/>
       <c r="G41" s="313"/>
     </row>
-    <row r="42" spans="1:7" ht="11.4">
+    <row r="42" spans="1:7">
       <c r="A42" s="304" t="s">
         <v>142</v>
       </c>
@@ -38702,7 +38675,7 @@
       <c r="F42" s="304"/>
       <c r="G42" s="304"/>
     </row>
-    <row r="43" spans="1:7" ht="11.4">
+    <row r="43" spans="1:7">
       <c r="A43" s="30"/>
     </row>
   </sheetData>
@@ -38733,1084 +38706,1084 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="37" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="37" customWidth="1"/>
     <col min="3" max="7" width="8" style="37" customWidth="1"/>
     <col min="8" max="11" width="8" customWidth="1"/>
     <col min="12" max="16" width="8" style="37" customWidth="1"/>
     <col min="17" max="243" width="9" style="37"/>
-    <col min="247" max="247" width="30.42578125" customWidth="1"/>
-    <col min="248" max="248" width="11.42578125" customWidth="1"/>
+    <col min="247" max="247" width="30.5" customWidth="1"/>
+    <col min="248" max="248" width="11.5" customWidth="1"/>
     <col min="249" max="249" width="8" customWidth="1"/>
-    <col min="250" max="250" width="10.28515625" customWidth="1"/>
-    <col min="251" max="251" width="8.28515625" customWidth="1"/>
+    <col min="250" max="250" width="10.33203125" customWidth="1"/>
+    <col min="251" max="251" width="8.33203125" customWidth="1"/>
     <col min="252" max="252" width="10" customWidth="1"/>
     <col min="253" max="257" width="8" customWidth="1"/>
-    <col min="258" max="258" width="8.28515625" customWidth="1"/>
+    <col min="258" max="258" width="8.33203125" customWidth="1"/>
     <col min="259" max="259" width="9" customWidth="1"/>
-    <col min="260" max="260" width="28.140625" customWidth="1"/>
-    <col min="261" max="261" width="10.140625" customWidth="1"/>
-    <col min="263" max="263" width="11.42578125" customWidth="1"/>
+    <col min="260" max="260" width="28.1640625" customWidth="1"/>
+    <col min="261" max="261" width="10.1640625" customWidth="1"/>
+    <col min="263" max="263" width="11.5" customWidth="1"/>
     <col min="264" max="264" width="8" customWidth="1"/>
     <col min="265" max="265" width="10" customWidth="1"/>
-    <col min="266" max="266" width="9.28515625" customWidth="1"/>
-    <col min="267" max="267" width="10.140625" customWidth="1"/>
+    <col min="266" max="266" width="9.33203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="8" customWidth="1"/>
-    <col min="503" max="503" width="30.42578125" customWidth="1"/>
-    <col min="504" max="504" width="11.42578125" customWidth="1"/>
+    <col min="503" max="503" width="30.5" customWidth="1"/>
+    <col min="504" max="504" width="11.5" customWidth="1"/>
     <col min="505" max="505" width="8" customWidth="1"/>
-    <col min="506" max="506" width="10.28515625" customWidth="1"/>
-    <col min="507" max="507" width="8.28515625" customWidth="1"/>
+    <col min="506" max="506" width="10.33203125" customWidth="1"/>
+    <col min="507" max="507" width="8.33203125" customWidth="1"/>
     <col min="508" max="508" width="10" customWidth="1"/>
     <col min="509" max="513" width="8" customWidth="1"/>
-    <col min="514" max="514" width="8.28515625" customWidth="1"/>
+    <col min="514" max="514" width="8.33203125" customWidth="1"/>
     <col min="515" max="515" width="9" customWidth="1"/>
-    <col min="516" max="516" width="28.140625" customWidth="1"/>
-    <col min="517" max="517" width="10.140625" customWidth="1"/>
-    <col min="519" max="519" width="11.42578125" customWidth="1"/>
+    <col min="516" max="516" width="28.1640625" customWidth="1"/>
+    <col min="517" max="517" width="10.1640625" customWidth="1"/>
+    <col min="519" max="519" width="11.5" customWidth="1"/>
     <col min="520" max="520" width="8" customWidth="1"/>
     <col min="521" max="521" width="10" customWidth="1"/>
-    <col min="522" max="522" width="9.28515625" customWidth="1"/>
-    <col min="523" max="523" width="10.140625" customWidth="1"/>
+    <col min="522" max="522" width="9.33203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="8" customWidth="1"/>
-    <col min="759" max="759" width="30.42578125" customWidth="1"/>
-    <col min="760" max="760" width="11.42578125" customWidth="1"/>
+    <col min="759" max="759" width="30.5" customWidth="1"/>
+    <col min="760" max="760" width="11.5" customWidth="1"/>
     <col min="761" max="761" width="8" customWidth="1"/>
-    <col min="762" max="762" width="10.28515625" customWidth="1"/>
-    <col min="763" max="763" width="8.28515625" customWidth="1"/>
+    <col min="762" max="762" width="10.33203125" customWidth="1"/>
+    <col min="763" max="763" width="8.33203125" customWidth="1"/>
     <col min="764" max="764" width="10" customWidth="1"/>
     <col min="765" max="769" width="8" customWidth="1"/>
-    <col min="770" max="770" width="8.28515625" customWidth="1"/>
+    <col min="770" max="770" width="8.33203125" customWidth="1"/>
     <col min="771" max="771" width="9" customWidth="1"/>
-    <col min="772" max="772" width="28.140625" customWidth="1"/>
-    <col min="773" max="773" width="10.140625" customWidth="1"/>
-    <col min="775" max="775" width="11.42578125" customWidth="1"/>
+    <col min="772" max="772" width="28.1640625" customWidth="1"/>
+    <col min="773" max="773" width="10.1640625" customWidth="1"/>
+    <col min="775" max="775" width="11.5" customWidth="1"/>
     <col min="776" max="776" width="8" customWidth="1"/>
     <col min="777" max="777" width="10" customWidth="1"/>
-    <col min="778" max="778" width="9.28515625" customWidth="1"/>
-    <col min="779" max="779" width="10.140625" customWidth="1"/>
+    <col min="778" max="778" width="9.33203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="8" customWidth="1"/>
-    <col min="1015" max="1015" width="30.42578125" customWidth="1"/>
-    <col min="1016" max="1016" width="11.42578125" customWidth="1"/>
+    <col min="1015" max="1015" width="30.5" customWidth="1"/>
+    <col min="1016" max="1016" width="11.5" customWidth="1"/>
     <col min="1017" max="1017" width="8" customWidth="1"/>
-    <col min="1018" max="1018" width="10.28515625" customWidth="1"/>
-    <col min="1019" max="1019" width="8.28515625" customWidth="1"/>
+    <col min="1018" max="1018" width="10.33203125" customWidth="1"/>
+    <col min="1019" max="1019" width="8.33203125" customWidth="1"/>
     <col min="1020" max="1020" width="10" customWidth="1"/>
     <col min="1021" max="1025" width="8" customWidth="1"/>
-    <col min="1026" max="1026" width="8.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="8.33203125" customWidth="1"/>
     <col min="1027" max="1027" width="9" customWidth="1"/>
-    <col min="1028" max="1028" width="28.140625" customWidth="1"/>
-    <col min="1029" max="1029" width="10.140625" customWidth="1"/>
-    <col min="1031" max="1031" width="11.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="28.1640625" customWidth="1"/>
+    <col min="1029" max="1029" width="10.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="11.5" customWidth="1"/>
     <col min="1032" max="1032" width="8" customWidth="1"/>
     <col min="1033" max="1033" width="10" customWidth="1"/>
-    <col min="1034" max="1034" width="9.28515625" customWidth="1"/>
-    <col min="1035" max="1035" width="10.140625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.33203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="8" customWidth="1"/>
-    <col min="1271" max="1271" width="30.42578125" customWidth="1"/>
-    <col min="1272" max="1272" width="11.42578125" customWidth="1"/>
+    <col min="1271" max="1271" width="30.5" customWidth="1"/>
+    <col min="1272" max="1272" width="11.5" customWidth="1"/>
     <col min="1273" max="1273" width="8" customWidth="1"/>
-    <col min="1274" max="1274" width="10.28515625" customWidth="1"/>
-    <col min="1275" max="1275" width="8.28515625" customWidth="1"/>
+    <col min="1274" max="1274" width="10.33203125" customWidth="1"/>
+    <col min="1275" max="1275" width="8.33203125" customWidth="1"/>
     <col min="1276" max="1276" width="10" customWidth="1"/>
     <col min="1277" max="1281" width="8" customWidth="1"/>
-    <col min="1282" max="1282" width="8.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="8.33203125" customWidth="1"/>
     <col min="1283" max="1283" width="9" customWidth="1"/>
-    <col min="1284" max="1284" width="28.140625" customWidth="1"/>
-    <col min="1285" max="1285" width="10.140625" customWidth="1"/>
-    <col min="1287" max="1287" width="11.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="28.1640625" customWidth="1"/>
+    <col min="1285" max="1285" width="10.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="11.5" customWidth="1"/>
     <col min="1288" max="1288" width="8" customWidth="1"/>
     <col min="1289" max="1289" width="10" customWidth="1"/>
-    <col min="1290" max="1290" width="9.28515625" customWidth="1"/>
-    <col min="1291" max="1291" width="10.140625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.33203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="8" customWidth="1"/>
-    <col min="1527" max="1527" width="30.42578125" customWidth="1"/>
-    <col min="1528" max="1528" width="11.42578125" customWidth="1"/>
+    <col min="1527" max="1527" width="30.5" customWidth="1"/>
+    <col min="1528" max="1528" width="11.5" customWidth="1"/>
     <col min="1529" max="1529" width="8" customWidth="1"/>
-    <col min="1530" max="1530" width="10.28515625" customWidth="1"/>
-    <col min="1531" max="1531" width="8.28515625" customWidth="1"/>
+    <col min="1530" max="1530" width="10.33203125" customWidth="1"/>
+    <col min="1531" max="1531" width="8.33203125" customWidth="1"/>
     <col min="1532" max="1532" width="10" customWidth="1"/>
     <col min="1533" max="1537" width="8" customWidth="1"/>
-    <col min="1538" max="1538" width="8.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="8.33203125" customWidth="1"/>
     <col min="1539" max="1539" width="9" customWidth="1"/>
-    <col min="1540" max="1540" width="28.140625" customWidth="1"/>
-    <col min="1541" max="1541" width="10.140625" customWidth="1"/>
-    <col min="1543" max="1543" width="11.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="28.1640625" customWidth="1"/>
+    <col min="1541" max="1541" width="10.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="11.5" customWidth="1"/>
     <col min="1544" max="1544" width="8" customWidth="1"/>
     <col min="1545" max="1545" width="10" customWidth="1"/>
-    <col min="1546" max="1546" width="9.28515625" customWidth="1"/>
-    <col min="1547" max="1547" width="10.140625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.33203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="8" customWidth="1"/>
-    <col min="1783" max="1783" width="30.42578125" customWidth="1"/>
-    <col min="1784" max="1784" width="11.42578125" customWidth="1"/>
+    <col min="1783" max="1783" width="30.5" customWidth="1"/>
+    <col min="1784" max="1784" width="11.5" customWidth="1"/>
     <col min="1785" max="1785" width="8" customWidth="1"/>
-    <col min="1786" max="1786" width="10.28515625" customWidth="1"/>
-    <col min="1787" max="1787" width="8.28515625" customWidth="1"/>
+    <col min="1786" max="1786" width="10.33203125" customWidth="1"/>
+    <col min="1787" max="1787" width="8.33203125" customWidth="1"/>
     <col min="1788" max="1788" width="10" customWidth="1"/>
     <col min="1789" max="1793" width="8" customWidth="1"/>
-    <col min="1794" max="1794" width="8.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="8.33203125" customWidth="1"/>
     <col min="1795" max="1795" width="9" customWidth="1"/>
-    <col min="1796" max="1796" width="28.140625" customWidth="1"/>
-    <col min="1797" max="1797" width="10.140625" customWidth="1"/>
-    <col min="1799" max="1799" width="11.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="28.1640625" customWidth="1"/>
+    <col min="1797" max="1797" width="10.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="11.5" customWidth="1"/>
     <col min="1800" max="1800" width="8" customWidth="1"/>
     <col min="1801" max="1801" width="10" customWidth="1"/>
-    <col min="1802" max="1802" width="9.28515625" customWidth="1"/>
-    <col min="1803" max="1803" width="10.140625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.33203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="8" customWidth="1"/>
-    <col min="2039" max="2039" width="30.42578125" customWidth="1"/>
-    <col min="2040" max="2040" width="11.42578125" customWidth="1"/>
+    <col min="2039" max="2039" width="30.5" customWidth="1"/>
+    <col min="2040" max="2040" width="11.5" customWidth="1"/>
     <col min="2041" max="2041" width="8" customWidth="1"/>
-    <col min="2042" max="2042" width="10.28515625" customWidth="1"/>
-    <col min="2043" max="2043" width="8.28515625" customWidth="1"/>
+    <col min="2042" max="2042" width="10.33203125" customWidth="1"/>
+    <col min="2043" max="2043" width="8.33203125" customWidth="1"/>
     <col min="2044" max="2044" width="10" customWidth="1"/>
     <col min="2045" max="2049" width="8" customWidth="1"/>
-    <col min="2050" max="2050" width="8.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="8.33203125" customWidth="1"/>
     <col min="2051" max="2051" width="9" customWidth="1"/>
-    <col min="2052" max="2052" width="28.140625" customWidth="1"/>
-    <col min="2053" max="2053" width="10.140625" customWidth="1"/>
-    <col min="2055" max="2055" width="11.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="28.1640625" customWidth="1"/>
+    <col min="2053" max="2053" width="10.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="11.5" customWidth="1"/>
     <col min="2056" max="2056" width="8" customWidth="1"/>
     <col min="2057" max="2057" width="10" customWidth="1"/>
-    <col min="2058" max="2058" width="9.28515625" customWidth="1"/>
-    <col min="2059" max="2059" width="10.140625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.33203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="8" customWidth="1"/>
-    <col min="2295" max="2295" width="30.42578125" customWidth="1"/>
-    <col min="2296" max="2296" width="11.42578125" customWidth="1"/>
+    <col min="2295" max="2295" width="30.5" customWidth="1"/>
+    <col min="2296" max="2296" width="11.5" customWidth="1"/>
     <col min="2297" max="2297" width="8" customWidth="1"/>
-    <col min="2298" max="2298" width="10.28515625" customWidth="1"/>
-    <col min="2299" max="2299" width="8.28515625" customWidth="1"/>
+    <col min="2298" max="2298" width="10.33203125" customWidth="1"/>
+    <col min="2299" max="2299" width="8.33203125" customWidth="1"/>
     <col min="2300" max="2300" width="10" customWidth="1"/>
     <col min="2301" max="2305" width="8" customWidth="1"/>
-    <col min="2306" max="2306" width="8.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="8.33203125" customWidth="1"/>
     <col min="2307" max="2307" width="9" customWidth="1"/>
-    <col min="2308" max="2308" width="28.140625" customWidth="1"/>
-    <col min="2309" max="2309" width="10.140625" customWidth="1"/>
-    <col min="2311" max="2311" width="11.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="28.1640625" customWidth="1"/>
+    <col min="2309" max="2309" width="10.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="11.5" customWidth="1"/>
     <col min="2312" max="2312" width="8" customWidth="1"/>
     <col min="2313" max="2313" width="10" customWidth="1"/>
-    <col min="2314" max="2314" width="9.28515625" customWidth="1"/>
-    <col min="2315" max="2315" width="10.140625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.33203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="8" customWidth="1"/>
-    <col min="2551" max="2551" width="30.42578125" customWidth="1"/>
-    <col min="2552" max="2552" width="11.42578125" customWidth="1"/>
+    <col min="2551" max="2551" width="30.5" customWidth="1"/>
+    <col min="2552" max="2552" width="11.5" customWidth="1"/>
     <col min="2553" max="2553" width="8" customWidth="1"/>
-    <col min="2554" max="2554" width="10.28515625" customWidth="1"/>
-    <col min="2555" max="2555" width="8.28515625" customWidth="1"/>
+    <col min="2554" max="2554" width="10.33203125" customWidth="1"/>
+    <col min="2555" max="2555" width="8.33203125" customWidth="1"/>
     <col min="2556" max="2556" width="10" customWidth="1"/>
     <col min="2557" max="2561" width="8" customWidth="1"/>
-    <col min="2562" max="2562" width="8.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="8.33203125" customWidth="1"/>
     <col min="2563" max="2563" width="9" customWidth="1"/>
-    <col min="2564" max="2564" width="28.140625" customWidth="1"/>
-    <col min="2565" max="2565" width="10.140625" customWidth="1"/>
-    <col min="2567" max="2567" width="11.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="28.1640625" customWidth="1"/>
+    <col min="2565" max="2565" width="10.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="11.5" customWidth="1"/>
     <col min="2568" max="2568" width="8" customWidth="1"/>
     <col min="2569" max="2569" width="10" customWidth="1"/>
-    <col min="2570" max="2570" width="9.28515625" customWidth="1"/>
-    <col min="2571" max="2571" width="10.140625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.33203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="8" customWidth="1"/>
-    <col min="2807" max="2807" width="30.42578125" customWidth="1"/>
-    <col min="2808" max="2808" width="11.42578125" customWidth="1"/>
+    <col min="2807" max="2807" width="30.5" customWidth="1"/>
+    <col min="2808" max="2808" width="11.5" customWidth="1"/>
     <col min="2809" max="2809" width="8" customWidth="1"/>
-    <col min="2810" max="2810" width="10.28515625" customWidth="1"/>
-    <col min="2811" max="2811" width="8.28515625" customWidth="1"/>
+    <col min="2810" max="2810" width="10.33203125" customWidth="1"/>
+    <col min="2811" max="2811" width="8.33203125" customWidth="1"/>
     <col min="2812" max="2812" width="10" customWidth="1"/>
     <col min="2813" max="2817" width="8" customWidth="1"/>
-    <col min="2818" max="2818" width="8.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="8.33203125" customWidth="1"/>
     <col min="2819" max="2819" width="9" customWidth="1"/>
-    <col min="2820" max="2820" width="28.140625" customWidth="1"/>
-    <col min="2821" max="2821" width="10.140625" customWidth="1"/>
-    <col min="2823" max="2823" width="11.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="28.1640625" customWidth="1"/>
+    <col min="2821" max="2821" width="10.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="11.5" customWidth="1"/>
     <col min="2824" max="2824" width="8" customWidth="1"/>
     <col min="2825" max="2825" width="10" customWidth="1"/>
-    <col min="2826" max="2826" width="9.28515625" customWidth="1"/>
-    <col min="2827" max="2827" width="10.140625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.33203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="8" customWidth="1"/>
-    <col min="3063" max="3063" width="30.42578125" customWidth="1"/>
-    <col min="3064" max="3064" width="11.42578125" customWidth="1"/>
+    <col min="3063" max="3063" width="30.5" customWidth="1"/>
+    <col min="3064" max="3064" width="11.5" customWidth="1"/>
     <col min="3065" max="3065" width="8" customWidth="1"/>
-    <col min="3066" max="3066" width="10.28515625" customWidth="1"/>
-    <col min="3067" max="3067" width="8.28515625" customWidth="1"/>
+    <col min="3066" max="3066" width="10.33203125" customWidth="1"/>
+    <col min="3067" max="3067" width="8.33203125" customWidth="1"/>
     <col min="3068" max="3068" width="10" customWidth="1"/>
     <col min="3069" max="3073" width="8" customWidth="1"/>
-    <col min="3074" max="3074" width="8.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="8.33203125" customWidth="1"/>
     <col min="3075" max="3075" width="9" customWidth="1"/>
-    <col min="3076" max="3076" width="28.140625" customWidth="1"/>
-    <col min="3077" max="3077" width="10.140625" customWidth="1"/>
-    <col min="3079" max="3079" width="11.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="28.1640625" customWidth="1"/>
+    <col min="3077" max="3077" width="10.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="11.5" customWidth="1"/>
     <col min="3080" max="3080" width="8" customWidth="1"/>
     <col min="3081" max="3081" width="10" customWidth="1"/>
-    <col min="3082" max="3082" width="9.28515625" customWidth="1"/>
-    <col min="3083" max="3083" width="10.140625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.33203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="8" customWidth="1"/>
-    <col min="3319" max="3319" width="30.42578125" customWidth="1"/>
-    <col min="3320" max="3320" width="11.42578125" customWidth="1"/>
+    <col min="3319" max="3319" width="30.5" customWidth="1"/>
+    <col min="3320" max="3320" width="11.5" customWidth="1"/>
     <col min="3321" max="3321" width="8" customWidth="1"/>
-    <col min="3322" max="3322" width="10.28515625" customWidth="1"/>
-    <col min="3323" max="3323" width="8.28515625" customWidth="1"/>
+    <col min="3322" max="3322" width="10.33203125" customWidth="1"/>
+    <col min="3323" max="3323" width="8.33203125" customWidth="1"/>
     <col min="3324" max="3324" width="10" customWidth="1"/>
     <col min="3325" max="3329" width="8" customWidth="1"/>
-    <col min="3330" max="3330" width="8.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="8.33203125" customWidth="1"/>
     <col min="3331" max="3331" width="9" customWidth="1"/>
-    <col min="3332" max="3332" width="28.140625" customWidth="1"/>
-    <col min="3333" max="3333" width="10.140625" customWidth="1"/>
-    <col min="3335" max="3335" width="11.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="28.1640625" customWidth="1"/>
+    <col min="3333" max="3333" width="10.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="11.5" customWidth="1"/>
     <col min="3336" max="3336" width="8" customWidth="1"/>
     <col min="3337" max="3337" width="10" customWidth="1"/>
-    <col min="3338" max="3338" width="9.28515625" customWidth="1"/>
-    <col min="3339" max="3339" width="10.140625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.33203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="8" customWidth="1"/>
-    <col min="3575" max="3575" width="30.42578125" customWidth="1"/>
-    <col min="3576" max="3576" width="11.42578125" customWidth="1"/>
+    <col min="3575" max="3575" width="30.5" customWidth="1"/>
+    <col min="3576" max="3576" width="11.5" customWidth="1"/>
     <col min="3577" max="3577" width="8" customWidth="1"/>
-    <col min="3578" max="3578" width="10.28515625" customWidth="1"/>
-    <col min="3579" max="3579" width="8.28515625" customWidth="1"/>
+    <col min="3578" max="3578" width="10.33203125" customWidth="1"/>
+    <col min="3579" max="3579" width="8.33203125" customWidth="1"/>
     <col min="3580" max="3580" width="10" customWidth="1"/>
     <col min="3581" max="3585" width="8" customWidth="1"/>
-    <col min="3586" max="3586" width="8.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="8.33203125" customWidth="1"/>
     <col min="3587" max="3587" width="9" customWidth="1"/>
-    <col min="3588" max="3588" width="28.140625" customWidth="1"/>
-    <col min="3589" max="3589" width="10.140625" customWidth="1"/>
-    <col min="3591" max="3591" width="11.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="28.1640625" customWidth="1"/>
+    <col min="3589" max="3589" width="10.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="11.5" customWidth="1"/>
     <col min="3592" max="3592" width="8" customWidth="1"/>
     <col min="3593" max="3593" width="10" customWidth="1"/>
-    <col min="3594" max="3594" width="9.28515625" customWidth="1"/>
-    <col min="3595" max="3595" width="10.140625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.33203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="8" customWidth="1"/>
-    <col min="3831" max="3831" width="30.42578125" customWidth="1"/>
-    <col min="3832" max="3832" width="11.42578125" customWidth="1"/>
+    <col min="3831" max="3831" width="30.5" customWidth="1"/>
+    <col min="3832" max="3832" width="11.5" customWidth="1"/>
     <col min="3833" max="3833" width="8" customWidth="1"/>
-    <col min="3834" max="3834" width="10.28515625" customWidth="1"/>
-    <col min="3835" max="3835" width="8.28515625" customWidth="1"/>
+    <col min="3834" max="3834" width="10.33203125" customWidth="1"/>
+    <col min="3835" max="3835" width="8.33203125" customWidth="1"/>
     <col min="3836" max="3836" width="10" customWidth="1"/>
     <col min="3837" max="3841" width="8" customWidth="1"/>
-    <col min="3842" max="3842" width="8.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="8.33203125" customWidth="1"/>
     <col min="3843" max="3843" width="9" customWidth="1"/>
-    <col min="3844" max="3844" width="28.140625" customWidth="1"/>
-    <col min="3845" max="3845" width="10.140625" customWidth="1"/>
-    <col min="3847" max="3847" width="11.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="28.1640625" customWidth="1"/>
+    <col min="3845" max="3845" width="10.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="11.5" customWidth="1"/>
     <col min="3848" max="3848" width="8" customWidth="1"/>
     <col min="3849" max="3849" width="10" customWidth="1"/>
-    <col min="3850" max="3850" width="9.28515625" customWidth="1"/>
-    <col min="3851" max="3851" width="10.140625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.33203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="8" customWidth="1"/>
-    <col min="4087" max="4087" width="30.42578125" customWidth="1"/>
-    <col min="4088" max="4088" width="11.42578125" customWidth="1"/>
+    <col min="4087" max="4087" width="30.5" customWidth="1"/>
+    <col min="4088" max="4088" width="11.5" customWidth="1"/>
     <col min="4089" max="4089" width="8" customWidth="1"/>
-    <col min="4090" max="4090" width="10.28515625" customWidth="1"/>
-    <col min="4091" max="4091" width="8.28515625" customWidth="1"/>
+    <col min="4090" max="4090" width="10.33203125" customWidth="1"/>
+    <col min="4091" max="4091" width="8.33203125" customWidth="1"/>
     <col min="4092" max="4092" width="10" customWidth="1"/>
     <col min="4093" max="4097" width="8" customWidth="1"/>
-    <col min="4098" max="4098" width="8.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="8.33203125" customWidth="1"/>
     <col min="4099" max="4099" width="9" customWidth="1"/>
-    <col min="4100" max="4100" width="28.140625" customWidth="1"/>
-    <col min="4101" max="4101" width="10.140625" customWidth="1"/>
-    <col min="4103" max="4103" width="11.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="28.1640625" customWidth="1"/>
+    <col min="4101" max="4101" width="10.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="11.5" customWidth="1"/>
     <col min="4104" max="4104" width="8" customWidth="1"/>
     <col min="4105" max="4105" width="10" customWidth="1"/>
-    <col min="4106" max="4106" width="9.28515625" customWidth="1"/>
-    <col min="4107" max="4107" width="10.140625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.33203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="8" customWidth="1"/>
-    <col min="4343" max="4343" width="30.42578125" customWidth="1"/>
-    <col min="4344" max="4344" width="11.42578125" customWidth="1"/>
+    <col min="4343" max="4343" width="30.5" customWidth="1"/>
+    <col min="4344" max="4344" width="11.5" customWidth="1"/>
     <col min="4345" max="4345" width="8" customWidth="1"/>
-    <col min="4346" max="4346" width="10.28515625" customWidth="1"/>
-    <col min="4347" max="4347" width="8.28515625" customWidth="1"/>
+    <col min="4346" max="4346" width="10.33203125" customWidth="1"/>
+    <col min="4347" max="4347" width="8.33203125" customWidth="1"/>
     <col min="4348" max="4348" width="10" customWidth="1"/>
     <col min="4349" max="4353" width="8" customWidth="1"/>
-    <col min="4354" max="4354" width="8.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="8.33203125" customWidth="1"/>
     <col min="4355" max="4355" width="9" customWidth="1"/>
-    <col min="4356" max="4356" width="28.140625" customWidth="1"/>
-    <col min="4357" max="4357" width="10.140625" customWidth="1"/>
-    <col min="4359" max="4359" width="11.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="28.1640625" customWidth="1"/>
+    <col min="4357" max="4357" width="10.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="11.5" customWidth="1"/>
     <col min="4360" max="4360" width="8" customWidth="1"/>
     <col min="4361" max="4361" width="10" customWidth="1"/>
-    <col min="4362" max="4362" width="9.28515625" customWidth="1"/>
-    <col min="4363" max="4363" width="10.140625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.33203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="8" customWidth="1"/>
-    <col min="4599" max="4599" width="30.42578125" customWidth="1"/>
-    <col min="4600" max="4600" width="11.42578125" customWidth="1"/>
+    <col min="4599" max="4599" width="30.5" customWidth="1"/>
+    <col min="4600" max="4600" width="11.5" customWidth="1"/>
     <col min="4601" max="4601" width="8" customWidth="1"/>
-    <col min="4602" max="4602" width="10.28515625" customWidth="1"/>
-    <col min="4603" max="4603" width="8.28515625" customWidth="1"/>
+    <col min="4602" max="4602" width="10.33203125" customWidth="1"/>
+    <col min="4603" max="4603" width="8.33203125" customWidth="1"/>
     <col min="4604" max="4604" width="10" customWidth="1"/>
     <col min="4605" max="4609" width="8" customWidth="1"/>
-    <col min="4610" max="4610" width="8.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="8.33203125" customWidth="1"/>
     <col min="4611" max="4611" width="9" customWidth="1"/>
-    <col min="4612" max="4612" width="28.140625" customWidth="1"/>
-    <col min="4613" max="4613" width="10.140625" customWidth="1"/>
-    <col min="4615" max="4615" width="11.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="28.1640625" customWidth="1"/>
+    <col min="4613" max="4613" width="10.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="11.5" customWidth="1"/>
     <col min="4616" max="4616" width="8" customWidth="1"/>
     <col min="4617" max="4617" width="10" customWidth="1"/>
-    <col min="4618" max="4618" width="9.28515625" customWidth="1"/>
-    <col min="4619" max="4619" width="10.140625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.33203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="8" customWidth="1"/>
-    <col min="4855" max="4855" width="30.42578125" customWidth="1"/>
-    <col min="4856" max="4856" width="11.42578125" customWidth="1"/>
+    <col min="4855" max="4855" width="30.5" customWidth="1"/>
+    <col min="4856" max="4856" width="11.5" customWidth="1"/>
     <col min="4857" max="4857" width="8" customWidth="1"/>
-    <col min="4858" max="4858" width="10.28515625" customWidth="1"/>
-    <col min="4859" max="4859" width="8.28515625" customWidth="1"/>
+    <col min="4858" max="4858" width="10.33203125" customWidth="1"/>
+    <col min="4859" max="4859" width="8.33203125" customWidth="1"/>
     <col min="4860" max="4860" width="10" customWidth="1"/>
     <col min="4861" max="4865" width="8" customWidth="1"/>
-    <col min="4866" max="4866" width="8.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="8.33203125" customWidth="1"/>
     <col min="4867" max="4867" width="9" customWidth="1"/>
-    <col min="4868" max="4868" width="28.140625" customWidth="1"/>
-    <col min="4869" max="4869" width="10.140625" customWidth="1"/>
-    <col min="4871" max="4871" width="11.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="28.1640625" customWidth="1"/>
+    <col min="4869" max="4869" width="10.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="11.5" customWidth="1"/>
     <col min="4872" max="4872" width="8" customWidth="1"/>
     <col min="4873" max="4873" width="10" customWidth="1"/>
-    <col min="4874" max="4874" width="9.28515625" customWidth="1"/>
-    <col min="4875" max="4875" width="10.140625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.33203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="8" customWidth="1"/>
-    <col min="5111" max="5111" width="30.42578125" customWidth="1"/>
-    <col min="5112" max="5112" width="11.42578125" customWidth="1"/>
+    <col min="5111" max="5111" width="30.5" customWidth="1"/>
+    <col min="5112" max="5112" width="11.5" customWidth="1"/>
     <col min="5113" max="5113" width="8" customWidth="1"/>
-    <col min="5114" max="5114" width="10.28515625" customWidth="1"/>
-    <col min="5115" max="5115" width="8.28515625" customWidth="1"/>
+    <col min="5114" max="5114" width="10.33203125" customWidth="1"/>
+    <col min="5115" max="5115" width="8.33203125" customWidth="1"/>
     <col min="5116" max="5116" width="10" customWidth="1"/>
     <col min="5117" max="5121" width="8" customWidth="1"/>
-    <col min="5122" max="5122" width="8.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="8.33203125" customWidth="1"/>
     <col min="5123" max="5123" width="9" customWidth="1"/>
-    <col min="5124" max="5124" width="28.140625" customWidth="1"/>
-    <col min="5125" max="5125" width="10.140625" customWidth="1"/>
-    <col min="5127" max="5127" width="11.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="28.1640625" customWidth="1"/>
+    <col min="5125" max="5125" width="10.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="11.5" customWidth="1"/>
     <col min="5128" max="5128" width="8" customWidth="1"/>
     <col min="5129" max="5129" width="10" customWidth="1"/>
-    <col min="5130" max="5130" width="9.28515625" customWidth="1"/>
-    <col min="5131" max="5131" width="10.140625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.33203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="8" customWidth="1"/>
-    <col min="5367" max="5367" width="30.42578125" customWidth="1"/>
-    <col min="5368" max="5368" width="11.42578125" customWidth="1"/>
+    <col min="5367" max="5367" width="30.5" customWidth="1"/>
+    <col min="5368" max="5368" width="11.5" customWidth="1"/>
     <col min="5369" max="5369" width="8" customWidth="1"/>
-    <col min="5370" max="5370" width="10.28515625" customWidth="1"/>
-    <col min="5371" max="5371" width="8.28515625" customWidth="1"/>
+    <col min="5370" max="5370" width="10.33203125" customWidth="1"/>
+    <col min="5371" max="5371" width="8.33203125" customWidth="1"/>
     <col min="5372" max="5372" width="10" customWidth="1"/>
     <col min="5373" max="5377" width="8" customWidth="1"/>
-    <col min="5378" max="5378" width="8.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="8.33203125" customWidth="1"/>
     <col min="5379" max="5379" width="9" customWidth="1"/>
-    <col min="5380" max="5380" width="28.140625" customWidth="1"/>
-    <col min="5381" max="5381" width="10.140625" customWidth="1"/>
-    <col min="5383" max="5383" width="11.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="28.1640625" customWidth="1"/>
+    <col min="5381" max="5381" width="10.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="11.5" customWidth="1"/>
     <col min="5384" max="5384" width="8" customWidth="1"/>
     <col min="5385" max="5385" width="10" customWidth="1"/>
-    <col min="5386" max="5386" width="9.28515625" customWidth="1"/>
-    <col min="5387" max="5387" width="10.140625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.33203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="8" customWidth="1"/>
-    <col min="5623" max="5623" width="30.42578125" customWidth="1"/>
-    <col min="5624" max="5624" width="11.42578125" customWidth="1"/>
+    <col min="5623" max="5623" width="30.5" customWidth="1"/>
+    <col min="5624" max="5624" width="11.5" customWidth="1"/>
     <col min="5625" max="5625" width="8" customWidth="1"/>
-    <col min="5626" max="5626" width="10.28515625" customWidth="1"/>
-    <col min="5627" max="5627" width="8.28515625" customWidth="1"/>
+    <col min="5626" max="5626" width="10.33203125" customWidth="1"/>
+    <col min="5627" max="5627" width="8.33203125" customWidth="1"/>
     <col min="5628" max="5628" width="10" customWidth="1"/>
     <col min="5629" max="5633" width="8" customWidth="1"/>
-    <col min="5634" max="5634" width="8.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="8.33203125" customWidth="1"/>
     <col min="5635" max="5635" width="9" customWidth="1"/>
-    <col min="5636" max="5636" width="28.140625" customWidth="1"/>
-    <col min="5637" max="5637" width="10.140625" customWidth="1"/>
-    <col min="5639" max="5639" width="11.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="28.1640625" customWidth="1"/>
+    <col min="5637" max="5637" width="10.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="11.5" customWidth="1"/>
     <col min="5640" max="5640" width="8" customWidth="1"/>
     <col min="5641" max="5641" width="10" customWidth="1"/>
-    <col min="5642" max="5642" width="9.28515625" customWidth="1"/>
-    <col min="5643" max="5643" width="10.140625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.33203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="8" customWidth="1"/>
-    <col min="5879" max="5879" width="30.42578125" customWidth="1"/>
-    <col min="5880" max="5880" width="11.42578125" customWidth="1"/>
+    <col min="5879" max="5879" width="30.5" customWidth="1"/>
+    <col min="5880" max="5880" width="11.5" customWidth="1"/>
     <col min="5881" max="5881" width="8" customWidth="1"/>
-    <col min="5882" max="5882" width="10.28515625" customWidth="1"/>
-    <col min="5883" max="5883" width="8.28515625" customWidth="1"/>
+    <col min="5882" max="5882" width="10.33203125" customWidth="1"/>
+    <col min="5883" max="5883" width="8.33203125" customWidth="1"/>
     <col min="5884" max="5884" width="10" customWidth="1"/>
     <col min="5885" max="5889" width="8" customWidth="1"/>
-    <col min="5890" max="5890" width="8.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="8.33203125" customWidth="1"/>
     <col min="5891" max="5891" width="9" customWidth="1"/>
-    <col min="5892" max="5892" width="28.140625" customWidth="1"/>
-    <col min="5893" max="5893" width="10.140625" customWidth="1"/>
-    <col min="5895" max="5895" width="11.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="28.1640625" customWidth="1"/>
+    <col min="5893" max="5893" width="10.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="11.5" customWidth="1"/>
     <col min="5896" max="5896" width="8" customWidth="1"/>
     <col min="5897" max="5897" width="10" customWidth="1"/>
-    <col min="5898" max="5898" width="9.28515625" customWidth="1"/>
-    <col min="5899" max="5899" width="10.140625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.33203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="8" customWidth="1"/>
-    <col min="6135" max="6135" width="30.42578125" customWidth="1"/>
-    <col min="6136" max="6136" width="11.42578125" customWidth="1"/>
+    <col min="6135" max="6135" width="30.5" customWidth="1"/>
+    <col min="6136" max="6136" width="11.5" customWidth="1"/>
     <col min="6137" max="6137" width="8" customWidth="1"/>
-    <col min="6138" max="6138" width="10.28515625" customWidth="1"/>
-    <col min="6139" max="6139" width="8.28515625" customWidth="1"/>
+    <col min="6138" max="6138" width="10.33203125" customWidth="1"/>
+    <col min="6139" max="6139" width="8.33203125" customWidth="1"/>
     <col min="6140" max="6140" width="10" customWidth="1"/>
     <col min="6141" max="6145" width="8" customWidth="1"/>
-    <col min="6146" max="6146" width="8.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="8.33203125" customWidth="1"/>
     <col min="6147" max="6147" width="9" customWidth="1"/>
-    <col min="6148" max="6148" width="28.140625" customWidth="1"/>
-    <col min="6149" max="6149" width="10.140625" customWidth="1"/>
-    <col min="6151" max="6151" width="11.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="28.1640625" customWidth="1"/>
+    <col min="6149" max="6149" width="10.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="11.5" customWidth="1"/>
     <col min="6152" max="6152" width="8" customWidth="1"/>
     <col min="6153" max="6153" width="10" customWidth="1"/>
-    <col min="6154" max="6154" width="9.28515625" customWidth="1"/>
-    <col min="6155" max="6155" width="10.140625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.33203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="8" customWidth="1"/>
-    <col min="6391" max="6391" width="30.42578125" customWidth="1"/>
-    <col min="6392" max="6392" width="11.42578125" customWidth="1"/>
+    <col min="6391" max="6391" width="30.5" customWidth="1"/>
+    <col min="6392" max="6392" width="11.5" customWidth="1"/>
     <col min="6393" max="6393" width="8" customWidth="1"/>
-    <col min="6394" max="6394" width="10.28515625" customWidth="1"/>
-    <col min="6395" max="6395" width="8.28515625" customWidth="1"/>
+    <col min="6394" max="6394" width="10.33203125" customWidth="1"/>
+    <col min="6395" max="6395" width="8.33203125" customWidth="1"/>
     <col min="6396" max="6396" width="10" customWidth="1"/>
     <col min="6397" max="6401" width="8" customWidth="1"/>
-    <col min="6402" max="6402" width="8.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="8.33203125" customWidth="1"/>
     <col min="6403" max="6403" width="9" customWidth="1"/>
-    <col min="6404" max="6404" width="28.140625" customWidth="1"/>
-    <col min="6405" max="6405" width="10.140625" customWidth="1"/>
-    <col min="6407" max="6407" width="11.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="28.1640625" customWidth="1"/>
+    <col min="6405" max="6405" width="10.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="11.5" customWidth="1"/>
     <col min="6408" max="6408" width="8" customWidth="1"/>
     <col min="6409" max="6409" width="10" customWidth="1"/>
-    <col min="6410" max="6410" width="9.28515625" customWidth="1"/>
-    <col min="6411" max="6411" width="10.140625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.33203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="8" customWidth="1"/>
-    <col min="6647" max="6647" width="30.42578125" customWidth="1"/>
-    <col min="6648" max="6648" width="11.42578125" customWidth="1"/>
+    <col min="6647" max="6647" width="30.5" customWidth="1"/>
+    <col min="6648" max="6648" width="11.5" customWidth="1"/>
     <col min="6649" max="6649" width="8" customWidth="1"/>
-    <col min="6650" max="6650" width="10.28515625" customWidth="1"/>
-    <col min="6651" max="6651" width="8.28515625" customWidth="1"/>
+    <col min="6650" max="6650" width="10.33203125" customWidth="1"/>
+    <col min="6651" max="6651" width="8.33203125" customWidth="1"/>
     <col min="6652" max="6652" width="10" customWidth="1"/>
     <col min="6653" max="6657" width="8" customWidth="1"/>
-    <col min="6658" max="6658" width="8.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="8.33203125" customWidth="1"/>
     <col min="6659" max="6659" width="9" customWidth="1"/>
-    <col min="6660" max="6660" width="28.140625" customWidth="1"/>
-    <col min="6661" max="6661" width="10.140625" customWidth="1"/>
-    <col min="6663" max="6663" width="11.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="28.1640625" customWidth="1"/>
+    <col min="6661" max="6661" width="10.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="11.5" customWidth="1"/>
     <col min="6664" max="6664" width="8" customWidth="1"/>
     <col min="6665" max="6665" width="10" customWidth="1"/>
-    <col min="6666" max="6666" width="9.28515625" customWidth="1"/>
-    <col min="6667" max="6667" width="10.140625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.33203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="8" customWidth="1"/>
-    <col min="6903" max="6903" width="30.42578125" customWidth="1"/>
-    <col min="6904" max="6904" width="11.42578125" customWidth="1"/>
+    <col min="6903" max="6903" width="30.5" customWidth="1"/>
+    <col min="6904" max="6904" width="11.5" customWidth="1"/>
     <col min="6905" max="6905" width="8" customWidth="1"/>
-    <col min="6906" max="6906" width="10.28515625" customWidth="1"/>
-    <col min="6907" max="6907" width="8.28515625" customWidth="1"/>
+    <col min="6906" max="6906" width="10.33203125" customWidth="1"/>
+    <col min="6907" max="6907" width="8.33203125" customWidth="1"/>
     <col min="6908" max="6908" width="10" customWidth="1"/>
     <col min="6909" max="6913" width="8" customWidth="1"/>
-    <col min="6914" max="6914" width="8.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="8.33203125" customWidth="1"/>
     <col min="6915" max="6915" width="9" customWidth="1"/>
-    <col min="6916" max="6916" width="28.140625" customWidth="1"/>
-    <col min="6917" max="6917" width="10.140625" customWidth="1"/>
-    <col min="6919" max="6919" width="11.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="28.1640625" customWidth="1"/>
+    <col min="6917" max="6917" width="10.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="11.5" customWidth="1"/>
     <col min="6920" max="6920" width="8" customWidth="1"/>
     <col min="6921" max="6921" width="10" customWidth="1"/>
-    <col min="6922" max="6922" width="9.28515625" customWidth="1"/>
-    <col min="6923" max="6923" width="10.140625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.33203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="8" customWidth="1"/>
-    <col min="7159" max="7159" width="30.42578125" customWidth="1"/>
-    <col min="7160" max="7160" width="11.42578125" customWidth="1"/>
+    <col min="7159" max="7159" width="30.5" customWidth="1"/>
+    <col min="7160" max="7160" width="11.5" customWidth="1"/>
     <col min="7161" max="7161" width="8" customWidth="1"/>
-    <col min="7162" max="7162" width="10.28515625" customWidth="1"/>
-    <col min="7163" max="7163" width="8.28515625" customWidth="1"/>
+    <col min="7162" max="7162" width="10.33203125" customWidth="1"/>
+    <col min="7163" max="7163" width="8.33203125" customWidth="1"/>
     <col min="7164" max="7164" width="10" customWidth="1"/>
     <col min="7165" max="7169" width="8" customWidth="1"/>
-    <col min="7170" max="7170" width="8.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="8.33203125" customWidth="1"/>
     <col min="7171" max="7171" width="9" customWidth="1"/>
-    <col min="7172" max="7172" width="28.140625" customWidth="1"/>
-    <col min="7173" max="7173" width="10.140625" customWidth="1"/>
-    <col min="7175" max="7175" width="11.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="28.1640625" customWidth="1"/>
+    <col min="7173" max="7173" width="10.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="11.5" customWidth="1"/>
     <col min="7176" max="7176" width="8" customWidth="1"/>
     <col min="7177" max="7177" width="10" customWidth="1"/>
-    <col min="7178" max="7178" width="9.28515625" customWidth="1"/>
-    <col min="7179" max="7179" width="10.140625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.33203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="8" customWidth="1"/>
-    <col min="7415" max="7415" width="30.42578125" customWidth="1"/>
-    <col min="7416" max="7416" width="11.42578125" customWidth="1"/>
+    <col min="7415" max="7415" width="30.5" customWidth="1"/>
+    <col min="7416" max="7416" width="11.5" customWidth="1"/>
     <col min="7417" max="7417" width="8" customWidth="1"/>
-    <col min="7418" max="7418" width="10.28515625" customWidth="1"/>
-    <col min="7419" max="7419" width="8.28515625" customWidth="1"/>
+    <col min="7418" max="7418" width="10.33203125" customWidth="1"/>
+    <col min="7419" max="7419" width="8.33203125" customWidth="1"/>
     <col min="7420" max="7420" width="10" customWidth="1"/>
     <col min="7421" max="7425" width="8" customWidth="1"/>
-    <col min="7426" max="7426" width="8.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="8.33203125" customWidth="1"/>
     <col min="7427" max="7427" width="9" customWidth="1"/>
-    <col min="7428" max="7428" width="28.140625" customWidth="1"/>
-    <col min="7429" max="7429" width="10.140625" customWidth="1"/>
-    <col min="7431" max="7431" width="11.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="28.1640625" customWidth="1"/>
+    <col min="7429" max="7429" width="10.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="11.5" customWidth="1"/>
     <col min="7432" max="7432" width="8" customWidth="1"/>
     <col min="7433" max="7433" width="10" customWidth="1"/>
-    <col min="7434" max="7434" width="9.28515625" customWidth="1"/>
-    <col min="7435" max="7435" width="10.140625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.33203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="8" customWidth="1"/>
-    <col min="7671" max="7671" width="30.42578125" customWidth="1"/>
-    <col min="7672" max="7672" width="11.42578125" customWidth="1"/>
+    <col min="7671" max="7671" width="30.5" customWidth="1"/>
+    <col min="7672" max="7672" width="11.5" customWidth="1"/>
     <col min="7673" max="7673" width="8" customWidth="1"/>
-    <col min="7674" max="7674" width="10.28515625" customWidth="1"/>
-    <col min="7675" max="7675" width="8.28515625" customWidth="1"/>
+    <col min="7674" max="7674" width="10.33203125" customWidth="1"/>
+    <col min="7675" max="7675" width="8.33203125" customWidth="1"/>
     <col min="7676" max="7676" width="10" customWidth="1"/>
     <col min="7677" max="7681" width="8" customWidth="1"/>
-    <col min="7682" max="7682" width="8.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="8.33203125" customWidth="1"/>
     <col min="7683" max="7683" width="9" customWidth="1"/>
-    <col min="7684" max="7684" width="28.140625" customWidth="1"/>
-    <col min="7685" max="7685" width="10.140625" customWidth="1"/>
-    <col min="7687" max="7687" width="11.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="28.1640625" customWidth="1"/>
+    <col min="7685" max="7685" width="10.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="11.5" customWidth="1"/>
     <col min="7688" max="7688" width="8" customWidth="1"/>
     <col min="7689" max="7689" width="10" customWidth="1"/>
-    <col min="7690" max="7690" width="9.28515625" customWidth="1"/>
-    <col min="7691" max="7691" width="10.140625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.33203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="8" customWidth="1"/>
-    <col min="7927" max="7927" width="30.42578125" customWidth="1"/>
-    <col min="7928" max="7928" width="11.42578125" customWidth="1"/>
+    <col min="7927" max="7927" width="30.5" customWidth="1"/>
+    <col min="7928" max="7928" width="11.5" customWidth="1"/>
     <col min="7929" max="7929" width="8" customWidth="1"/>
-    <col min="7930" max="7930" width="10.28515625" customWidth="1"/>
-    <col min="7931" max="7931" width="8.28515625" customWidth="1"/>
+    <col min="7930" max="7930" width="10.33203125" customWidth="1"/>
+    <col min="7931" max="7931" width="8.33203125" customWidth="1"/>
     <col min="7932" max="7932" width="10" customWidth="1"/>
     <col min="7933" max="7937" width="8" customWidth="1"/>
-    <col min="7938" max="7938" width="8.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="8.33203125" customWidth="1"/>
     <col min="7939" max="7939" width="9" customWidth="1"/>
-    <col min="7940" max="7940" width="28.140625" customWidth="1"/>
-    <col min="7941" max="7941" width="10.140625" customWidth="1"/>
-    <col min="7943" max="7943" width="11.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="28.1640625" customWidth="1"/>
+    <col min="7941" max="7941" width="10.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="11.5" customWidth="1"/>
     <col min="7944" max="7944" width="8" customWidth="1"/>
     <col min="7945" max="7945" width="10" customWidth="1"/>
-    <col min="7946" max="7946" width="9.28515625" customWidth="1"/>
-    <col min="7947" max="7947" width="10.140625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.33203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="8" customWidth="1"/>
-    <col min="8183" max="8183" width="30.42578125" customWidth="1"/>
-    <col min="8184" max="8184" width="11.42578125" customWidth="1"/>
+    <col min="8183" max="8183" width="30.5" customWidth="1"/>
+    <col min="8184" max="8184" width="11.5" customWidth="1"/>
     <col min="8185" max="8185" width="8" customWidth="1"/>
-    <col min="8186" max="8186" width="10.28515625" customWidth="1"/>
-    <col min="8187" max="8187" width="8.28515625" customWidth="1"/>
+    <col min="8186" max="8186" width="10.33203125" customWidth="1"/>
+    <col min="8187" max="8187" width="8.33203125" customWidth="1"/>
     <col min="8188" max="8188" width="10" customWidth="1"/>
     <col min="8189" max="8193" width="8" customWidth="1"/>
-    <col min="8194" max="8194" width="8.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="8.33203125" customWidth="1"/>
     <col min="8195" max="8195" width="9" customWidth="1"/>
-    <col min="8196" max="8196" width="28.140625" customWidth="1"/>
-    <col min="8197" max="8197" width="10.140625" customWidth="1"/>
-    <col min="8199" max="8199" width="11.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="28.1640625" customWidth="1"/>
+    <col min="8197" max="8197" width="10.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="11.5" customWidth="1"/>
     <col min="8200" max="8200" width="8" customWidth="1"/>
     <col min="8201" max="8201" width="10" customWidth="1"/>
-    <col min="8202" max="8202" width="9.28515625" customWidth="1"/>
-    <col min="8203" max="8203" width="10.140625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.33203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="8" customWidth="1"/>
-    <col min="8439" max="8439" width="30.42578125" customWidth="1"/>
-    <col min="8440" max="8440" width="11.42578125" customWidth="1"/>
+    <col min="8439" max="8439" width="30.5" customWidth="1"/>
+    <col min="8440" max="8440" width="11.5" customWidth="1"/>
     <col min="8441" max="8441" width="8" customWidth="1"/>
-    <col min="8442" max="8442" width="10.28515625" customWidth="1"/>
-    <col min="8443" max="8443" width="8.28515625" customWidth="1"/>
+    <col min="8442" max="8442" width="10.33203125" customWidth="1"/>
+    <col min="8443" max="8443" width="8.33203125" customWidth="1"/>
     <col min="8444" max="8444" width="10" customWidth="1"/>
     <col min="8445" max="8449" width="8" customWidth="1"/>
-    <col min="8450" max="8450" width="8.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="8.33203125" customWidth="1"/>
     <col min="8451" max="8451" width="9" customWidth="1"/>
-    <col min="8452" max="8452" width="28.140625" customWidth="1"/>
-    <col min="8453" max="8453" width="10.140625" customWidth="1"/>
-    <col min="8455" max="8455" width="11.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="28.1640625" customWidth="1"/>
+    <col min="8453" max="8453" width="10.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="11.5" customWidth="1"/>
     <col min="8456" max="8456" width="8" customWidth="1"/>
     <col min="8457" max="8457" width="10" customWidth="1"/>
-    <col min="8458" max="8458" width="9.28515625" customWidth="1"/>
-    <col min="8459" max="8459" width="10.140625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.33203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="8" customWidth="1"/>
-    <col min="8695" max="8695" width="30.42578125" customWidth="1"/>
-    <col min="8696" max="8696" width="11.42578125" customWidth="1"/>
+    <col min="8695" max="8695" width="30.5" customWidth="1"/>
+    <col min="8696" max="8696" width="11.5" customWidth="1"/>
     <col min="8697" max="8697" width="8" customWidth="1"/>
-    <col min="8698" max="8698" width="10.28515625" customWidth="1"/>
-    <col min="8699" max="8699" width="8.28515625" customWidth="1"/>
+    <col min="8698" max="8698" width="10.33203125" customWidth="1"/>
+    <col min="8699" max="8699" width="8.33203125" customWidth="1"/>
     <col min="8700" max="8700" width="10" customWidth="1"/>
     <col min="8701" max="8705" width="8" customWidth="1"/>
-    <col min="8706" max="8706" width="8.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="8.33203125" customWidth="1"/>
     <col min="8707" max="8707" width="9" customWidth="1"/>
-    <col min="8708" max="8708" width="28.140625" customWidth="1"/>
-    <col min="8709" max="8709" width="10.140625" customWidth="1"/>
-    <col min="8711" max="8711" width="11.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="28.1640625" customWidth="1"/>
+    <col min="8709" max="8709" width="10.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="11.5" customWidth="1"/>
     <col min="8712" max="8712" width="8" customWidth="1"/>
     <col min="8713" max="8713" width="10" customWidth="1"/>
-    <col min="8714" max="8714" width="9.28515625" customWidth="1"/>
-    <col min="8715" max="8715" width="10.140625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.33203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="8" customWidth="1"/>
-    <col min="8951" max="8951" width="30.42578125" customWidth="1"/>
-    <col min="8952" max="8952" width="11.42578125" customWidth="1"/>
+    <col min="8951" max="8951" width="30.5" customWidth="1"/>
+    <col min="8952" max="8952" width="11.5" customWidth="1"/>
     <col min="8953" max="8953" width="8" customWidth="1"/>
-    <col min="8954" max="8954" width="10.28515625" customWidth="1"/>
-    <col min="8955" max="8955" width="8.28515625" customWidth="1"/>
+    <col min="8954" max="8954" width="10.33203125" customWidth="1"/>
+    <col min="8955" max="8955" width="8.33203125" customWidth="1"/>
     <col min="8956" max="8956" width="10" customWidth="1"/>
     <col min="8957" max="8961" width="8" customWidth="1"/>
-    <col min="8962" max="8962" width="8.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="8.33203125" customWidth="1"/>
     <col min="8963" max="8963" width="9" customWidth="1"/>
-    <col min="8964" max="8964" width="28.140625" customWidth="1"/>
-    <col min="8965" max="8965" width="10.140625" customWidth="1"/>
-    <col min="8967" max="8967" width="11.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="28.1640625" customWidth="1"/>
+    <col min="8965" max="8965" width="10.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="11.5" customWidth="1"/>
     <col min="8968" max="8968" width="8" customWidth="1"/>
     <col min="8969" max="8969" width="10" customWidth="1"/>
-    <col min="8970" max="8970" width="9.28515625" customWidth="1"/>
-    <col min="8971" max="8971" width="10.140625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.33203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="8" customWidth="1"/>
-    <col min="9207" max="9207" width="30.42578125" customWidth="1"/>
-    <col min="9208" max="9208" width="11.42578125" customWidth="1"/>
+    <col min="9207" max="9207" width="30.5" customWidth="1"/>
+    <col min="9208" max="9208" width="11.5" customWidth="1"/>
     <col min="9209" max="9209" width="8" customWidth="1"/>
-    <col min="9210" max="9210" width="10.28515625" customWidth="1"/>
-    <col min="9211" max="9211" width="8.28515625" customWidth="1"/>
+    <col min="9210" max="9210" width="10.33203125" customWidth="1"/>
+    <col min="9211" max="9211" width="8.33203125" customWidth="1"/>
     <col min="9212" max="9212" width="10" customWidth="1"/>
     <col min="9213" max="9217" width="8" customWidth="1"/>
-    <col min="9218" max="9218" width="8.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="8.33203125" customWidth="1"/>
     <col min="9219" max="9219" width="9" customWidth="1"/>
-    <col min="9220" max="9220" width="28.140625" customWidth="1"/>
-    <col min="9221" max="9221" width="10.140625" customWidth="1"/>
-    <col min="9223" max="9223" width="11.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="28.1640625" customWidth="1"/>
+    <col min="9221" max="9221" width="10.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="11.5" customWidth="1"/>
     <col min="9224" max="9224" width="8" customWidth="1"/>
     <col min="9225" max="9225" width="10" customWidth="1"/>
-    <col min="9226" max="9226" width="9.28515625" customWidth="1"/>
-    <col min="9227" max="9227" width="10.140625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.33203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="8" customWidth="1"/>
-    <col min="9463" max="9463" width="30.42578125" customWidth="1"/>
-    <col min="9464" max="9464" width="11.42578125" customWidth="1"/>
+    <col min="9463" max="9463" width="30.5" customWidth="1"/>
+    <col min="9464" max="9464" width="11.5" customWidth="1"/>
     <col min="9465" max="9465" width="8" customWidth="1"/>
-    <col min="9466" max="9466" width="10.28515625" customWidth="1"/>
-    <col min="9467" max="9467" width="8.28515625" customWidth="1"/>
+    <col min="9466" max="9466" width="10.33203125" customWidth="1"/>
+    <col min="9467" max="9467" width="8.33203125" customWidth="1"/>
     <col min="9468" max="9468" width="10" customWidth="1"/>
     <col min="9469" max="9473" width="8" customWidth="1"/>
-    <col min="9474" max="9474" width="8.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="8.33203125" customWidth="1"/>
     <col min="9475" max="9475" width="9" customWidth="1"/>
-    <col min="9476" max="9476" width="28.140625" customWidth="1"/>
-    <col min="9477" max="9477" width="10.140625" customWidth="1"/>
-    <col min="9479" max="9479" width="11.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="28.1640625" customWidth="1"/>
+    <col min="9477" max="9477" width="10.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="11.5" customWidth="1"/>
     <col min="9480" max="9480" width="8" customWidth="1"/>
     <col min="9481" max="9481" width="10" customWidth="1"/>
-    <col min="9482" max="9482" width="9.28515625" customWidth="1"/>
-    <col min="9483" max="9483" width="10.140625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.33203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="8" customWidth="1"/>
-    <col min="9719" max="9719" width="30.42578125" customWidth="1"/>
-    <col min="9720" max="9720" width="11.42578125" customWidth="1"/>
+    <col min="9719" max="9719" width="30.5" customWidth="1"/>
+    <col min="9720" max="9720" width="11.5" customWidth="1"/>
     <col min="9721" max="9721" width="8" customWidth="1"/>
-    <col min="9722" max="9722" width="10.28515625" customWidth="1"/>
-    <col min="9723" max="9723" width="8.28515625" customWidth="1"/>
+    <col min="9722" max="9722" width="10.33203125" customWidth="1"/>
+    <col min="9723" max="9723" width="8.33203125" customWidth="1"/>
     <col min="9724" max="9724" width="10" customWidth="1"/>
     <col min="9725" max="9729" width="8" customWidth="1"/>
-    <col min="9730" max="9730" width="8.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="8.33203125" customWidth="1"/>
     <col min="9731" max="9731" width="9" customWidth="1"/>
-    <col min="9732" max="9732" width="28.140625" customWidth="1"/>
-    <col min="9733" max="9733" width="10.140625" customWidth="1"/>
-    <col min="9735" max="9735" width="11.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="28.1640625" customWidth="1"/>
+    <col min="9733" max="9733" width="10.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="11.5" customWidth="1"/>
     <col min="9736" max="9736" width="8" customWidth="1"/>
     <col min="9737" max="9737" width="10" customWidth="1"/>
-    <col min="9738" max="9738" width="9.28515625" customWidth="1"/>
-    <col min="9739" max="9739" width="10.140625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.33203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="8" customWidth="1"/>
-    <col min="9975" max="9975" width="30.42578125" customWidth="1"/>
-    <col min="9976" max="9976" width="11.42578125" customWidth="1"/>
+    <col min="9975" max="9975" width="30.5" customWidth="1"/>
+    <col min="9976" max="9976" width="11.5" customWidth="1"/>
     <col min="9977" max="9977" width="8" customWidth="1"/>
-    <col min="9978" max="9978" width="10.28515625" customWidth="1"/>
-    <col min="9979" max="9979" width="8.28515625" customWidth="1"/>
+    <col min="9978" max="9978" width="10.33203125" customWidth="1"/>
+    <col min="9979" max="9979" width="8.33203125" customWidth="1"/>
     <col min="9980" max="9980" width="10" customWidth="1"/>
     <col min="9981" max="9985" width="8" customWidth="1"/>
-    <col min="9986" max="9986" width="8.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="8.33203125" customWidth="1"/>
     <col min="9987" max="9987" width="9" customWidth="1"/>
-    <col min="9988" max="9988" width="28.140625" customWidth="1"/>
-    <col min="9989" max="9989" width="10.140625" customWidth="1"/>
-    <col min="9991" max="9991" width="11.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="28.1640625" customWidth="1"/>
+    <col min="9989" max="9989" width="10.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="11.5" customWidth="1"/>
     <col min="9992" max="9992" width="8" customWidth="1"/>
     <col min="9993" max="9993" width="10" customWidth="1"/>
-    <col min="9994" max="9994" width="9.28515625" customWidth="1"/>
-    <col min="9995" max="9995" width="10.140625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.33203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="8" customWidth="1"/>
-    <col min="10231" max="10231" width="30.42578125" customWidth="1"/>
-    <col min="10232" max="10232" width="11.42578125" customWidth="1"/>
+    <col min="10231" max="10231" width="30.5" customWidth="1"/>
+    <col min="10232" max="10232" width="11.5" customWidth="1"/>
     <col min="10233" max="10233" width="8" customWidth="1"/>
-    <col min="10234" max="10234" width="10.28515625" customWidth="1"/>
-    <col min="10235" max="10235" width="8.28515625" customWidth="1"/>
+    <col min="10234" max="10234" width="10.33203125" customWidth="1"/>
+    <col min="10235" max="10235" width="8.33203125" customWidth="1"/>
     <col min="10236" max="10236" width="10" customWidth="1"/>
     <col min="10237" max="10241" width="8" customWidth="1"/>
-    <col min="10242" max="10242" width="8.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="8.33203125" customWidth="1"/>
     <col min="10243" max="10243" width="9" customWidth="1"/>
-    <col min="10244" max="10244" width="28.140625" customWidth="1"/>
-    <col min="10245" max="10245" width="10.140625" customWidth="1"/>
-    <col min="10247" max="10247" width="11.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="28.1640625" customWidth="1"/>
+    <col min="10245" max="10245" width="10.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="11.5" customWidth="1"/>
     <col min="10248" max="10248" width="8" customWidth="1"/>
     <col min="10249" max="10249" width="10" customWidth="1"/>
-    <col min="10250" max="10250" width="9.28515625" customWidth="1"/>
-    <col min="10251" max="10251" width="10.140625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.33203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="8" customWidth="1"/>
-    <col min="10487" max="10487" width="30.42578125" customWidth="1"/>
-    <col min="10488" max="10488" width="11.42578125" customWidth="1"/>
+    <col min="10487" max="10487" width="30.5" customWidth="1"/>
+    <col min="10488" max="10488" width="11.5" customWidth="1"/>
     <col min="10489" max="10489" width="8" customWidth="1"/>
-    <col min="10490" max="10490" width="10.28515625" customWidth="1"/>
-    <col min="10491" max="10491" width="8.28515625" customWidth="1"/>
+    <col min="10490" max="10490" width="10.33203125" customWidth="1"/>
+    <col min="10491" max="10491" width="8.33203125" customWidth="1"/>
     <col min="10492" max="10492" width="10" customWidth="1"/>
     <col min="10493" max="10497" width="8" customWidth="1"/>
-    <col min="10498" max="10498" width="8.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="8.33203125" customWidth="1"/>
     <col min="10499" max="10499" width="9" customWidth="1"/>
-    <col min="10500" max="10500" width="28.140625" customWidth="1"/>
-    <col min="10501" max="10501" width="10.140625" customWidth="1"/>
-    <col min="10503" max="10503" width="11.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="28.1640625" customWidth="1"/>
+    <col min="10501" max="10501" width="10.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="11.5" customWidth="1"/>
     <col min="10504" max="10504" width="8" customWidth="1"/>
     <col min="10505" max="10505" width="10" customWidth="1"/>
-    <col min="10506" max="10506" width="9.28515625" customWidth="1"/>
-    <col min="10507" max="10507" width="10.140625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.33203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="8" customWidth="1"/>
-    <col min="10743" max="10743" width="30.42578125" customWidth="1"/>
-    <col min="10744" max="10744" width="11.42578125" customWidth="1"/>
+    <col min="10743" max="10743" width="30.5" customWidth="1"/>
+    <col min="10744" max="10744" width="11.5" customWidth="1"/>
     <col min="10745" max="10745" width="8" customWidth="1"/>
-    <col min="10746" max="10746" width="10.28515625" customWidth="1"/>
-    <col min="10747" max="10747" width="8.28515625" customWidth="1"/>
+    <col min="10746" max="10746" width="10.33203125" customWidth="1"/>
+    <col min="10747" max="10747" width="8.33203125" customWidth="1"/>
     <col min="10748" max="10748" width="10" customWidth="1"/>
     <col min="10749" max="10753" width="8" customWidth="1"/>
-    <col min="10754" max="10754" width="8.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="8.33203125" customWidth="1"/>
     <col min="10755" max="10755" width="9" customWidth="1"/>
-    <col min="10756" max="10756" width="28.140625" customWidth="1"/>
-    <col min="10757" max="10757" width="10.140625" customWidth="1"/>
-    <col min="10759" max="10759" width="11.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="28.1640625" customWidth="1"/>
+    <col min="10757" max="10757" width="10.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="11.5" customWidth="1"/>
     <col min="10760" max="10760" width="8" customWidth="1"/>
     <col min="10761" max="10761" width="10" customWidth="1"/>
-    <col min="10762" max="10762" width="9.28515625" customWidth="1"/>
-    <col min="10763" max="10763" width="10.140625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.33203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="8" customWidth="1"/>
-    <col min="10999" max="10999" width="30.42578125" customWidth="1"/>
-    <col min="11000" max="11000" width="11.42578125" customWidth="1"/>
+    <col min="10999" max="10999" width="30.5" customWidth="1"/>
+    <col min="11000" max="11000" width="11.5" customWidth="1"/>
     <col min="11001" max="11001" width="8" customWidth="1"/>
-    <col min="11002" max="11002" width="10.28515625" customWidth="1"/>
-    <col min="11003" max="11003" width="8.28515625" customWidth="1"/>
+    <col min="11002" max="11002" width="10.33203125" customWidth="1"/>
+    <col min="11003" max="11003" width="8.33203125" customWidth="1"/>
     <col min="11004" max="11004" width="10" customWidth="1"/>
     <col min="11005" max="11009" width="8" customWidth="1"/>
-    <col min="11010" max="11010" width="8.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="8.33203125" customWidth="1"/>
     <col min="11011" max="11011" width="9" customWidth="1"/>
-    <col min="11012" max="11012" width="28.140625" customWidth="1"/>
-    <col min="11013" max="11013" width="10.140625" customWidth="1"/>
-    <col min="11015" max="11015" width="11.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="28.1640625" customWidth="1"/>
+    <col min="11013" max="11013" width="10.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="11.5" customWidth="1"/>
     <col min="11016" max="11016" width="8" customWidth="1"/>
     <col min="11017" max="11017" width="10" customWidth="1"/>
-    <col min="11018" max="11018" width="9.28515625" customWidth="1"/>
-    <col min="11019" max="11019" width="10.140625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.33203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="8" customWidth="1"/>
-    <col min="11255" max="11255" width="30.42578125" customWidth="1"/>
-    <col min="11256" max="11256" width="11.42578125" customWidth="1"/>
+    <col min="11255" max="11255" width="30.5" customWidth="1"/>
+    <col min="11256" max="11256" width="11.5" customWidth="1"/>
     <col min="11257" max="11257" width="8" customWidth="1"/>
-    <col min="11258" max="11258" width="10.28515625" customWidth="1"/>
-    <col min="11259" max="11259" width="8.28515625" customWidth="1"/>
+    <col min="11258" max="11258" width="10.33203125" customWidth="1"/>
+    <col min="11259" max="11259" width="8.33203125" customWidth="1"/>
     <col min="11260" max="11260" width="10" customWidth="1"/>
     <col min="11261" max="11265" width="8" customWidth="1"/>
-    <col min="11266" max="11266" width="8.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="8.33203125" customWidth="1"/>
     <col min="11267" max="11267" width="9" customWidth="1"/>
-    <col min="11268" max="11268" width="28.140625" customWidth="1"/>
-    <col min="11269" max="11269" width="10.140625" customWidth="1"/>
-    <col min="11271" max="11271" width="11.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="28.1640625" customWidth="1"/>
+    <col min="11269" max="11269" width="10.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="11.5" customWidth="1"/>
     <col min="11272" max="11272" width="8" customWidth="1"/>
     <col min="11273" max="11273" width="10" customWidth="1"/>
-    <col min="11274" max="11274" width="9.28515625" customWidth="1"/>
-    <col min="11275" max="11275" width="10.140625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.33203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="8" customWidth="1"/>
-    <col min="11511" max="11511" width="30.42578125" customWidth="1"/>
-    <col min="11512" max="11512" width="11.42578125" customWidth="1"/>
+    <col min="11511" max="11511" width="30.5" customWidth="1"/>
+    <col min="11512" max="11512" width="11.5" customWidth="1"/>
     <col min="11513" max="11513" width="8" customWidth="1"/>
-    <col min="11514" max="11514" width="10.28515625" customWidth="1"/>
-    <col min="11515" max="11515" width="8.28515625" customWidth="1"/>
+    <col min="11514" max="11514" width="10.33203125" customWidth="1"/>
+    <col min="11515" max="11515" width="8.33203125" customWidth="1"/>
     <col min="11516" max="11516" width="10" customWidth="1"/>
     <col min="11517" max="11521" width="8" customWidth="1"/>
-    <col min="11522" max="11522" width="8.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="8.33203125" customWidth="1"/>
     <col min="11523" max="11523" width="9" customWidth="1"/>
-    <col min="11524" max="11524" width="28.140625" customWidth="1"/>
-    <col min="11525" max="11525" width="10.140625" customWidth="1"/>
-    <col min="11527" max="11527" width="11.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="28.1640625" customWidth="1"/>
+    <col min="11525" max="11525" width="10.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="11.5" customWidth="1"/>
     <col min="11528" max="11528" width="8" customWidth="1"/>
     <col min="11529" max="11529" width="10" customWidth="1"/>
-    <col min="11530" max="11530" width="9.28515625" customWidth="1"/>
-    <col min="11531" max="11531" width="10.140625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.33203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="8" customWidth="1"/>
-    <col min="11767" max="11767" width="30.42578125" customWidth="1"/>
-    <col min="11768" max="11768" width="11.42578125" customWidth="1"/>
+    <col min="11767" max="11767" width="30.5" customWidth="1"/>
+    <col min="11768" max="11768" width="11.5" customWidth="1"/>
     <col min="11769" max="11769" width="8" customWidth="1"/>
-    <col min="11770" max="11770" width="10.28515625" customWidth="1"/>
-    <col min="11771" max="11771" width="8.28515625" customWidth="1"/>
+    <col min="11770" max="11770" width="10.33203125" customWidth="1"/>
+    <col min="11771" max="11771" width="8.33203125" customWidth="1"/>
     <col min="11772" max="11772" width="10" customWidth="1"/>
     <col min="11773" max="11777" width="8" customWidth="1"/>
-    <col min="11778" max="11778" width="8.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="8.33203125" customWidth="1"/>
     <col min="11779" max="11779" width="9" customWidth="1"/>
-    <col min="11780" max="11780" width="28.140625" customWidth="1"/>
-    <col min="11781" max="11781" width="10.140625" customWidth="1"/>
-    <col min="11783" max="11783" width="11.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="28.1640625" customWidth="1"/>
+    <col min="11781" max="11781" width="10.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="11.5" customWidth="1"/>
     <col min="11784" max="11784" width="8" customWidth="1"/>
     <col min="11785" max="11785" width="10" customWidth="1"/>
-    <col min="11786" max="11786" width="9.28515625" customWidth="1"/>
-    <col min="11787" max="11787" width="10.140625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.33203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="8" customWidth="1"/>
-    <col min="12023" max="12023" width="30.42578125" customWidth="1"/>
-    <col min="12024" max="12024" width="11.42578125" customWidth="1"/>
+    <col min="12023" max="12023" width="30.5" customWidth="1"/>
+    <col min="12024" max="12024" width="11.5" customWidth="1"/>
     <col min="12025" max="12025" width="8" customWidth="1"/>
-    <col min="12026" max="12026" width="10.28515625" customWidth="1"/>
-    <col min="12027" max="12027" width="8.28515625" customWidth="1"/>
+    <col min="12026" max="12026" width="10.33203125" customWidth="1"/>
+    <col min="12027" max="12027" width="8.33203125" customWidth="1"/>
     <col min="12028" max="12028" width="10" customWidth="1"/>
     <col min="12029" max="12033" width="8" customWidth="1"/>
-    <col min="12034" max="12034" width="8.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="8.33203125" customWidth="1"/>
     <col min="12035" max="12035" width="9" customWidth="1"/>
-    <col min="12036" max="12036" width="28.140625" customWidth="1"/>
-    <col min="12037" max="12037" width="10.140625" customWidth="1"/>
-    <col min="12039" max="12039" width="11.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="28.1640625" customWidth="1"/>
+    <col min="12037" max="12037" width="10.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="11.5" customWidth="1"/>
     <col min="12040" max="12040" width="8" customWidth="1"/>
     <col min="12041" max="12041" width="10" customWidth="1"/>
-    <col min="12042" max="12042" width="9.28515625" customWidth="1"/>
-    <col min="12043" max="12043" width="10.140625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.33203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="8" customWidth="1"/>
-    <col min="12279" max="12279" width="30.42578125" customWidth="1"/>
-    <col min="12280" max="12280" width="11.42578125" customWidth="1"/>
+    <col min="12279" max="12279" width="30.5" customWidth="1"/>
+    <col min="12280" max="12280" width="11.5" customWidth="1"/>
     <col min="12281" max="12281" width="8" customWidth="1"/>
-    <col min="12282" max="12282" width="10.28515625" customWidth="1"/>
-    <col min="12283" max="12283" width="8.28515625" customWidth="1"/>
+    <col min="12282" max="12282" width="10.33203125" customWidth="1"/>
+    <col min="12283" max="12283" width="8.33203125" customWidth="1"/>
     <col min="12284" max="12284" width="10" customWidth="1"/>
     <col min="12285" max="12289" width="8" customWidth="1"/>
-    <col min="12290" max="12290" width="8.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="8.33203125" customWidth="1"/>
     <col min="12291" max="12291" width="9" customWidth="1"/>
-    <col min="12292" max="12292" width="28.140625" customWidth="1"/>
-    <col min="12293" max="12293" width="10.140625" customWidth="1"/>
-    <col min="12295" max="12295" width="11.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="28.1640625" customWidth="1"/>
+    <col min="12293" max="12293" width="10.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="11.5" customWidth="1"/>
     <col min="12296" max="12296" width="8" customWidth="1"/>
     <col min="12297" max="12297" width="10" customWidth="1"/>
-    <col min="12298" max="12298" width="9.28515625" customWidth="1"/>
-    <col min="12299" max="12299" width="10.140625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.33203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="8" customWidth="1"/>
-    <col min="12535" max="12535" width="30.42578125" customWidth="1"/>
-    <col min="12536" max="12536" width="11.42578125" customWidth="1"/>
+    <col min="12535" max="12535" width="30.5" customWidth="1"/>
+    <col min="12536" max="12536" width="11.5" customWidth="1"/>
     <col min="12537" max="12537" width="8" customWidth="1"/>
-    <col min="12538" max="12538" width="10.28515625" customWidth="1"/>
-    <col min="12539" max="12539" width="8.28515625" customWidth="1"/>
+    <col min="12538" max="12538" width="10.33203125" customWidth="1"/>
+    <col min="12539" max="12539" width="8.33203125" customWidth="1"/>
     <col min="12540" max="12540" width="10" customWidth="1"/>
     <col min="12541" max="12545" width="8" customWidth="1"/>
-    <col min="12546" max="12546" width="8.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="8.33203125" customWidth="1"/>
     <col min="12547" max="12547" width="9" customWidth="1"/>
-    <col min="12548" max="12548" width="28.140625" customWidth="1"/>
-    <col min="12549" max="12549" width="10.140625" customWidth="1"/>
-    <col min="12551" max="12551" width="11.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="28.1640625" customWidth="1"/>
+    <col min="12549" max="12549" width="10.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="11.5" customWidth="1"/>
     <col min="12552" max="12552" width="8" customWidth="1"/>
     <col min="12553" max="12553" width="10" customWidth="1"/>
-    <col min="12554" max="12554" width="9.28515625" customWidth="1"/>
-    <col min="12555" max="12555" width="10.140625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.33203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="8" customWidth="1"/>
-    <col min="12791" max="12791" width="30.42578125" customWidth="1"/>
-    <col min="12792" max="12792" width="11.42578125" customWidth="1"/>
+    <col min="12791" max="12791" width="30.5" customWidth="1"/>
+    <col min="12792" max="12792" width="11.5" customWidth="1"/>
     <col min="12793" max="12793" width="8" customWidth="1"/>
-    <col min="12794" max="12794" width="10.28515625" customWidth="1"/>
-    <col min="12795" max="12795" width="8.28515625" customWidth="1"/>
+    <col min="12794" max="12794" width="10.33203125" customWidth="1"/>
+    <col min="12795" max="12795" width="8.33203125" customWidth="1"/>
     <col min="12796" max="12796" width="10" customWidth="1"/>
     <col min="12797" max="12801" width="8" customWidth="1"/>
-    <col min="12802" max="12802" width="8.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="8.33203125" customWidth="1"/>
     <col min="12803" max="12803" width="9" customWidth="1"/>
-    <col min="12804" max="12804" width="28.140625" customWidth="1"/>
-    <col min="12805" max="12805" width="10.140625" customWidth="1"/>
-    <col min="12807" max="12807" width="11.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="28.1640625" customWidth="1"/>
+    <col min="12805" max="12805" width="10.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="11.5" customWidth="1"/>
     <col min="12808" max="12808" width="8" customWidth="1"/>
     <col min="12809" max="12809" width="10" customWidth="1"/>
-    <col min="12810" max="12810" width="9.28515625" customWidth="1"/>
-    <col min="12811" max="12811" width="10.140625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.33203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="8" customWidth="1"/>
-    <col min="13047" max="13047" width="30.42578125" customWidth="1"/>
-    <col min="13048" max="13048" width="11.42578125" customWidth="1"/>
+    <col min="13047" max="13047" width="30.5" customWidth="1"/>
+    <col min="13048" max="13048" width="11.5" customWidth="1"/>
     <col min="13049" max="13049" width="8" customWidth="1"/>
-    <col min="13050" max="13050" width="10.28515625" customWidth="1"/>
-    <col min="13051" max="13051" width="8.28515625" customWidth="1"/>
+    <col min="13050" max="13050" width="10.33203125" customWidth="1"/>
+    <col min="13051" max="13051" width="8.33203125" customWidth="1"/>
     <col min="13052" max="13052" width="10" customWidth="1"/>
     <col min="13053" max="13057" width="8" customWidth="1"/>
-    <col min="13058" max="13058" width="8.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="8.33203125" customWidth="1"/>
     <col min="13059" max="13059" width="9" customWidth="1"/>
-    <col min="13060" max="13060" width="28.140625" customWidth="1"/>
-    <col min="13061" max="13061" width="10.140625" customWidth="1"/>
-    <col min="13063" max="13063" width="11.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="28.1640625" customWidth="1"/>
+    <col min="13061" max="13061" width="10.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="11.5" customWidth="1"/>
     <col min="13064" max="13064" width="8" customWidth="1"/>
     <col min="13065" max="13065" width="10" customWidth="1"/>
-    <col min="13066" max="13066" width="9.28515625" customWidth="1"/>
-    <col min="13067" max="13067" width="10.140625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.33203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="8" customWidth="1"/>
-    <col min="13303" max="13303" width="30.42578125" customWidth="1"/>
-    <col min="13304" max="13304" width="11.42578125" customWidth="1"/>
+    <col min="13303" max="13303" width="30.5" customWidth="1"/>
+    <col min="13304" max="13304" width="11.5" customWidth="1"/>
     <col min="13305" max="13305" width="8" customWidth="1"/>
-    <col min="13306" max="13306" width="10.28515625" customWidth="1"/>
-    <col min="13307" max="13307" width="8.28515625" customWidth="1"/>
+    <col min="13306" max="13306" width="10.33203125" customWidth="1"/>
+    <col min="13307" max="13307" width="8.33203125" customWidth="1"/>
     <col min="13308" max="13308" width="10" customWidth="1"/>
     <col min="13309" max="13313" width="8" customWidth="1"/>
-    <col min="13314" max="13314" width="8.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="8.33203125" customWidth="1"/>
     <col min="13315" max="13315" width="9" customWidth="1"/>
-    <col min="13316" max="13316" width="28.140625" customWidth="1"/>
-    <col min="13317" max="13317" width="10.140625" customWidth="1"/>
-    <col min="13319" max="13319" width="11.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="28.1640625" customWidth="1"/>
+    <col min="13317" max="13317" width="10.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="11.5" customWidth="1"/>
     <col min="13320" max="13320" width="8" customWidth="1"/>
     <col min="13321" max="13321" width="10" customWidth="1"/>
-    <col min="13322" max="13322" width="9.28515625" customWidth="1"/>
-    <col min="13323" max="13323" width="10.140625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.33203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="8" customWidth="1"/>
-    <col min="13559" max="13559" width="30.42578125" customWidth="1"/>
-    <col min="13560" max="13560" width="11.42578125" customWidth="1"/>
+    <col min="13559" max="13559" width="30.5" customWidth="1"/>
+    <col min="13560" max="13560" width="11.5" customWidth="1"/>
     <col min="13561" max="13561" width="8" customWidth="1"/>
-    <col min="13562" max="13562" width="10.28515625" customWidth="1"/>
-    <col min="13563" max="13563" width="8.28515625" customWidth="1"/>
+    <col min="13562" max="13562" width="10.33203125" customWidth="1"/>
+    <col min="13563" max="13563" width="8.33203125" customWidth="1"/>
     <col min="13564" max="13564" width="10" customWidth="1"/>
     <col min="13565" max="13569" width="8" customWidth="1"/>
-    <col min="13570" max="13570" width="8.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="8.33203125" customWidth="1"/>
     <col min="13571" max="13571" width="9" customWidth="1"/>
-    <col min="13572" max="13572" width="28.140625" customWidth="1"/>
-    <col min="13573" max="13573" width="10.140625" customWidth="1"/>
-    <col min="13575" max="13575" width="11.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="28.1640625" customWidth="1"/>
+    <col min="13573" max="13573" width="10.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="11.5" customWidth="1"/>
     <col min="13576" max="13576" width="8" customWidth="1"/>
     <col min="13577" max="13577" width="10" customWidth="1"/>
-    <col min="13578" max="13578" width="9.28515625" customWidth="1"/>
-    <col min="13579" max="13579" width="10.140625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.33203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="8" customWidth="1"/>
-    <col min="13815" max="13815" width="30.42578125" customWidth="1"/>
-    <col min="13816" max="13816" width="11.42578125" customWidth="1"/>
+    <col min="13815" max="13815" width="30.5" customWidth="1"/>
+    <col min="13816" max="13816" width="11.5" customWidth="1"/>
     <col min="13817" max="13817" width="8" customWidth="1"/>
-    <col min="13818" max="13818" width="10.28515625" customWidth="1"/>
-    <col min="13819" max="13819" width="8.28515625" customWidth="1"/>
+    <col min="13818" max="13818" width="10.33203125" customWidth="1"/>
+    <col min="13819" max="13819" width="8.33203125" customWidth="1"/>
     <col min="13820" max="13820" width="10" customWidth="1"/>
     <col min="13821" max="13825" width="8" customWidth="1"/>
-    <col min="13826" max="13826" width="8.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="8.33203125" customWidth="1"/>
     <col min="13827" max="13827" width="9" customWidth="1"/>
-    <col min="13828" max="13828" width="28.140625" customWidth="1"/>
-    <col min="13829" max="13829" width="10.140625" customWidth="1"/>
-    <col min="13831" max="13831" width="11.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="28.1640625" customWidth="1"/>
+    <col min="13829" max="13829" width="10.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="11.5" customWidth="1"/>
     <col min="13832" max="13832" width="8" customWidth="1"/>
     <col min="13833" max="13833" width="10" customWidth="1"/>
-    <col min="13834" max="13834" width="9.28515625" customWidth="1"/>
-    <col min="13835" max="13835" width="10.140625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.33203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="8" customWidth="1"/>
-    <col min="14071" max="14071" width="30.42578125" customWidth="1"/>
-    <col min="14072" max="14072" width="11.42578125" customWidth="1"/>
+    <col min="14071" max="14071" width="30.5" customWidth="1"/>
+    <col min="14072" max="14072" width="11.5" customWidth="1"/>
     <col min="14073" max="14073" width="8" customWidth="1"/>
-    <col min="14074" max="14074" width="10.28515625" customWidth="1"/>
-    <col min="14075" max="14075" width="8.28515625" customWidth="1"/>
+    <col min="14074" max="14074" width="10.33203125" customWidth="1"/>
+    <col min="14075" max="14075" width="8.33203125" customWidth="1"/>
     <col min="14076" max="14076" width="10" customWidth="1"/>
     <col min="14077" max="14081" width="8" customWidth="1"/>
-    <col min="14082" max="14082" width="8.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="8.33203125" customWidth="1"/>
     <col min="14083" max="14083" width="9" customWidth="1"/>
-    <col min="14084" max="14084" width="28.140625" customWidth="1"/>
-    <col min="14085" max="14085" width="10.140625" customWidth="1"/>
-    <col min="14087" max="14087" width="11.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="28.1640625" customWidth="1"/>
+    <col min="14085" max="14085" width="10.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="11.5" customWidth="1"/>
     <col min="14088" max="14088" width="8" customWidth="1"/>
     <col min="14089" max="14089" width="10" customWidth="1"/>
-    <col min="14090" max="14090" width="9.28515625" customWidth="1"/>
-    <col min="14091" max="14091" width="10.140625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.33203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="8" customWidth="1"/>
-    <col min="14327" max="14327" width="30.42578125" customWidth="1"/>
-    <col min="14328" max="14328" width="11.42578125" customWidth="1"/>
+    <col min="14327" max="14327" width="30.5" customWidth="1"/>
+    <col min="14328" max="14328" width="11.5" customWidth="1"/>
     <col min="14329" max="14329" width="8" customWidth="1"/>
-    <col min="14330" max="14330" width="10.28515625" customWidth="1"/>
-    <col min="14331" max="14331" width="8.28515625" customWidth="1"/>
+    <col min="14330" max="14330" width="10.33203125" customWidth="1"/>
+    <col min="14331" max="14331" width="8.33203125" customWidth="1"/>
     <col min="14332" max="14332" width="10" customWidth="1"/>
     <col min="14333" max="14337" width="8" customWidth="1"/>
-    <col min="14338" max="14338" width="8.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="8.33203125" customWidth="1"/>
     <col min="14339" max="14339" width="9" customWidth="1"/>
-    <col min="14340" max="14340" width="28.140625" customWidth="1"/>
-    <col min="14341" max="14341" width="10.140625" customWidth="1"/>
-    <col min="14343" max="14343" width="11.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="28.1640625" customWidth="1"/>
+    <col min="14341" max="14341" width="10.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="11.5" customWidth="1"/>
     <col min="14344" max="14344" width="8" customWidth="1"/>
     <col min="14345" max="14345" width="10" customWidth="1"/>
-    <col min="14346" max="14346" width="9.28515625" customWidth="1"/>
-    <col min="14347" max="14347" width="10.140625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.33203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="8" customWidth="1"/>
-    <col min="14583" max="14583" width="30.42578125" customWidth="1"/>
-    <col min="14584" max="14584" width="11.42578125" customWidth="1"/>
+    <col min="14583" max="14583" width="30.5" customWidth="1"/>
+    <col min="14584" max="14584" width="11.5" customWidth="1"/>
     <col min="14585" max="14585" width="8" customWidth="1"/>
-    <col min="14586" max="14586" width="10.28515625" customWidth="1"/>
-    <col min="14587" max="14587" width="8.28515625" customWidth="1"/>
+    <col min="14586" max="14586" width="10.33203125" customWidth="1"/>
+    <col min="14587" max="14587" width="8.33203125" customWidth="1"/>
     <col min="14588" max="14588" width="10" customWidth="1"/>
     <col min="14589" max="14593" width="8" customWidth="1"/>
-    <col min="14594" max="14594" width="8.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="8.33203125" customWidth="1"/>
     <col min="14595" max="14595" width="9" customWidth="1"/>
-    <col min="14596" max="14596" width="28.140625" customWidth="1"/>
-    <col min="14597" max="14597" width="10.140625" customWidth="1"/>
-    <col min="14599" max="14599" width="11.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="28.1640625" customWidth="1"/>
+    <col min="14597" max="14597" width="10.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="11.5" customWidth="1"/>
     <col min="14600" max="14600" width="8" customWidth="1"/>
     <col min="14601" max="14601" width="10" customWidth="1"/>
-    <col min="14602" max="14602" width="9.28515625" customWidth="1"/>
-    <col min="14603" max="14603" width="10.140625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.33203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="8" customWidth="1"/>
-    <col min="14839" max="14839" width="30.42578125" customWidth="1"/>
-    <col min="14840" max="14840" width="11.42578125" customWidth="1"/>
+    <col min="14839" max="14839" width="30.5" customWidth="1"/>
+    <col min="14840" max="14840" width="11.5" customWidth="1"/>
     <col min="14841" max="14841" width="8" customWidth="1"/>
-    <col min="14842" max="14842" width="10.28515625" customWidth="1"/>
-    <col min="14843" max="14843" width="8.28515625" customWidth="1"/>
+    <col min="14842" max="14842" width="10.33203125" customWidth="1"/>
+    <col min="14843" max="14843" width="8.33203125" customWidth="1"/>
     <col min="14844" max="14844" width="10" customWidth="1"/>
     <col min="14845" max="14849" width="8" customWidth="1"/>
-    <col min="14850" max="14850" width="8.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="8.33203125" customWidth="1"/>
     <col min="14851" max="14851" width="9" customWidth="1"/>
-    <col min="14852" max="14852" width="28.140625" customWidth="1"/>
-    <col min="14853" max="14853" width="10.140625" customWidth="1"/>
-    <col min="14855" max="14855" width="11.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="28.1640625" customWidth="1"/>
+    <col min="14853" max="14853" width="10.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="11.5" customWidth="1"/>
     <col min="14856" max="14856" width="8" customWidth="1"/>
     <col min="14857" max="14857" width="10" customWidth="1"/>
-    <col min="14858" max="14858" width="9.28515625" customWidth="1"/>
-    <col min="14859" max="14859" width="10.140625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.33203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="8" customWidth="1"/>
-    <col min="15095" max="15095" width="30.42578125" customWidth="1"/>
-    <col min="15096" max="15096" width="11.42578125" customWidth="1"/>
+    <col min="15095" max="15095" width="30.5" customWidth="1"/>
+    <col min="15096" max="15096" width="11.5" customWidth="1"/>
     <col min="15097" max="15097" width="8" customWidth="1"/>
-    <col min="15098" max="15098" width="10.28515625" customWidth="1"/>
-    <col min="15099" max="15099" width="8.28515625" customWidth="1"/>
+    <col min="15098" max="15098" width="10.33203125" customWidth="1"/>
+    <col min="15099" max="15099" width="8.33203125" customWidth="1"/>
     <col min="15100" max="15100" width="10" customWidth="1"/>
     <col min="15101" max="15105" width="8" customWidth="1"/>
-    <col min="15106" max="15106" width="8.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="8.33203125" customWidth="1"/>
     <col min="15107" max="15107" width="9" customWidth="1"/>
-    <col min="15108" max="15108" width="28.140625" customWidth="1"/>
-    <col min="15109" max="15109" width="10.140625" customWidth="1"/>
-    <col min="15111" max="15111" width="11.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="28.1640625" customWidth="1"/>
+    <col min="15109" max="15109" width="10.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="11.5" customWidth="1"/>
     <col min="15112" max="15112" width="8" customWidth="1"/>
     <col min="15113" max="15113" width="10" customWidth="1"/>
-    <col min="15114" max="15114" width="9.28515625" customWidth="1"/>
-    <col min="15115" max="15115" width="10.140625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.33203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="8" customWidth="1"/>
-    <col min="15351" max="15351" width="30.42578125" customWidth="1"/>
-    <col min="15352" max="15352" width="11.42578125" customWidth="1"/>
+    <col min="15351" max="15351" width="30.5" customWidth="1"/>
+    <col min="15352" max="15352" width="11.5" customWidth="1"/>
     <col min="15353" max="15353" width="8" customWidth="1"/>
-    <col min="15354" max="15354" width="10.28515625" customWidth="1"/>
-    <col min="15355" max="15355" width="8.28515625" customWidth="1"/>
+    <col min="15354" max="15354" width="10.33203125" customWidth="1"/>
+    <col min="15355" max="15355" width="8.33203125" customWidth="1"/>
     <col min="15356" max="15356" width="10" customWidth="1"/>
     <col min="15357" max="15361" width="8" customWidth="1"/>
-    <col min="15362" max="15362" width="8.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="8.33203125" customWidth="1"/>
     <col min="15363" max="15363" width="9" customWidth="1"/>
-    <col min="15364" max="15364" width="28.140625" customWidth="1"/>
-    <col min="15365" max="15365" width="10.140625" customWidth="1"/>
-    <col min="15367" max="15367" width="11.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="28.1640625" customWidth="1"/>
+    <col min="15365" max="15365" width="10.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="11.5" customWidth="1"/>
     <col min="15368" max="15368" width="8" customWidth="1"/>
     <col min="15369" max="15369" width="10" customWidth="1"/>
-    <col min="15370" max="15370" width="9.28515625" customWidth="1"/>
-    <col min="15371" max="15371" width="10.140625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.33203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="8" customWidth="1"/>
-    <col min="15607" max="15607" width="30.42578125" customWidth="1"/>
-    <col min="15608" max="15608" width="11.42578125" customWidth="1"/>
+    <col min="15607" max="15607" width="30.5" customWidth="1"/>
+    <col min="15608" max="15608" width="11.5" customWidth="1"/>
     <col min="15609" max="15609" width="8" customWidth="1"/>
-    <col min="15610" max="15610" width="10.28515625" customWidth="1"/>
-    <col min="15611" max="15611" width="8.28515625" customWidth="1"/>
+    <col min="15610" max="15610" width="10.33203125" customWidth="1"/>
+    <col min="15611" max="15611" width="8.33203125" customWidth="1"/>
     <col min="15612" max="15612" width="10" customWidth="1"/>
     <col min="15613" max="15617" width="8" customWidth="1"/>
-    <col min="15618" max="15618" width="8.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="8.33203125" customWidth="1"/>
     <col min="15619" max="15619" width="9" customWidth="1"/>
-    <col min="15620" max="15620" width="28.140625" customWidth="1"/>
-    <col min="15621" max="15621" width="10.140625" customWidth="1"/>
-    <col min="15623" max="15623" width="11.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="28.1640625" customWidth="1"/>
+    <col min="15621" max="15621" width="10.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="11.5" customWidth="1"/>
     <col min="15624" max="15624" width="8" customWidth="1"/>
     <col min="15625" max="15625" width="10" customWidth="1"/>
-    <col min="15626" max="15626" width="9.28515625" customWidth="1"/>
-    <col min="15627" max="15627" width="10.140625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.33203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="8" customWidth="1"/>
-    <col min="15863" max="15863" width="30.42578125" customWidth="1"/>
-    <col min="15864" max="15864" width="11.42578125" customWidth="1"/>
+    <col min="15863" max="15863" width="30.5" customWidth="1"/>
+    <col min="15864" max="15864" width="11.5" customWidth="1"/>
     <col min="15865" max="15865" width="8" customWidth="1"/>
-    <col min="15866" max="15866" width="10.28515625" customWidth="1"/>
-    <col min="15867" max="15867" width="8.28515625" customWidth="1"/>
+    <col min="15866" max="15866" width="10.33203125" customWidth="1"/>
+    <col min="15867" max="15867" width="8.33203125" customWidth="1"/>
     <col min="15868" max="15868" width="10" customWidth="1"/>
     <col min="15869" max="15873" width="8" customWidth="1"/>
-    <col min="15874" max="15874" width="8.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="8.33203125" customWidth="1"/>
     <col min="15875" max="15875" width="9" customWidth="1"/>
-    <col min="15876" max="15876" width="28.140625" customWidth="1"/>
-    <col min="15877" max="15877" width="10.140625" customWidth="1"/>
-    <col min="15879" max="15879" width="11.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="28.1640625" customWidth="1"/>
+    <col min="15877" max="15877" width="10.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="11.5" customWidth="1"/>
     <col min="15880" max="15880" width="8" customWidth="1"/>
     <col min="15881" max="15881" width="10" customWidth="1"/>
-    <col min="15882" max="15882" width="9.28515625" customWidth="1"/>
-    <col min="15883" max="15883" width="10.140625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.33203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="8" customWidth="1"/>
-    <col min="16119" max="16119" width="30.42578125" customWidth="1"/>
-    <col min="16120" max="16120" width="11.42578125" customWidth="1"/>
+    <col min="16119" max="16119" width="30.5" customWidth="1"/>
+    <col min="16120" max="16120" width="11.5" customWidth="1"/>
     <col min="16121" max="16121" width="8" customWidth="1"/>
-    <col min="16122" max="16122" width="10.28515625" customWidth="1"/>
-    <col min="16123" max="16123" width="8.28515625" customWidth="1"/>
+    <col min="16122" max="16122" width="10.33203125" customWidth="1"/>
+    <col min="16123" max="16123" width="8.33203125" customWidth="1"/>
     <col min="16124" max="16124" width="10" customWidth="1"/>
     <col min="16125" max="16129" width="8" customWidth="1"/>
-    <col min="16130" max="16130" width="8.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="8.33203125" customWidth="1"/>
     <col min="16131" max="16131" width="9" customWidth="1"/>
-    <col min="16132" max="16132" width="28.140625" customWidth="1"/>
-    <col min="16133" max="16133" width="10.140625" customWidth="1"/>
-    <col min="16135" max="16135" width="11.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="28.1640625" customWidth="1"/>
+    <col min="16133" max="16133" width="10.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="11.5" customWidth="1"/>
     <col min="16136" max="16136" width="8" customWidth="1"/>
     <col min="16137" max="16137" width="10" customWidth="1"/>
-    <col min="16138" max="16138" width="9.28515625" customWidth="1"/>
-    <col min="16139" max="16139" width="10.140625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.33203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40054,7 +40027,7 @@
       <c r="IH1" s="36"/>
       <c r="II1" s="36"/>
     </row>
-    <row r="2" spans="1:243" ht="17.399999999999999" customHeight="1">
+    <row r="2" spans="1:243" ht="17.45" customHeight="1">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -40302,7 +40275,7 @@
       <c r="IH2"/>
       <c r="II2"/>
     </row>
-    <row r="3" spans="1:243" ht="35.4" customHeight="1">
+    <row r="3" spans="1:243" ht="35.450000000000003" customHeight="1">
       <c r="A3" s="307" t="s">
         <v>191</v>
       </c>
@@ -40549,7 +40522,7 @@
       <c r="IH3"/>
       <c r="II3"/>
     </row>
-    <row r="4" spans="1:243" ht="12">
+    <row r="4" spans="1:243">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -40794,7 +40767,7 @@
       <c r="IH4"/>
       <c r="II4"/>
     </row>
-    <row r="5" spans="1:243" ht="11.4" thickBot="1">
+    <row r="5" spans="1:243" ht="14.25" thickBot="1">
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -40823,7 +40796,7 @@
       <c r="IH5"/>
       <c r="II5"/>
     </row>
-    <row r="6" spans="1:243" ht="11.4" thickTop="1">
+    <row r="6" spans="1:243" ht="14.25" thickTop="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="321" t="s">
@@ -42761,7 +42734,7 @@
       </c>
       <c r="Q36" s="83"/>
     </row>
-    <row r="37" spans="1:255" ht="11.4" thickBot="1">
+    <row r="37" spans="1:255" ht="14.25" thickBot="1">
       <c r="A37" s="316"/>
       <c r="B37" s="57" t="s">
         <v>147</v>
@@ -42810,12 +42783,12 @@
       </c>
       <c r="Q37" s="83"/>
     </row>
-    <row r="38" spans="1:255" ht="12" thickTop="1">
+    <row r="38" spans="1:255" ht="14.25" thickTop="1">
       <c r="A38" s="128" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:255" ht="11.4">
+    <row r="39" spans="1:255">
       <c r="A39" s="129" t="s">
         <v>148</v>
       </c>
@@ -43788,1084 +43761,1084 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="37" customWidth="1"/>
     <col min="2" max="2" width="39" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" style="37" customWidth="1"/>
-    <col min="8" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="16" width="7.140625" style="37" customWidth="1"/>
+    <col min="3" max="7" width="7.1640625" style="37" customWidth="1"/>
+    <col min="8" max="11" width="7.1640625" customWidth="1"/>
+    <col min="12" max="16" width="7.1640625" style="37" customWidth="1"/>
     <col min="17" max="243" width="9" style="37"/>
-    <col min="247" max="247" width="30.42578125" customWidth="1"/>
-    <col min="248" max="248" width="11.42578125" customWidth="1"/>
+    <col min="247" max="247" width="30.5" customWidth="1"/>
+    <col min="248" max="248" width="11.5" customWidth="1"/>
     <col min="249" max="249" width="8" customWidth="1"/>
-    <col min="250" max="250" width="10.28515625" customWidth="1"/>
-    <col min="251" max="251" width="8.28515625" customWidth="1"/>
+    <col min="250" max="250" width="10.33203125" customWidth="1"/>
+    <col min="251" max="251" width="8.33203125" customWidth="1"/>
     <col min="252" max="252" width="10" customWidth="1"/>
     <col min="253" max="257" width="8" customWidth="1"/>
-    <col min="258" max="258" width="8.28515625" customWidth="1"/>
+    <col min="258" max="258" width="8.33203125" customWidth="1"/>
     <col min="259" max="259" width="9" customWidth="1"/>
-    <col min="260" max="260" width="28.140625" customWidth="1"/>
-    <col min="261" max="261" width="10.140625" customWidth="1"/>
-    <col min="263" max="263" width="11.42578125" customWidth="1"/>
+    <col min="260" max="260" width="28.1640625" customWidth="1"/>
+    <col min="261" max="261" width="10.1640625" customWidth="1"/>
+    <col min="263" max="263" width="11.5" customWidth="1"/>
     <col min="264" max="264" width="8" customWidth="1"/>
     <col min="265" max="265" width="10" customWidth="1"/>
-    <col min="266" max="266" width="9.28515625" customWidth="1"/>
-    <col min="267" max="267" width="10.140625" customWidth="1"/>
+    <col min="266" max="266" width="9.33203125" customWidth="1"/>
+    <col min="267" max="267" width="10.1640625" customWidth="1"/>
     <col min="268" max="268" width="8" customWidth="1"/>
-    <col min="503" max="503" width="30.42578125" customWidth="1"/>
-    <col min="504" max="504" width="11.42578125" customWidth="1"/>
+    <col min="503" max="503" width="30.5" customWidth="1"/>
+    <col min="504" max="504" width="11.5" customWidth="1"/>
     <col min="505" max="505" width="8" customWidth="1"/>
-    <col min="506" max="506" width="10.28515625" customWidth="1"/>
-    <col min="507" max="507" width="8.28515625" customWidth="1"/>
+    <col min="506" max="506" width="10.33203125" customWidth="1"/>
+    <col min="507" max="507" width="8.33203125" customWidth="1"/>
     <col min="508" max="508" width="10" customWidth="1"/>
     <col min="509" max="513" width="8" customWidth="1"/>
-    <col min="514" max="514" width="8.28515625" customWidth="1"/>
+    <col min="514" max="514" width="8.33203125" customWidth="1"/>
     <col min="515" max="515" width="9" customWidth="1"/>
-    <col min="516" max="516" width="28.140625" customWidth="1"/>
-    <col min="517" max="517" width="10.140625" customWidth="1"/>
-    <col min="519" max="519" width="11.42578125" customWidth="1"/>
+    <col min="516" max="516" width="28.1640625" customWidth="1"/>
+    <col min="517" max="517" width="10.1640625" customWidth="1"/>
+    <col min="519" max="519" width="11.5" customWidth="1"/>
     <col min="520" max="520" width="8" customWidth="1"/>
     <col min="521" max="521" width="10" customWidth="1"/>
-    <col min="522" max="522" width="9.28515625" customWidth="1"/>
-    <col min="523" max="523" width="10.140625" customWidth="1"/>
+    <col min="522" max="522" width="9.33203125" customWidth="1"/>
+    <col min="523" max="523" width="10.1640625" customWidth="1"/>
     <col min="524" max="524" width="8" customWidth="1"/>
-    <col min="759" max="759" width="30.42578125" customWidth="1"/>
-    <col min="760" max="760" width="11.42578125" customWidth="1"/>
+    <col min="759" max="759" width="30.5" customWidth="1"/>
+    <col min="760" max="760" width="11.5" customWidth="1"/>
     <col min="761" max="761" width="8" customWidth="1"/>
-    <col min="762" max="762" width="10.28515625" customWidth="1"/>
-    <col min="763" max="763" width="8.28515625" customWidth="1"/>
+    <col min="762" max="762" width="10.33203125" customWidth="1"/>
+    <col min="763" max="763" width="8.33203125" customWidth="1"/>
     <col min="764" max="764" width="10" customWidth="1"/>
     <col min="765" max="769" width="8" customWidth="1"/>
-    <col min="770" max="770" width="8.28515625" customWidth="1"/>
+    <col min="770" max="770" width="8.33203125" customWidth="1"/>
     <col min="771" max="771" width="9" customWidth="1"/>
-    <col min="772" max="772" width="28.140625" customWidth="1"/>
-    <col min="773" max="773" width="10.140625" customWidth="1"/>
-    <col min="775" max="775" width="11.42578125" customWidth="1"/>
+    <col min="772" max="772" width="28.1640625" customWidth="1"/>
+    <col min="773" max="773" width="10.1640625" customWidth="1"/>
+    <col min="775" max="775" width="11.5" customWidth="1"/>
     <col min="776" max="776" width="8" customWidth="1"/>
     <col min="777" max="777" width="10" customWidth="1"/>
-    <col min="778" max="778" width="9.28515625" customWidth="1"/>
-    <col min="779" max="779" width="10.140625" customWidth="1"/>
+    <col min="778" max="778" width="9.33203125" customWidth="1"/>
+    <col min="779" max="779" width="10.1640625" customWidth="1"/>
     <col min="780" max="780" width="8" customWidth="1"/>
-    <col min="1015" max="1015" width="30.42578125" customWidth="1"/>
-    <col min="1016" max="1016" width="11.42578125" customWidth="1"/>
+    <col min="1015" max="1015" width="30.5" customWidth="1"/>
+    <col min="1016" max="1016" width="11.5" customWidth="1"/>
     <col min="1017" max="1017" width="8" customWidth="1"/>
-    <col min="1018" max="1018" width="10.28515625" customWidth="1"/>
-    <col min="1019" max="1019" width="8.28515625" customWidth="1"/>
+    <col min="1018" max="1018" width="10.33203125" customWidth="1"/>
+    <col min="1019" max="1019" width="8.33203125" customWidth="1"/>
     <col min="1020" max="1020" width="10" customWidth="1"/>
     <col min="1021" max="1025" width="8" customWidth="1"/>
-    <col min="1026" max="1026" width="8.28515625" customWidth="1"/>
+    <col min="1026" max="1026" width="8.33203125" customWidth="1"/>
     <col min="1027" max="1027" width="9" customWidth="1"/>
-    <col min="1028" max="1028" width="28.140625" customWidth="1"/>
-    <col min="1029" max="1029" width="10.140625" customWidth="1"/>
-    <col min="1031" max="1031" width="11.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="28.1640625" customWidth="1"/>
+    <col min="1029" max="1029" width="10.1640625" customWidth="1"/>
+    <col min="1031" max="1031" width="11.5" customWidth="1"/>
     <col min="1032" max="1032" width="8" customWidth="1"/>
     <col min="1033" max="1033" width="10" customWidth="1"/>
-    <col min="1034" max="1034" width="9.28515625" customWidth="1"/>
-    <col min="1035" max="1035" width="10.140625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.33203125" customWidth="1"/>
+    <col min="1035" max="1035" width="10.1640625" customWidth="1"/>
     <col min="1036" max="1036" width="8" customWidth="1"/>
-    <col min="1271" max="1271" width="30.42578125" customWidth="1"/>
-    <col min="1272" max="1272" width="11.42578125" customWidth="1"/>
+    <col min="1271" max="1271" width="30.5" customWidth="1"/>
+    <col min="1272" max="1272" width="11.5" customWidth="1"/>
     <col min="1273" max="1273" width="8" customWidth="1"/>
-    <col min="1274" max="1274" width="10.28515625" customWidth="1"/>
-    <col min="1275" max="1275" width="8.28515625" customWidth="1"/>
+    <col min="1274" max="1274" width="10.33203125" customWidth="1"/>
+    <col min="1275" max="1275" width="8.33203125" customWidth="1"/>
     <col min="1276" max="1276" width="10" customWidth="1"/>
     <col min="1277" max="1281" width="8" customWidth="1"/>
-    <col min="1282" max="1282" width="8.28515625" customWidth="1"/>
+    <col min="1282" max="1282" width="8.33203125" customWidth="1"/>
     <col min="1283" max="1283" width="9" customWidth="1"/>
-    <col min="1284" max="1284" width="28.140625" customWidth="1"/>
-    <col min="1285" max="1285" width="10.140625" customWidth="1"/>
-    <col min="1287" max="1287" width="11.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="28.1640625" customWidth="1"/>
+    <col min="1285" max="1285" width="10.1640625" customWidth="1"/>
+    <col min="1287" max="1287" width="11.5" customWidth="1"/>
     <col min="1288" max="1288" width="8" customWidth="1"/>
     <col min="1289" max="1289" width="10" customWidth="1"/>
-    <col min="1290" max="1290" width="9.28515625" customWidth="1"/>
-    <col min="1291" max="1291" width="10.140625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.33203125" customWidth="1"/>
+    <col min="1291" max="1291" width="10.1640625" customWidth="1"/>
     <col min="1292" max="1292" width="8" customWidth="1"/>
-    <col min="1527" max="1527" width="30.42578125" customWidth="1"/>
-    <col min="1528" max="1528" width="11.42578125" customWidth="1"/>
+    <col min="1527" max="1527" width="30.5" customWidth="1"/>
+    <col min="1528" max="1528" width="11.5" customWidth="1"/>
     <col min="1529" max="1529" width="8" customWidth="1"/>
-    <col min="1530" max="1530" width="10.28515625" customWidth="1"/>
-    <col min="1531" max="1531" width="8.28515625" customWidth="1"/>
+    <col min="1530" max="1530" width="10.33203125" customWidth="1"/>
+    <col min="1531" max="1531" width="8.33203125" customWidth="1"/>
     <col min="1532" max="1532" width="10" customWidth="1"/>
     <col min="1533" max="1537" width="8" customWidth="1"/>
-    <col min="1538" max="1538" width="8.28515625" customWidth="1"/>
+    <col min="1538" max="1538" width="8.33203125" customWidth="1"/>
     <col min="1539" max="1539" width="9" customWidth="1"/>
-    <col min="1540" max="1540" width="28.140625" customWidth="1"/>
-    <col min="1541" max="1541" width="10.140625" customWidth="1"/>
-    <col min="1543" max="1543" width="11.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="28.1640625" customWidth="1"/>
+    <col min="1541" max="1541" width="10.1640625" customWidth="1"/>
+    <col min="1543" max="1543" width="11.5" customWidth="1"/>
     <col min="1544" max="1544" width="8" customWidth="1"/>
     <col min="1545" max="1545" width="10" customWidth="1"/>
-    <col min="1546" max="1546" width="9.28515625" customWidth="1"/>
-    <col min="1547" max="1547" width="10.140625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.33203125" customWidth="1"/>
+    <col min="1547" max="1547" width="10.1640625" customWidth="1"/>
     <col min="1548" max="1548" width="8" customWidth="1"/>
-    <col min="1783" max="1783" width="30.42578125" customWidth="1"/>
-    <col min="1784" max="1784" width="11.42578125" customWidth="1"/>
+    <col min="1783" max="1783" width="30.5" customWidth="1"/>
+    <col min="1784" max="1784" width="11.5" customWidth="1"/>
     <col min="1785" max="1785" width="8" customWidth="1"/>
-    <col min="1786" max="1786" width="10.28515625" customWidth="1"/>
-    <col min="1787" max="1787" width="8.28515625" customWidth="1"/>
+    <col min="1786" max="1786" width="10.33203125" customWidth="1"/>
+    <col min="1787" max="1787" width="8.33203125" customWidth="1"/>
     <col min="1788" max="1788" width="10" customWidth="1"/>
     <col min="1789" max="1793" width="8" customWidth="1"/>
-    <col min="1794" max="1794" width="8.28515625" customWidth="1"/>
+    <col min="1794" max="1794" width="8.33203125" customWidth="1"/>
     <col min="1795" max="1795" width="9" customWidth="1"/>
-    <col min="1796" max="1796" width="28.140625" customWidth="1"/>
-    <col min="1797" max="1797" width="10.140625" customWidth="1"/>
-    <col min="1799" max="1799" width="11.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="28.1640625" customWidth="1"/>
+    <col min="1797" max="1797" width="10.1640625" customWidth="1"/>
+    <col min="1799" max="1799" width="11.5" customWidth="1"/>
     <col min="1800" max="1800" width="8" customWidth="1"/>
     <col min="1801" max="1801" width="10" customWidth="1"/>
-    <col min="1802" max="1802" width="9.28515625" customWidth="1"/>
-    <col min="1803" max="1803" width="10.140625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.33203125" customWidth="1"/>
+    <col min="1803" max="1803" width="10.1640625" customWidth="1"/>
     <col min="1804" max="1804" width="8" customWidth="1"/>
-    <col min="2039" max="2039" width="30.42578125" customWidth="1"/>
-    <col min="2040" max="2040" width="11.42578125" customWidth="1"/>
+    <col min="2039" max="2039" width="30.5" customWidth="1"/>
+    <col min="2040" max="2040" width="11.5" customWidth="1"/>
     <col min="2041" max="2041" width="8" customWidth="1"/>
-    <col min="2042" max="2042" width="10.28515625" customWidth="1"/>
-    <col min="2043" max="2043" width="8.28515625" customWidth="1"/>
+    <col min="2042" max="2042" width="10.33203125" customWidth="1"/>
+    <col min="2043" max="2043" width="8.33203125" customWidth="1"/>
     <col min="2044" max="2044" width="10" customWidth="1"/>
     <col min="2045" max="2049" width="8" customWidth="1"/>
-    <col min="2050" max="2050" width="8.28515625" customWidth="1"/>
+    <col min="2050" max="2050" width="8.33203125" customWidth="1"/>
     <col min="2051" max="2051" width="9" customWidth="1"/>
-    <col min="2052" max="2052" width="28.140625" customWidth="1"/>
-    <col min="2053" max="2053" width="10.140625" customWidth="1"/>
-    <col min="2055" max="2055" width="11.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="28.1640625" customWidth="1"/>
+    <col min="2053" max="2053" width="10.1640625" customWidth="1"/>
+    <col min="2055" max="2055" width="11.5" customWidth="1"/>
     <col min="2056" max="2056" width="8" customWidth="1"/>
     <col min="2057" max="2057" width="10" customWidth="1"/>
-    <col min="2058" max="2058" width="9.28515625" customWidth="1"/>
-    <col min="2059" max="2059" width="10.140625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.33203125" customWidth="1"/>
+    <col min="2059" max="2059" width="10.1640625" customWidth="1"/>
     <col min="2060" max="2060" width="8" customWidth="1"/>
-    <col min="2295" max="2295" width="30.42578125" customWidth="1"/>
-    <col min="2296" max="2296" width="11.42578125" customWidth="1"/>
+    <col min="2295" max="2295" width="30.5" customWidth="1"/>
+    <col min="2296" max="2296" width="11.5" customWidth="1"/>
     <col min="2297" max="2297" width="8" customWidth="1"/>
-    <col min="2298" max="2298" width="10.28515625" customWidth="1"/>
-    <col min="2299" max="2299" width="8.28515625" customWidth="1"/>
+    <col min="2298" max="2298" width="10.33203125" customWidth="1"/>
+    <col min="2299" max="2299" width="8.33203125" customWidth="1"/>
     <col min="2300" max="2300" width="10" customWidth="1"/>
     <col min="2301" max="2305" width="8" customWidth="1"/>
-    <col min="2306" max="2306" width="8.28515625" customWidth="1"/>
+    <col min="2306" max="2306" width="8.33203125" customWidth="1"/>
     <col min="2307" max="2307" width="9" customWidth="1"/>
-    <col min="2308" max="2308" width="28.140625" customWidth="1"/>
-    <col min="2309" max="2309" width="10.140625" customWidth="1"/>
-    <col min="2311" max="2311" width="11.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="28.1640625" customWidth="1"/>
+    <col min="2309" max="2309" width="10.1640625" customWidth="1"/>
+    <col min="2311" max="2311" width="11.5" customWidth="1"/>
     <col min="2312" max="2312" width="8" customWidth="1"/>
     <col min="2313" max="2313" width="10" customWidth="1"/>
-    <col min="2314" max="2314" width="9.28515625" customWidth="1"/>
-    <col min="2315" max="2315" width="10.140625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.33203125" customWidth="1"/>
+    <col min="2315" max="2315" width="10.1640625" customWidth="1"/>
     <col min="2316" max="2316" width="8" customWidth="1"/>
-    <col min="2551" max="2551" width="30.42578125" customWidth="1"/>
-    <col min="2552" max="2552" width="11.42578125" customWidth="1"/>
+    <col min="2551" max="2551" width="30.5" customWidth="1"/>
+    <col min="2552" max="2552" width="11.5" customWidth="1"/>
     <col min="2553" max="2553" width="8" customWidth="1"/>
-    <col min="2554" max="2554" width="10.28515625" customWidth="1"/>
-    <col min="2555" max="2555" width="8.28515625" customWidth="1"/>
+    <col min="2554" max="2554" width="10.33203125" customWidth="1"/>
+    <col min="2555" max="2555" width="8.33203125" customWidth="1"/>
     <col min="2556" max="2556" width="10" customWidth="1"/>
     <col min="2557" max="2561" width="8" customWidth="1"/>
-    <col min="2562" max="2562" width="8.28515625" customWidth="1"/>
+    <col min="2562" max="2562" width="8.33203125" customWidth="1"/>
     <col min="2563" max="2563" width="9" customWidth="1"/>
-    <col min="2564" max="2564" width="28.140625" customWidth="1"/>
-    <col min="2565" max="2565" width="10.140625" customWidth="1"/>
-    <col min="2567" max="2567" width="11.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="28.1640625" customWidth="1"/>
+    <col min="2565" max="2565" width="10.1640625" customWidth="1"/>
+    <col min="2567" max="2567" width="11.5" customWidth="1"/>
     <col min="2568" max="2568" width="8" customWidth="1"/>
     <col min="2569" max="2569" width="10" customWidth="1"/>
-    <col min="2570" max="2570" width="9.28515625" customWidth="1"/>
-    <col min="2571" max="2571" width="10.140625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.33203125" customWidth="1"/>
+    <col min="2571" max="2571" width="10.1640625" customWidth="1"/>
     <col min="2572" max="2572" width="8" customWidth="1"/>
-    <col min="2807" max="2807" width="30.42578125" customWidth="1"/>
-    <col min="2808" max="2808" width="11.42578125" customWidth="1"/>
+    <col min="2807" max="2807" width="30.5" customWidth="1"/>
+    <col min="2808" max="2808" width="11.5" customWidth="1"/>
     <col min="2809" max="2809" width="8" customWidth="1"/>
-    <col min="2810" max="2810" width="10.28515625" customWidth="1"/>
-    <col min="2811" max="2811" width="8.28515625" customWidth="1"/>
+    <col min="2810" max="2810" width="10.33203125" customWidth="1"/>
+    <col min="2811" max="2811" width="8.33203125" customWidth="1"/>
     <col min="2812" max="2812" width="10" customWidth="1"/>
     <col min="2813" max="2817" width="8" customWidth="1"/>
-    <col min="2818" max="2818" width="8.28515625" customWidth="1"/>
+    <col min="2818" max="2818" width="8.33203125" customWidth="1"/>
     <col min="2819" max="2819" width="9" customWidth="1"/>
-    <col min="2820" max="2820" width="28.140625" customWidth="1"/>
-    <col min="2821" max="2821" width="10.140625" customWidth="1"/>
-    <col min="2823" max="2823" width="11.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="28.1640625" customWidth="1"/>
+    <col min="2821" max="2821" width="10.1640625" customWidth="1"/>
+    <col min="2823" max="2823" width="11.5" customWidth="1"/>
     <col min="2824" max="2824" width="8" customWidth="1"/>
     <col min="2825" max="2825" width="10" customWidth="1"/>
-    <col min="2826" max="2826" width="9.28515625" customWidth="1"/>
-    <col min="2827" max="2827" width="10.140625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.33203125" customWidth="1"/>
+    <col min="2827" max="2827" width="10.1640625" customWidth="1"/>
     <col min="2828" max="2828" width="8" customWidth="1"/>
-    <col min="3063" max="3063" width="30.42578125" customWidth="1"/>
-    <col min="3064" max="3064" width="11.42578125" customWidth="1"/>
+    <col min="3063" max="3063" width="30.5" customWidth="1"/>
+    <col min="3064" max="3064" width="11.5" customWidth="1"/>
     <col min="3065" max="3065" width="8" customWidth="1"/>
-    <col min="3066" max="3066" width="10.28515625" customWidth="1"/>
-    <col min="3067" max="3067" width="8.28515625" customWidth="1"/>
+    <col min="3066" max="3066" width="10.33203125" customWidth="1"/>
+    <col min="3067" max="3067" width="8.33203125" customWidth="1"/>
     <col min="3068" max="3068" width="10" customWidth="1"/>
     <col min="3069" max="3073" width="8" customWidth="1"/>
-    <col min="3074" max="3074" width="8.28515625" customWidth="1"/>
+    <col min="3074" max="3074" width="8.33203125" customWidth="1"/>
     <col min="3075" max="3075" width="9" customWidth="1"/>
-    <col min="3076" max="3076" width="28.140625" customWidth="1"/>
-    <col min="3077" max="3077" width="10.140625" customWidth="1"/>
-    <col min="3079" max="3079" width="11.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="28.1640625" customWidth="1"/>
+    <col min="3077" max="3077" width="10.1640625" customWidth="1"/>
+    <col min="3079" max="3079" width="11.5" customWidth="1"/>
     <col min="3080" max="3080" width="8" customWidth="1"/>
     <col min="3081" max="3081" width="10" customWidth="1"/>
-    <col min="3082" max="3082" width="9.28515625" customWidth="1"/>
-    <col min="3083" max="3083" width="10.140625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.33203125" customWidth="1"/>
+    <col min="3083" max="3083" width="10.1640625" customWidth="1"/>
     <col min="3084" max="3084" width="8" customWidth="1"/>
-    <col min="3319" max="3319" width="30.42578125" customWidth="1"/>
-    <col min="3320" max="3320" width="11.42578125" customWidth="1"/>
+    <col min="3319" max="3319" width="30.5" customWidth="1"/>
+    <col min="3320" max="3320" width="11.5" customWidth="1"/>
     <col min="3321" max="3321" width="8" customWidth="1"/>
-    <col min="3322" max="3322" width="10.28515625" customWidth="1"/>
-    <col min="3323" max="3323" width="8.28515625" customWidth="1"/>
+    <col min="3322" max="3322" width="10.33203125" customWidth="1"/>
+    <col min="3323" max="3323" width="8.33203125" customWidth="1"/>
     <col min="3324" max="3324" width="10" customWidth="1"/>
     <col min="3325" max="3329" width="8" customWidth="1"/>
-    <col min="3330" max="3330" width="8.28515625" customWidth="1"/>
+    <col min="3330" max="3330" width="8.33203125" customWidth="1"/>
     <col min="3331" max="3331" width="9" customWidth="1"/>
-    <col min="3332" max="3332" width="28.140625" customWidth="1"/>
-    <col min="3333" max="3333" width="10.140625" customWidth="1"/>
-    <col min="3335" max="3335" width="11.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="28.1640625" customWidth="1"/>
+    <col min="3333" max="3333" width="10.1640625" customWidth="1"/>
+    <col min="3335" max="3335" width="11.5" customWidth="1"/>
     <col min="3336" max="3336" width="8" customWidth="1"/>
     <col min="3337" max="3337" width="10" customWidth="1"/>
-    <col min="3338" max="3338" width="9.28515625" customWidth="1"/>
-    <col min="3339" max="3339" width="10.140625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.33203125" customWidth="1"/>
+    <col min="3339" max="3339" width="10.1640625" customWidth="1"/>
     <col min="3340" max="3340" width="8" customWidth="1"/>
-    <col min="3575" max="3575" width="30.42578125" customWidth="1"/>
-    <col min="3576" max="3576" width="11.42578125" customWidth="1"/>
+    <col min="3575" max="3575" width="30.5" customWidth="1"/>
+    <col min="3576" max="3576" width="11.5" customWidth="1"/>
     <col min="3577" max="3577" width="8" customWidth="1"/>
-    <col min="3578" max="3578" width="10.28515625" customWidth="1"/>
-    <col min="3579" max="3579" width="8.28515625" customWidth="1"/>
+    <col min="3578" max="3578" width="10.33203125" customWidth="1"/>
+    <col min="3579" max="3579" width="8.33203125" customWidth="1"/>
     <col min="3580" max="3580" width="10" customWidth="1"/>
     <col min="3581" max="3585" width="8" customWidth="1"/>
-    <col min="3586" max="3586" width="8.28515625" customWidth="1"/>
+    <col min="3586" max="3586" width="8.33203125" customWidth="1"/>
     <col min="3587" max="3587" width="9" customWidth="1"/>
-    <col min="3588" max="3588" width="28.140625" customWidth="1"/>
-    <col min="3589" max="3589" width="10.140625" customWidth="1"/>
-    <col min="3591" max="3591" width="11.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="28.1640625" customWidth="1"/>
+    <col min="3589" max="3589" width="10.1640625" customWidth="1"/>
+    <col min="3591" max="3591" width="11.5" customWidth="1"/>
     <col min="3592" max="3592" width="8" customWidth="1"/>
     <col min="3593" max="3593" width="10" customWidth="1"/>
-    <col min="3594" max="3594" width="9.28515625" customWidth="1"/>
-    <col min="3595" max="3595" width="10.140625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.33203125" customWidth="1"/>
+    <col min="3595" max="3595" width="10.1640625" customWidth="1"/>
     <col min="3596" max="3596" width="8" customWidth="1"/>
-    <col min="3831" max="3831" width="30.42578125" customWidth="1"/>
-    <col min="3832" max="3832" width="11.42578125" customWidth="1"/>
+    <col min="3831" max="3831" width="30.5" customWidth="1"/>
+    <col min="3832" max="3832" width="11.5" customWidth="1"/>
     <col min="3833" max="3833" width="8" customWidth="1"/>
-    <col min="3834" max="3834" width="10.28515625" customWidth="1"/>
-    <col min="3835" max="3835" width="8.28515625" customWidth="1"/>
+    <col min="3834" max="3834" width="10.33203125" customWidth="1"/>
+    <col min="3835" max="3835" width="8.33203125" customWidth="1"/>
     <col min="3836" max="3836" width="10" customWidth="1"/>
     <col min="3837" max="3841" width="8" customWidth="1"/>
-    <col min="3842" max="3842" width="8.28515625" customWidth="1"/>
+    <col min="3842" max="3842" width="8.33203125" customWidth="1"/>
     <col min="3843" max="3843" width="9" customWidth="1"/>
-    <col min="3844" max="3844" width="28.140625" customWidth="1"/>
-    <col min="3845" max="3845" width="10.140625" customWidth="1"/>
-    <col min="3847" max="3847" width="11.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="28.1640625" customWidth="1"/>
+    <col min="3845" max="3845" width="10.1640625" customWidth="1"/>
+    <col min="3847" max="3847" width="11.5" customWidth="1"/>
     <col min="3848" max="3848" width="8" customWidth="1"/>
     <col min="3849" max="3849" width="10" customWidth="1"/>
-    <col min="3850" max="3850" width="9.28515625" customWidth="1"/>
-    <col min="3851" max="3851" width="10.140625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.33203125" customWidth="1"/>
+    <col min="3851" max="3851" width="10.1640625" customWidth="1"/>
     <col min="3852" max="3852" width="8" customWidth="1"/>
-    <col min="4087" max="4087" width="30.42578125" customWidth="1"/>
-    <col min="4088" max="4088" width="11.42578125" customWidth="1"/>
+    <col min="4087" max="4087" width="30.5" customWidth="1"/>
+    <col min="4088" max="4088" width="11.5" customWidth="1"/>
     <col min="4089" max="4089" width="8" customWidth="1"/>
-    <col min="4090" max="4090" width="10.28515625" customWidth="1"/>
-    <col min="4091" max="4091" width="8.28515625" customWidth="1"/>
+    <col min="4090" max="4090" width="10.33203125" customWidth="1"/>
+    <col min="4091" max="4091" width="8.33203125" customWidth="1"/>
     <col min="4092" max="4092" width="10" customWidth="1"/>
     <col min="4093" max="4097" width="8" customWidth="1"/>
-    <col min="4098" max="4098" width="8.28515625" customWidth="1"/>
+    <col min="4098" max="4098" width="8.33203125" customWidth="1"/>
     <col min="4099" max="4099" width="9" customWidth="1"/>
-    <col min="4100" max="4100" width="28.140625" customWidth="1"/>
-    <col min="4101" max="4101" width="10.140625" customWidth="1"/>
-    <col min="4103" max="4103" width="11.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="28.1640625" customWidth="1"/>
+    <col min="4101" max="4101" width="10.1640625" customWidth="1"/>
+    <col min="4103" max="4103" width="11.5" customWidth="1"/>
     <col min="4104" max="4104" width="8" customWidth="1"/>
     <col min="4105" max="4105" width="10" customWidth="1"/>
-    <col min="4106" max="4106" width="9.28515625" customWidth="1"/>
-    <col min="4107" max="4107" width="10.140625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.33203125" customWidth="1"/>
+    <col min="4107" max="4107" width="10.1640625" customWidth="1"/>
     <col min="4108" max="4108" width="8" customWidth="1"/>
-    <col min="4343" max="4343" width="30.42578125" customWidth="1"/>
-    <col min="4344" max="4344" width="11.42578125" customWidth="1"/>
+    <col min="4343" max="4343" width="30.5" customWidth="1"/>
+    <col min="4344" max="4344" width="11.5" customWidth="1"/>
     <col min="4345" max="4345" width="8" customWidth="1"/>
-    <col min="4346" max="4346" width="10.28515625" customWidth="1"/>
-    <col min="4347" max="4347" width="8.28515625" customWidth="1"/>
+    <col min="4346" max="4346" width="10.33203125" customWidth="1"/>
+    <col min="4347" max="4347" width="8.33203125" customWidth="1"/>
     <col min="4348" max="4348" width="10" customWidth="1"/>
     <col min="4349" max="4353" width="8" customWidth="1"/>
-    <col min="4354" max="4354" width="8.28515625" customWidth="1"/>
+    <col min="4354" max="4354" width="8.33203125" customWidth="1"/>
     <col min="4355" max="4355" width="9" customWidth="1"/>
-    <col min="4356" max="4356" width="28.140625" customWidth="1"/>
-    <col min="4357" max="4357" width="10.140625" customWidth="1"/>
-    <col min="4359" max="4359" width="11.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="28.1640625" customWidth="1"/>
+    <col min="4357" max="4357" width="10.1640625" customWidth="1"/>
+    <col min="4359" max="4359" width="11.5" customWidth="1"/>
     <col min="4360" max="4360" width="8" customWidth="1"/>
     <col min="4361" max="4361" width="10" customWidth="1"/>
-    <col min="4362" max="4362" width="9.28515625" customWidth="1"/>
-    <col min="4363" max="4363" width="10.140625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.33203125" customWidth="1"/>
+    <col min="4363" max="4363" width="10.1640625" customWidth="1"/>
     <col min="4364" max="4364" width="8" customWidth="1"/>
-    <col min="4599" max="4599" width="30.42578125" customWidth="1"/>
-    <col min="4600" max="4600" width="11.42578125" customWidth="1"/>
+    <col min="4599" max="4599" width="30.5" customWidth="1"/>
+    <col min="4600" max="4600" width="11.5" customWidth="1"/>
     <col min="4601" max="4601" width="8" customWidth="1"/>
-    <col min="4602" max="4602" width="10.28515625" customWidth="1"/>
-    <col min="4603" max="4603" width="8.28515625" customWidth="1"/>
+    <col min="4602" max="4602" width="10.33203125" customWidth="1"/>
+    <col min="4603" max="4603" width="8.33203125" customWidth="1"/>
     <col min="4604" max="4604" width="10" customWidth="1"/>
     <col min="4605" max="4609" width="8" customWidth="1"/>
-    <col min="4610" max="4610" width="8.28515625" customWidth="1"/>
+    <col min="4610" max="4610" width="8.33203125" customWidth="1"/>
     <col min="4611" max="4611" width="9" customWidth="1"/>
-    <col min="4612" max="4612" width="28.140625" customWidth="1"/>
-    <col min="4613" max="4613" width="10.140625" customWidth="1"/>
-    <col min="4615" max="4615" width="11.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="28.1640625" customWidth="1"/>
+    <col min="4613" max="4613" width="10.1640625" customWidth="1"/>
+    <col min="4615" max="4615" width="11.5" customWidth="1"/>
     <col min="4616" max="4616" width="8" customWidth="1"/>
     <col min="4617" max="4617" width="10" customWidth="1"/>
-    <col min="4618" max="4618" width="9.28515625" customWidth="1"/>
-    <col min="4619" max="4619" width="10.140625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.33203125" customWidth="1"/>
+    <col min="4619" max="4619" width="10.1640625" customWidth="1"/>
     <col min="4620" max="4620" width="8" customWidth="1"/>
-    <col min="4855" max="4855" width="30.42578125" customWidth="1"/>
-    <col min="4856" max="4856" width="11.42578125" customWidth="1"/>
+    <col min="4855" max="4855" width="30.5" customWidth="1"/>
+    <col min="4856" max="4856" width="11.5" customWidth="1"/>
     <col min="4857" max="4857" width="8" customWidth="1"/>
-    <col min="4858" max="4858" width="10.28515625" customWidth="1"/>
-    <col min="4859" max="4859" width="8.28515625" customWidth="1"/>
+    <col min="4858" max="4858" width="10.33203125" customWidth="1"/>
+    <col min="4859" max="4859" width="8.33203125" customWidth="1"/>
     <col min="4860" max="4860" width="10" customWidth="1"/>
     <col min="4861" max="4865" width="8" customWidth="1"/>
-    <col min="4866" max="4866" width="8.28515625" customWidth="1"/>
+    <col min="4866" max="4866" width="8.33203125" customWidth="1"/>
     <col min="4867" max="4867" width="9" customWidth="1"/>
-    <col min="4868" max="4868" width="28.140625" customWidth="1"/>
-    <col min="4869" max="4869" width="10.140625" customWidth="1"/>
-    <col min="4871" max="4871" width="11.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="28.1640625" customWidth="1"/>
+    <col min="4869" max="4869" width="10.1640625" customWidth="1"/>
+    <col min="4871" max="4871" width="11.5" customWidth="1"/>
     <col min="4872" max="4872" width="8" customWidth="1"/>
     <col min="4873" max="4873" width="10" customWidth="1"/>
-    <col min="4874" max="4874" width="9.28515625" customWidth="1"/>
-    <col min="4875" max="4875" width="10.140625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.33203125" customWidth="1"/>
+    <col min="4875" max="4875" width="10.1640625" customWidth="1"/>
     <col min="4876" max="4876" width="8" customWidth="1"/>
-    <col min="5111" max="5111" width="30.42578125" customWidth="1"/>
-    <col min="5112" max="5112" width="11.42578125" customWidth="1"/>
+    <col min="5111" max="5111" width="30.5" customWidth="1"/>
+    <col min="5112" max="5112" width="11.5" customWidth="1"/>
     <col min="5113" max="5113" width="8" customWidth="1"/>
-    <col min="5114" max="5114" width="10.28515625" customWidth="1"/>
-    <col min="5115" max="5115" width="8.28515625" customWidth="1"/>
+    <col min="5114" max="5114" width="10.33203125" customWidth="1"/>
+    <col min="5115" max="5115" width="8.33203125" customWidth="1"/>
     <col min="5116" max="5116" width="10" customWidth="1"/>
     <col min="5117" max="5121" width="8" customWidth="1"/>
-    <col min="5122" max="5122" width="8.28515625" customWidth="1"/>
+    <col min="5122" max="5122" width="8.33203125" customWidth="1"/>
     <col min="5123" max="5123" width="9" customWidth="1"/>
-    <col min="5124" max="5124" width="28.140625" customWidth="1"/>
-    <col min="5125" max="5125" width="10.140625" customWidth="1"/>
-    <col min="5127" max="5127" width="11.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="28.1640625" customWidth="1"/>
+    <col min="5125" max="5125" width="10.1640625" customWidth="1"/>
+    <col min="5127" max="5127" width="11.5" customWidth="1"/>
     <col min="5128" max="5128" width="8" customWidth="1"/>
     <col min="5129" max="5129" width="10" customWidth="1"/>
-    <col min="5130" max="5130" width="9.28515625" customWidth="1"/>
-    <col min="5131" max="5131" width="10.140625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.33203125" customWidth="1"/>
+    <col min="5131" max="5131" width="10.1640625" customWidth="1"/>
     <col min="5132" max="5132" width="8" customWidth="1"/>
-    <col min="5367" max="5367" width="30.42578125" customWidth="1"/>
-    <col min="5368" max="5368" width="11.42578125" customWidth="1"/>
+    <col min="5367" max="5367" width="30.5" customWidth="1"/>
+    <col min="5368" max="5368" width="11.5" customWidth="1"/>
     <col min="5369" max="5369" width="8" customWidth="1"/>
-    <col min="5370" max="5370" width="10.28515625" customWidth="1"/>
-    <col min="5371" max="5371" width="8.28515625" customWidth="1"/>
+    <col min="5370" max="5370" width="10.33203125" customWidth="1"/>
+    <col min="5371" max="5371" width="8.33203125" customWidth="1"/>
     <col min="5372" max="5372" width="10" customWidth="1"/>
     <col min="5373" max="5377" width="8" customWidth="1"/>
-    <col min="5378" max="5378" width="8.28515625" customWidth="1"/>
+    <col min="5378" max="5378" width="8.33203125" customWidth="1"/>
     <col min="5379" max="5379" width="9" customWidth="1"/>
-    <col min="5380" max="5380" width="28.140625" customWidth="1"/>
-    <col min="5381" max="5381" width="10.140625" customWidth="1"/>
-    <col min="5383" max="5383" width="11.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="28.1640625" customWidth="1"/>
+    <col min="5381" max="5381" width="10.1640625" customWidth="1"/>
+    <col min="5383" max="5383" width="11.5" customWidth="1"/>
     <col min="5384" max="5384" width="8" customWidth="1"/>
     <col min="5385" max="5385" width="10" customWidth="1"/>
-    <col min="5386" max="5386" width="9.28515625" customWidth="1"/>
-    <col min="5387" max="5387" width="10.140625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.33203125" customWidth="1"/>
+    <col min="5387" max="5387" width="10.1640625" customWidth="1"/>
     <col min="5388" max="5388" width="8" customWidth="1"/>
-    <col min="5623" max="5623" width="30.42578125" customWidth="1"/>
-    <col min="5624" max="5624" width="11.42578125" customWidth="1"/>
+    <col min="5623" max="5623" width="30.5" customWidth="1"/>
+    <col min="5624" max="5624" width="11.5" customWidth="1"/>
     <col min="5625" max="5625" width="8" customWidth="1"/>
-    <col min="5626" max="5626" width="10.28515625" customWidth="1"/>
-    <col min="5627" max="5627" width="8.28515625" customWidth="1"/>
+    <col min="5626" max="5626" width="10.33203125" customWidth="1"/>
+    <col min="5627" max="5627" width="8.33203125" customWidth="1"/>
     <col min="5628" max="5628" width="10" customWidth="1"/>
     <col min="5629" max="5633" width="8" customWidth="1"/>
-    <col min="5634" max="5634" width="8.28515625" customWidth="1"/>
+    <col min="5634" max="5634" width="8.33203125" customWidth="1"/>
     <col min="5635" max="5635" width="9" customWidth="1"/>
-    <col min="5636" max="5636" width="28.140625" customWidth="1"/>
-    <col min="5637" max="5637" width="10.140625" customWidth="1"/>
-    <col min="5639" max="5639" width="11.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="28.1640625" customWidth="1"/>
+    <col min="5637" max="5637" width="10.1640625" customWidth="1"/>
+    <col min="5639" max="5639" width="11.5" customWidth="1"/>
     <col min="5640" max="5640" width="8" customWidth="1"/>
     <col min="5641" max="5641" width="10" customWidth="1"/>
-    <col min="5642" max="5642" width="9.28515625" customWidth="1"/>
-    <col min="5643" max="5643" width="10.140625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.33203125" customWidth="1"/>
+    <col min="5643" max="5643" width="10.1640625" customWidth="1"/>
     <col min="5644" max="5644" width="8" customWidth="1"/>
-    <col min="5879" max="5879" width="30.42578125" customWidth="1"/>
-    <col min="5880" max="5880" width="11.42578125" customWidth="1"/>
+    <col min="5879" max="5879" width="30.5" customWidth="1"/>
+    <col min="5880" max="5880" width="11.5" customWidth="1"/>
     <col min="5881" max="5881" width="8" customWidth="1"/>
-    <col min="5882" max="5882" width="10.28515625" customWidth="1"/>
-    <col min="5883" max="5883" width="8.28515625" customWidth="1"/>
+    <col min="5882" max="5882" width="10.33203125" customWidth="1"/>
+    <col min="5883" max="5883" width="8.33203125" customWidth="1"/>
     <col min="5884" max="5884" width="10" customWidth="1"/>
     <col min="5885" max="5889" width="8" customWidth="1"/>
-    <col min="5890" max="5890" width="8.28515625" customWidth="1"/>
+    <col min="5890" max="5890" width="8.33203125" customWidth="1"/>
     <col min="5891" max="5891" width="9" customWidth="1"/>
-    <col min="5892" max="5892" width="28.140625" customWidth="1"/>
-    <col min="5893" max="5893" width="10.140625" customWidth="1"/>
-    <col min="5895" max="5895" width="11.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="28.1640625" customWidth="1"/>
+    <col min="5893" max="5893" width="10.1640625" customWidth="1"/>
+    <col min="5895" max="5895" width="11.5" customWidth="1"/>
     <col min="5896" max="5896" width="8" customWidth="1"/>
     <col min="5897" max="5897" width="10" customWidth="1"/>
-    <col min="5898" max="5898" width="9.28515625" customWidth="1"/>
-    <col min="5899" max="5899" width="10.140625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.33203125" customWidth="1"/>
+    <col min="5899" max="5899" width="10.1640625" customWidth="1"/>
     <col min="5900" max="5900" width="8" customWidth="1"/>
-    <col min="6135" max="6135" width="30.42578125" customWidth="1"/>
-    <col min="6136" max="6136" width="11.42578125" customWidth="1"/>
+    <col min="6135" max="6135" width="30.5" customWidth="1"/>
+    <col min="6136" max="6136" width="11.5" customWidth="1"/>
     <col min="6137" max="6137" width="8" customWidth="1"/>
-    <col min="6138" max="6138" width="10.28515625" customWidth="1"/>
-    <col min="6139" max="6139" width="8.28515625" customWidth="1"/>
+    <col min="6138" max="6138" width="10.33203125" customWidth="1"/>
+    <col min="6139" max="6139" width="8.33203125" customWidth="1"/>
     <col min="6140" max="6140" width="10" customWidth="1"/>
     <col min="6141" max="6145" width="8" customWidth="1"/>
-    <col min="6146" max="6146" width="8.28515625" customWidth="1"/>
+    <col min="6146" max="6146" width="8.33203125" customWidth="1"/>
     <col min="6147" max="6147" width="9" customWidth="1"/>
-    <col min="6148" max="6148" width="28.140625" customWidth="1"/>
-    <col min="6149" max="6149" width="10.140625" customWidth="1"/>
-    <col min="6151" max="6151" width="11.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="28.1640625" customWidth="1"/>
+    <col min="6149" max="6149" width="10.1640625" customWidth="1"/>
+    <col min="6151" max="6151" width="11.5" customWidth="1"/>
     <col min="6152" max="6152" width="8" customWidth="1"/>
     <col min="6153" max="6153" width="10" customWidth="1"/>
-    <col min="6154" max="6154" width="9.28515625" customWidth="1"/>
-    <col min="6155" max="6155" width="10.140625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.33203125" customWidth="1"/>
+    <col min="6155" max="6155" width="10.1640625" customWidth="1"/>
     <col min="6156" max="6156" width="8" customWidth="1"/>
-    <col min="6391" max="6391" width="30.42578125" customWidth="1"/>
-    <col min="6392" max="6392" width="11.42578125" customWidth="1"/>
+    <col min="6391" max="6391" width="30.5" customWidth="1"/>
+    <col min="6392" max="6392" width="11.5" customWidth="1"/>
     <col min="6393" max="6393" width="8" customWidth="1"/>
-    <col min="6394" max="6394" width="10.28515625" customWidth="1"/>
-    <col min="6395" max="6395" width="8.28515625" customWidth="1"/>
+    <col min="6394" max="6394" width="10.33203125" customWidth="1"/>
+    <col min="6395" max="6395" width="8.33203125" customWidth="1"/>
     <col min="6396" max="6396" width="10" customWidth="1"/>
     <col min="6397" max="6401" width="8" customWidth="1"/>
-    <col min="6402" max="6402" width="8.28515625" customWidth="1"/>
+    <col min="6402" max="6402" width="8.33203125" customWidth="1"/>
     <col min="6403" max="6403" width="9" customWidth="1"/>
-    <col min="6404" max="6404" width="28.140625" customWidth="1"/>
-    <col min="6405" max="6405" width="10.140625" customWidth="1"/>
-    <col min="6407" max="6407" width="11.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="28.1640625" customWidth="1"/>
+    <col min="6405" max="6405" width="10.1640625" customWidth="1"/>
+    <col min="6407" max="6407" width="11.5" customWidth="1"/>
     <col min="6408" max="6408" width="8" customWidth="1"/>
     <col min="6409" max="6409" width="10" customWidth="1"/>
-    <col min="6410" max="6410" width="9.28515625" customWidth="1"/>
-    <col min="6411" max="6411" width="10.140625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.33203125" customWidth="1"/>
+    <col min="6411" max="6411" width="10.1640625" customWidth="1"/>
     <col min="6412" max="6412" width="8" customWidth="1"/>
-    <col min="6647" max="6647" width="30.42578125" customWidth="1"/>
-    <col min="6648" max="6648" width="11.42578125" customWidth="1"/>
+    <col min="6647" max="6647" width="30.5" customWidth="1"/>
+    <col min="6648" max="6648" width="11.5" customWidth="1"/>
     <col min="6649" max="6649" width="8" customWidth="1"/>
-    <col min="6650" max="6650" width="10.28515625" customWidth="1"/>
-    <col min="6651" max="6651" width="8.28515625" customWidth="1"/>
+    <col min="6650" max="6650" width="10.33203125" customWidth="1"/>
+    <col min="6651" max="6651" width="8.33203125" customWidth="1"/>
     <col min="6652" max="6652" width="10" customWidth="1"/>
     <col min="6653" max="6657" width="8" customWidth="1"/>
-    <col min="6658" max="6658" width="8.28515625" customWidth="1"/>
+    <col min="6658" max="6658" width="8.33203125" customWidth="1"/>
     <col min="6659" max="6659" width="9" customWidth="1"/>
-    <col min="6660" max="6660" width="28.140625" customWidth="1"/>
-    <col min="6661" max="6661" width="10.140625" customWidth="1"/>
-    <col min="6663" max="6663" width="11.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="28.1640625" customWidth="1"/>
+    <col min="6661" max="6661" width="10.1640625" customWidth="1"/>
+    <col min="6663" max="6663" width="11.5" customWidth="1"/>
     <col min="6664" max="6664" width="8" customWidth="1"/>
     <col min="6665" max="6665" width="10" customWidth="1"/>
-    <col min="6666" max="6666" width="9.28515625" customWidth="1"/>
-    <col min="6667" max="6667" width="10.140625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.33203125" customWidth="1"/>
+    <col min="6667" max="6667" width="10.1640625" customWidth="1"/>
     <col min="6668" max="6668" width="8" customWidth="1"/>
-    <col min="6903" max="6903" width="30.42578125" customWidth="1"/>
-    <col min="6904" max="6904" width="11.42578125" customWidth="1"/>
+    <col min="6903" max="6903" width="30.5" customWidth="1"/>
+    <col min="6904" max="6904" width="11.5" customWidth="1"/>
     <col min="6905" max="6905" width="8" customWidth="1"/>
-    <col min="6906" max="6906" width="10.28515625" customWidth="1"/>
-    <col min="6907" max="6907" width="8.28515625" customWidth="1"/>
+    <col min="6906" max="6906" width="10.33203125" customWidth="1"/>
+    <col min="6907" max="6907" width="8.33203125" customWidth="1"/>
     <col min="6908" max="6908" width="10" customWidth="1"/>
     <col min="6909" max="6913" width="8" customWidth="1"/>
-    <col min="6914" max="6914" width="8.28515625" customWidth="1"/>
+    <col min="6914" max="6914" width="8.33203125" customWidth="1"/>
     <col min="6915" max="6915" width="9" customWidth="1"/>
-    <col min="6916" max="6916" width="28.140625" customWidth="1"/>
-    <col min="6917" max="6917" width="10.140625" customWidth="1"/>
-    <col min="6919" max="6919" width="11.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="28.1640625" customWidth="1"/>
+    <col min="6917" max="6917" width="10.1640625" customWidth="1"/>
+    <col min="6919" max="6919" width="11.5" customWidth="1"/>
     <col min="6920" max="6920" width="8" customWidth="1"/>
     <col min="6921" max="6921" width="10" customWidth="1"/>
-    <col min="6922" max="6922" width="9.28515625" customWidth="1"/>
-    <col min="6923" max="6923" width="10.140625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.33203125" customWidth="1"/>
+    <col min="6923" max="6923" width="10.1640625" customWidth="1"/>
     <col min="6924" max="6924" width="8" customWidth="1"/>
-    <col min="7159" max="7159" width="30.42578125" customWidth="1"/>
-    <col min="7160" max="7160" width="11.42578125" customWidth="1"/>
+    <col min="7159" max="7159" width="30.5" customWidth="1"/>
+    <col min="7160" max="7160" width="11.5" customWidth="1"/>
     <col min="7161" max="7161" width="8" customWidth="1"/>
-    <col min="7162" max="7162" width="10.28515625" customWidth="1"/>
-    <col min="7163" max="7163" width="8.28515625" customWidth="1"/>
+    <col min="7162" max="7162" width="10.33203125" customWidth="1"/>
+    <col min="7163" max="7163" width="8.33203125" customWidth="1"/>
     <col min="7164" max="7164" width="10" customWidth="1"/>
     <col min="7165" max="7169" width="8" customWidth="1"/>
-    <col min="7170" max="7170" width="8.28515625" customWidth="1"/>
+    <col min="7170" max="7170" width="8.33203125" customWidth="1"/>
     <col min="7171" max="7171" width="9" customWidth="1"/>
-    <col min="7172" max="7172" width="28.140625" customWidth="1"/>
-    <col min="7173" max="7173" width="10.140625" customWidth="1"/>
-    <col min="7175" max="7175" width="11.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="28.1640625" customWidth="1"/>
+    <col min="7173" max="7173" width="10.1640625" customWidth="1"/>
+    <col min="7175" max="7175" width="11.5" customWidth="1"/>
     <col min="7176" max="7176" width="8" customWidth="1"/>
     <col min="7177" max="7177" width="10" customWidth="1"/>
-    <col min="7178" max="7178" width="9.28515625" customWidth="1"/>
-    <col min="7179" max="7179" width="10.140625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.33203125" customWidth="1"/>
+    <col min="7179" max="7179" width="10.1640625" customWidth="1"/>
     <col min="7180" max="7180" width="8" customWidth="1"/>
-    <col min="7415" max="7415" width="30.42578125" customWidth="1"/>
-    <col min="7416" max="7416" width="11.42578125" customWidth="1"/>
+    <col min="7415" max="7415" width="30.5" customWidth="1"/>
+    <col min="7416" max="7416" width="11.5" customWidth="1"/>
     <col min="7417" max="7417" width="8" customWidth="1"/>
-    <col min="7418" max="7418" width="10.28515625" customWidth="1"/>
-    <col min="7419" max="7419" width="8.28515625" customWidth="1"/>
+    <col min="7418" max="7418" width="10.33203125" customWidth="1"/>
+    <col min="7419" max="7419" width="8.33203125" customWidth="1"/>
     <col min="7420" max="7420" width="10" customWidth="1"/>
     <col min="7421" max="7425" width="8" customWidth="1"/>
-    <col min="7426" max="7426" width="8.28515625" customWidth="1"/>
+    <col min="7426" max="7426" width="8.33203125" customWidth="1"/>
     <col min="7427" max="7427" width="9" customWidth="1"/>
-    <col min="7428" max="7428" width="28.140625" customWidth="1"/>
-    <col min="7429" max="7429" width="10.140625" customWidth="1"/>
-    <col min="7431" max="7431" width="11.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="28.1640625" customWidth="1"/>
+    <col min="7429" max="7429" width="10.1640625" customWidth="1"/>
+    <col min="7431" max="7431" width="11.5" customWidth="1"/>
     <col min="7432" max="7432" width="8" customWidth="1"/>
     <col min="7433" max="7433" width="10" customWidth="1"/>
-    <col min="7434" max="7434" width="9.28515625" customWidth="1"/>
-    <col min="7435" max="7435" width="10.140625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.33203125" customWidth="1"/>
+    <col min="7435" max="7435" width="10.1640625" customWidth="1"/>
     <col min="7436" max="7436" width="8" customWidth="1"/>
-    <col min="7671" max="7671" width="30.42578125" customWidth="1"/>
-    <col min="7672" max="7672" width="11.42578125" customWidth="1"/>
+    <col min="7671" max="7671" width="30.5" customWidth="1"/>
+    <col min="7672" max="7672" width="11.5" customWidth="1"/>
     <col min="7673" max="7673" width="8" customWidth="1"/>
-    <col min="7674" max="7674" width="10.28515625" customWidth="1"/>
-    <col min="7675" max="7675" width="8.28515625" customWidth="1"/>
+    <col min="7674" max="7674" width="10.33203125" customWidth="1"/>
+    <col min="7675" max="7675" width="8.33203125" customWidth="1"/>
     <col min="7676" max="7676" width="10" customWidth="1"/>
     <col min="7677" max="7681" width="8" customWidth="1"/>
-    <col min="7682" max="7682" width="8.28515625" customWidth="1"/>
+    <col min="7682" max="7682" width="8.33203125" customWidth="1"/>
     <col min="7683" max="7683" width="9" customWidth="1"/>
-    <col min="7684" max="7684" width="28.140625" customWidth="1"/>
-    <col min="7685" max="7685" width="10.140625" customWidth="1"/>
-    <col min="7687" max="7687" width="11.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="28.1640625" customWidth="1"/>
+    <col min="7685" max="7685" width="10.1640625" customWidth="1"/>
+    <col min="7687" max="7687" width="11.5" customWidth="1"/>
     <col min="7688" max="7688" width="8" customWidth="1"/>
     <col min="7689" max="7689" width="10" customWidth="1"/>
-    <col min="7690" max="7690" width="9.28515625" customWidth="1"/>
-    <col min="7691" max="7691" width="10.140625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.33203125" customWidth="1"/>
+    <col min="7691" max="7691" width="10.1640625" customWidth="1"/>
     <col min="7692" max="7692" width="8" customWidth="1"/>
-    <col min="7927" max="7927" width="30.42578125" customWidth="1"/>
-    <col min="7928" max="7928" width="11.42578125" customWidth="1"/>
+    <col min="7927" max="7927" width="30.5" customWidth="1"/>
+    <col min="7928" max="7928" width="11.5" customWidth="1"/>
     <col min="7929" max="7929" width="8" customWidth="1"/>
-    <col min="7930" max="7930" width="10.28515625" customWidth="1"/>
-    <col min="7931" max="7931" width="8.28515625" customWidth="1"/>
+    <col min="7930" max="7930" width="10.33203125" customWidth="1"/>
+    <col min="7931" max="7931" width="8.33203125" customWidth="1"/>
     <col min="7932" max="7932" width="10" customWidth="1"/>
     <col min="7933" max="7937" width="8" customWidth="1"/>
-    <col min="7938" max="7938" width="8.28515625" customWidth="1"/>
+    <col min="7938" max="7938" width="8.33203125" customWidth="1"/>
     <col min="7939" max="7939" width="9" customWidth="1"/>
-    <col min="7940" max="7940" width="28.140625" customWidth="1"/>
-    <col min="7941" max="7941" width="10.140625" customWidth="1"/>
-    <col min="7943" max="7943" width="11.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="28.1640625" customWidth="1"/>
+    <col min="7941" max="7941" width="10.1640625" customWidth="1"/>
+    <col min="7943" max="7943" width="11.5" customWidth="1"/>
     <col min="7944" max="7944" width="8" customWidth="1"/>
     <col min="7945" max="7945" width="10" customWidth="1"/>
-    <col min="7946" max="7946" width="9.28515625" customWidth="1"/>
-    <col min="7947" max="7947" width="10.140625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.33203125" customWidth="1"/>
+    <col min="7947" max="7947" width="10.1640625" customWidth="1"/>
     <col min="7948" max="7948" width="8" customWidth="1"/>
-    <col min="8183" max="8183" width="30.42578125" customWidth="1"/>
-    <col min="8184" max="8184" width="11.42578125" customWidth="1"/>
+    <col min="8183" max="8183" width="30.5" customWidth="1"/>
+    <col min="8184" max="8184" width="11.5" customWidth="1"/>
     <col min="8185" max="8185" width="8" customWidth="1"/>
-    <col min="8186" max="8186" width="10.28515625" customWidth="1"/>
-    <col min="8187" max="8187" width="8.28515625" customWidth="1"/>
+    <col min="8186" max="8186" width="10.33203125" customWidth="1"/>
+    <col min="8187" max="8187" width="8.33203125" customWidth="1"/>
     <col min="8188" max="8188" width="10" customWidth="1"/>
     <col min="8189" max="8193" width="8" customWidth="1"/>
-    <col min="8194" max="8194" width="8.28515625" customWidth="1"/>
+    <col min="8194" max="8194" width="8.33203125" customWidth="1"/>
     <col min="8195" max="8195" width="9" customWidth="1"/>
-    <col min="8196" max="8196" width="28.140625" customWidth="1"/>
-    <col min="8197" max="8197" width="10.140625" customWidth="1"/>
-    <col min="8199" max="8199" width="11.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="28.1640625" customWidth="1"/>
+    <col min="8197" max="8197" width="10.1640625" customWidth="1"/>
+    <col min="8199" max="8199" width="11.5" customWidth="1"/>
     <col min="8200" max="8200" width="8" customWidth="1"/>
     <col min="8201" max="8201" width="10" customWidth="1"/>
-    <col min="8202" max="8202" width="9.28515625" customWidth="1"/>
-    <col min="8203" max="8203" width="10.140625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.33203125" customWidth="1"/>
+    <col min="8203" max="8203" width="10.1640625" customWidth="1"/>
     <col min="8204" max="8204" width="8" customWidth="1"/>
-    <col min="8439" max="8439" width="30.42578125" customWidth="1"/>
-    <col min="8440" max="8440" width="11.42578125" customWidth="1"/>
+    <col min="8439" max="8439" width="30.5" customWidth="1"/>
+    <col min="8440" max="8440" width="11.5" customWidth="1"/>
     <col min="8441" max="8441" width="8" customWidth="1"/>
-    <col min="8442" max="8442" width="10.28515625" customWidth="1"/>
-    <col min="8443" max="8443" width="8.28515625" customWidth="1"/>
+    <col min="8442" max="8442" width="10.33203125" customWidth="1"/>
+    <col min="8443" max="8443" width="8.33203125" customWidth="1"/>
     <col min="8444" max="8444" width="10" customWidth="1"/>
     <col min="8445" max="8449" width="8" customWidth="1"/>
-    <col min="8450" max="8450" width="8.28515625" customWidth="1"/>
+    <col min="8450" max="8450" width="8.33203125" customWidth="1"/>
     <col min="8451" max="8451" width="9" customWidth="1"/>
-    <col min="8452" max="8452" width="28.140625" customWidth="1"/>
-    <col min="8453" max="8453" width="10.140625" customWidth="1"/>
-    <col min="8455" max="8455" width="11.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="28.1640625" customWidth="1"/>
+    <col min="8453" max="8453" width="10.1640625" customWidth="1"/>
+    <col min="8455" max="8455" width="11.5" customWidth="1"/>
     <col min="8456" max="8456" width="8" customWidth="1"/>
     <col min="8457" max="8457" width="10" customWidth="1"/>
-    <col min="8458" max="8458" width="9.28515625" customWidth="1"/>
-    <col min="8459" max="8459" width="10.140625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.33203125" customWidth="1"/>
+    <col min="8459" max="8459" width="10.1640625" customWidth="1"/>
     <col min="8460" max="8460" width="8" customWidth="1"/>
-    <col min="8695" max="8695" width="30.42578125" customWidth="1"/>
-    <col min="8696" max="8696" width="11.42578125" customWidth="1"/>
+    <col min="8695" max="8695" width="30.5" customWidth="1"/>
+    <col min="8696" max="8696" width="11.5" customWidth="1"/>
     <col min="8697" max="8697" width="8" customWidth="1"/>
-    <col min="8698" max="8698" width="10.28515625" customWidth="1"/>
-    <col min="8699" max="8699" width="8.28515625" customWidth="1"/>
+    <col min="8698" max="8698" width="10.33203125" customWidth="1"/>
+    <col min="8699" max="8699" width="8.33203125" customWidth="1"/>
     <col min="8700" max="8700" width="10" customWidth="1"/>
     <col min="8701" max="8705" width="8" customWidth="1"/>
-    <col min="8706" max="8706" width="8.28515625" customWidth="1"/>
+    <col min="8706" max="8706" width="8.33203125" customWidth="1"/>
     <col min="8707" max="8707" width="9" customWidth="1"/>
-    <col min="8708" max="8708" width="28.140625" customWidth="1"/>
-    <col min="8709" max="8709" width="10.140625" customWidth="1"/>
-    <col min="8711" max="8711" width="11.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="28.1640625" customWidth="1"/>
+    <col min="8709" max="8709" width="10.1640625" customWidth="1"/>
+    <col min="8711" max="8711" width="11.5" customWidth="1"/>
     <col min="8712" max="8712" width="8" customWidth="1"/>
     <col min="8713" max="8713" width="10" customWidth="1"/>
-    <col min="8714" max="8714" width="9.28515625" customWidth="1"/>
-    <col min="8715" max="8715" width="10.140625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.33203125" customWidth="1"/>
+    <col min="8715" max="8715" width="10.1640625" customWidth="1"/>
     <col min="8716" max="8716" width="8" customWidth="1"/>
-    <col min="8951" max="8951" width="30.42578125" customWidth="1"/>
-    <col min="8952" max="8952" width="11.42578125" customWidth="1"/>
+    <col min="8951" max="8951" width="30.5" customWidth="1"/>
+    <col min="8952" max="8952" width="11.5" customWidth="1"/>
     <col min="8953" max="8953" width="8" customWidth="1"/>
-    <col min="8954" max="8954" width="10.28515625" customWidth="1"/>
-    <col min="8955" max="8955" width="8.28515625" customWidth="1"/>
+    <col min="8954" max="8954" width="10.33203125" customWidth="1"/>
+    <col min="8955" max="8955" width="8.33203125" customWidth="1"/>
     <col min="8956" max="8956" width="10" customWidth="1"/>
     <col min="8957" max="8961" width="8" customWidth="1"/>
-    <col min="8962" max="8962" width="8.28515625" customWidth="1"/>
+    <col min="8962" max="8962" width="8.33203125" customWidth="1"/>
     <col min="8963" max="8963" width="9" customWidth="1"/>
-    <col min="8964" max="8964" width="28.140625" customWidth="1"/>
-    <col min="8965" max="8965" width="10.140625" customWidth="1"/>
-    <col min="8967" max="8967" width="11.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="28.1640625" customWidth="1"/>
+    <col min="8965" max="8965" width="10.1640625" customWidth="1"/>
+    <col min="8967" max="8967" width="11.5" customWidth="1"/>
     <col min="8968" max="8968" width="8" customWidth="1"/>
     <col min="8969" max="8969" width="10" customWidth="1"/>
-    <col min="8970" max="8970" width="9.28515625" customWidth="1"/>
-    <col min="8971" max="8971" width="10.140625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.33203125" customWidth="1"/>
+    <col min="8971" max="8971" width="10.1640625" customWidth="1"/>
     <col min="8972" max="8972" width="8" customWidth="1"/>
-    <col min="9207" max="9207" width="30.42578125" customWidth="1"/>
-    <col min="9208" max="9208" width="11.42578125" customWidth="1"/>
+    <col min="9207" max="9207" width="30.5" customWidth="1"/>
+    <col min="9208" max="9208" width="11.5" customWidth="1"/>
     <col min="9209" max="9209" width="8" customWidth="1"/>
-    <col min="9210" max="9210" width="10.28515625" customWidth="1"/>
-    <col min="9211" max="9211" width="8.28515625" customWidth="1"/>
+    <col min="9210" max="9210" width="10.33203125" customWidth="1"/>
+    <col min="9211" max="9211" width="8.33203125" customWidth="1"/>
     <col min="9212" max="9212" width="10" customWidth="1"/>
     <col min="9213" max="9217" width="8" customWidth="1"/>
-    <col min="9218" max="9218" width="8.28515625" customWidth="1"/>
+    <col min="9218" max="9218" width="8.33203125" customWidth="1"/>
     <col min="9219" max="9219" width="9" customWidth="1"/>
-    <col min="9220" max="9220" width="28.140625" customWidth="1"/>
-    <col min="9221" max="9221" width="10.140625" customWidth="1"/>
-    <col min="9223" max="9223" width="11.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="28.1640625" customWidth="1"/>
+    <col min="9221" max="9221" width="10.1640625" customWidth="1"/>
+    <col min="9223" max="9223" width="11.5" customWidth="1"/>
     <col min="9224" max="9224" width="8" customWidth="1"/>
     <col min="9225" max="9225" width="10" customWidth="1"/>
-    <col min="9226" max="9226" width="9.28515625" customWidth="1"/>
-    <col min="9227" max="9227" width="10.140625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.33203125" customWidth="1"/>
+    <col min="9227" max="9227" width="10.1640625" customWidth="1"/>
     <col min="9228" max="9228" width="8" customWidth="1"/>
-    <col min="9463" max="9463" width="30.42578125" customWidth="1"/>
-    <col min="9464" max="9464" width="11.42578125" customWidth="1"/>
+    <col min="9463" max="9463" width="30.5" customWidth="1"/>
+    <col min="9464" max="9464" width="11.5" customWidth="1"/>
     <col min="9465" max="9465" width="8" customWidth="1"/>
-    <col min="9466" max="9466" width="10.28515625" customWidth="1"/>
-    <col min="9467" max="9467" width="8.28515625" customWidth="1"/>
+    <col min="9466" max="9466" width="10.33203125" customWidth="1"/>
+    <col min="9467" max="9467" width="8.33203125" customWidth="1"/>
     <col min="9468" max="9468" width="10" customWidth="1"/>
     <col min="9469" max="9473" width="8" customWidth="1"/>
-    <col min="9474" max="9474" width="8.28515625" customWidth="1"/>
+    <col min="9474" max="9474" width="8.33203125" customWidth="1"/>
     <col min="9475" max="9475" width="9" customWidth="1"/>
-    <col min="9476" max="9476" width="28.140625" customWidth="1"/>
-    <col min="9477" max="9477" width="10.140625" customWidth="1"/>
-    <col min="9479" max="9479" width="11.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="28.1640625" customWidth="1"/>
+    <col min="9477" max="9477" width="10.1640625" customWidth="1"/>
+    <col min="9479" max="9479" width="11.5" customWidth="1"/>
     <col min="9480" max="9480" width="8" customWidth="1"/>
     <col min="9481" max="9481" width="10" customWidth="1"/>
-    <col min="9482" max="9482" width="9.28515625" customWidth="1"/>
-    <col min="9483" max="9483" width="10.140625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.33203125" customWidth="1"/>
+    <col min="9483" max="9483" width="10.1640625" customWidth="1"/>
     <col min="9484" max="9484" width="8" customWidth="1"/>
-    <col min="9719" max="9719" width="30.42578125" customWidth="1"/>
-    <col min="9720" max="9720" width="11.42578125" customWidth="1"/>
+    <col min="9719" max="9719" width="30.5" customWidth="1"/>
+    <col min="9720" max="9720" width="11.5" customWidth="1"/>
     <col min="9721" max="9721" width="8" customWidth="1"/>
-    <col min="9722" max="9722" width="10.28515625" customWidth="1"/>
-    <col min="9723" max="9723" width="8.28515625" customWidth="1"/>
+    <col min="9722" max="9722" width="10.33203125" customWidth="1"/>
+    <col min="9723" max="9723" width="8.33203125" customWidth="1"/>
     <col min="9724" max="9724" width="10" customWidth="1"/>
     <col min="9725" max="9729" width="8" customWidth="1"/>
-    <col min="9730" max="9730" width="8.28515625" customWidth="1"/>
+    <col min="9730" max="9730" width="8.33203125" customWidth="1"/>
     <col min="9731" max="9731" width="9" customWidth="1"/>
-    <col min="9732" max="9732" width="28.140625" customWidth="1"/>
-    <col min="9733" max="9733" width="10.140625" customWidth="1"/>
-    <col min="9735" max="9735" width="11.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="28.1640625" customWidth="1"/>
+    <col min="9733" max="9733" width="10.1640625" customWidth="1"/>
+    <col min="9735" max="9735" width="11.5" customWidth="1"/>
     <col min="9736" max="9736" width="8" customWidth="1"/>
     <col min="9737" max="9737" width="10" customWidth="1"/>
-    <col min="9738" max="9738" width="9.28515625" customWidth="1"/>
-    <col min="9739" max="9739" width="10.140625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.33203125" customWidth="1"/>
+    <col min="9739" max="9739" width="10.1640625" customWidth="1"/>
     <col min="9740" max="9740" width="8" customWidth="1"/>
-    <col min="9975" max="9975" width="30.42578125" customWidth="1"/>
-    <col min="9976" max="9976" width="11.42578125" customWidth="1"/>
+    <col min="9975" max="9975" width="30.5" customWidth="1"/>
+    <col min="9976" max="9976" width="11.5" customWidth="1"/>
     <col min="9977" max="9977" width="8" customWidth="1"/>
-    <col min="9978" max="9978" width="10.28515625" customWidth="1"/>
-    <col min="9979" max="9979" width="8.28515625" customWidth="1"/>
+    <col min="9978" max="9978" width="10.33203125" customWidth="1"/>
+    <col min="9979" max="9979" width="8.33203125" customWidth="1"/>
     <col min="9980" max="9980" width="10" customWidth="1"/>
     <col min="9981" max="9985" width="8" customWidth="1"/>
-    <col min="9986" max="9986" width="8.28515625" customWidth="1"/>
+    <col min="9986" max="9986" width="8.33203125" customWidth="1"/>
     <col min="9987" max="9987" width="9" customWidth="1"/>
-    <col min="9988" max="9988" width="28.140625" customWidth="1"/>
-    <col min="9989" max="9989" width="10.140625" customWidth="1"/>
-    <col min="9991" max="9991" width="11.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="28.1640625" customWidth="1"/>
+    <col min="9989" max="9989" width="10.1640625" customWidth="1"/>
+    <col min="9991" max="9991" width="11.5" customWidth="1"/>
     <col min="9992" max="9992" width="8" customWidth="1"/>
     <col min="9993" max="9993" width="10" customWidth="1"/>
-    <col min="9994" max="9994" width="9.28515625" customWidth="1"/>
-    <col min="9995" max="9995" width="10.140625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.33203125" customWidth="1"/>
+    <col min="9995" max="9995" width="10.1640625" customWidth="1"/>
     <col min="9996" max="9996" width="8" customWidth="1"/>
-    <col min="10231" max="10231" width="30.42578125" customWidth="1"/>
-    <col min="10232" max="10232" width="11.42578125" customWidth="1"/>
+    <col min="10231" max="10231" width="30.5" customWidth="1"/>
+    <col min="10232" max="10232" width="11.5" customWidth="1"/>
     <col min="10233" max="10233" width="8" customWidth="1"/>
-    <col min="10234" max="10234" width="10.28515625" customWidth="1"/>
-    <col min="10235" max="10235" width="8.28515625" customWidth="1"/>
+    <col min="10234" max="10234" width="10.33203125" customWidth="1"/>
+    <col min="10235" max="10235" width="8.33203125" customWidth="1"/>
     <col min="10236" max="10236" width="10" customWidth="1"/>
     <col min="10237" max="10241" width="8" customWidth="1"/>
-    <col min="10242" max="10242" width="8.28515625" customWidth="1"/>
+    <col min="10242" max="10242" width="8.33203125" customWidth="1"/>
     <col min="10243" max="10243" width="9" customWidth="1"/>
-    <col min="10244" max="10244" width="28.140625" customWidth="1"/>
-    <col min="10245" max="10245" width="10.140625" customWidth="1"/>
-    <col min="10247" max="10247" width="11.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="28.1640625" customWidth="1"/>
+    <col min="10245" max="10245" width="10.1640625" customWidth="1"/>
+    <col min="10247" max="10247" width="11.5" customWidth="1"/>
     <col min="10248" max="10248" width="8" customWidth="1"/>
     <col min="10249" max="10249" width="10" customWidth="1"/>
-    <col min="10250" max="10250" width="9.28515625" customWidth="1"/>
-    <col min="10251" max="10251" width="10.140625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.33203125" customWidth="1"/>
+    <col min="10251" max="10251" width="10.1640625" customWidth="1"/>
     <col min="10252" max="10252" width="8" customWidth="1"/>
-    <col min="10487" max="10487" width="30.42578125" customWidth="1"/>
-    <col min="10488" max="10488" width="11.42578125" customWidth="1"/>
+    <col min="10487" max="10487" width="30.5" customWidth="1"/>
+    <col min="10488" max="10488" width="11.5" customWidth="1"/>
     <col min="10489" max="10489" width="8" customWidth="1"/>
-    <col min="10490" max="10490" width="10.28515625" customWidth="1"/>
-    <col min="10491" max="10491" width="8.28515625" customWidth="1"/>
+    <col min="10490" max="10490" width="10.33203125" customWidth="1"/>
+    <col min="10491" max="10491" width="8.33203125" customWidth="1"/>
     <col min="10492" max="10492" width="10" customWidth="1"/>
     <col min="10493" max="10497" width="8" customWidth="1"/>
-    <col min="10498" max="10498" width="8.28515625" customWidth="1"/>
+    <col min="10498" max="10498" width="8.33203125" customWidth="1"/>
     <col min="10499" max="10499" width="9" customWidth="1"/>
-    <col min="10500" max="10500" width="28.140625" customWidth="1"/>
-    <col min="10501" max="10501" width="10.140625" customWidth="1"/>
-    <col min="10503" max="10503" width="11.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="28.1640625" customWidth="1"/>
+    <col min="10501" max="10501" width="10.1640625" customWidth="1"/>
+    <col min="10503" max="10503" width="11.5" customWidth="1"/>
     <col min="10504" max="10504" width="8" customWidth="1"/>
     <col min="10505" max="10505" width="10" customWidth="1"/>
-    <col min="10506" max="10506" width="9.28515625" customWidth="1"/>
-    <col min="10507" max="10507" width="10.140625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.33203125" customWidth="1"/>
+    <col min="10507" max="10507" width="10.1640625" customWidth="1"/>
     <col min="10508" max="10508" width="8" customWidth="1"/>
-    <col min="10743" max="10743" width="30.42578125" customWidth="1"/>
-    <col min="10744" max="10744" width="11.42578125" customWidth="1"/>
+    <col min="10743" max="10743" width="30.5" customWidth="1"/>
+    <col min="10744" max="10744" width="11.5" customWidth="1"/>
     <col min="10745" max="10745" width="8" customWidth="1"/>
-    <col min="10746" max="10746" width="10.28515625" customWidth="1"/>
-    <col min="10747" max="10747" width="8.28515625" customWidth="1"/>
+    <col min="10746" max="10746" width="10.33203125" customWidth="1"/>
+    <col min="10747" max="10747" width="8.33203125" customWidth="1"/>
     <col min="10748" max="10748" width="10" customWidth="1"/>
     <col min="10749" max="10753" width="8" customWidth="1"/>
-    <col min="10754" max="10754" width="8.28515625" customWidth="1"/>
+    <col min="10754" max="10754" width="8.33203125" customWidth="1"/>
     <col min="10755" max="10755" width="9" customWidth="1"/>
-    <col min="10756" max="10756" width="28.140625" customWidth="1"/>
-    <col min="10757" max="10757" width="10.140625" customWidth="1"/>
-    <col min="10759" max="10759" width="11.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="28.1640625" customWidth="1"/>
+    <col min="10757" max="10757" width="10.1640625" customWidth="1"/>
+    <col min="10759" max="10759" width="11.5" customWidth="1"/>
     <col min="10760" max="10760" width="8" customWidth="1"/>
     <col min="10761" max="10761" width="10" customWidth="1"/>
-    <col min="10762" max="10762" width="9.28515625" customWidth="1"/>
-    <col min="10763" max="10763" width="10.140625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.33203125" customWidth="1"/>
+    <col min="10763" max="10763" width="10.1640625" customWidth="1"/>
     <col min="10764" max="10764" width="8" customWidth="1"/>
-    <col min="10999" max="10999" width="30.42578125" customWidth="1"/>
-    <col min="11000" max="11000" width="11.42578125" customWidth="1"/>
+    <col min="10999" max="10999" width="30.5" customWidth="1"/>
+    <col min="11000" max="11000" width="11.5" customWidth="1"/>
     <col min="11001" max="11001" width="8" customWidth="1"/>
-    <col min="11002" max="11002" width="10.28515625" customWidth="1"/>
-    <col min="11003" max="11003" width="8.28515625" customWidth="1"/>
+    <col min="11002" max="11002" width="10.33203125" customWidth="1"/>
+    <col min="11003" max="11003" width="8.33203125" customWidth="1"/>
     <col min="11004" max="11004" width="10" customWidth="1"/>
     <col min="11005" max="11009" width="8" customWidth="1"/>
-    <col min="11010" max="11010" width="8.28515625" customWidth="1"/>
+    <col min="11010" max="11010" width="8.33203125" customWidth="1"/>
     <col min="11011" max="11011" width="9" customWidth="1"/>
-    <col min="11012" max="11012" width="28.140625" customWidth="1"/>
-    <col min="11013" max="11013" width="10.140625" customWidth="1"/>
-    <col min="11015" max="11015" width="11.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="28.1640625" customWidth="1"/>
+    <col min="11013" max="11013" width="10.1640625" customWidth="1"/>
+    <col min="11015" max="11015" width="11.5" customWidth="1"/>
     <col min="11016" max="11016" width="8" customWidth="1"/>
     <col min="11017" max="11017" width="10" customWidth="1"/>
-    <col min="11018" max="11018" width="9.28515625" customWidth="1"/>
-    <col min="11019" max="11019" width="10.140625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.33203125" customWidth="1"/>
+    <col min="11019" max="11019" width="10.1640625" customWidth="1"/>
     <col min="11020" max="11020" width="8" customWidth="1"/>
-    <col min="11255" max="11255" width="30.42578125" customWidth="1"/>
-    <col min="11256" max="11256" width="11.42578125" customWidth="1"/>
+    <col min="11255" max="11255" width="30.5" customWidth="1"/>
+    <col min="11256" max="11256" width="11.5" customWidth="1"/>
     <col min="11257" max="11257" width="8" customWidth="1"/>
-    <col min="11258" max="11258" width="10.28515625" customWidth="1"/>
-    <col min="11259" max="11259" width="8.28515625" customWidth="1"/>
+    <col min="11258" max="11258" width="10.33203125" customWidth="1"/>
+    <col min="11259" max="11259" width="8.33203125" customWidth="1"/>
     <col min="11260" max="11260" width="10" customWidth="1"/>
     <col min="11261" max="11265" width="8" customWidth="1"/>
-    <col min="11266" max="11266" width="8.28515625" customWidth="1"/>
+    <col min="11266" max="11266" width="8.33203125" customWidth="1"/>
     <col min="11267" max="11267" width="9" customWidth="1"/>
-    <col min="11268" max="11268" width="28.140625" customWidth="1"/>
-    <col min="11269" max="11269" width="10.140625" customWidth="1"/>
-    <col min="11271" max="11271" width="11.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="28.1640625" customWidth="1"/>
+    <col min="11269" max="11269" width="10.1640625" customWidth="1"/>
+    <col min="11271" max="11271" width="11.5" customWidth="1"/>
     <col min="11272" max="11272" width="8" customWidth="1"/>
     <col min="11273" max="11273" width="10" customWidth="1"/>
-    <col min="11274" max="11274" width="9.28515625" customWidth="1"/>
-    <col min="11275" max="11275" width="10.140625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.33203125" customWidth="1"/>
+    <col min="11275" max="11275" width="10.1640625" customWidth="1"/>
     <col min="11276" max="11276" width="8" customWidth="1"/>
-    <col min="11511" max="11511" width="30.42578125" customWidth="1"/>
-    <col min="11512" max="11512" width="11.42578125" customWidth="1"/>
+    <col min="11511" max="11511" width="30.5" customWidth="1"/>
+    <col min="11512" max="11512" width="11.5" customWidth="1"/>
     <col min="11513" max="11513" width="8" customWidth="1"/>
-    <col min="11514" max="11514" width="10.28515625" customWidth="1"/>
-    <col min="11515" max="11515" width="8.28515625" customWidth="1"/>
+    <col min="11514" max="11514" width="10.33203125" customWidth="1"/>
+    <col min="11515" max="11515" width="8.33203125" customWidth="1"/>
     <col min="11516" max="11516" width="10" customWidth="1"/>
     <col min="11517" max="11521" width="8" customWidth="1"/>
-    <col min="11522" max="11522" width="8.28515625" customWidth="1"/>
+    <col min="11522" max="11522" width="8.33203125" customWidth="1"/>
     <col min="11523" max="11523" width="9" customWidth="1"/>
-    <col min="11524" max="11524" width="28.140625" customWidth="1"/>
-    <col min="11525" max="11525" width="10.140625" customWidth="1"/>
-    <col min="11527" max="11527" width="11.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="28.1640625" customWidth="1"/>
+    <col min="11525" max="11525" width="10.1640625" customWidth="1"/>
+    <col min="11527" max="11527" width="11.5" customWidth="1"/>
     <col min="11528" max="11528" width="8" customWidth="1"/>
     <col min="11529" max="11529" width="10" customWidth="1"/>
-    <col min="11530" max="11530" width="9.28515625" customWidth="1"/>
-    <col min="11531" max="11531" width="10.140625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.33203125" customWidth="1"/>
+    <col min="11531" max="11531" width="10.1640625" customWidth="1"/>
     <col min="11532" max="11532" width="8" customWidth="1"/>
-    <col min="11767" max="11767" width="30.42578125" customWidth="1"/>
-    <col min="11768" max="11768" width="11.42578125" customWidth="1"/>
+    <col min="11767" max="11767" width="30.5" customWidth="1"/>
+    <col min="11768" max="11768" width="11.5" customWidth="1"/>
     <col min="11769" max="11769" width="8" customWidth="1"/>
-    <col min="11770" max="11770" width="10.28515625" customWidth="1"/>
-    <col min="11771" max="11771" width="8.28515625" customWidth="1"/>
+    <col min="11770" max="11770" width="10.33203125" customWidth="1"/>
+    <col min="11771" max="11771" width="8.33203125" customWidth="1"/>
     <col min="11772" max="11772" width="10" customWidth="1"/>
     <col min="11773" max="11777" width="8" customWidth="1"/>
-    <col min="11778" max="11778" width="8.28515625" customWidth="1"/>
+    <col min="11778" max="11778" width="8.33203125" customWidth="1"/>
     <col min="11779" max="11779" width="9" customWidth="1"/>
-    <col min="11780" max="11780" width="28.140625" customWidth="1"/>
-    <col min="11781" max="11781" width="10.140625" customWidth="1"/>
-    <col min="11783" max="11783" width="11.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="28.1640625" customWidth="1"/>
+    <col min="11781" max="11781" width="10.1640625" customWidth="1"/>
+    <col min="11783" max="11783" width="11.5" customWidth="1"/>
     <col min="11784" max="11784" width="8" customWidth="1"/>
     <col min="11785" max="11785" width="10" customWidth="1"/>
-    <col min="11786" max="11786" width="9.28515625" customWidth="1"/>
-    <col min="11787" max="11787" width="10.140625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.33203125" customWidth="1"/>
+    <col min="11787" max="11787" width="10.1640625" customWidth="1"/>
     <col min="11788" max="11788" width="8" customWidth="1"/>
-    <col min="12023" max="12023" width="30.42578125" customWidth="1"/>
-    <col min="12024" max="12024" width="11.42578125" customWidth="1"/>
+    <col min="12023" max="12023" width="30.5" customWidth="1"/>
+    <col min="12024" max="12024" width="11.5" customWidth="1"/>
     <col min="12025" max="12025" width="8" customWidth="1"/>
-    <col min="12026" max="12026" width="10.28515625" customWidth="1"/>
-    <col min="12027" max="12027" width="8.28515625" customWidth="1"/>
+    <col min="12026" max="12026" width="10.33203125" customWidth="1"/>
+    <col min="12027" max="12027" width="8.33203125" customWidth="1"/>
     <col min="12028" max="12028" width="10" customWidth="1"/>
     <col min="12029" max="12033" width="8" customWidth="1"/>
-    <col min="12034" max="12034" width="8.28515625" customWidth="1"/>
+    <col min="12034" max="12034" width="8.33203125" customWidth="1"/>
     <col min="12035" max="12035" width="9" customWidth="1"/>
-    <col min="12036" max="12036" width="28.140625" customWidth="1"/>
-    <col min="12037" max="12037" width="10.140625" customWidth="1"/>
-    <col min="12039" max="12039" width="11.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="28.1640625" customWidth="1"/>
+    <col min="12037" max="12037" width="10.1640625" customWidth="1"/>
+    <col min="12039" max="12039" width="11.5" customWidth="1"/>
     <col min="12040" max="12040" width="8" customWidth="1"/>
     <col min="12041" max="12041" width="10" customWidth="1"/>
-    <col min="12042" max="12042" width="9.28515625" customWidth="1"/>
-    <col min="12043" max="12043" width="10.140625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.33203125" customWidth="1"/>
+    <col min="12043" max="12043" width="10.1640625" customWidth="1"/>
     <col min="12044" max="12044" width="8" customWidth="1"/>
-    <col min="12279" max="12279" width="30.42578125" customWidth="1"/>
-    <col min="12280" max="12280" width="11.42578125" customWidth="1"/>
+    <col min="12279" max="12279" width="30.5" customWidth="1"/>
+    <col min="12280" max="12280" width="11.5" customWidth="1"/>
     <col min="12281" max="12281" width="8" customWidth="1"/>
-    <col min="12282" max="12282" width="10.28515625" customWidth="1"/>
-    <col min="12283" max="12283" width="8.28515625" customWidth="1"/>
+    <col min="12282" max="12282" width="10.33203125" customWidth="1"/>
+    <col min="12283" max="12283" width="8.33203125" customWidth="1"/>
     <col min="12284" max="12284" width="10" customWidth="1"/>
     <col min="12285" max="12289" width="8" customWidth="1"/>
-    <col min="12290" max="12290" width="8.28515625" customWidth="1"/>
+    <col min="12290" max="12290" width="8.33203125" customWidth="1"/>
     <col min="12291" max="12291" width="9" customWidth="1"/>
-    <col min="12292" max="12292" width="28.140625" customWidth="1"/>
-    <col min="12293" max="12293" width="10.140625" customWidth="1"/>
-    <col min="12295" max="12295" width="11.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="28.1640625" customWidth="1"/>
+    <col min="12293" max="12293" width="10.1640625" customWidth="1"/>
+    <col min="12295" max="12295" width="11.5" customWidth="1"/>
     <col min="12296" max="12296" width="8" customWidth="1"/>
     <col min="12297" max="12297" width="10" customWidth="1"/>
-    <col min="12298" max="12298" width="9.28515625" customWidth="1"/>
-    <col min="12299" max="12299" width="10.140625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.33203125" customWidth="1"/>
+    <col min="12299" max="12299" width="10.1640625" customWidth="1"/>
     <col min="12300" max="12300" width="8" customWidth="1"/>
-    <col min="12535" max="12535" width="30.42578125" customWidth="1"/>
-    <col min="12536" max="12536" width="11.42578125" customWidth="1"/>
+    <col min="12535" max="12535" width="30.5" customWidth="1"/>
+    <col min="12536" max="12536" width="11.5" customWidth="1"/>
     <col min="12537" max="12537" width="8" customWidth="1"/>
-    <col min="12538" max="12538" width="10.28515625" customWidth="1"/>
-    <col min="12539" max="12539" width="8.28515625" customWidth="1"/>
+    <col min="12538" max="12538" width="10.33203125" customWidth="1"/>
+    <col min="12539" max="12539" width="8.33203125" customWidth="1"/>
     <col min="12540" max="12540" width="10" customWidth="1"/>
     <col min="12541" max="12545" width="8" customWidth="1"/>
-    <col min="12546" max="12546" width="8.28515625" customWidth="1"/>
+    <col min="12546" max="12546" width="8.33203125" customWidth="1"/>
     <col min="12547" max="12547" width="9" customWidth="1"/>
-    <col min="12548" max="12548" width="28.140625" customWidth="1"/>
-    <col min="12549" max="12549" width="10.140625" customWidth="1"/>
-    <col min="12551" max="12551" width="11.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="28.1640625" customWidth="1"/>
+    <col min="12549" max="12549" width="10.1640625" customWidth="1"/>
+    <col min="12551" max="12551" width="11.5" customWidth="1"/>
     <col min="12552" max="12552" width="8" customWidth="1"/>
     <col min="12553" max="12553" width="10" customWidth="1"/>
-    <col min="12554" max="12554" width="9.28515625" customWidth="1"/>
-    <col min="12555" max="12555" width="10.140625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.33203125" customWidth="1"/>
+    <col min="12555" max="12555" width="10.1640625" customWidth="1"/>
     <col min="12556" max="12556" width="8" customWidth="1"/>
-    <col min="12791" max="12791" width="30.42578125" customWidth="1"/>
-    <col min="12792" max="12792" width="11.42578125" customWidth="1"/>
+    <col min="12791" max="12791" width="30.5" customWidth="1"/>
+    <col min="12792" max="12792" width="11.5" customWidth="1"/>
     <col min="12793" max="12793" width="8" customWidth="1"/>
-    <col min="12794" max="12794" width="10.28515625" customWidth="1"/>
-    <col min="12795" max="12795" width="8.28515625" customWidth="1"/>
+    <col min="12794" max="12794" width="10.33203125" customWidth="1"/>
+    <col min="12795" max="12795" width="8.33203125" customWidth="1"/>
     <col min="12796" max="12796" width="10" customWidth="1"/>
     <col min="12797" max="12801" width="8" customWidth="1"/>
-    <col min="12802" max="12802" width="8.28515625" customWidth="1"/>
+    <col min="12802" max="12802" width="8.33203125" customWidth="1"/>
     <col min="12803" max="12803" width="9" customWidth="1"/>
-    <col min="12804" max="12804" width="28.140625" customWidth="1"/>
-    <col min="12805" max="12805" width="10.140625" customWidth="1"/>
-    <col min="12807" max="12807" width="11.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="28.1640625" customWidth="1"/>
+    <col min="12805" max="12805" width="10.1640625" customWidth="1"/>
+    <col min="12807" max="12807" width="11.5" customWidth="1"/>
     <col min="12808" max="12808" width="8" customWidth="1"/>
     <col min="12809" max="12809" width="10" customWidth="1"/>
-    <col min="12810" max="12810" width="9.28515625" customWidth="1"/>
-    <col min="12811" max="12811" width="10.140625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.33203125" customWidth="1"/>
+    <col min="12811" max="12811" width="10.1640625" customWidth="1"/>
     <col min="12812" max="12812" width="8" customWidth="1"/>
-    <col min="13047" max="13047" width="30.42578125" customWidth="1"/>
-    <col min="13048" max="13048" width="11.42578125" customWidth="1"/>
+    <col min="13047" max="13047" width="30.5" customWidth="1"/>
+    <col min="13048" max="13048" width="11.5" customWidth="1"/>
     <col min="13049" max="13049" width="8" customWidth="1"/>
-    <col min="13050" max="13050" width="10.28515625" customWidth="1"/>
-    <col min="13051" max="13051" width="8.28515625" customWidth="1"/>
+    <col min="13050" max="13050" width="10.33203125" customWidth="1"/>
+    <col min="13051" max="13051" width="8.33203125" customWidth="1"/>
     <col min="13052" max="13052" width="10" customWidth="1"/>
     <col min="13053" max="13057" width="8" customWidth="1"/>
-    <col min="13058" max="13058" width="8.28515625" customWidth="1"/>
+    <col min="13058" max="13058" width="8.33203125" customWidth="1"/>
     <col min="13059" max="13059" width="9" customWidth="1"/>
-    <col min="13060" max="13060" width="28.140625" customWidth="1"/>
-    <col min="13061" max="13061" width="10.140625" customWidth="1"/>
-    <col min="13063" max="13063" width="11.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="28.1640625" customWidth="1"/>
+    <col min="13061" max="13061" width="10.1640625" customWidth="1"/>
+    <col min="13063" max="13063" width="11.5" customWidth="1"/>
     <col min="13064" max="13064" width="8" customWidth="1"/>
     <col min="13065" max="13065" width="10" customWidth="1"/>
-    <col min="13066" max="13066" width="9.28515625" customWidth="1"/>
-    <col min="13067" max="13067" width="10.140625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.33203125" customWidth="1"/>
+    <col min="13067" max="13067" width="10.1640625" customWidth="1"/>
     <col min="13068" max="13068" width="8" customWidth="1"/>
-    <col min="13303" max="13303" width="30.42578125" customWidth="1"/>
-    <col min="13304" max="13304" width="11.42578125" customWidth="1"/>
+    <col min="13303" max="13303" width="30.5" customWidth="1"/>
+    <col min="13304" max="13304" width="11.5" customWidth="1"/>
     <col min="13305" max="13305" width="8" customWidth="1"/>
-    <col min="13306" max="13306" width="10.28515625" customWidth="1"/>
-    <col min="13307" max="13307" width="8.28515625" customWidth="1"/>
+    <col min="13306" max="13306" width="10.33203125" customWidth="1"/>
+    <col min="13307" max="13307" width="8.33203125" customWidth="1"/>
     <col min="13308" max="13308" width="10" customWidth="1"/>
     <col min="13309" max="13313" width="8" customWidth="1"/>
-    <col min="13314" max="13314" width="8.28515625" customWidth="1"/>
+    <col min="13314" max="13314" width="8.33203125" customWidth="1"/>
     <col min="13315" max="13315" width="9" customWidth="1"/>
-    <col min="13316" max="13316" width="28.140625" customWidth="1"/>
-    <col min="13317" max="13317" width="10.140625" customWidth="1"/>
-    <col min="13319" max="13319" width="11.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="28.1640625" customWidth="1"/>
+    <col min="13317" max="13317" width="10.1640625" customWidth="1"/>
+    <col min="13319" max="13319" width="11.5" customWidth="1"/>
     <col min="13320" max="13320" width="8" customWidth="1"/>
     <col min="13321" max="13321" width="10" customWidth="1"/>
-    <col min="13322" max="13322" width="9.28515625" customWidth="1"/>
-    <col min="13323" max="13323" width="10.140625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.33203125" customWidth="1"/>
+    <col min="13323" max="13323" width="10.1640625" customWidth="1"/>
     <col min="13324" max="13324" width="8" customWidth="1"/>
-    <col min="13559" max="13559" width="30.42578125" customWidth="1"/>
-    <col min="13560" max="13560" width="11.42578125" customWidth="1"/>
+    <col min="13559" max="13559" width="30.5" customWidth="1"/>
+    <col min="13560" max="13560" width="11.5" customWidth="1"/>
     <col min="13561" max="13561" width="8" customWidth="1"/>
-    <col min="13562" max="13562" width="10.28515625" customWidth="1"/>
-    <col min="13563" max="13563" width="8.28515625" customWidth="1"/>
+    <col min="13562" max="13562" width="10.33203125" customWidth="1"/>
+    <col min="13563" max="13563" width="8.33203125" customWidth="1"/>
     <col min="13564" max="13564" width="10" customWidth="1"/>
     <col min="13565" max="13569" width="8" customWidth="1"/>
-    <col min="13570" max="13570" width="8.28515625" customWidth="1"/>
+    <col min="13570" max="13570" width="8.33203125" customWidth="1"/>
     <col min="13571" max="13571" width="9" customWidth="1"/>
-    <col min="13572" max="13572" width="28.140625" customWidth="1"/>
-    <col min="13573" max="13573" width="10.140625" customWidth="1"/>
-    <col min="13575" max="13575" width="11.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="28.1640625" customWidth="1"/>
+    <col min="13573" max="13573" width="10.1640625" customWidth="1"/>
+    <col min="13575" max="13575" width="11.5" customWidth="1"/>
     <col min="13576" max="13576" width="8" customWidth="1"/>
     <col min="13577" max="13577" width="10" customWidth="1"/>
-    <col min="13578" max="13578" width="9.28515625" customWidth="1"/>
-    <col min="13579" max="13579" width="10.140625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.33203125" customWidth="1"/>
+    <col min="13579" max="13579" width="10.1640625" customWidth="1"/>
     <col min="13580" max="13580" width="8" customWidth="1"/>
-    <col min="13815" max="13815" width="30.42578125" customWidth="1"/>
-    <col min="13816" max="13816" width="11.42578125" customWidth="1"/>
+    <col min="13815" max="13815" width="30.5" customWidth="1"/>
+    <col min="13816" max="13816" width="11.5" customWidth="1"/>
     <col min="13817" max="13817" width="8" customWidth="1"/>
-    <col min="13818" max="13818" width="10.28515625" customWidth="1"/>
-    <col min="13819" max="13819" width="8.28515625" customWidth="1"/>
+    <col min="13818" max="13818" width="10.33203125" customWidth="1"/>
+    <col min="13819" max="13819" width="8.33203125" customWidth="1"/>
     <col min="13820" max="13820" width="10" customWidth="1"/>
     <col min="13821" max="13825" width="8" customWidth="1"/>
-    <col min="13826" max="13826" width="8.28515625" customWidth="1"/>
+    <col min="13826" max="13826" width="8.33203125" customWidth="1"/>
     <col min="13827" max="13827" width="9" customWidth="1"/>
-    <col min="13828" max="13828" width="28.140625" customWidth="1"/>
-    <col min="13829" max="13829" width="10.140625" customWidth="1"/>
-    <col min="13831" max="13831" width="11.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="28.1640625" customWidth="1"/>
+    <col min="13829" max="13829" width="10.1640625" customWidth="1"/>
+    <col min="13831" max="13831" width="11.5" customWidth="1"/>
     <col min="13832" max="13832" width="8" customWidth="1"/>
     <col min="13833" max="13833" width="10" customWidth="1"/>
-    <col min="13834" max="13834" width="9.28515625" customWidth="1"/>
-    <col min="13835" max="13835" width="10.140625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.33203125" customWidth="1"/>
+    <col min="13835" max="13835" width="10.1640625" customWidth="1"/>
     <col min="13836" max="13836" width="8" customWidth="1"/>
-    <col min="14071" max="14071" width="30.42578125" customWidth="1"/>
-    <col min="14072" max="14072" width="11.42578125" customWidth="1"/>
+    <col min="14071" max="14071" width="30.5" customWidth="1"/>
+    <col min="14072" max="14072" width="11.5" customWidth="1"/>
     <col min="14073" max="14073" width="8" customWidth="1"/>
-    <col min="14074" max="14074" width="10.28515625" customWidth="1"/>
-    <col min="14075" max="14075" width="8.28515625" customWidth="1"/>
+    <col min="14074" max="14074" width="10.33203125" customWidth="1"/>
+    <col min="14075" max="14075" width="8.33203125" customWidth="1"/>
     <col min="14076" max="14076" width="10" customWidth="1"/>
     <col min="14077" max="14081" width="8" customWidth="1"/>
-    <col min="14082" max="14082" width="8.28515625" customWidth="1"/>
+    <col min="14082" max="14082" width="8.33203125" customWidth="1"/>
     <col min="14083" max="14083" width="9" customWidth="1"/>
-    <col min="14084" max="14084" width="28.140625" customWidth="1"/>
-    <col min="14085" max="14085" width="10.140625" customWidth="1"/>
-    <col min="14087" max="14087" width="11.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="28.1640625" customWidth="1"/>
+    <col min="14085" max="14085" width="10.1640625" customWidth="1"/>
+    <col min="14087" max="14087" width="11.5" customWidth="1"/>
     <col min="14088" max="14088" width="8" customWidth="1"/>
     <col min="14089" max="14089" width="10" customWidth="1"/>
-    <col min="14090" max="14090" width="9.28515625" customWidth="1"/>
-    <col min="14091" max="14091" width="10.140625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.33203125" customWidth="1"/>
+    <col min="14091" max="14091" width="10.1640625" customWidth="1"/>
     <col min="14092" max="14092" width="8" customWidth="1"/>
-    <col min="14327" max="14327" width="30.42578125" customWidth="1"/>
-    <col min="14328" max="14328" width="11.42578125" customWidth="1"/>
+    <col min="14327" max="14327" width="30.5" customWidth="1"/>
+    <col min="14328" max="14328" width="11.5" customWidth="1"/>
     <col min="14329" max="14329" width="8" customWidth="1"/>
-    <col min="14330" max="14330" width="10.28515625" customWidth="1"/>
-    <col min="14331" max="14331" width="8.28515625" customWidth="1"/>
+    <col min="14330" max="14330" width="10.33203125" customWidth="1"/>
+    <col min="14331" max="14331" width="8.33203125" customWidth="1"/>
     <col min="14332" max="14332" width="10" customWidth="1"/>
     <col min="14333" max="14337" width="8" customWidth="1"/>
-    <col min="14338" max="14338" width="8.28515625" customWidth="1"/>
+    <col min="14338" max="14338" width="8.33203125" customWidth="1"/>
     <col min="14339" max="14339" width="9" customWidth="1"/>
-    <col min="14340" max="14340" width="28.140625" customWidth="1"/>
-    <col min="14341" max="14341" width="10.140625" customWidth="1"/>
-    <col min="14343" max="14343" width="11.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="28.1640625" customWidth="1"/>
+    <col min="14341" max="14341" width="10.1640625" customWidth="1"/>
+    <col min="14343" max="14343" width="11.5" customWidth="1"/>
     <col min="14344" max="14344" width="8" customWidth="1"/>
     <col min="14345" max="14345" width="10" customWidth="1"/>
-    <col min="14346" max="14346" width="9.28515625" customWidth="1"/>
-    <col min="14347" max="14347" width="10.140625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.33203125" customWidth="1"/>
+    <col min="14347" max="14347" width="10.1640625" customWidth="1"/>
     <col min="14348" max="14348" width="8" customWidth="1"/>
-    <col min="14583" max="14583" width="30.42578125" customWidth="1"/>
-    <col min="14584" max="14584" width="11.42578125" customWidth="1"/>
+    <col min="14583" max="14583" width="30.5" customWidth="1"/>
+    <col min="14584" max="14584" width="11.5" customWidth="1"/>
     <col min="14585" max="14585" width="8" customWidth="1"/>
-    <col min="14586" max="14586" width="10.28515625" customWidth="1"/>
-    <col min="14587" max="14587" width="8.28515625" customWidth="1"/>
+    <col min="14586" max="14586" width="10.33203125" customWidth="1"/>
+    <col min="14587" max="14587" width="8.33203125" customWidth="1"/>
     <col min="14588" max="14588" width="10" customWidth="1"/>
     <col min="14589" max="14593" width="8" customWidth="1"/>
-    <col min="14594" max="14594" width="8.28515625" customWidth="1"/>
+    <col min="14594" max="14594" width="8.33203125" customWidth="1"/>
     <col min="14595" max="14595" width="9" customWidth="1"/>
-    <col min="14596" max="14596" width="28.140625" customWidth="1"/>
-    <col min="14597" max="14597" width="10.140625" customWidth="1"/>
-    <col min="14599" max="14599" width="11.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="28.1640625" customWidth="1"/>
+    <col min="14597" max="14597" width="10.1640625" customWidth="1"/>
+    <col min="14599" max="14599" width="11.5" customWidth="1"/>
     <col min="14600" max="14600" width="8" customWidth="1"/>
     <col min="14601" max="14601" width="10" customWidth="1"/>
-    <col min="14602" max="14602" width="9.28515625" customWidth="1"/>
-    <col min="14603" max="14603" width="10.140625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.33203125" customWidth="1"/>
+    <col min="14603" max="14603" width="10.1640625" customWidth="1"/>
     <col min="14604" max="14604" width="8" customWidth="1"/>
-    <col min="14839" max="14839" width="30.42578125" customWidth="1"/>
-    <col min="14840" max="14840" width="11.42578125" customWidth="1"/>
+    <col min="14839" max="14839" width="30.5" customWidth="1"/>
+    <col min="14840" max="14840" width="11.5" customWidth="1"/>
     <col min="14841" max="14841" width="8" customWidth="1"/>
-    <col min="14842" max="14842" width="10.28515625" customWidth="1"/>
-    <col min="14843" max="14843" width="8.28515625" customWidth="1"/>
+    <col min="14842" max="14842" width="10.33203125" customWidth="1"/>
+    <col min="14843" max="14843" width="8.33203125" customWidth="1"/>
     <col min="14844" max="14844" width="10" customWidth="1"/>
     <col min="14845" max="14849" width="8" customWidth="1"/>
-    <col min="14850" max="14850" width="8.28515625" customWidth="1"/>
+    <col min="14850" max="14850" width="8.33203125" customWidth="1"/>
     <col min="14851" max="14851" width="9" customWidth="1"/>
-    <col min="14852" max="14852" width="28.140625" customWidth="1"/>
-    <col min="14853" max="14853" width="10.140625" customWidth="1"/>
-    <col min="14855" max="14855" width="11.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="28.1640625" customWidth="1"/>
+    <col min="14853" max="14853" width="10.1640625" customWidth="1"/>
+    <col min="14855" max="14855" width="11.5" customWidth="1"/>
     <col min="14856" max="14856" width="8" customWidth="1"/>
     <col min="14857" max="14857" width="10" customWidth="1"/>
-    <col min="14858" max="14858" width="9.28515625" customWidth="1"/>
-    <col min="14859" max="14859" width="10.140625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.33203125" customWidth="1"/>
+    <col min="14859" max="14859" width="10.1640625" customWidth="1"/>
     <col min="14860" max="14860" width="8" customWidth="1"/>
-    <col min="15095" max="15095" width="30.42578125" customWidth="1"/>
-    <col min="15096" max="15096" width="11.42578125" customWidth="1"/>
+    <col min="15095" max="15095" width="30.5" customWidth="1"/>
+    <col min="15096" max="15096" width="11.5" customWidth="1"/>
     <col min="15097" max="15097" width="8" customWidth="1"/>
-    <col min="15098" max="15098" width="10.28515625" customWidth="1"/>
-    <col min="15099" max="15099" width="8.28515625" customWidth="1"/>
+    <col min="15098" max="15098" width="10.33203125" customWidth="1"/>
+    <col min="15099" max="15099" width="8.33203125" customWidth="1"/>
     <col min="15100" max="15100" width="10" customWidth="1"/>
     <col min="15101" max="15105" width="8" customWidth="1"/>
-    <col min="15106" max="15106" width="8.28515625" customWidth="1"/>
+    <col min="15106" max="15106" width="8.33203125" customWidth="1"/>
     <col min="15107" max="15107" width="9" customWidth="1"/>
-    <col min="15108" max="15108" width="28.140625" customWidth="1"/>
-    <col min="15109" max="15109" width="10.140625" customWidth="1"/>
-    <col min="15111" max="15111" width="11.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="28.1640625" customWidth="1"/>
+    <col min="15109" max="15109" width="10.1640625" customWidth="1"/>
+    <col min="15111" max="15111" width="11.5" customWidth="1"/>
     <col min="15112" max="15112" width="8" customWidth="1"/>
     <col min="15113" max="15113" width="10" customWidth="1"/>
-    <col min="15114" max="15114" width="9.28515625" customWidth="1"/>
-    <col min="15115" max="15115" width="10.140625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.33203125" customWidth="1"/>
+    <col min="15115" max="15115" width="10.1640625" customWidth="1"/>
     <col min="15116" max="15116" width="8" customWidth="1"/>
-    <col min="15351" max="15351" width="30.42578125" customWidth="1"/>
-    <col min="15352" max="15352" width="11.42578125" customWidth="1"/>
+    <col min="15351" max="15351" width="30.5" customWidth="1"/>
+    <col min="15352" max="15352" width="11.5" customWidth="1"/>
     <col min="15353" max="15353" width="8" customWidth="1"/>
-    <col min="15354" max="15354" width="10.28515625" customWidth="1"/>
-    <col min="15355" max="15355" width="8.28515625" customWidth="1"/>
+    <col min="15354" max="15354" width="10.33203125" customWidth="1"/>
+    <col min="15355" max="15355" width="8.33203125" customWidth="1"/>
     <col min="15356" max="15356" width="10" customWidth="1"/>
     <col min="15357" max="15361" width="8" customWidth="1"/>
-    <col min="15362" max="15362" width="8.28515625" customWidth="1"/>
+    <col min="15362" max="15362" width="8.33203125" customWidth="1"/>
     <col min="15363" max="15363" width="9" customWidth="1"/>
-    <col min="15364" max="15364" width="28.140625" customWidth="1"/>
-    <col min="15365" max="15365" width="10.140625" customWidth="1"/>
-    <col min="15367" max="15367" width="11.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="28.1640625" customWidth="1"/>
+    <col min="15365" max="15365" width="10.1640625" customWidth="1"/>
+    <col min="15367" max="15367" width="11.5" customWidth="1"/>
     <col min="15368" max="15368" width="8" customWidth="1"/>
     <col min="15369" max="15369" width="10" customWidth="1"/>
-    <col min="15370" max="15370" width="9.28515625" customWidth="1"/>
-    <col min="15371" max="15371" width="10.140625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.33203125" customWidth="1"/>
+    <col min="15371" max="15371" width="10.1640625" customWidth="1"/>
     <col min="15372" max="15372" width="8" customWidth="1"/>
-    <col min="15607" max="15607" width="30.42578125" customWidth="1"/>
-    <col min="15608" max="15608" width="11.42578125" customWidth="1"/>
+    <col min="15607" max="15607" width="30.5" customWidth="1"/>
+    <col min="15608" max="15608" width="11.5" customWidth="1"/>
     <col min="15609" max="15609" width="8" customWidth="1"/>
-    <col min="15610" max="15610" width="10.28515625" customWidth="1"/>
-    <col min="15611" max="15611" width="8.28515625" customWidth="1"/>
+    <col min="15610" max="15610" width="10.33203125" customWidth="1"/>
+    <col min="15611" max="15611" width="8.33203125" customWidth="1"/>
     <col min="15612" max="15612" width="10" customWidth="1"/>
     <col min="15613" max="15617" width="8" customWidth="1"/>
-    <col min="15618" max="15618" width="8.28515625" customWidth="1"/>
+    <col min="15618" max="15618" width="8.33203125" customWidth="1"/>
     <col min="15619" max="15619" width="9" customWidth="1"/>
-    <col min="15620" max="15620" width="28.140625" customWidth="1"/>
-    <col min="15621" max="15621" width="10.140625" customWidth="1"/>
-    <col min="15623" max="15623" width="11.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="28.1640625" customWidth="1"/>
+    <col min="15621" max="15621" width="10.1640625" customWidth="1"/>
+    <col min="15623" max="15623" width="11.5" customWidth="1"/>
     <col min="15624" max="15624" width="8" customWidth="1"/>
     <col min="15625" max="15625" width="10" customWidth="1"/>
-    <col min="15626" max="15626" width="9.28515625" customWidth="1"/>
-    <col min="15627" max="15627" width="10.140625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.33203125" customWidth="1"/>
+    <col min="15627" max="15627" width="10.1640625" customWidth="1"/>
     <col min="15628" max="15628" width="8" customWidth="1"/>
-    <col min="15863" max="15863" width="30.42578125" customWidth="1"/>
-    <col min="15864" max="15864" width="11.42578125" customWidth="1"/>
+    <col min="15863" max="15863" width="30.5" customWidth="1"/>
+    <col min="15864" max="15864" width="11.5" customWidth="1"/>
     <col min="15865" max="15865" width="8" customWidth="1"/>
-    <col min="15866" max="15866" width="10.28515625" customWidth="1"/>
-    <col min="15867" max="15867" width="8.28515625" customWidth="1"/>
+    <col min="15866" max="15866" width="10.33203125" customWidth="1"/>
+    <col min="15867" max="15867" width="8.33203125" customWidth="1"/>
     <col min="15868" max="15868" width="10" customWidth="1"/>
     <col min="15869" max="15873" width="8" customWidth="1"/>
-    <col min="15874" max="15874" width="8.28515625" customWidth="1"/>
+    <col min="15874" max="15874" width="8.33203125" customWidth="1"/>
     <col min="15875" max="15875" width="9" customWidth="1"/>
-    <col min="15876" max="15876" width="28.140625" customWidth="1"/>
-    <col min="15877" max="15877" width="10.140625" customWidth="1"/>
-    <col min="15879" max="15879" width="11.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="28.1640625" customWidth="1"/>
+    <col min="15877" max="15877" width="10.1640625" customWidth="1"/>
+    <col min="15879" max="15879" width="11.5" customWidth="1"/>
     <col min="15880" max="15880" width="8" customWidth="1"/>
     <col min="15881" max="15881" width="10" customWidth="1"/>
-    <col min="15882" max="15882" width="9.28515625" customWidth="1"/>
-    <col min="15883" max="15883" width="10.140625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.33203125" customWidth="1"/>
+    <col min="15883" max="15883" width="10.1640625" customWidth="1"/>
     <col min="15884" max="15884" width="8" customWidth="1"/>
-    <col min="16119" max="16119" width="30.42578125" customWidth="1"/>
-    <col min="16120" max="16120" width="11.42578125" customWidth="1"/>
+    <col min="16119" max="16119" width="30.5" customWidth="1"/>
+    <col min="16120" max="16120" width="11.5" customWidth="1"/>
     <col min="16121" max="16121" width="8" customWidth="1"/>
-    <col min="16122" max="16122" width="10.28515625" customWidth="1"/>
-    <col min="16123" max="16123" width="8.28515625" customWidth="1"/>
+    <col min="16122" max="16122" width="10.33203125" customWidth="1"/>
+    <col min="16123" max="16123" width="8.33203125" customWidth="1"/>
     <col min="16124" max="16124" width="10" customWidth="1"/>
     <col min="16125" max="16129" width="8" customWidth="1"/>
-    <col min="16130" max="16130" width="8.28515625" customWidth="1"/>
+    <col min="16130" max="16130" width="8.33203125" customWidth="1"/>
     <col min="16131" max="16131" width="9" customWidth="1"/>
-    <col min="16132" max="16132" width="28.140625" customWidth="1"/>
-    <col min="16133" max="16133" width="10.140625" customWidth="1"/>
-    <col min="16135" max="16135" width="11.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="28.1640625" customWidth="1"/>
+    <col min="16133" max="16133" width="10.1640625" customWidth="1"/>
+    <col min="16135" max="16135" width="11.5" customWidth="1"/>
     <col min="16136" max="16136" width="8" customWidth="1"/>
     <col min="16137" max="16137" width="10" customWidth="1"/>
-    <col min="16138" max="16138" width="9.28515625" customWidth="1"/>
-    <col min="16139" max="16139" width="10.140625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.33203125" customWidth="1"/>
+    <col min="16139" max="16139" width="10.1640625" customWidth="1"/>
     <col min="16140" max="16140" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -45112,7 +45085,7 @@
       <c r="IH1" s="36"/>
       <c r="II1" s="36"/>
     </row>
-    <row r="2" spans="1:243" ht="12">
+    <row r="2" spans="1:243">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -45360,7 +45333,7 @@
       <c r="IH2"/>
       <c r="II2"/>
     </row>
-    <row r="3" spans="1:243" ht="12">
+    <row r="3" spans="1:243">
       <c r="A3" s="309"/>
       <c r="B3" s="309"/>
       <c r="C3" s="309"/>
@@ -45605,7 +45578,7 @@
       <c r="IH3"/>
       <c r="II3"/>
     </row>
-    <row r="4" spans="1:243" ht="12">
+    <row r="4" spans="1:243">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -45850,7 +45823,7 @@
       <c r="IH4"/>
       <c r="II4"/>
     </row>
-    <row r="5" spans="1:243" ht="11.4" thickBot="1">
+    <row r="5" spans="1:243" ht="14.25" thickBot="1">
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -45879,7 +45852,7 @@
       <c r="IH5"/>
       <c r="II5"/>
     </row>
-    <row r="6" spans="1:243" ht="11.4" thickTop="1">
+    <row r="6" spans="1:243" ht="14.25" thickTop="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="321" t="s">
@@ -46685,7 +46658,7 @@
       <c r="IH18"/>
       <c r="II18"/>
     </row>
-    <row r="19" spans="1:255" ht="11.4" thickBot="1">
+    <row r="19" spans="1:255" ht="14.25" thickBot="1">
       <c r="A19" s="316"/>
       <c r="B19" s="85" t="s">
         <v>175</v>
@@ -46749,12 +46722,12 @@
       <c r="IH19"/>
       <c r="II19"/>
     </row>
-    <row r="20" spans="1:255" ht="12" thickTop="1">
+    <row r="20" spans="1:255" ht="14.25" thickTop="1">
       <c r="A20" s="128" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:255" ht="11.4">
+    <row r="21" spans="1:255">
       <c r="A21" s="129" t="s">
         <v>148</v>
       </c>
@@ -47732,12 +47705,12 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="39" style="81" customWidth="1"/>
-    <col min="2" max="6" width="8.85546875" style="2" customWidth="1"/>
-    <col min="7" max="11" width="8.85546875" style="81" customWidth="1"/>
-    <col min="12" max="16384" width="9.28515625" style="81"/>
+    <col min="2" max="6" width="8.83203125" style="2" customWidth="1"/>
+    <col min="7" max="11" width="8.83203125" style="81" customWidth="1"/>
+    <col min="12" max="16384" width="9.33203125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36.75" customHeight="1">
@@ -47800,14 +47773,14 @@
       <c r="J4" s="307"/>
       <c r="K4" s="307"/>
     </row>
-    <row r="5" spans="1:12" ht="11.4" thickBot="1">
+    <row r="5" spans="1:12" ht="14.25" thickBot="1">
       <c r="B5" s="81"/>
       <c r="C5" s="81"/>
       <c r="D5" s="81"/>
       <c r="E5" s="81"/>
       <c r="F5" s="81"/>
     </row>
-    <row r="6" spans="1:12" ht="11.4" thickBot="1">
+    <row r="6" spans="1:12" ht="14.25" thickBot="1">
       <c r="A6" s="4"/>
       <c r="B6" s="327" t="s">
         <v>212</v>
@@ -49551,27 +49524,27 @@
         <v>28.13</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="12" thickTop="1">
+    <row r="57" spans="1:12" ht="14.25" thickTop="1">
       <c r="A57" s="165" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="11.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="165" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="11.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="267" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="11.4">
+    <row r="60" spans="1:12">
       <c r="A60" s="165" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="11.4">
+    <row r="61" spans="1:12">
       <c r="A61" s="160"/>
       <c r="B61" s="160"/>
       <c r="C61" s="160"/>
@@ -49579,7 +49552,7 @@
       <c r="E61" s="160"/>
       <c r="F61" s="160"/>
     </row>
-    <row r="64" spans="1:12" ht="11.4">
+    <row r="64" spans="1:12">
       <c r="A64" s="267"/>
     </row>
   </sheetData>
@@ -49610,1084 +49583,1084 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="37" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="37" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" style="37" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" customWidth="1"/>
-    <col min="9" max="16" width="7.140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="37" customWidth="1"/>
+    <col min="3" max="7" width="7.1640625" style="37" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="9" max="16" width="7.1640625" style="37" customWidth="1"/>
     <col min="17" max="237" width="9" style="37"/>
-    <col min="241" max="241" width="30.42578125" customWidth="1"/>
-    <col min="242" max="242" width="11.42578125" customWidth="1"/>
+    <col min="241" max="241" width="30.5" customWidth="1"/>
+    <col min="242" max="242" width="11.5" customWidth="1"/>
     <col min="243" max="243" width="8" customWidth="1"/>
-    <col min="244" max="244" width="10.28515625" customWidth="1"/>
-    <col min="245" max="245" width="8.28515625" customWidth="1"/>
+    <col min="244" max="244" width="10.33203125" customWidth="1"/>
+    <col min="245" max="245" width="8.33203125" customWidth="1"/>
     <col min="246" max="246" width="10" customWidth="1"/>
     <col min="247" max="251" width="8" customWidth="1"/>
-    <col min="252" max="252" width="8.28515625" customWidth="1"/>
+    <col min="252" max="252" width="8.33203125" customWidth="1"/>
     <col min="253" max="253" width="9" customWidth="1"/>
-    <col min="254" max="254" width="28.140625" customWidth="1"/>
-    <col min="255" max="255" width="10.140625" customWidth="1"/>
-    <col min="257" max="257" width="11.42578125" customWidth="1"/>
+    <col min="254" max="254" width="28.1640625" customWidth="1"/>
+    <col min="255" max="255" width="10.1640625" customWidth="1"/>
+    <col min="257" max="257" width="11.5" customWidth="1"/>
     <col min="258" max="258" width="8" customWidth="1"/>
     <col min="259" max="259" width="10" customWidth="1"/>
-    <col min="260" max="260" width="9.28515625" customWidth="1"/>
-    <col min="261" max="261" width="10.140625" customWidth="1"/>
+    <col min="260" max="260" width="9.33203125" customWidth="1"/>
+    <col min="261" max="261" width="10.1640625" customWidth="1"/>
     <col min="262" max="262" width="8" customWidth="1"/>
-    <col min="497" max="497" width="30.42578125" customWidth="1"/>
-    <col min="498" max="498" width="11.42578125" customWidth="1"/>
+    <col min="497" max="497" width="30.5" customWidth="1"/>
+    <col min="498" max="498" width="11.5" customWidth="1"/>
     <col min="499" max="499" width="8" customWidth="1"/>
-    <col min="500" max="500" width="10.28515625" customWidth="1"/>
-    <col min="501" max="501" width="8.28515625" customWidth="1"/>
+    <col min="500" max="500" width="10.33203125" customWidth="1"/>
+    <col min="501" max="501" width="8.33203125" customWidth="1"/>
     <col min="502" max="502" width="10" customWidth="1"/>
     <col min="503" max="507" width="8" customWidth="1"/>
-    <col min="508" max="508" width="8.28515625" customWidth="1"/>
+    <col min="508" max="508" width="8.33203125" customWidth="1"/>
     <col min="509" max="509" width="9" customWidth="1"/>
-    <col min="510" max="510" width="28.140625" customWidth="1"/>
-    <col min="511" max="511" width="10.140625" customWidth="1"/>
-    <col min="513" max="513" width="11.42578125" customWidth="1"/>
+    <col min="510" max="510" width="28.1640625" customWidth="1"/>
+    <col min="511" max="511" width="10.1640625" customWidth="1"/>
+    <col min="513" max="513" width="11.5" customWidth="1"/>
     <col min="514" max="514" width="8" customWidth="1"/>
     <col min="515" max="515" width="10" customWidth="1"/>
-    <col min="516" max="516" width="9.28515625" customWidth="1"/>
-    <col min="517" max="517" width="10.140625" customWidth="1"/>
+    <col min="516" max="516" width="9.33203125" customWidth="1"/>
+    <col min="517" max="517" width="10.1640625" customWidth="1"/>
     <col min="518" max="518" width="8" customWidth="1"/>
-    <col min="753" max="753" width="30.42578125" customWidth="1"/>
-    <col min="754" max="754" width="11.42578125" customWidth="1"/>
+    <col min="753" max="753" width="30.5" customWidth="1"/>
+    <col min="754" max="754" width="11.5" customWidth="1"/>
     <col min="755" max="755" width="8" customWidth="1"/>
-    <col min="756" max="756" width="10.28515625" customWidth="1"/>
-    <col min="757" max="757" width="8.28515625" customWidth="1"/>
+    <col min="756" max="756" width="10.33203125" customWidth="1"/>
+    <col min="757" max="757" width="8.33203125" customWidth="1"/>
     <col min="758" max="758" width="10" customWidth="1"/>
     <col min="759" max="763" width="8" customWidth="1"/>
-    <col min="764" max="764" width="8.28515625" customWidth="1"/>
+    <col min="764" max="764" width="8.33203125" customWidth="1"/>
     <col min="765" max="765" width="9" customWidth="1"/>
-    <col min="766" max="766" width="28.140625" customWidth="1"/>
-    <col min="767" max="767" width="10.140625" customWidth="1"/>
-    <col min="769" max="769" width="11.42578125" customWidth="1"/>
+    <col min="766" max="766" width="28.1640625" customWidth="1"/>
+    <col min="767" max="767" width="10.1640625" customWidth="1"/>
+    <col min="769" max="769" width="11.5" customWidth="1"/>
     <col min="770" max="770" width="8" customWidth="1"/>
     <col min="771" max="771" width="10" customWidth="1"/>
-    <col min="772" max="772" width="9.28515625" customWidth="1"/>
-    <col min="773" max="773" width="10.140625" customWidth="1"/>
+    <col min="772" max="772" width="9.33203125" customWidth="1"/>
+    <col min="773" max="773" width="10.1640625" customWidth="1"/>
     <col min="774" max="774" width="8" customWidth="1"/>
-    <col min="1009" max="1009" width="30.42578125" customWidth="1"/>
-    <col min="1010" max="1010" width="11.42578125" customWidth="1"/>
+    <col min="1009" max="1009" width="30.5" customWidth="1"/>
+    <col min="1010" max="1010" width="11.5" customWidth="1"/>
     <col min="1011" max="1011" width="8" customWidth="1"/>
-    <col min="1012" max="1012" width="10.28515625" customWidth="1"/>
-    <col min="1013" max="1013" width="8.28515625" customWidth="1"/>
+    <col min="1012" max="1012" width="10.33203125" customWidth="1"/>
+    <col min="1013" max="1013" width="8.33203125" customWidth="1"/>
     <col min="1014" max="1014" width="10" customWidth="1"/>
     <col min="1015" max="1019" width="8" customWidth="1"/>
-    <col min="1020" max="1020" width="8.28515625" customWidth="1"/>
+    <col min="1020" max="1020" width="8.33203125" customWidth="1"/>
     <col min="1021" max="1021" width="9" customWidth="1"/>
-    <col min="1022" max="1022" width="28.140625" customWidth="1"/>
-    <col min="1023" max="1023" width="10.140625" customWidth="1"/>
-    <col min="1025" max="1025" width="11.42578125" customWidth="1"/>
+    <col min="1022" max="1022" width="28.1640625" customWidth="1"/>
+    <col min="1023" max="1023" width="10.1640625" customWidth="1"/>
+    <col min="1025" max="1025" width="11.5" customWidth="1"/>
     <col min="1026" max="1026" width="8" customWidth="1"/>
     <col min="1027" max="1027" width="10" customWidth="1"/>
-    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
-    <col min="1029" max="1029" width="10.140625" customWidth="1"/>
+    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
+    <col min="1029" max="1029" width="10.1640625" customWidth="1"/>
     <col min="1030" max="1030" width="8" customWidth="1"/>
-    <col min="1265" max="1265" width="30.42578125" customWidth="1"/>
-    <col min="1266" max="1266" width="11.42578125" customWidth="1"/>
+    <col min="1265" max="1265" width="30.5" customWidth="1"/>
+    <col min="1266" max="1266" width="11.5" customWidth="1"/>
     <col min="1267" max="1267" width="8" customWidth="1"/>
-    <col min="1268" max="1268" width="10.28515625" customWidth="1"/>
-    <col min="1269" max="1269" width="8.28515625" customWidth="1"/>
+    <col min="1268" max="1268" width="10.33203125" customWidth="1"/>
+    <col min="1269" max="1269" width="8.33203125" customWidth="1"/>
     <col min="1270" max="1270" width="10" customWidth="1"/>
     <col min="1271" max="1275" width="8" customWidth="1"/>
-    <col min="1276" max="1276" width="8.28515625" customWidth="1"/>
+    <col min="1276" max="1276" width="8.33203125" customWidth="1"/>
     <col min="1277" max="1277" width="9" customWidth="1"/>
-    <col min="1278" max="1278" width="28.140625" customWidth="1"/>
-    <col min="1279" max="1279" width="10.140625" customWidth="1"/>
-    <col min="1281" max="1281" width="11.42578125" customWidth="1"/>
+    <col min="1278" max="1278" width="28.1640625" customWidth="1"/>
+    <col min="1279" max="1279" width="10.1640625" customWidth="1"/>
+    <col min="1281" max="1281" width="11.5" customWidth="1"/>
     <col min="1282" max="1282" width="8" customWidth="1"/>
     <col min="1283" max="1283" width="10" customWidth="1"/>
-    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
-    <col min="1285" max="1285" width="10.140625" customWidth="1"/>
+    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
+    <col min="1285" max="1285" width="10.1640625" customWidth="1"/>
     <col min="1286" max="1286" width="8" customWidth="1"/>
-    <col min="1521" max="1521" width="30.42578125" customWidth="1"/>
-    <col min="1522" max="1522" width="11.42578125" customWidth="1"/>
+    <col min="1521" max="1521" width="30.5" customWidth="1"/>
+    <col min="1522" max="1522" width="11.5" customWidth="1"/>
     <col min="1523" max="1523" width="8" customWidth="1"/>
-    <col min="1524" max="1524" width="10.28515625" customWidth="1"/>
-    <col min="1525" max="1525" width="8.28515625" customWidth="1"/>
+    <col min="1524" max="1524" width="10.33203125" customWidth="1"/>
+    <col min="1525" max="1525" width="8.33203125" customWidth="1"/>
     <col min="1526" max="1526" width="10" customWidth="1"/>
     <col min="1527" max="1531" width="8" customWidth="1"/>
-    <col min="1532" max="1532" width="8.28515625" customWidth="1"/>
+    <col min="1532" max="1532" width="8.33203125" customWidth="1"/>
     <col min="1533" max="1533" width="9" customWidth="1"/>
-    <col min="1534" max="1534" width="28.140625" customWidth="1"/>
-    <col min="1535" max="1535" width="10.140625" customWidth="1"/>
-    <col min="1537" max="1537" width="11.42578125" customWidth="1"/>
+    <col min="1534" max="1534" width="28.1640625" customWidth="1"/>
+    <col min="1535" max="1535" width="10.1640625" customWidth="1"/>
+    <col min="1537" max="1537" width="11.5" customWidth="1"/>
     <col min="1538" max="1538" width="8" customWidth="1"/>
     <col min="1539" max="1539" width="10" customWidth="1"/>
-    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
-    <col min="1541" max="1541" width="10.140625" customWidth="1"/>
+    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
+    <col min="1541" max="1541" width="10.1640625" customWidth="1"/>
     <col min="1542" max="1542" width="8" customWidth="1"/>
-    <col min="1777" max="1777" width="30.42578125" customWidth="1"/>
-    <col min="1778" max="1778" width="11.42578125" customWidth="1"/>
+    <col min="1777" max="1777" width="30.5" customWidth="1"/>
+    <col min="1778" max="1778" width="11.5" customWidth="1"/>
     <col min="1779" max="1779" width="8" customWidth="1"/>
-    <col min="1780" max="1780" width="10.28515625" customWidth="1"/>
-    <col min="1781" max="1781" width="8.28515625" customWidth="1"/>
+    <col min="1780" max="1780" width="10.33203125" customWidth="1"/>
+    <col min="1781" max="1781" width="8.33203125" customWidth="1"/>
     <col min="1782" max="1782" width="10" customWidth="1"/>
     <col min="1783" max="1787" width="8" customWidth="1"/>
-    <col min="1788" max="1788" width="8.28515625" customWidth="1"/>
+    <col min="1788" max="1788" width="8.33203125" customWidth="1"/>
     <col min="1789" max="1789" width="9" customWidth="1"/>
-    <col min="1790" max="1790" width="28.140625" customWidth="1"/>
-    <col min="1791" max="1791" width="10.140625" customWidth="1"/>
-    <col min="1793" max="1793" width="11.42578125" customWidth="1"/>
+    <col min="1790" max="1790" width="28.1640625" customWidth="1"/>
+    <col min="1791" max="1791" width="10.1640625" customWidth="1"/>
+    <col min="1793" max="1793" width="11.5" customWidth="1"/>
     <col min="1794" max="1794" width="8" customWidth="1"/>
     <col min="1795" max="1795" width="10" customWidth="1"/>
-    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
-    <col min="1797" max="1797" width="10.140625" customWidth="1"/>
+    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
+    <col min="1797" max="1797" width="10.1640625" customWidth="1"/>
     <col min="1798" max="1798" width="8" customWidth="1"/>
-    <col min="2033" max="2033" width="30.42578125" customWidth="1"/>
-    <col min="2034" max="2034" width="11.42578125" customWidth="1"/>
+    <col min="2033" max="2033" width="30.5" customWidth="1"/>
+    <col min="2034" max="2034" width="11.5" customWidth="1"/>
     <col min="2035" max="2035" width="8" customWidth="1"/>
-    <col min="2036" max="2036" width="10.28515625" customWidth="1"/>
-    <col min="2037" max="2037" width="8.28515625" customWidth="1"/>
+    <col min="2036" max="2036" width="10.33203125" customWidth="1"/>
+    <col min="2037" max="2037" width="8.33203125" customWidth="1"/>
     <col min="2038" max="2038" width="10" customWidth="1"/>
     <col min="2039" max="2043" width="8" customWidth="1"/>
-    <col min="2044" max="2044" width="8.28515625" customWidth="1"/>
+    <col min="2044" max="2044" width="8.33203125" customWidth="1"/>
     <col min="2045" max="2045" width="9" customWidth="1"/>
-    <col min="2046" max="2046" width="28.140625" customWidth="1"/>
-    <col min="2047" max="2047" width="10.140625" customWidth="1"/>
-    <col min="2049" max="2049" width="11.42578125" customWidth="1"/>
+    <col min="2046" max="2046" width="28.1640625" customWidth="1"/>
+    <col min="2047" max="2047" width="10.1640625" customWidth="1"/>
+    <col min="2049" max="2049" width="11.5" customWidth="1"/>
     <col min="2050" max="2050" width="8" customWidth="1"/>
     <col min="2051" max="2051" width="10" customWidth="1"/>
-    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
-    <col min="2053" max="2053" width="10.140625" customWidth="1"/>
+    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
+    <col min="2053" max="2053" width="10.1640625" customWidth="1"/>
     <col min="2054" max="2054" width="8" customWidth="1"/>
-    <col min="2289" max="2289" width="30.42578125" customWidth="1"/>
-    <col min="2290" max="2290" width="11.42578125" customWidth="1"/>
+    <col min="2289" max="2289" width="30.5" customWidth="1"/>
+    <col min="2290" max="2290" width="11.5" customWidth="1"/>
     <col min="2291" max="2291" width="8" customWidth="1"/>
-    <col min="2292" max="2292" width="10.28515625" customWidth="1"/>
-    <col min="2293" max="2293" width="8.28515625" customWidth="1"/>
+    <col min="2292" max="2292" width="10.33203125" customWidth="1"/>
+    <col min="2293" max="2293" width="8.33203125" customWidth="1"/>
     <col min="2294" max="2294" width="10" customWidth="1"/>
     <col min="2295" max="2299" width="8" customWidth="1"/>
-    <col min="2300" max="2300" width="8.28515625" customWidth="1"/>
+    <col min="2300" max="2300" width="8.33203125" customWidth="1"/>
     <col min="2301" max="2301" width="9" customWidth="1"/>
-    <col min="2302" max="2302" width="28.140625" customWidth="1"/>
-    <col min="2303" max="2303" width="10.140625" customWidth="1"/>
-    <col min="2305" max="2305" width="11.42578125" customWidth="1"/>
+    <col min="2302" max="2302" width="28.1640625" customWidth="1"/>
+    <col min="2303" max="2303" width="10.1640625" customWidth="1"/>
+    <col min="2305" max="2305" width="11.5" customWidth="1"/>
     <col min="2306" max="2306" width="8" customWidth="1"/>
     <col min="2307" max="2307" width="10" customWidth="1"/>
-    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
-    <col min="2309" max="2309" width="10.140625" customWidth="1"/>
+    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
+    <col min="2309" max="2309" width="10.1640625" customWidth="1"/>
     <col min="2310" max="2310" width="8" customWidth="1"/>
-    <col min="2545" max="2545" width="30.42578125" customWidth="1"/>
-    <col min="2546" max="2546" width="11.42578125" customWidth="1"/>
+    <col min="2545" max="2545" width="30.5" customWidth="1"/>
+    <col min="2546" max="2546" width="11.5" customWidth="1"/>
     <col min="2547" max="2547" width="8" customWidth="1"/>
-    <col min="2548" max="2548" width="10.28515625" customWidth="1"/>
-    <col min="2549" max="2549" width="8.28515625" customWidth="1"/>
+    <col min="2548" max="2548" width="10.33203125" customWidth="1"/>
+    <col min="2549" max="2549" width="8.33203125" customWidth="1"/>
     <col min="2550" max="2550" width="10" customWidth="1"/>
     <col min="2551" max="2555" width="8" customWidth="1"/>
-    <col min="2556" max="2556" width="8.28515625" customWidth="1"/>
+    <col min="2556" max="2556" width="8.33203125" customWidth="1"/>
     <col min="2557" max="2557" width="9" customWidth="1"/>
-    <col min="2558" max="2558" width="28.140625" customWidth="1"/>
-    <col min="2559" max="2559" width="10.140625" customWidth="1"/>
-    <col min="2561" max="2561" width="11.42578125" customWidth="1"/>
+    <col min="2558" max="2558" width="28.1640625" customWidth="1"/>
+    <col min="2559" max="2559" width="10.1640625" customWidth="1"/>
+    <col min="2561" max="2561" width="11.5" customWidth="1"/>
     <col min="2562" max="2562" width="8" customWidth="1"/>
     <col min="2563" max="2563" width="10" customWidth="1"/>
-    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
-    <col min="2565" max="2565" width="10.140625" customWidth="1"/>
+    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
+    <col min="2565" max="2565" width="10.1640625" customWidth="1"/>
     <col min="2566" max="2566" width="8" customWidth="1"/>
-    <col min="2801" max="2801" width="30.42578125" customWidth="1"/>
-    <col min="2802" max="2802" width="11.42578125" customWidth="1"/>
+    <col min="2801" max="2801" width="30.5" customWidth="1"/>
+    <col min="2802" max="2802" width="11.5" customWidth="1"/>
     <col min="2803" max="2803" width="8" customWidth="1"/>
-    <col min="2804" max="2804" width="10.28515625" customWidth="1"/>
-    <col min="2805" max="2805" width="8.28515625" customWidth="1"/>
+    <col min="2804" max="2804" width="10.33203125" customWidth="1"/>
+    <col min="2805" max="2805" width="8.33203125" customWidth="1"/>
     <col min="2806" max="2806" width="10" customWidth="1"/>
     <col min="2807" max="2811" width="8" customWidth="1"/>
-    <col min="2812" max="2812" width="8.28515625" customWidth="1"/>
+    <col min="2812" max="2812" width="8.33203125" customWidth="1"/>
     <col min="2813" max="2813" width="9" customWidth="1"/>
-    <col min="2814" max="2814" width="28.140625" customWidth="1"/>
-    <col min="2815" max="2815" width="10.140625" customWidth="1"/>
-    <col min="2817" max="2817" width="11.42578125" customWidth="1"/>
+    <col min="2814" max="2814" width="28.1640625" customWidth="1"/>
+    <col min="2815" max="2815" width="10.1640625" customWidth="1"/>
+    <col min="2817" max="2817" width="11.5" customWidth="1"/>
     <col min="2818" max="2818" width="8" customWidth="1"/>
     <col min="2819" max="2819" width="10" customWidth="1"/>
-    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
-    <col min="2821" max="2821" width="10.140625" customWidth="1"/>
+    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
+    <col min="2821" max="2821" width="10.1640625" customWidth="1"/>
     <col min="2822" max="2822" width="8" customWidth="1"/>
-    <col min="3057" max="3057" width="30.42578125" customWidth="1"/>
-    <col min="3058" max="3058" width="11.42578125" customWidth="1"/>
+    <col min="3057" max="3057" width="30.5" customWidth="1"/>
+    <col min="3058" max="3058" width="11.5" customWidth="1"/>
     <col min="3059" max="3059" width="8" customWidth="1"/>
-    <col min="3060" max="3060" width="10.28515625" customWidth="1"/>
-    <col min="3061" max="3061" width="8.28515625" customWidth="1"/>
+    <col min="3060" max="3060" width="10.33203125" customWidth="1"/>
+    <col min="3061" max="3061" width="8.33203125" customWidth="1"/>
     <col min="3062" max="3062" width="10" customWidth="1"/>
     <col min="3063" max="3067" width="8" customWidth="1"/>
-    <col min="3068" max="3068" width="8.28515625" customWidth="1"/>
+    <col min="3068" max="3068" width="8.33203125" customWidth="1"/>
     <col min="3069" max="3069" width="9" customWidth="1"/>
-    <col min="3070" max="3070" width="28.140625" customWidth="1"/>
-    <col min="3071" max="3071" width="10.140625" customWidth="1"/>
-    <col min="3073" max="3073" width="11.42578125" customWidth="1"/>
+    <col min="3070" max="3070" width="28.1640625" customWidth="1"/>
+    <col min="3071" max="3071" width="10.1640625" customWidth="1"/>
+    <col min="3073" max="3073" width="11.5" customWidth="1"/>
     <col min="3074" max="3074" width="8" customWidth="1"/>
     <col min="3075" max="3075" width="10" customWidth="1"/>
-    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
-    <col min="3077" max="3077" width="10.140625" customWidth="1"/>
+    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
+    <col min="3077" max="3077" width="10.1640625" customWidth="1"/>
     <col min="3078" max="3078" width="8" customWidth="1"/>
-    <col min="3313" max="3313" width="30.42578125" customWidth="1"/>
-    <col min="3314" max="3314" width="11.42578125" customWidth="1"/>
+    <col min="3313" max="3313" width="30.5" customWidth="1"/>
+    <col min="3314" max="3314" width="11.5" customWidth="1"/>
     <col min="3315" max="3315" width="8" customWidth="1"/>
-    <col min="3316" max="3316" width="10.28515625" customWidth="1"/>
-    <col min="3317" max="3317" width="8.28515625" customWidth="1"/>
+    <col min="3316" max="3316" width="10.33203125" customWidth="1"/>
+    <col min="3317" max="3317" width="8.33203125" customWidth="1"/>
     <col min="3318" max="3318" width="10" customWidth="1"/>
     <col min="3319" max="3323" width="8" customWidth="1"/>
-    <col min="3324" max="3324" width="8.28515625" customWidth="1"/>
+    <col min="3324" max="3324" width="8.33203125" customWidth="1"/>
     <col min="3325" max="3325" width="9" customWidth="1"/>
-    <col min="3326" max="3326" width="28.140625" customWidth="1"/>
-    <col min="3327" max="3327" width="10.140625" customWidth="1"/>
-    <col min="3329" max="3329" width="11.42578125" customWidth="1"/>
+    <col min="3326" max="3326" width="28.1640625" customWidth="1"/>
+    <col min="3327" max="3327" width="10.1640625" customWidth="1"/>
+    <col min="3329" max="3329" width="11.5" customWidth="1"/>
     <col min="3330" max="3330" width="8" customWidth="1"/>
     <col min="3331" max="3331" width="10" customWidth="1"/>
-    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
-    <col min="3333" max="3333" width="10.140625" customWidth="1"/>
+    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
+    <col min="3333" max="3333" width="10.1640625" customWidth="1"/>
     <col min="3334" max="3334" width="8" customWidth="1"/>
-    <col min="3569" max="3569" width="30.42578125" customWidth="1"/>
-    <col min="3570" max="3570" width="11.42578125" customWidth="1"/>
+    <col min="3569" max="3569" width="30.5" customWidth="1"/>
+    <col min="3570" max="3570" width="11.5" customWidth="1"/>
     <col min="3571" max="3571" width="8" customWidth="1"/>
-    <col min="3572" max="3572" width="10.28515625" customWidth="1"/>
-    <col min="3573" max="3573" width="8.28515625" customWidth="1"/>
+    <col min="3572" max="3572" width="10.33203125" customWidth="1"/>
+    <col min="3573" max="3573" width="8.33203125" customWidth="1"/>
     <col min="3574" max="3574" width="10" customWidth="1"/>
     <col min="3575" max="3579" width="8" customWidth="1"/>
-    <col min="3580" max="3580" width="8.28515625" customWidth="1"/>
+    <col min="3580" max="3580" width="8.33203125" customWidth="1"/>
     <col min="3581" max="3581" width="9" customWidth="1"/>
-    <col min="3582" max="3582" width="28.140625" customWidth="1"/>
-    <col min="3583" max="3583" width="10.140625" customWidth="1"/>
-    <col min="3585" max="3585" width="11.42578125" customWidth="1"/>
+    <col min="3582" max="3582" width="28.1640625" customWidth="1"/>
+    <col min="3583" max="3583" width="10.1640625" customWidth="1"/>
+    <col min="3585" max="3585" width="11.5" customWidth="1"/>
     <col min="3586" max="3586" width="8" customWidth="1"/>
     <col min="3587" max="3587" width="10" customWidth="1"/>
-    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
-    <col min="3589" max="3589" width="10.140625" customWidth="1"/>
+    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
+    <col min="3589" max="3589" width="10.1640625" customWidth="1"/>
     <col min="3590" max="3590" width="8" customWidth="1"/>
-    <col min="3825" max="3825" width="30.42578125" customWidth="1"/>
-    <col min="3826" max="3826" width="11.42578125" customWidth="1"/>
+    <col min="3825" max="3825" width="30.5" customWidth="1"/>
+    <col min="3826" max="3826" width="11.5" customWidth="1"/>
     <col min="3827" max="3827" width="8" customWidth="1"/>
-    <col min="3828" max="3828" width="10.28515625" customWidth="1"/>
-    <col min="3829" max="3829" width="8.28515625" customWidth="1"/>
+    <col min="3828" max="3828" width="10.33203125" customWidth="1"/>
+    <col min="3829" max="3829" width="8.33203125" customWidth="1"/>
     <col min="3830" max="3830" width="10" customWidth="1"/>
     <col min="3831" max="3835" width="8" customWidth="1"/>
-    <col min="3836" max="3836" width="8.28515625" customWidth="1"/>
+    <col min="3836" max="3836" width="8.33203125" customWidth="1"/>
     <col min="3837" max="3837" width="9" customWidth="1"/>
-    <col min="3838" max="3838" width="28.140625" customWidth="1"/>
-    <col min="3839" max="3839" width="10.140625" customWidth="1"/>
-    <col min="3841" max="3841" width="11.42578125" customWidth="1"/>
+    <col min="3838" max="3838" width="28.1640625" customWidth="1"/>
+    <col min="3839" max="3839" width="10.1640625" customWidth="1"/>
+    <col min="3841" max="3841" width="11.5" customWidth="1"/>
     <col min="3842" max="3842" width="8" customWidth="1"/>
     <col min="3843" max="3843" width="10" customWidth="1"/>
-    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
-    <col min="3845" max="3845" width="10.140625" customWidth="1"/>
+    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
+    <col min="3845" max="3845" width="10.1640625" customWidth="1"/>
     <col min="3846" max="3846" width="8" customWidth="1"/>
-    <col min="4081" max="4081" width="30.42578125" customWidth="1"/>
-    <col min="4082" max="4082" width="11.42578125" customWidth="1"/>
+    <col min="4081" max="4081" width="30.5" customWidth="1"/>
+    <col min="4082" max="4082" width="11.5" customWidth="1"/>
     <col min="4083" max="4083" width="8" customWidth="1"/>
-    <col min="4084" max="4084" width="10.28515625" customWidth="1"/>
-    <col min="4085" max="4085" width="8.28515625" customWidth="1"/>
+    <col min="4084" max="4084" width="10.33203125" customWidth="1"/>
+    <col min="4085" max="4085" width="8.33203125" customWidth="1"/>
     <col min="4086" max="4086" width="10" customWidth="1"/>
     <col min="4087" max="4091" width="8" customWidth="1"/>
-    <col min="4092" max="4092" width="8.28515625" customWidth="1"/>
+    <col min="4092" max="4092" width="8.33203125" customWidth="1"/>
     <col min="4093" max="4093" width="9" customWidth="1"/>
-    <col min="4094" max="4094" width="28.140625" customWidth="1"/>
-    <col min="4095" max="4095" width="10.140625" customWidth="1"/>
-    <col min="4097" max="4097" width="11.42578125" customWidth="1"/>
+    <col min="4094" max="4094" width="28.1640625" customWidth="1"/>
+    <col min="4095" max="4095" width="10.1640625" customWidth="1"/>
+    <col min="4097" max="4097" width="11.5" customWidth="1"/>
     <col min="4098" max="4098" width="8" customWidth="1"/>
     <col min="4099" max="4099" width="10" customWidth="1"/>
-    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
-    <col min="4101" max="4101" width="10.140625" customWidth="1"/>
+    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
+    <col min="4101" max="4101" width="10.1640625" customWidth="1"/>
     <col min="4102" max="4102" width="8" customWidth="1"/>
-    <col min="4337" max="4337" width="30.42578125" customWidth="1"/>
-    <col min="4338" max="4338" width="11.42578125" customWidth="1"/>
+    <col min="4337" max="4337" width="30.5" customWidth="1"/>
+    <col min="4338" max="4338" width="11.5" customWidth="1"/>
     <col min="4339" max="4339" width="8" customWidth="1"/>
-    <col min="4340" max="4340" width="10.28515625" customWidth="1"/>
-    <col min="4341" max="4341" width="8.28515625" customWidth="1"/>
+    <col min="4340" max="4340" width="10.33203125" customWidth="1"/>
+    <col min="4341" max="4341" width="8.33203125" customWidth="1"/>
     <col min="4342" max="4342" width="10" customWidth="1"/>
     <col min="4343" max="4347" width="8" customWidth="1"/>
-    <col min="4348" max="4348" width="8.28515625" customWidth="1"/>
+    <col min="4348" max="4348" width="8.33203125" customWidth="1"/>
     <col min="4349" max="4349" width="9" customWidth="1"/>
-    <col min="4350" max="4350" width="28.140625" customWidth="1"/>
-    <col min="4351" max="4351" width="10.140625" customWidth="1"/>
-    <col min="4353" max="4353" width="11.42578125" customWidth="1"/>
+    <col min="4350" max="4350" width="28.1640625" customWidth="1"/>
+    <col min="4351" max="4351" width="10.1640625" customWidth="1"/>
+    <col min="4353" max="4353" width="11.5" customWidth="1"/>
     <col min="4354" max="4354" width="8" customWidth="1"/>
     <col min="4355" max="4355" width="10" customWidth="1"/>
-    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
-    <col min="4357" max="4357" width="10.140625" customWidth="1"/>
+    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
+    <col min="4357" max="4357" width="10.1640625" customWidth="1"/>
     <col min="4358" max="4358" width="8" customWidth="1"/>
-    <col min="4593" max="4593" width="30.42578125" customWidth="1"/>
-    <col min="4594" max="4594" width="11.42578125" customWidth="1"/>
+    <col min="4593" max="4593" width="30.5" customWidth="1"/>
+    <col min="4594" max="4594" width="11.5" customWidth="1"/>
     <col min="4595" max="4595" width="8" customWidth="1"/>
-    <col min="4596" max="4596" width="10.28515625" customWidth="1"/>
-    <col min="4597" max="4597" width="8.28515625" customWidth="1"/>
+    <col min="4596" max="4596" width="10.33203125" customWidth="1"/>
+    <col min="4597" max="4597" width="8.33203125" customWidth="1"/>
     <col min="4598" max="4598" width="10" customWidth="1"/>
     <col min="4599" max="4603" width="8" customWidth="1"/>
-    <col min="4604" max="4604" width="8.28515625" customWidth="1"/>
+    <col min="4604" max="4604" width="8.33203125" customWidth="1"/>
     <col min="4605" max="4605" width="9" customWidth="1"/>
-    <col min="4606" max="4606" width="28.140625" customWidth="1"/>
-    <col min="4607" max="4607" width="10.140625" customWidth="1"/>
-    <col min="4609" max="4609" width="11.42578125" customWidth="1"/>
+    <col min="4606" max="4606" width="28.1640625" customWidth="1"/>
+    <col min="4607" max="4607" width="10.1640625" customWidth="1"/>
+    <col min="4609" max="4609" width="11.5" customWidth="1"/>
     <col min="4610" max="4610" width="8" customWidth="1"/>
     <col min="4611" max="4611" width="10" customWidth="1"/>
-    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
-    <col min="4613" max="4613" width="10.140625" customWidth="1"/>
+    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
+    <col min="4613" max="4613" width="10.1640625" customWidth="1"/>
     <col min="4614" max="4614" width="8" customWidth="1"/>
-    <col min="4849" max="4849" width="30.42578125" customWidth="1"/>
-    <col min="4850" max="4850" width="11.42578125" customWidth="1"/>
+    <col min="4849" max="4849" width="30.5" customWidth="1"/>
+    <col min="4850" max="4850" width="11.5" customWidth="1"/>
     <col min="4851" max="4851" width="8" customWidth="1"/>
-    <col min="4852" max="4852" width="10.28515625" customWidth="1"/>
-    <col min="4853" max="4853" width="8.28515625" customWidth="1"/>
+    <col min="4852" max="4852" width="10.33203125" customWidth="1"/>
+    <col min="4853" max="4853" width="8.33203125" customWidth="1"/>
     <col min="4854" max="4854" width="10" customWidth="1"/>
     <col min="4855" max="4859" width="8" customWidth="1"/>
-    <col min="4860" max="4860" width="8.28515625" customWidth="1"/>
+    <col min="4860" max="4860" width="8.33203125" customWidth="1"/>
     <col min="4861" max="4861" width="9" customWidth="1"/>
-    <col min="4862" max="4862" width="28.140625" customWidth="1"/>
-    <col min="4863" max="4863" width="10.140625" customWidth="1"/>
-    <col min="4865" max="4865" width="11.42578125" customWidth="1"/>
+    <col min="4862" max="4862" width="28.1640625" customWidth="1"/>
+    <col min="4863" max="4863" width="10.1640625" customWidth="1"/>
+    <col min="4865" max="4865" width="11.5" customWidth="1"/>
     <col min="4866" max="4866" width="8" customWidth="1"/>
     <col min="4867" max="4867" width="10" customWidth="1"/>
-    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
-    <col min="4869" max="4869" width="10.140625" customWidth="1"/>
+    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
+    <col min="4869" max="4869" width="10.1640625" customWidth="1"/>
     <col min="4870" max="4870" width="8" customWidth="1"/>
-    <col min="5105" max="5105" width="30.42578125" customWidth="1"/>
-    <col min="5106" max="5106" width="11.42578125" customWidth="1"/>
+    <col min="5105" max="5105" width="30.5" customWidth="1"/>
+    <col min="5106" max="5106" width="11.5" customWidth="1"/>
     <col min="5107" max="5107" width="8" customWidth="1"/>
-    <col min="5108" max="5108" width="10.28515625" customWidth="1"/>
-    <col min="5109" max="5109" width="8.28515625" customWidth="1"/>
+    <col min="5108" max="5108" width="10.33203125" customWidth="1"/>
+    <col min="5109" max="5109" width="8.33203125" customWidth="1"/>
     <col min="5110" max="5110" width="10" customWidth="1"/>
     <col min="5111" max="5115" width="8" customWidth="1"/>
-    <col min="5116" max="5116" width="8.28515625" customWidth="1"/>
+    <col min="5116" max="5116" width="8.33203125" customWidth="1"/>
     <col min="5117" max="5117" width="9" customWidth="1"/>
-    <col min="5118" max="5118" width="28.140625" customWidth="1"/>
-    <col min="5119" max="5119" width="10.140625" customWidth="1"/>
-    <col min="5121" max="5121" width="11.42578125" customWidth="1"/>
+    <col min="5118" max="5118" width="28.1640625" customWidth="1"/>
+    <col min="5119" max="5119" width="10.1640625" customWidth="1"/>
+    <col min="5121" max="5121" width="11.5" customWidth="1"/>
     <col min="5122" max="5122" width="8" customWidth="1"/>
     <col min="5123" max="5123" width="10" customWidth="1"/>
-    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
-    <col min="5125" max="5125" width="10.140625" customWidth="1"/>
+    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
+    <col min="5125" max="5125" width="10.1640625" customWidth="1"/>
     <col min="5126" max="5126" width="8" customWidth="1"/>
-    <col min="5361" max="5361" width="30.42578125" customWidth="1"/>
-    <col min="5362" max="5362" width="11.42578125" customWidth="1"/>
+    <col min="5361" max="5361" width="30.5" customWidth="1"/>
+    <col min="5362" max="5362" width="11.5" customWidth="1"/>
     <col min="5363" max="5363" width="8" customWidth="1"/>
-    <col min="5364" max="5364" width="10.28515625" customWidth="1"/>
-    <col min="5365" max="5365" width="8.28515625" customWidth="1"/>
+    <col min="5364" max="5364" width="10.33203125" customWidth="1"/>
+    <col min="5365" max="5365" width="8.33203125" customWidth="1"/>
     <col min="5366" max="5366" width="10" customWidth="1"/>
     <col min="5367" max="5371" width="8" customWidth="1"/>
-    <col min="5372" max="5372" width="8.28515625" customWidth="1"/>
+    <col min="5372" max="5372" width="8.33203125" customWidth="1"/>
     <col min="5373" max="5373" width="9" customWidth="1"/>
-    <col min="5374" max="5374" width="28.140625" customWidth="1"/>
-    <col min="5375" max="5375" width="10.140625" customWidth="1"/>
-    <col min="5377" max="5377" width="11.42578125" customWidth="1"/>
+    <col min="5374" max="5374" width="28.1640625" customWidth="1"/>
+    <col min="5375" max="5375" width="10.1640625" customWidth="1"/>
+    <col min="5377" max="5377" width="11.5" customWidth="1"/>
     <col min="5378" max="5378" width="8" customWidth="1"/>
     <col min="5379" max="5379" width="10" customWidth="1"/>
-    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
-    <col min="5381" max="5381" width="10.140625" customWidth="1"/>
+    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
+    <col min="5381" max="5381" width="10.1640625" customWidth="1"/>
     <col min="5382" max="5382" width="8" customWidth="1"/>
-    <col min="5617" max="5617" width="30.42578125" customWidth="1"/>
-    <col min="5618" max="5618" width="11.42578125" customWidth="1"/>
+    <col min="5617" max="5617" width="30.5" customWidth="1"/>
+    <col min="5618" max="5618" width="11.5" customWidth="1"/>
     <col min="5619" max="5619" width="8" customWidth="1"/>
-    <col min="5620" max="5620" width="10.28515625" customWidth="1"/>
-    <col min="5621" max="5621" width="8.28515625" customWidth="1"/>
+    <col min="5620" max="5620" width="10.33203125" customWidth="1"/>
+    <col min="5621" max="5621" width="8.33203125" customWidth="1"/>
     <col min="5622" max="5622" width="10" customWidth="1"/>
     <col min="5623" max="5627" width="8" customWidth="1"/>
-    <col min="5628" max="5628" width="8.28515625" customWidth="1"/>
+    <col min="5628" max="5628" width="8.33203125" customWidth="1"/>
     <col min="5629" max="5629" width="9" customWidth="1"/>
-    <col min="5630" max="5630" width="28.140625" customWidth="1"/>
-    <col min="5631" max="5631" width="10.140625" customWidth="1"/>
-    <col min="5633" max="5633" width="11.42578125" customWidth="1"/>
+    <col min="5630" max="5630" width="28.1640625" customWidth="1"/>
+    <col min="5631" max="5631" width="10.1640625" customWidth="1"/>
+    <col min="5633" max="5633" width="11.5" customWidth="1"/>
     <col min="5634" max="5634" width="8" customWidth="1"/>
     <col min="5635" max="5635" width="10" customWidth="1"/>
-    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
-    <col min="5637" max="5637" width="10.140625" customWidth="1"/>
+    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
+    <col min="5637" max="5637" width="10.1640625" customWidth="1"/>
     <col min="5638" max="5638" width="8" customWidth="1"/>
-    <col min="5873" max="5873" width="30.42578125" customWidth="1"/>
-    <col min="5874" max="5874" width="11.42578125" customWidth="1"/>
+    <col min="5873" max="5873" width="30.5" customWidth="1"/>
+    <col min="5874" max="5874" width="11.5" customWidth="1"/>
     <col min="5875" max="5875" width="8" customWidth="1"/>
-    <col min="5876" max="5876" width="10.28515625" customWidth="1"/>
-    <col min="5877" max="5877" width="8.28515625" customWidth="1"/>
+    <col min="5876" max="5876" width="10.33203125" customWidth="1"/>
+    <col min="5877" max="5877" width="8.33203125" customWidth="1"/>
     <col min="5878" max="5878" width="10" customWidth="1"/>
     <col min="5879" max="5883" width="8" customWidth="1"/>
-    <col min="5884" max="5884" width="8.28515625" customWidth="1"/>
+    <col min="5884" max="5884" width="8.33203125" customWidth="1"/>
     <col min="5885" max="5885" width="9" customWidth="1"/>
-    <col min="5886" max="5886" width="28.140625" customWidth="1"/>
-    <col min="5887" max="5887" width="10.140625" customWidth="1"/>
-    <col min="5889" max="5889" width="11.42578125" customWidth="1"/>
+    <col min="5886" max="5886" width="28.1640625" customWidth="1"/>
+    <col min="5887" max="5887" width="10.1640625" customWidth="1"/>
+    <col min="5889" max="5889" width="11.5" customWidth="1"/>
     <col min="5890" max="5890" width="8" customWidth="1"/>
     <col min="5891" max="5891" width="10" customWidth="1"/>
-    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
-    <col min="5893" max="5893" width="10.140625" customWidth="1"/>
+    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
+    <col min="5893" max="5893" width="10.1640625" customWidth="1"/>
     <col min="5894" max="5894" width="8" customWidth="1"/>
-    <col min="6129" max="6129" width="30.42578125" customWidth="1"/>
-    <col min="6130" max="6130" width="11.42578125" customWidth="1"/>
+    <col min="6129" max="6129" width="30.5" customWidth="1"/>
+    <col min="6130" max="6130" width="11.5" customWidth="1"/>
     <col min="6131" max="6131" width="8" customWidth="1"/>
-    <col min="6132" max="6132" width="10.28515625" customWidth="1"/>
-    <col min="6133" max="6133" width="8.28515625" customWidth="1"/>
+    <col min="6132" max="6132" width="10.33203125" customWidth="1"/>
+    <col min="6133" max="6133" width="8.33203125" customWidth="1"/>
     <col min="6134" max="6134" width="10" customWidth="1"/>
     <col min="6135" max="6139" width="8" customWidth="1"/>
-    <col min="6140" max="6140" width="8.28515625" customWidth="1"/>
+    <col min="6140" max="6140" width="8.33203125" customWidth="1"/>
     <col min="6141" max="6141" width="9" customWidth="1"/>
-    <col min="6142" max="6142" width="28.140625" customWidth="1"/>
-    <col min="6143" max="6143" width="10.140625" customWidth="1"/>
-    <col min="6145" max="6145" width="11.42578125" customWidth="1"/>
+    <col min="6142" max="6142" width="28.1640625" customWidth="1"/>
+    <col min="6143" max="6143" width="10.1640625" customWidth="1"/>
+    <col min="6145" max="6145" width="11.5" customWidth="1"/>
     <col min="6146" max="6146" width="8" customWidth="1"/>
     <col min="6147" max="6147" width="10" customWidth="1"/>
-    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
-    <col min="6149" max="6149" width="10.140625" customWidth="1"/>
+    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
+    <col min="6149" max="6149" width="10.1640625" customWidth="1"/>
     <col min="6150" max="6150" width="8" customWidth="1"/>
-    <col min="6385" max="6385" width="30.42578125" customWidth="1"/>
-    <col min="6386" max="6386" width="11.42578125" customWidth="1"/>
+    <col min="6385" max="6385" width="30.5" customWidth="1"/>
+    <col min="6386" max="6386" width="11.5" customWidth="1"/>
     <col min="6387" max="6387" width="8" customWidth="1"/>
-    <col min="6388" max="6388" width="10.28515625" customWidth="1"/>
-    <col min="6389" max="6389" width="8.28515625" customWidth="1"/>
+    <col min="6388" max="6388" width="10.33203125" customWidth="1"/>
+    <col min="6389" max="6389" width="8.33203125" customWidth="1"/>
     <col min="6390" max="6390" width="10" customWidth="1"/>
     <col min="6391" max="6395" width="8" customWidth="1"/>
-    <col min="6396" max="6396" width="8.28515625" customWidth="1"/>
+    <col min="6396" max="6396" width="8.33203125" customWidth="1"/>
     <col min="6397" max="6397" width="9" customWidth="1"/>
-    <col min="6398" max="6398" width="28.140625" customWidth="1"/>
-    <col min="6399" max="6399" width="10.140625" customWidth="1"/>
-    <col min="6401" max="6401" width="11.42578125" customWidth="1"/>
+    <col min="6398" max="6398" width="28.1640625" customWidth="1"/>
+    <col min="6399" max="6399" width="10.1640625" customWidth="1"/>
+    <col min="6401" max="6401" width="11.5" customWidth="1"/>
     <col min="6402" max="6402" width="8" customWidth="1"/>
     <col min="6403" max="6403" width="10" customWidth="1"/>
-    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
-    <col min="6405" max="6405" width="10.140625" customWidth="1"/>
+    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
+    <col min="6405" max="6405" width="10.1640625" customWidth="1"/>
     <col min="6406" max="6406" width="8" customWidth="1"/>
-    <col min="6641" max="6641" width="30.42578125" customWidth="1"/>
-    <col min="6642" max="6642" width="11.42578125" customWidth="1"/>
+    <col min="6641" max="6641" width="30.5" customWidth="1"/>
+    <col min="6642" max="6642" width="11.5" customWidth="1"/>
     <col min="6643" max="6643" width="8" customWidth="1"/>
-    <col min="6644" max="6644" width="10.28515625" customWidth="1"/>
-    <col min="6645" max="6645" width="8.28515625" customWidth="1"/>
+    <col min="6644" max="6644" width="10.33203125" customWidth="1"/>
+    <col min="6645" max="6645" width="8.33203125" customWidth="1"/>
     <col min="6646" max="6646" width="10" customWidth="1"/>
     <col min="6647" max="6651" width="8" customWidth="1"/>
-    <col min="6652" max="6652" width="8.28515625" customWidth="1"/>
+    <col min="6652" max="6652" width="8.33203125" customWidth="1"/>
     <col min="6653" max="6653" width="9" customWidth="1"/>
-    <col min="6654" max="6654" width="28.140625" customWidth="1"/>
-    <col min="6655" max="6655" width="10.140625" customWidth="1"/>
-    <col min="6657" max="6657" width="11.42578125" customWidth="1"/>
+    <col min="6654" max="6654" width="28.1640625" customWidth="1"/>
+    <col min="6655" max="6655" width="10.1640625" customWidth="1"/>
+    <col min="6657" max="6657" width="11.5" customWidth="1"/>
     <col min="6658" max="6658" width="8" customWidth="1"/>
     <col min="6659" max="6659" width="10" customWidth="1"/>
-    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
-    <col min="6661" max="6661" width="10.140625" customWidth="1"/>
+    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
+    <col min="6661" max="6661" width="10.1640625" customWidth="1"/>
     <col min="6662" max="6662" width="8" customWidth="1"/>
-    <col min="6897" max="6897" width="30.42578125" customWidth="1"/>
-    <col min="6898" max="6898" width="11.42578125" customWidth="1"/>
+    <col min="6897" max="6897" width="30.5" customWidth="1"/>
+    <col min="6898" max="6898" width="11.5" customWidth="1"/>
     <col min="6899" max="6899" width="8" customWidth="1"/>
-    <col min="6900" max="6900" width="10.28515625" customWidth="1"/>
-    <col min="6901" max="6901" width="8.28515625" customWidth="1"/>
+    <col min="6900" max="6900" width="10.33203125" customWidth="1"/>
+    <col min="6901" max="6901" width="8.33203125" customWidth="1"/>
     <col min="6902" max="6902" width="10" customWidth="1"/>
     <col min="6903" max="6907" width="8" customWidth="1"/>
-    <col min="6908" max="6908" width="8.28515625" customWidth="1"/>
+    <col min="6908" max="6908" width="8.33203125" customWidth="1"/>
     <col min="6909" max="6909" width="9" customWidth="1"/>
-    <col min="6910" max="6910" width="28.140625" customWidth="1"/>
-    <col min="6911" max="6911" width="10.140625" customWidth="1"/>
-    <col min="6913" max="6913" width="11.42578125" customWidth="1"/>
+    <col min="6910" max="6910" width="28.1640625" customWidth="1"/>
+    <col min="6911" max="6911" width="10.1640625" customWidth="1"/>
+    <col min="6913" max="6913" width="11.5" customWidth="1"/>
     <col min="6914" max="6914" width="8" customWidth="1"/>
     <col min="6915" max="6915" width="10" customWidth="1"/>
-    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
-    <col min="6917" max="6917" width="10.140625" customWidth="1"/>
+    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
+    <col min="6917" max="6917" width="10.1640625" customWidth="1"/>
     <col min="6918" max="6918" width="8" customWidth="1"/>
-    <col min="7153" max="7153" width="30.42578125" customWidth="1"/>
-    <col min="7154" max="7154" width="11.42578125" customWidth="1"/>
+    <col min="7153" max="7153" width="30.5" customWidth="1"/>
+    <col min="7154" max="7154" width="11.5" customWidth="1"/>
     <col min="7155" max="7155" width="8" customWidth="1"/>
-    <col min="7156" max="7156" width="10.28515625" customWidth="1"/>
-    <col min="7157" max="7157" width="8.28515625" customWidth="1"/>
+    <col min="7156" max="7156" width="10.33203125" customWidth="1"/>
+    <col min="7157" max="7157" width="8.33203125" customWidth="1"/>
     <col min="7158" max="7158" width="10" customWidth="1"/>
     <col min="7159" max="7163" width="8" customWidth="1"/>
-    <col min="7164" max="7164" width="8.28515625" customWidth="1"/>
+    <col min="7164" max="7164" width="8.33203125" customWidth="1"/>
     <col min="7165" max="7165" width="9" customWidth="1"/>
-    <col min="7166" max="7166" width="28.140625" customWidth="1"/>
-    <col min="7167" max="7167" width="10.140625" customWidth="1"/>
-    <col min="7169" max="7169" width="11.42578125" customWidth="1"/>
+    <col min="7166" max="7166" width="28.1640625" customWidth="1"/>
+    <col min="7167" max="7167" width="10.1640625" customWidth="1"/>
+    <col min="7169" max="7169" width="11.5" customWidth="1"/>
     <col min="7170" max="7170" width="8" customWidth="1"/>
     <col min="7171" max="7171" width="10" customWidth="1"/>
-    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
-    <col min="7173" max="7173" width="10.140625" customWidth="1"/>
+    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
+    <col min="7173" max="7173" width="10.1640625" customWidth="1"/>
     <col min="7174" max="7174" width="8" customWidth="1"/>
-    <col min="7409" max="7409" width="30.42578125" customWidth="1"/>
-    <col min="7410" max="7410" width="11.42578125" customWidth="1"/>
+    <col min="7409" max="7409" width="30.5" customWidth="1"/>
+    <col min="7410" max="7410" width="11.5" customWidth="1"/>
     <col min="7411" max="7411" width="8" customWidth="1"/>
-    <col min="7412" max="7412" width="10.28515625" customWidth="1"/>
-    <col min="7413" max="7413" width="8.28515625" customWidth="1"/>
+    <col min="7412" max="7412" width="10.33203125" customWidth="1"/>
+    <col min="7413" max="7413" width="8.33203125" customWidth="1"/>
     <col min="7414" max="7414" width="10" customWidth="1"/>
     <col min="7415" max="7419" width="8" customWidth="1"/>
-    <col min="7420" max="7420" width="8.28515625" customWidth="1"/>
+    <col min="7420" max="7420" width="8.33203125" customWidth="1"/>
     <col min="7421" max="7421" width="9" customWidth="1"/>
-    <col min="7422" max="7422" width="28.140625" customWidth="1"/>
-    <col min="7423" max="7423" width="10.140625" customWidth="1"/>
-    <col min="7425" max="7425" width="11.42578125" customWidth="1"/>
+    <col min="7422" max="7422" width="28.1640625" customWidth="1"/>
+    <col min="7423" max="7423" width="10.1640625" customWidth="1"/>
+    <col min="7425" max="7425" width="11.5" customWidth="1"/>
     <col min="7426" max="7426" width="8" customWidth="1"/>
     <col min="7427" max="7427" width="10" customWidth="1"/>
-    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
-    <col min="7429" max="7429" width="10.140625" customWidth="1"/>
+    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
+    <col min="7429" max="7429" width="10.1640625" customWidth="1"/>
     <col min="7430" max="7430" width="8" customWidth="1"/>
-    <col min="7665" max="7665" width="30.42578125" customWidth="1"/>
-    <col min="7666" max="7666" width="11.42578125" customWidth="1"/>
+    <col min="7665" max="7665" width="30.5" customWidth="1"/>
+    <col min="7666" max="7666" width="11.5" customWidth="1"/>
     <col min="7667" max="7667" width="8" customWidth="1"/>
-    <col min="7668" max="7668" width="10.28515625" customWidth="1"/>
-    <col min="7669" max="7669" width="8.28515625" customWidth="1"/>
+    <col min="7668" max="7668" width="10.33203125" customWidth="1"/>
+    <col min="7669" max="7669" width="8.33203125" customWidth="1"/>
     <col min="7670" max="7670" width="10" customWidth="1"/>
     <col min="7671" max="7675" width="8" customWidth="1"/>
-    <col min="7676" max="7676" width="8.28515625" customWidth="1"/>
+    <col min="7676" max="7676" width="8.33203125" customWidth="1"/>
     <col min="7677" max="7677" width="9" customWidth="1"/>
-    <col min="7678" max="7678" width="28.140625" customWidth="1"/>
-    <col min="7679" max="7679" width="10.140625" customWidth="1"/>
-    <col min="7681" max="7681" width="11.42578125" customWidth="1"/>
+    <col min="7678" max="7678" width="28.1640625" customWidth="1"/>
+    <col min="7679" max="7679" width="10.1640625" customWidth="1"/>
+    <col min="7681" max="7681" width="11.5" customWidth="1"/>
     <col min="7682" max="7682" width="8" customWidth="1"/>
     <col min="7683" max="7683" width="10" customWidth="1"/>
-    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
-    <col min="7685" max="7685" width="10.140625" customWidth="1"/>
+    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
+    <col min="7685" max="7685" width="10.1640625" customWidth="1"/>
     <col min="7686" max="7686" width="8" customWidth="1"/>
-    <col min="7921" max="7921" width="30.42578125" customWidth="1"/>
-    <col min="7922" max="7922" width="11.42578125" customWidth="1"/>
+    <col min="7921" max="7921" width="30.5" customWidth="1"/>
+    <col min="7922" max="7922" width="11.5" customWidth="1"/>
     <col min="7923" max="7923" width="8" customWidth="1"/>
-    <col min="7924" max="7924" width="10.28515625" customWidth="1"/>
-    <col min="7925" max="7925" width="8.28515625" customWidth="1"/>
+    <col min="7924" max="7924" width="10.33203125" customWidth="1"/>
+    <col min="7925" max="7925" width="8.33203125" customWidth="1"/>
     <col min="7926" max="7926" width="10" customWidth="1"/>
     <col min="7927" max="7931" width="8" customWidth="1"/>
-    <col min="7932" max="7932" width="8.28515625" customWidth="1"/>
+    <col min="7932" max="7932" width="8.33203125" customWidth="1"/>
     <col min="7933" max="7933" width="9" customWidth="1"/>
-    <col min="7934" max="7934" width="28.140625" customWidth="1"/>
-    <col min="7935" max="7935" width="10.140625" customWidth="1"/>
-    <col min="7937" max="7937" width="11.42578125" customWidth="1"/>
+    <col min="7934" max="7934" width="28.1640625" customWidth="1"/>
+    <col min="7935" max="7935" width="10.1640625" customWidth="1"/>
+    <col min="7937" max="7937" width="11.5" customWidth="1"/>
     <col min="7938" max="7938" width="8" customWidth="1"/>
     <col min="7939" max="7939" width="10" customWidth="1"/>
-    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
-    <col min="7941" max="7941" width="10.140625" customWidth="1"/>
+    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
+    <col min="7941" max="7941" width="10.1640625" customWidth="1"/>
     <col min="7942" max="7942" width="8" customWidth="1"/>
-    <col min="8177" max="8177" width="30.42578125" customWidth="1"/>
-    <col min="8178" max="8178" width="11.42578125" customWidth="1"/>
+    <col min="8177" max="8177" width="30.5" customWidth="1"/>
+    <col min="8178" max="8178" width="11.5" customWidth="1"/>
     <col min="8179" max="8179" width="8" customWidth="1"/>
-    <col min="8180" max="8180" width="10.28515625" customWidth="1"/>
-    <col min="8181" max="8181" width="8.28515625" customWidth="1"/>
+    <col min="8180" max="8180" width="10.33203125" customWidth="1"/>
+    <col min="8181" max="8181" width="8.33203125" customWidth="1"/>
     <col min="8182" max="8182" width="10" customWidth="1"/>
     <col min="8183" max="8187" width="8" customWidth="1"/>
-    <col min="8188" max="8188" width="8.28515625" customWidth="1"/>
+    <col min="8188" max="8188" width="8.33203125" customWidth="1"/>
     <col min="8189" max="8189" width="9" customWidth="1"/>
-    <col min="8190" max="8190" width="28.140625" customWidth="1"/>
-    <col min="8191" max="8191" width="10.140625" customWidth="1"/>
-    <col min="8193" max="8193" width="11.42578125" customWidth="1"/>
+    <col min="8190" max="8190" width="28.1640625" customWidth="1"/>
+    <col min="8191" max="8191" width="10.1640625" customWidth="1"/>
+    <col min="8193" max="8193" width="11.5" customWidth="1"/>
     <col min="8194" max="8194" width="8" customWidth="1"/>
     <col min="8195" max="8195" width="10" customWidth="1"/>
-    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
-    <col min="8197" max="8197" width="10.140625" customWidth="1"/>
+    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
+    <col min="8197" max="8197" width="10.1640625" customWidth="1"/>
     <col min="8198" max="8198" width="8" customWidth="1"/>
-    <col min="8433" max="8433" width="30.42578125" customWidth="1"/>
-    <col min="8434" max="8434" width="11.42578125" customWidth="1"/>
+    <col min="8433" max="8433" width="30.5" customWidth="1"/>
+    <col min="8434" max="8434" width="11.5" customWidth="1"/>
     <col min="8435" max="8435" width="8" customWidth="1"/>
-    <col min="8436" max="8436" width="10.28515625" customWidth="1"/>
-    <col min="8437" max="8437" width="8.28515625" customWidth="1"/>
+    <col min="8436" max="8436" width="10.33203125" customWidth="1"/>
+    <col min="8437" max="8437" width="8.33203125" customWidth="1"/>
     <col min="8438" max="8438" width="10" customWidth="1"/>
     <col min="8439" max="8443" width="8" customWidth="1"/>
-    <col min="8444" max="8444" width="8.28515625" customWidth="1"/>
+    <col min="8444" max="8444" width="8.33203125" customWidth="1"/>
     <col min="8445" max="8445" width="9" customWidth="1"/>
-    <col min="8446" max="8446" width="28.140625" customWidth="1"/>
-    <col min="8447" max="8447" width="10.140625" customWidth="1"/>
-    <col min="8449" max="8449" width="11.42578125" customWidth="1"/>
+    <col min="8446" max="8446" width="28.1640625" customWidth="1"/>
+    <col min="8447" max="8447" width="10.1640625" customWidth="1"/>
+    <col min="8449" max="8449" width="11.5" customWidth="1"/>
     <col min="8450" max="8450" width="8" customWidth="1"/>
     <col min="8451" max="8451" width="10" customWidth="1"/>
-    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
-    <col min="8453" max="8453" width="10.140625" customWidth="1"/>
+    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
+    <col min="8453" max="8453" width="10.1640625" customWidth="1"/>
     <col min="8454" max="8454" width="8" customWidth="1"/>
-    <col min="8689" max="8689" width="30.42578125" customWidth="1"/>
-    <col min="8690" max="8690" width="11.42578125" customWidth="1"/>
+    <col min="8689" max="8689" width="30.5" customWidth="1"/>
+    <col min="8690" max="8690" width="11.5" customWidth="1"/>
     <col min="8691" max="8691" width="8" customWidth="1"/>
-    <col min="8692" max="8692" width="10.28515625" customWidth="1"/>
-    <col min="8693" max="8693" width="8.28515625" customWidth="1"/>
+    <col min="8692" max="8692" width="10.33203125" customWidth="1"/>
+    <col min="8693" max="8693" width="8.33203125" customWidth="1"/>
     <col min="8694" max="8694" width="10" customWidth="1"/>
     <col min="8695" max="8699" width="8" customWidth="1"/>
-    <col min="8700" max="8700" width="8.28515625" customWidth="1"/>
+    <col min="8700" max="8700" width="8.33203125" customWidth="1"/>
     <col min="8701" max="8701" width="9" customWidth="1"/>
-    <col min="8702" max="8702" width="28.140625" customWidth="1"/>
-    <col min="8703" max="8703" width="10.140625" customWidth="1"/>
-    <col min="8705" max="8705" width="11.42578125" customWidth="1"/>
+    <col min="8702" max="8702" width="28.1640625" customWidth="1"/>
+    <col min="8703" max="8703" width="10.1640625" customWidth="1"/>
+    <col min="8705" max="8705" width="11.5" customWidth="1"/>
     <col min="8706" max="8706" width="8" customWidth="1"/>
     <col min="8707" max="8707" width="10" customWidth="1"/>
-    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
-    <col min="8709" max="8709" width="10.140625" customWidth="1"/>
+    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
+    <col min="8709" max="8709" width="10.1640625" customWidth="1"/>
     <col min="8710" max="8710" width="8" customWidth="1"/>
-    <col min="8945" max="8945" width="30.42578125" customWidth="1"/>
-    <col min="8946" max="8946" width="11.42578125" customWidth="1"/>
+    <col min="8945" max="8945" width="30.5" customWidth="1"/>
+    <col min="8946" max="8946" width="11.5" customWidth="1"/>
     <col min="8947" max="8947" width="8" customWidth="1"/>
-    <col min="8948" max="8948" width="10.28515625" customWidth="1"/>
-    <col min="8949" max="8949" width="8.28515625" customWidth="1"/>
+    <col min="8948" max="8948" width="10.33203125" customWidth="1"/>
+    <col min="8949" max="8949" width="8.33203125" customWidth="1"/>
     <col min="8950" max="8950" width="10" customWidth="1"/>
     <col min="8951" max="8955" width="8" customWidth="1"/>
-    <col min="8956" max="8956" width="8.28515625" customWidth="1"/>
+    <col min="8956" max="8956" width="8.33203125" customWidth="1"/>
     <col min="8957" max="8957" width="9" customWidth="1"/>
-    <col min="8958" max="8958" width="28.140625" customWidth="1"/>
-    <col min="8959" max="8959" width="10.140625" customWidth="1"/>
-    <col min="8961" max="8961" width="11.42578125" customWidth="1"/>
+    <col min="8958" max="8958" width="28.1640625" customWidth="1"/>
+    <col min="8959" max="8959" width="10.1640625" customWidth="1"/>
+    <col min="8961" max="8961" width="11.5" customWidth="1"/>
     <col min="8962" max="8962" width="8" customWidth="1"/>
     <col min="8963" max="8963" width="10" customWidth="1"/>
-    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
-    <col min="8965" max="8965" width="10.140625" customWidth="1"/>
+    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
+    <col min="8965" max="8965" width="10.1640625" customWidth="1"/>
     <col min="8966" max="8966" width="8" customWidth="1"/>
-    <col min="9201" max="9201" width="30.42578125" customWidth="1"/>
-    <col min="9202" max="9202" width="11.42578125" customWidth="1"/>
+    <col min="9201" max="9201" width="30.5" customWidth="1"/>
+    <col min="9202" max="9202" width="11.5" customWidth="1"/>
     <col min="9203" max="9203" width="8" customWidth="1"/>
-    <col min="9204" max="9204" width="10.28515625" customWidth="1"/>
-    <col min="9205" max="9205" width="8.28515625" customWidth="1"/>
+    <col min="9204" max="9204" width="10.33203125" customWidth="1"/>
+    <col min="9205" max="9205" width="8.33203125" customWidth="1"/>
     <col min="9206" max="9206" width="10" customWidth="1"/>
     <col min="9207" max="9211" width="8" customWidth="1"/>
-    <col min="9212" max="9212" width="8.28515625" customWidth="1"/>
+    <col min="9212" max="9212" width="8.33203125" customWidth="1"/>
     <col min="9213" max="9213" width="9" customWidth="1"/>
-    <col min="9214" max="9214" width="28.140625" customWidth="1"/>
-    <col min="9215" max="9215" width="10.140625" customWidth="1"/>
-    <col min="9217" max="9217" width="11.42578125" customWidth="1"/>
+    <col min="9214" max="9214" width="28.1640625" customWidth="1"/>
+    <col min="9215" max="9215" width="10.1640625" customWidth="1"/>
+    <col min="9217" max="9217" width="11.5" customWidth="1"/>
     <col min="9218" max="9218" width="8" customWidth="1"/>
     <col min="9219" max="9219" width="10" customWidth="1"/>
-    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
-    <col min="9221" max="9221" width="10.140625" customWidth="1"/>
+    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
+    <col min="9221" max="9221" width="10.1640625" customWidth="1"/>
     <col min="9222" max="9222" width="8" customWidth="1"/>
-    <col min="9457" max="9457" width="30.42578125" customWidth="1"/>
-    <col min="9458" max="9458" width="11.42578125" customWidth="1"/>
+    <col min="9457" max="9457" width="30.5" customWidth="1"/>
+    <col min="9458" max="9458" width="11.5" customWidth="1"/>
     <col min="9459" max="9459" width="8" customWidth="1"/>
-    <col min="9460" max="9460" width="10.28515625" customWidth="1"/>
-    <col min="9461" max="9461" width="8.28515625" customWidth="1"/>
+    <col min="9460" max="9460" width="10.33203125" customWidth="1"/>
+    <col min="9461" max="9461" width="8.33203125" customWidth="1"/>
     <col min="9462" max="9462" width="10" customWidth="1"/>
     <col min="9463" max="9467" width="8" customWidth="1"/>
-    <col min="9468" max="9468" width="8.28515625" customWidth="1"/>
+    <col min="9468" max="9468" width="8.33203125" customWidth="1"/>
     <col min="9469" max="9469" width="9" customWidth="1"/>
-    <col min="9470" max="9470" width="28.140625" customWidth="1"/>
-    <col min="9471" max="9471" width="10.140625" customWidth="1"/>
-    <col min="9473" max="9473" width="11.42578125" customWidth="1"/>
+    <col min="9470" max="9470" width="28.1640625" customWidth="1"/>
+    <col min="9471" max="9471" width="10.1640625" customWidth="1"/>
+    <col min="9473" max="9473" width="11.5" customWidth="1"/>
     <col min="9474" max="9474" width="8" customWidth="1"/>
     <col min="9475" max="9475" width="10" customWidth="1"/>
-    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
-    <col min="9477" max="9477" width="10.140625" customWidth="1"/>
+    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
+    <col min="9477" max="9477" width="10.1640625" customWidth="1"/>
     <col min="9478" max="9478" width="8" customWidth="1"/>
-    <col min="9713" max="9713" width="30.42578125" customWidth="1"/>
-    <col min="9714" max="9714" width="11.42578125" customWidth="1"/>
+    <col min="9713" max="9713" width="30.5" customWidth="1"/>
+    <col min="9714" max="9714" width="11.5" customWidth="1"/>
     <col min="9715" max="9715" width="8" customWidth="1"/>
-    <col min="9716" max="9716" width="10.28515625" customWidth="1"/>
-    <col min="9717" max="9717" width="8.28515625" customWidth="1"/>
+    <col min="9716" max="9716" width="10.33203125" customWidth="1"/>
+    <col min="9717" max="9717" width="8.33203125" customWidth="1"/>
     <col min="9718" max="9718" width="10" customWidth="1"/>
     <col min="9719" max="9723" width="8" customWidth="1"/>
-    <col min="9724" max="9724" width="8.28515625" customWidth="1"/>
+    <col min="9724" max="9724" width="8.33203125" customWidth="1"/>
     <col min="9725" max="9725" width="9" customWidth="1"/>
-    <col min="9726" max="9726" width="28.140625" customWidth="1"/>
-    <col min="9727" max="9727" width="10.140625" customWidth="1"/>
-    <col min="9729" max="9729" width="11.42578125" customWidth="1"/>
+    <col min="9726" max="9726" width="28.1640625" customWidth="1"/>
+    <col min="9727" max="9727" width="10.1640625" customWidth="1"/>
+    <col min="9729" max="9729" width="11.5" customWidth="1"/>
     <col min="9730" max="9730" width="8" customWidth="1"/>
     <col min="9731" max="9731" width="10" customWidth="1"/>
-    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
-    <col min="9733" max="9733" width="10.140625" customWidth="1"/>
+    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
+    <col min="9733" max="9733" width="10.1640625" customWidth="1"/>
     <col min="9734" max="9734" width="8" customWidth="1"/>
-    <col min="9969" max="9969" width="30.42578125" customWidth="1"/>
-    <col min="9970" max="9970" width="11.42578125" customWidth="1"/>
+    <col min="9969" max="9969" width="30.5" customWidth="1"/>
+    <col min="9970" max="9970" width="11.5" customWidth="1"/>
     <col min="9971" max="9971" width="8" customWidth="1"/>
-    <col min="9972" max="9972" width="10.28515625" customWidth="1"/>
-    <col min="9973" max="9973" width="8.28515625" customWidth="1"/>
+    <col min="9972" max="9972" width="10.33203125" customWidth="1"/>
+    <col min="9973" max="9973" width="8.33203125" customWidth="1"/>
     <col min="9974" max="9974" width="10" customWidth="1"/>
     <col min="9975" max="9979" width="8" customWidth="1"/>
-    <col min="9980" max="9980" width="8.28515625" customWidth="1"/>
+    <col min="9980" max="9980" width="8.33203125" customWidth="1"/>
     <col min="9981" max="9981" width="9" customWidth="1"/>
-    <col min="9982" max="9982" width="28.140625" customWidth="1"/>
-    <col min="9983" max="9983" width="10.140625" customWidth="1"/>
-    <col min="9985" max="9985" width="11.42578125" customWidth="1"/>
+    <col min="9982" max="9982" width="28.1640625" customWidth="1"/>
+    <col min="9983" max="9983" width="10.1640625" customWidth="1"/>
+    <col min="9985" max="9985" width="11.5" customWidth="1"/>
     <col min="9986" max="9986" width="8" customWidth="1"/>
     <col min="9987" max="9987" width="10" customWidth="1"/>
-    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
-    <col min="9989" max="9989" width="10.140625" customWidth="1"/>
+    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
+    <col min="9989" max="9989" width="10.1640625" customWidth="1"/>
     <col min="9990" max="9990" width="8" customWidth="1"/>
-    <col min="10225" max="10225" width="30.42578125" customWidth="1"/>
-    <col min="10226" max="10226" width="11.42578125" customWidth="1"/>
+    <col min="10225" max="10225" width="30.5" customWidth="1"/>
+    <col min="10226" max="10226" width="11.5" customWidth="1"/>
     <col min="10227" max="10227" width="8" customWidth="1"/>
-    <col min="10228" max="10228" width="10.28515625" customWidth="1"/>
-    <col min="10229" max="10229" width="8.28515625" customWidth="1"/>
+    <col min="10228" max="10228" width="10.33203125" customWidth="1"/>
+    <col min="10229" max="10229" width="8.33203125" customWidth="1"/>
     <col min="10230" max="10230" width="10" customWidth="1"/>
     <col min="10231" max="10235" width="8" customWidth="1"/>
-    <col min="10236" max="10236" width="8.28515625" customWidth="1"/>
+    <col min="10236" max="10236" width="8.33203125" customWidth="1"/>
     <col min="10237" max="10237" width="9" customWidth="1"/>
-    <col min="10238" max="10238" width="28.140625" customWidth="1"/>
-    <col min="10239" max="10239" width="10.140625" customWidth="1"/>
-    <col min="10241" max="10241" width="11.42578125" customWidth="1"/>
+    <col min="10238" max="10238" width="28.1640625" customWidth="1"/>
+    <col min="10239" max="10239" width="10.1640625" customWidth="1"/>
+    <col min="10241" max="10241" width="11.5" customWidth="1"/>
     <col min="10242" max="10242" width="8" customWidth="1"/>
     <col min="10243" max="10243" width="10" customWidth="1"/>
-    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
-    <col min="10245" max="10245" width="10.140625" customWidth="1"/>
+    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
+    <col min="10245" max="10245" width="10.1640625" customWidth="1"/>
     <col min="10246" max="10246" width="8" customWidth="1"/>
-    <col min="10481" max="10481" width="30.42578125" customWidth="1"/>
-    <col min="10482" max="10482" width="11.42578125" customWidth="1"/>
+    <col min="10481" max="10481" width="30.5" customWidth="1"/>
+    <col min="10482" max="10482" width="11.5" customWidth="1"/>
     <col min="10483" max="10483" width="8" customWidth="1"/>
-    <col min="10484" max="10484" width="10.28515625" customWidth="1"/>
-    <col min="10485" max="10485" width="8.28515625" customWidth="1"/>
+    <col min="10484" max="10484" width="10.33203125" customWidth="1"/>
+    <col min="10485" max="10485" width="8.33203125" customWidth="1"/>
     <col min="10486" max="10486" width="10" customWidth="1"/>
     <col min="10487" max="10491" width="8" customWidth="1"/>
-    <col min="10492" max="10492" width="8.28515625" customWidth="1"/>
+    <col min="10492" max="10492" width="8.33203125" customWidth="1"/>
     <col min="10493" max="10493" width="9" customWidth="1"/>
-    <col min="10494" max="10494" width="28.140625" customWidth="1"/>
-    <col min="10495" max="10495" width="10.140625" customWidth="1"/>
-    <col min="10497" max="10497" width="11.42578125" customWidth="1"/>
+    <col min="10494" max="10494" width="28.1640625" customWidth="1"/>
+    <col min="10495" max="10495" width="10.1640625" customWidth="1"/>
+    <col min="10497" max="10497" width="11.5" customWidth="1"/>
     <col min="10498" max="10498" width="8" customWidth="1"/>
     <col min="10499" max="10499" width="10" customWidth="1"/>
-    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
-    <col min="10501" max="10501" width="10.140625" customWidth="1"/>
+    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
+    <col min="10501" max="10501" width="10.1640625" customWidth="1"/>
     <col min="10502" max="10502" width="8" customWidth="1"/>
-    <col min="10737" max="10737" width="30.42578125" customWidth="1"/>
-    <col min="10738" max="10738" width="11.42578125" customWidth="1"/>
+    <col min="10737" max="10737" width="30.5" customWidth="1"/>
+    <col min="10738" max="10738" width="11.5" customWidth="1"/>
     <col min="10739" max="10739" width="8" customWidth="1"/>
-    <col min="10740" max="10740" width="10.28515625" customWidth="1"/>
-    <col min="10741" max="10741" width="8.28515625" customWidth="1"/>
+    <col min="10740" max="10740" width="10.33203125" customWidth="1"/>
+    <col min="10741" max="10741" width="8.33203125" customWidth="1"/>
     <col min="10742" max="10742" width="10" customWidth="1"/>
     <col min="10743" max="10747" width="8" customWidth="1"/>
-    <col min="10748" max="10748" width="8.28515625" customWidth="1"/>
+    <col min="10748" max="10748" width="8.33203125" customWidth="1"/>
     <col min="10749" max="10749" width="9" customWidth="1"/>
-    <col min="10750" max="10750" width="28.140625" customWidth="1"/>
-    <col min="10751" max="10751" width="10.140625" customWidth="1"/>
-    <col min="10753" max="10753" width="11.42578125" customWidth="1"/>
+    <col min="10750" max="10750" width="28.1640625" customWidth="1"/>
+    <col min="10751" max="10751" width="10.1640625" customWidth="1"/>
+    <col min="10753" max="10753" width="11.5" customWidth="1"/>
     <col min="10754" max="10754" width="8" customWidth="1"/>
     <col min="10755" max="10755" width="10" customWidth="1"/>
-    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
-    <col min="10757" max="10757" width="10.140625" customWidth="1"/>
+    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
+    <col min="10757" max="10757" width="10.1640625" customWidth="1"/>
     <col min="10758" max="10758" width="8" customWidth="1"/>
-    <col min="10993" max="10993" width="30.42578125" customWidth="1"/>
-    <col min="10994" max="10994" width="11.42578125" customWidth="1"/>
+    <col min="10993" max="10993" width="30.5" customWidth="1"/>
+    <col min="10994" max="10994" width="11.5" customWidth="1"/>
     <col min="10995" max="10995" width="8" customWidth="1"/>
-    <col min="10996" max="10996" width="10.28515625" customWidth="1"/>
-    <col min="10997" max="10997" width="8.28515625" customWidth="1"/>
+    <col min="10996" max="10996" width="10.33203125" customWidth="1"/>
+    <col min="10997" max="10997" width="8.33203125" customWidth="1"/>
     <col min="10998" max="10998" width="10" customWidth="1"/>
     <col min="10999" max="11003" width="8" customWidth="1"/>
-    <col min="11004" max="11004" width="8.28515625" customWidth="1"/>
+    <col min="11004" max="11004" width="8.33203125" customWidth="1"/>
     <col min="11005" max="11005" width="9" customWidth="1"/>
-    <col min="11006" max="11006" width="28.140625" customWidth="1"/>
-    <col min="11007" max="11007" width="10.140625" customWidth="1"/>
-    <col min="11009" max="11009" width="11.42578125" customWidth="1"/>
+    <col min="11006" max="11006" width="28.1640625" customWidth="1"/>
+    <col min="11007" max="11007" width="10.1640625" customWidth="1"/>
+    <col min="11009" max="11009" width="11.5" customWidth="1"/>
     <col min="11010" max="11010" width="8" customWidth="1"/>
     <col min="11011" max="11011" width="10" customWidth="1"/>
-    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
-    <col min="11013" max="11013" width="10.140625" customWidth="1"/>
+    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
+    <col min="11013" max="11013" width="10.1640625" customWidth="1"/>
     <col min="11014" max="11014" width="8" customWidth="1"/>
-    <col min="11249" max="11249" width="30.42578125" customWidth="1"/>
-    <col min="11250" max="11250" width="11.42578125" customWidth="1"/>
+    <col min="11249" max="11249" width="30.5" customWidth="1"/>
+    <col min="11250" max="11250" width="11.5" customWidth="1"/>
     <col min="11251" max="11251" width="8" customWidth="1"/>
-    <col min="11252" max="11252" width="10.28515625" customWidth="1"/>
-    <col min="11253" max="11253" width="8.28515625" customWidth="1"/>
+    <col min="11252" max="11252" width="10.33203125" customWidth="1"/>
+    <col min="11253" max="11253" width="8.33203125" customWidth="1"/>
     <col min="11254" max="11254" width="10" customWidth="1"/>
     <col min="11255" max="11259" width="8" customWidth="1"/>
-    <col min="11260" max="11260" width="8.28515625" customWidth="1"/>
+    <col min="11260" max="11260" width="8.33203125" customWidth="1"/>
     <col min="11261" max="11261" width="9" customWidth="1"/>
-    <col min="11262" max="11262" width="28.140625" customWidth="1"/>
-    <col min="11263" max="11263" width="10.140625" customWidth="1"/>
-    <col min="11265" max="11265" width="11.42578125" customWidth="1"/>
+    <col min="11262" max="11262" width="28.1640625" customWidth="1"/>
+    <col min="11263" max="11263" width="10.1640625" customWidth="1"/>
+    <col min="11265" max="11265" width="11.5" customWidth="1"/>
     <col min="11266" max="11266" width="8" customWidth="1"/>
     <col min="11267" max="11267" width="10" customWidth="1"/>
-    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
-    <col min="11269" max="11269" width="10.140625" customWidth="1"/>
+    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
+    <col min="11269" max="11269" width="10.1640625" customWidth="1"/>
     <col min="11270" max="11270" width="8" customWidth="1"/>
-    <col min="11505" max="11505" width="30.42578125" customWidth="1"/>
-    <col min="11506" max="11506" width="11.42578125" customWidth="1"/>
+    <col min="11505" max="11505" width="30.5" customWidth="1"/>
+    <col min="11506" max="11506" width="11.5" customWidth="1"/>
     <col min="11507" max="11507" width="8" customWidth="1"/>
-    <col min="11508" max="11508" width="10.28515625" customWidth="1"/>
-    <col min="11509" max="11509" width="8.28515625" customWidth="1"/>
+    <col min="11508" max="11508" width="10.33203125" customWidth="1"/>
+    <col min="11509" max="11509" width="8.33203125" customWidth="1"/>
     <col min="11510" max="11510" width="10" customWidth="1"/>
     <col min="11511" max="11515" width="8" customWidth="1"/>
-    <col min="11516" max="11516" width="8.28515625" customWidth="1"/>
+    <col min="11516" max="11516" width="8.33203125" customWidth="1"/>
     <col min="11517" max="11517" width="9" customWidth="1"/>
-    <col min="11518" max="11518" width="28.140625" customWidth="1"/>
-    <col min="11519" max="11519" width="10.140625" customWidth="1"/>
-    <col min="11521" max="11521" width="11.42578125" customWidth="1"/>
+    <col min="11518" max="11518" width="28.1640625" customWidth="1"/>
+    <col min="11519" max="11519" width="10.1640625" customWidth="1"/>
+    <col min="11521" max="11521" width="11.5" customWidth="1"/>
     <col min="11522" max="11522" width="8" customWidth="1"/>
     <col min="11523" max="11523" width="10" customWidth="1"/>
-    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
-    <col min="11525" max="11525" width="10.140625" customWidth="1"/>
+    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
+    <col min="11525" max="11525" width="10.1640625" customWidth="1"/>
     <col min="11526" max="11526" width="8" customWidth="1"/>
-    <col min="11761" max="11761" width="30.42578125" customWidth="1"/>
-    <col min="11762" max="11762" width="11.42578125" customWidth="1"/>
+    <col min="11761" max="11761" width="30.5" customWidth="1"/>
+    <col min="11762" max="11762" width="11.5" customWidth="1"/>
     <col min="11763" max="11763" width="8" customWidth="1"/>
-    <col min="11764" max="11764" width="10.28515625" customWidth="1"/>
-    <col min="11765" max="11765" width="8.28515625" customWidth="1"/>
+    <col min="11764" max="11764" width="10.33203125" customWidth="1"/>
+    <col min="11765" max="11765" width="8.33203125" customWidth="1"/>
     <col min="11766" max="11766" width="10" customWidth="1"/>
     <col min="11767" max="11771" width="8" customWidth="1"/>
-    <col min="11772" max="11772" width="8.28515625" customWidth="1"/>
+    <col min="11772" max="11772" width="8.33203125" customWidth="1"/>
     <col min="11773" max="11773" width="9" customWidth="1"/>
-    <col min="11774" max="11774" width="28.140625" customWidth="1"/>
-    <col min="11775" max="11775" width="10.140625" customWidth="1"/>
-    <col min="11777" max="11777" width="11.42578125" customWidth="1"/>
+    <col min="11774" max="11774" width="28.1640625" customWidth="1"/>
+    <col min="11775" max="11775" width="10.1640625" customWidth="1"/>
+    <col min="11777" max="11777" width="11.5" customWidth="1"/>
     <col min="11778" max="11778" width="8" customWidth="1"/>
     <col min="11779" max="11779" width="10" customWidth="1"/>
-    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
-    <col min="11781" max="11781" width="10.140625" customWidth="1"/>
+    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
+    <col min="11781" max="11781" width="10.1640625" customWidth="1"/>
     <col min="11782" max="11782" width="8" customWidth="1"/>
-    <col min="12017" max="12017" width="30.42578125" customWidth="1"/>
-    <col min="12018" max="12018" width="11.42578125" customWidth="1"/>
+    <col min="12017" max="12017" width="30.5" customWidth="1"/>
+    <col min="12018" max="12018" width="11.5" customWidth="1"/>
     <col min="12019" max="12019" width="8" customWidth="1"/>
-    <col min="12020" max="12020" width="10.28515625" customWidth="1"/>
-    <col min="12021" max="12021" width="8.28515625" customWidth="1"/>
+    <col min="12020" max="12020" width="10.33203125" customWidth="1"/>
+    <col min="12021" max="12021" width="8.33203125" customWidth="1"/>
     <col min="12022" max="12022" width="10" customWidth="1"/>
     <col min="12023" max="12027" width="8" customWidth="1"/>
-    <col min="12028" max="12028" width="8.28515625" customWidth="1"/>
+    <col min="12028" max="12028" width="8.33203125" customWidth="1"/>
     <col min="12029" max="12029" width="9" customWidth="1"/>
-    <col min="12030" max="12030" width="28.140625" customWidth="1"/>
-    <col min="12031" max="12031" width="10.140625" customWidth="1"/>
-    <col min="12033" max="12033" width="11.42578125" customWidth="1"/>
+    <col min="12030" max="12030" width="28.1640625" customWidth="1"/>
+    <col min="12031" max="12031" width="10.1640625" customWidth="1"/>
+    <col min="12033" max="12033" width="11.5" customWidth="1"/>
     <col min="12034" max="12034" width="8" customWidth="1"/>
     <col min="12035" max="12035" width="10" customWidth="1"/>
-    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
-    <col min="12037" max="12037" width="10.140625" customWidth="1"/>
+    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
+    <col min="12037" max="12037" width="10.1640625" customWidth="1"/>
     <col min="12038" max="12038" width="8" customWidth="1"/>
-    <col min="12273" max="12273" width="30.42578125" customWidth="1"/>
-    <col min="12274" max="12274" width="11.42578125" customWidth="1"/>
+    <col min="12273" max="12273" width="30.5" customWidth="1"/>
+    <col min="12274" max="12274" width="11.5" customWidth="1"/>
     <col min="12275" max="12275" width="8" customWidth="1"/>
-    <col min="12276" max="12276" width="10.28515625" customWidth="1"/>
-    <col min="12277" max="12277" width="8.28515625" customWidth="1"/>
+    <col min="12276" max="12276" width="10.33203125" customWidth="1"/>
+    <col min="12277" max="12277" width="8.33203125" customWidth="1"/>
     <col min="12278" max="12278" width="10" customWidth="1"/>
     <col min="12279" max="12283" width="8" customWidth="1"/>
-    <col min="12284" max="12284" width="8.28515625" customWidth="1"/>
+    <col min="12284" max="12284" width="8.33203125" customWidth="1"/>
     <col min="12285" max="12285" width="9" customWidth="1"/>
-    <col min="12286" max="12286" width="28.140625" customWidth="1"/>
-    <col min="12287" max="12287" width="10.140625" customWidth="1"/>
-    <col min="12289" max="12289" width="11.42578125" customWidth="1"/>
+    <col min="12286" max="12286" width="28.1640625" customWidth="1"/>
+    <col min="12287" max="12287" width="10.1640625" customWidth="1"/>
+    <col min="12289" max="12289" width="11.5" customWidth="1"/>
     <col min="12290" max="12290" width="8" customWidth="1"/>
     <col min="12291" max="12291" width="10" customWidth="1"/>
-    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
-    <col min="12293" max="12293" width="10.140625" customWidth="1"/>
+    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
+    <col min="12293" max="12293" width="10.1640625" customWidth="1"/>
     <col min="12294" max="12294" width="8" customWidth="1"/>
-    <col min="12529" max="12529" width="30.42578125" customWidth="1"/>
-    <col min="12530" max="12530" width="11.42578125" customWidth="1"/>
+    <col min="12529" max="12529" width="30.5" customWidth="1"/>
+    <col min="12530" max="12530" width="11.5" customWidth="1"/>
     <col min="12531" max="12531" width="8" customWidth="1"/>
-    <col min="12532" max="12532" width="10.28515625" customWidth="1"/>
-    <col min="12533" max="12533" width="8.28515625" customWidth="1"/>
+    <col min="12532" max="12532" width="10.33203125" customWidth="1"/>
+    <col min="12533" max="12533" width="8.33203125" customWidth="1"/>
     <col min="12534" max="12534" width="10" customWidth="1"/>
     <col min="12535" max="12539" width="8" customWidth="1"/>
-    <col min="12540" max="12540" width="8.28515625" customWidth="1"/>
+    <col min="12540" max="12540" width="8.33203125" customWidth="1"/>
     <col min="12541" max="12541" width="9" customWidth="1"/>
-    <col min="12542" max="12542" width="28.140625" customWidth="1"/>
-    <col min="12543" max="12543" width="10.140625" customWidth="1"/>
-    <col min="12545" max="12545" width="11.42578125" customWidth="1"/>
+    <col min="12542" max="12542" width="28.1640625" customWidth="1"/>
+    <col min="12543" max="12543" width="10.1640625" customWidth="1"/>
+    <col min="12545" max="12545" width="11.5" customWidth="1"/>
     <col min="12546" max="12546" width="8" customWidth="1"/>
     <col min="12547" max="12547" width="10" customWidth="1"/>
-    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
-    <col min="12549" max="12549" width="10.140625" customWidth="1"/>
+    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
+    <col min="12549" max="12549" width="10.1640625" customWidth="1"/>
     <col min="12550" max="12550" width="8" customWidth="1"/>
-    <col min="12785" max="12785" width="30.42578125" customWidth="1"/>
-    <col min="12786" max="12786" width="11.42578125" customWidth="1"/>
+    <col min="12785" max="12785" width="30.5" customWidth="1"/>
+    <col min="12786" max="12786" width="11.5" customWidth="1"/>
     <col min="12787" max="12787" width="8" customWidth="1"/>
-    <col min="12788" max="12788" width="10.28515625" customWidth="1"/>
-    <col min="12789" max="12789" width="8.28515625" customWidth="1"/>
+    <col min="12788" max="12788" width="10.33203125" customWidth="1"/>
+    <col min="12789" max="12789" width="8.33203125" customWidth="1"/>
     <col min="12790" max="12790" width="10" customWidth="1"/>
     <col min="12791" max="12795" width="8" customWidth="1"/>
-    <col min="12796" max="12796" width="8.28515625" customWidth="1"/>
+    <col min="12796" max="12796" width="8.33203125" customWidth="1"/>
     <col min="12797" max="12797" width="9" customWidth="1"/>
-    <col min="12798" max="12798" width="28.140625" customWidth="1"/>
-    <col min="12799" max="12799" width="10.140625" customWidth="1"/>
-    <col min="12801" max="12801" width="11.42578125" customWidth="1"/>
+    <col min="12798" max="12798" width="28.1640625" customWidth="1"/>
+    <col min="12799" max="12799" width="10.1640625" customWidth="1"/>
+    <col min="12801" max="12801" width="11.5" customWidth="1"/>
     <col min="12802" max="12802" width="8" customWidth="1"/>
     <col min="12803" max="12803" width="10" customWidth="1"/>
-    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
-    <col min="12805" max="12805" width="10.140625" customWidth="1"/>
+    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
+    <col min="12805" max="12805" width="10.1640625" customWidth="1"/>
     <col min="12806" max="12806" width="8" customWidth="1"/>
-    <col min="13041" max="13041" width="30.42578125" customWidth="1"/>
-    <col min="13042" max="13042" width="11.42578125" customWidth="1"/>
+    <col min="13041" max="13041" width="30.5" customWidth="1"/>
+    <col min="13042" max="13042" width="11.5" customWidth="1"/>
     <col min="13043" max="13043" width="8" customWidth="1"/>
-    <col min="13044" max="13044" width="10.28515625" customWidth="1"/>
-    <col min="13045" max="13045" width="8.28515625" customWidth="1"/>
+    <col min="13044" max="13044" width="10.33203125" customWidth="1"/>
+    <col min="13045" max="13045" width="8.33203125" customWidth="1"/>
     <col min="13046" max="13046" width="10" customWidth="1"/>
     <col min="13047" max="13051" width="8" customWidth="1"/>
-    <col min="13052" max="13052" width="8.28515625" customWidth="1"/>
+    <col min="13052" max="13052" width="8.33203125" customWidth="1"/>
     <col min="13053" max="13053" width="9" customWidth="1"/>
-    <col min="13054" max="13054" width="28.140625" customWidth="1"/>
-    <col min="13055" max="13055" width="10.140625" customWidth="1"/>
-    <col min="13057" max="13057" width="11.42578125" customWidth="1"/>
+    <col min="13054" max="13054" width="28.1640625" customWidth="1"/>
+    <col min="13055" max="13055" width="10.1640625" customWidth="1"/>
+    <col min="13057" max="13057" width="11.5" customWidth="1"/>
     <col min="13058" max="13058" width="8" customWidth="1"/>
     <col min="13059" max="13059" width="10" customWidth="1"/>
-    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
-    <col min="13061" max="13061" width="10.140625" customWidth="1"/>
+    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
+    <col min="13061" max="13061" width="10.1640625" customWidth="1"/>
     <col min="13062" max="13062" width="8" customWidth="1"/>
-    <col min="13297" max="13297" width="30.42578125" customWidth="1"/>
-    <col min="13298" max="13298" width="11.42578125" customWidth="1"/>
+    <col min="13297" max="13297" width="30.5" customWidth="1"/>
+    <col min="13298" max="13298" width="11.5" customWidth="1"/>
     <col min="13299" max="13299" width="8" customWidth="1"/>
-    <col min="13300" max="13300" width="10.28515625" customWidth="1"/>
-    <col min="13301" max="13301" width="8.28515625" customWidth="1"/>
+    <col min="13300" max="13300" width="10.33203125" customWidth="1"/>
+    <col min="13301" max="13301" width="8.33203125" customWidth="1"/>
     <col min="13302" max="13302" width="10" customWidth="1"/>
     <col min="13303" max="13307" width="8" customWidth="1"/>
-    <col min="13308" max="13308" width="8.28515625" customWidth="1"/>
+    <col min="13308" max="13308" width="8.33203125" customWidth="1"/>
     <col min="13309" max="13309" width="9" customWidth="1"/>
-    <col min="13310" max="13310" width="28.140625" customWidth="1"/>
-    <col min="13311" max="13311" width="10.140625" customWidth="1"/>
-    <col min="13313" max="13313" width="11.42578125" customWidth="1"/>
+    <col min="13310" max="13310" width="28.1640625" customWidth="1"/>
+    <col min="13311" max="13311" width="10.1640625" customWidth="1"/>
+    <col min="13313" max="13313" width="11.5" customWidth="1"/>
     <col min="13314" max="13314" width="8" customWidth="1"/>
     <col min="13315" max="13315" width="10" customWidth="1"/>
-    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
-    <col min="13317" max="13317" width="10.140625" customWidth="1"/>
+    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
+    <col min="13317" max="13317" width="10.1640625" customWidth="1"/>
     <col min="13318" max="13318" width="8" customWidth="1"/>
-    <col min="13553" max="13553" width="30.42578125" customWidth="1"/>
-    <col min="13554" max="13554" width="11.42578125" customWidth="1"/>
+    <col min="13553" max="13553" width="30.5" customWidth="1"/>
+    <col min="13554" max="13554" width="11.5" customWidth="1"/>
     <col min="13555" max="13555" width="8" customWidth="1"/>
-    <col min="13556" max="13556" width="10.28515625" customWidth="1"/>
-    <col min="13557" max="13557" width="8.28515625" customWidth="1"/>
+    <col min="13556" max="13556" width="10.33203125" customWidth="1"/>
+    <col min="13557" max="13557" width="8.33203125" customWidth="1"/>
     <col min="13558" max="13558" width="10" customWidth="1"/>
     <col min="13559" max="13563" width="8" customWidth="1"/>
-    <col min="13564" max="13564" width="8.28515625" customWidth="1"/>
+    <col min="13564" max="13564" width="8.33203125" customWidth="1"/>
     <col min="13565" max="13565" width="9" customWidth="1"/>
-    <col min="13566" max="13566" width="28.140625" customWidth="1"/>
-    <col min="13567" max="13567" width="10.140625" customWidth="1"/>
-    <col min="13569" max="13569" width="11.42578125" customWidth="1"/>
+    <col min="13566" max="13566" width="28.1640625" customWidth="1"/>
+    <col min="13567" max="13567" width="10.1640625" customWidth="1"/>
+    <col min="13569" max="13569" width="11.5" customWidth="1"/>
     <col min="13570" max="13570" width="8" customWidth="1"/>
     <col min="13571" max="13571" width="10" customWidth="1"/>
-    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
-    <col min="13573" max="13573" width="10.140625" customWidth="1"/>
+    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
+    <col min="13573" max="13573" width="10.1640625" customWidth="1"/>
     <col min="13574" max="13574" width="8" customWidth="1"/>
-    <col min="13809" max="13809" width="30.42578125" customWidth="1"/>
-    <col min="13810" max="13810" width="11.42578125" customWidth="1"/>
+    <col min="13809" max="13809" width="30.5" customWidth="1"/>
+    <col min="13810" max="13810" width="11.5" customWidth="1"/>
     <col min="13811" max="13811" width="8" customWidth="1"/>
-    <col min="13812" max="13812" width="10.28515625" customWidth="1"/>
-    <col min="13813" max="13813" width="8.28515625" customWidth="1"/>
+    <col min="13812" max="13812" width="10.33203125" customWidth="1"/>
+    <col min="13813" max="13813" width="8.33203125" customWidth="1"/>
     <col min="13814" max="13814" width="10" customWidth="1"/>
     <col min="13815" max="13819" width="8" customWidth="1"/>
-    <col min="13820" max="13820" width="8.28515625" customWidth="1"/>
+    <col min="13820" max="13820" width="8.33203125" customWidth="1"/>
     <col min="13821" max="13821" width="9" customWidth="1"/>
-    <col min="13822" max="13822" width="28.140625" customWidth="1"/>
-    <col min="13823" max="13823" width="10.140625" customWidth="1"/>
-    <col min="13825" max="13825" width="11.42578125" customWidth="1"/>
+    <col min="13822" max="13822" width="28.1640625" customWidth="1"/>
+    <col min="13823" max="13823" width="10.1640625" customWidth="1"/>
+    <col min="13825" max="13825" width="11.5" customWidth="1"/>
     <col min="13826" max="13826" width="8" customWidth="1"/>
     <col min="13827" max="13827" width="10" customWidth="1"/>
-    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
-    <col min="13829" max="13829" width="10.140625" customWidth="1"/>
+    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
+    <col min="13829" max="13829" width="10.1640625" customWidth="1"/>
     <col min="13830" max="13830" width="8" customWidth="1"/>
-    <col min="14065" max="14065" width="30.42578125" customWidth="1"/>
-    <col min="14066" max="14066" width="11.42578125" customWidth="1"/>
+    <col min="14065" max="14065" width="30.5" customWidth="1"/>
+    <col min="14066" max="14066" width="11.5" customWidth="1"/>
     <col min="14067" max="14067" width="8" customWidth="1"/>
-    <col min="14068" max="14068" width="10.28515625" customWidth="1"/>
-    <col min="14069" max="14069" width="8.28515625" customWidth="1"/>
+    <col min="14068" max="14068" width="10.33203125" customWidth="1"/>
+    <col min="14069" max="14069" width="8.33203125" customWidth="1"/>
     <col min="14070" max="14070" width="10" customWidth="1"/>
     <col min="14071" max="14075" width="8" customWidth="1"/>
-    <col min="14076" max="14076" width="8.28515625" customWidth="1"/>
+    <col min="14076" max="14076" width="8.33203125" customWidth="1"/>
     <col min="14077" max="14077" width="9" customWidth="1"/>
-    <col min="14078" max="14078" width="28.140625" customWidth="1"/>
-    <col min="14079" max="14079" width="10.140625" customWidth="1"/>
-    <col min="14081" max="14081" width="11.42578125" customWidth="1"/>
+    <col min="14078" max="14078" width="28.1640625" customWidth="1"/>
+    <col min="14079" max="14079" width="10.1640625" customWidth="1"/>
+    <col min="14081" max="14081" width="11.5" customWidth="1"/>
     <col min="14082" max="14082" width="8" customWidth="1"/>
     <col min="14083" max="14083" width="10" customWidth="1"/>
-    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
-    <col min="14085" max="14085" width="10.140625" customWidth="1"/>
+    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
+    <col min="14085" max="14085" width="10.1640625" customWidth="1"/>
     <col min="14086" max="14086" width="8" customWidth="1"/>
-    <col min="14321" max="14321" width="30.42578125" customWidth="1"/>
-    <col min="14322" max="14322" width="11.42578125" customWidth="1"/>
+    <col min="14321" max="14321" width="30.5" customWidth="1"/>
+    <col min="14322" max="14322" width="11.5" customWidth="1"/>
     <col min="14323" max="14323" width="8" customWidth="1"/>
-    <col min="14324" max="14324" width="10.28515625" customWidth="1"/>
-    <col min="14325" max="14325" width="8.28515625" customWidth="1"/>
+    <col min="14324" max="14324" width="10.33203125" customWidth="1"/>
+    <col min="14325" max="14325" width="8.33203125" customWidth="1"/>
     <col min="14326" max="14326" width="10" customWidth="1"/>
     <col min="14327" max="14331" width="8" customWidth="1"/>
-    <col min="14332" max="14332" width="8.28515625" customWidth="1"/>
+    <col min="14332" max="14332" width="8.33203125" customWidth="1"/>
     <col min="14333" max="14333" width="9" customWidth="1"/>
-    <col min="14334" max="14334" width="28.140625" customWidth="1"/>
-    <col min="14335" max="14335" width="10.140625" customWidth="1"/>
-    <col min="14337" max="14337" width="11.42578125" customWidth="1"/>
+    <col min="14334" max="14334" width="28.1640625" customWidth="1"/>
+    <col min="14335" max="14335" width="10.1640625" customWidth="1"/>
+    <col min="14337" max="14337" width="11.5" customWidth="1"/>
     <col min="14338" max="14338" width="8" customWidth="1"/>
     <col min="14339" max="14339" width="10" customWidth="1"/>
-    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
-    <col min="14341" max="14341" width="10.140625" customWidth="1"/>
+    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
+    <col min="14341" max="14341" width="10.1640625" customWidth="1"/>
     <col min="14342" max="14342" width="8" customWidth="1"/>
-    <col min="14577" max="14577" width="30.42578125" customWidth="1"/>
-    <col min="14578" max="14578" width="11.42578125" customWidth="1"/>
+    <col min="14577" max="14577" width="30.5" customWidth="1"/>
+    <col min="14578" max="14578" width="11.5" customWidth="1"/>
     <col min="14579" max="14579" width="8" customWidth="1"/>
-    <col min="14580" max="14580" width="10.28515625" customWidth="1"/>
-    <col min="14581" max="14581" width="8.28515625" customWidth="1"/>
+    <col min="14580" max="14580" width="10.33203125" customWidth="1"/>
+    <col min="14581" max="14581" width="8.33203125" customWidth="1"/>
     <col min="14582" max="14582" width="10" customWidth="1"/>
     <col min="14583" max="14587" width="8" customWidth="1"/>
-    <col min="14588" max="14588" width="8.28515625" customWidth="1"/>
+    <col min="14588" max="14588" width="8.33203125" customWidth="1"/>
     <col min="14589" max="14589" width="9" customWidth="1"/>
-    <col min="14590" max="14590" width="28.140625" customWidth="1"/>
-    <col min="14591" max="14591" width="10.140625" customWidth="1"/>
-    <col min="14593" max="14593" width="11.42578125" customWidth="1"/>
+    <col min="14590" max="14590" width="28.1640625" customWidth="1"/>
+    <col min="14591" max="14591" width="10.1640625" customWidth="1"/>
+    <col min="14593" max="14593" width="11.5" customWidth="1"/>
     <col min="14594" max="14594" width="8" customWidth="1"/>
     <col min="14595" max="14595" width="10" customWidth="1"/>
-    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
-    <col min="14597" max="14597" width="10.140625" customWidth="1"/>
+    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
+    <col min="14597" max="14597" width="10.1640625" customWidth="1"/>
     <col min="14598" max="14598" width="8" customWidth="1"/>
-    <col min="14833" max="14833" width="30.42578125" customWidth="1"/>
-    <col min="14834" max="14834" width="11.42578125" customWidth="1"/>
+    <col min="14833" max="14833" width="30.5" customWidth="1"/>
+    <col min="14834" max="14834" width="11.5" customWidth="1"/>
     <col min="14835" max="14835" width="8" customWidth="1"/>
-    <col min="14836" max="14836" width="10.28515625" customWidth="1"/>
-    <col min="14837" max="14837" width="8.28515625" customWidth="1"/>
+    <col min="14836" max="14836" width="10.33203125" customWidth="1"/>
+    <col min="14837" max="14837" width="8.33203125" customWidth="1"/>
     <col min="14838" max="14838" width="10" customWidth="1"/>
     <col min="14839" max="14843" width="8" customWidth="1"/>
-    <col min="14844" max="14844" width="8.28515625" customWidth="1"/>
+    <col min="14844" max="14844" width="8.33203125" customWidth="1"/>
     <col min="14845" max="14845" width="9" customWidth="1"/>
-    <col min="14846" max="14846" width="28.140625" customWidth="1"/>
-    <col min="14847" max="14847" width="10.140625" customWidth="1"/>
-    <col min="14849" max="14849" width="11.42578125" customWidth="1"/>
+    <col min="14846" max="14846" width="28.1640625" customWidth="1"/>
+    <col min="14847" max="14847" width="10.1640625" customWidth="1"/>
+    <col min="14849" max="14849" width="11.5" customWidth="1"/>
     <col min="14850" max="14850" width="8" customWidth="1"/>
     <col min="14851" max="14851" width="10" customWidth="1"/>
-    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
-    <col min="14853" max="14853" width="10.140625" customWidth="1"/>
+    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
+    <col min="14853" max="14853" width="10.1640625" customWidth="1"/>
     <col min="14854" max="14854" width="8" customWidth="1"/>
-    <col min="15089" max="15089" width="30.42578125" customWidth="1"/>
-    <col min="15090" max="15090" width="11.42578125" customWidth="1"/>
+    <col min="15089" max="15089" width="30.5" customWidth="1"/>
+    <col min="15090" max="15090" width="11.5" customWidth="1"/>
     <col min="15091" max="15091" width="8" customWidth="1"/>
-    <col min="15092" max="15092" width="10.28515625" customWidth="1"/>
-    <col min="15093" max="15093" width="8.28515625" customWidth="1"/>
+    <col min="15092" max="15092" width="10.33203125" customWidth="1"/>
+    <col min="15093" max="15093" width="8.33203125" customWidth="1"/>
     <col min="15094" max="15094" width="10" customWidth="1"/>
     <col min="15095" max="15099" width="8" customWidth="1"/>
-    <col min="15100" max="15100" width="8.28515625" customWidth="1"/>
+    <col min="15100" max="15100" width="8.33203125" customWidth="1"/>
     <col min="15101" max="15101" width="9" customWidth="1"/>
-    <col min="15102" max="15102" width="28.140625" customWidth="1"/>
-    <col min="15103" max="15103" width="10.140625" customWidth="1"/>
-    <col min="15105" max="15105" width="11.42578125" customWidth="1"/>
+    <col min="15102" max="15102" width="28.1640625" customWidth="1"/>
+    <col min="15103" max="15103" width="10.1640625" customWidth="1"/>
+    <col min="15105" max="15105" width="11.5" customWidth="1"/>
     <col min="15106" max="15106" width="8" customWidth="1"/>
     <col min="15107" max="15107" width="10" customWidth="1"/>
-    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
-    <col min="15109" max="15109" width="10.140625" customWidth="1"/>
+    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
+    <col min="15109" max="15109" width="10.1640625" customWidth="1"/>
     <col min="15110" max="15110" width="8" customWidth="1"/>
-    <col min="15345" max="15345" width="30.42578125" customWidth="1"/>
-    <col min="15346" max="15346" width="11.42578125" customWidth="1"/>
+    <col min="15345" max="15345" width="30.5" customWidth="1"/>
+    <col min="15346" max="15346" width="11.5" customWidth="1"/>
     <col min="15347" max="15347" width="8" customWidth="1"/>
-    <col min="15348" max="15348" width="10.28515625" customWidth="1"/>
-    <col min="15349" max="15349" width="8.28515625" customWidth="1"/>
+    <col min="15348" max="15348" width="10.33203125" customWidth="1"/>
+    <col min="15349" max="15349" width="8.33203125" customWidth="1"/>
     <col min="15350" max="15350" width="10" customWidth="1"/>
     <col min="15351" max="15355" width="8" customWidth="1"/>
-    <col min="15356" max="15356" width="8.28515625" customWidth="1"/>
+    <col min="15356" max="15356" width="8.33203125" customWidth="1"/>
     <col min="15357" max="15357" width="9" customWidth="1"/>
-    <col min="15358" max="15358" width="28.140625" customWidth="1"/>
-    <col min="15359" max="15359" width="10.140625" customWidth="1"/>
-    <col min="15361" max="15361" width="11.42578125" customWidth="1"/>
+    <col min="15358" max="15358" width="28.1640625" customWidth="1"/>
+    <col min="15359" max="15359" width="10.1640625" customWidth="1"/>
+    <col min="15361" max="15361" width="11.5" customWidth="1"/>
     <col min="15362" max="15362" width="8" customWidth="1"/>
     <col min="15363" max="15363" width="10" customWidth="1"/>
-    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
-    <col min="15365" max="15365" width="10.140625" customWidth="1"/>
+    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
+    <col min="15365" max="15365" width="10.1640625" customWidth="1"/>
     <col min="15366" max="15366" width="8" customWidth="1"/>
-    <col min="15601" max="15601" width="30.42578125" customWidth="1"/>
-    <col min="15602" max="15602" width="11.42578125" customWidth="1"/>
+    <col min="15601" max="15601" width="30.5" customWidth="1"/>
+    <col min="15602" max="15602" width="11.5" customWidth="1"/>
     <col min="15603" max="15603" width="8" customWidth="1"/>
-    <col min="15604" max="15604" width="10.28515625" customWidth="1"/>
-    <col min="15605" max="15605" width="8.28515625" customWidth="1"/>
+    <col min="15604" max="15604" width="10.33203125" customWidth="1"/>
+    <col min="15605" max="15605" width="8.33203125" customWidth="1"/>
     <col min="15606" max="15606" width="10" customWidth="1"/>
     <col min="15607" max="15611" width="8" customWidth="1"/>
-    <col min="15612" max="15612" width="8.28515625" customWidth="1"/>
+    <col min="15612" max="15612" width="8.33203125" customWidth="1"/>
     <col min="15613" max="15613" width="9" customWidth="1"/>
-    <col min="15614" max="15614" width="28.140625" customWidth="1"/>
-    <col min="15615" max="15615" width="10.140625" customWidth="1"/>
-    <col min="15617" max="15617" width="11.42578125" customWidth="1"/>
+    <col min="15614" max="15614" width="28.1640625" customWidth="1"/>
+    <col min="15615" max="15615" width="10.1640625" customWidth="1"/>
+    <col min="15617" max="15617" width="11.5" customWidth="1"/>
     <col min="15618" max="15618" width="8" customWidth="1"/>
     <col min="15619" max="15619" width="10" customWidth="1"/>
-    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
-    <col min="15621" max="15621" width="10.140625" customWidth="1"/>
+    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
+    <col min="15621" max="15621" width="10.1640625" customWidth="1"/>
     <col min="15622" max="15622" width="8" customWidth="1"/>
-    <col min="15857" max="15857" width="30.42578125" customWidth="1"/>
-    <col min="15858" max="15858" width="11.42578125" customWidth="1"/>
+    <col min="15857" max="15857" width="30.5" customWidth="1"/>
+    <col min="15858" max="15858" width="11.5" customWidth="1"/>
     <col min="15859" max="15859" width="8" customWidth="1"/>
-    <col min="15860" max="15860" width="10.28515625" customWidth="1"/>
-    <col min="15861" max="15861" width="8.28515625" customWidth="1"/>
+    <col min="15860" max="15860" width="10.33203125" customWidth="1"/>
+    <col min="15861" max="15861" width="8.33203125" customWidth="1"/>
     <col min="15862" max="15862" width="10" customWidth="1"/>
     <col min="15863" max="15867" width="8" customWidth="1"/>
-    <col min="15868" max="15868" width="8.28515625" customWidth="1"/>
+    <col min="15868" max="15868" width="8.33203125" customWidth="1"/>
     <col min="15869" max="15869" width="9" customWidth="1"/>
-    <col min="15870" max="15870" width="28.140625" customWidth="1"/>
-    <col min="15871" max="15871" width="10.140625" customWidth="1"/>
-    <col min="15873" max="15873" width="11.42578125" customWidth="1"/>
+    <col min="15870" max="15870" width="28.1640625" customWidth="1"/>
+    <col min="15871" max="15871" width="10.1640625" customWidth="1"/>
+    <col min="15873" max="15873" width="11.5" customWidth="1"/>
     <col min="15874" max="15874" width="8" customWidth="1"/>
     <col min="15875" max="15875" width="10" customWidth="1"/>
-    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
-    <col min="15877" max="15877" width="10.140625" customWidth="1"/>
+    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
+    <col min="15877" max="15877" width="10.1640625" customWidth="1"/>
     <col min="15878" max="15878" width="8" customWidth="1"/>
-    <col min="16113" max="16113" width="30.42578125" customWidth="1"/>
-    <col min="16114" max="16114" width="11.42578125" customWidth="1"/>
+    <col min="16113" max="16113" width="30.5" customWidth="1"/>
+    <col min="16114" max="16114" width="11.5" customWidth="1"/>
     <col min="16115" max="16115" width="8" customWidth="1"/>
-    <col min="16116" max="16116" width="10.28515625" customWidth="1"/>
-    <col min="16117" max="16117" width="8.28515625" customWidth="1"/>
+    <col min="16116" max="16116" width="10.33203125" customWidth="1"/>
+    <col min="16117" max="16117" width="8.33203125" customWidth="1"/>
     <col min="16118" max="16118" width="10" customWidth="1"/>
     <col min="16119" max="16123" width="8" customWidth="1"/>
-    <col min="16124" max="16124" width="8.28515625" customWidth="1"/>
+    <col min="16124" max="16124" width="8.33203125" customWidth="1"/>
     <col min="16125" max="16125" width="9" customWidth="1"/>
-    <col min="16126" max="16126" width="28.140625" customWidth="1"/>
-    <col min="16127" max="16127" width="10.140625" customWidth="1"/>
-    <col min="16129" max="16129" width="11.42578125" customWidth="1"/>
+    <col min="16126" max="16126" width="28.1640625" customWidth="1"/>
+    <col min="16127" max="16127" width="10.1640625" customWidth="1"/>
+    <col min="16129" max="16129" width="11.5" customWidth="1"/>
     <col min="16130" max="16130" width="8" customWidth="1"/>
     <col min="16131" max="16131" width="10" customWidth="1"/>
-    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
-    <col min="16133" max="16133" width="10.140625" customWidth="1"/>
+    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
+    <col min="16133" max="16133" width="10.1640625" customWidth="1"/>
     <col min="16134" max="16134" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -50931,7 +50904,7 @@
       <c r="IB1" s="36"/>
       <c r="IC1" s="36"/>
     </row>
-    <row r="2" spans="1:237" ht="12">
+    <row r="2" spans="1:237">
       <c r="A2" s="63" t="str">
         <f>'Övergripande statistik'!A2</f>
         <v>Avlidna i covid-19 enligt dödsorsaksintyg inkomna fram till den 14 mars 2021</v>
@@ -51412,7 +51385,7 @@
       <c r="IB3"/>
       <c r="IC3"/>
     </row>
-    <row r="4" spans="1:237" ht="12">
+    <row r="4" spans="1:237">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -51651,7 +51624,7 @@
       <c r="IB4"/>
       <c r="IC4"/>
     </row>
-    <row r="5" spans="1:237" ht="11.4" thickBot="1">
+    <row r="5" spans="1:237" ht="14.25" thickBot="1">
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -51680,7 +51653,7 @@
       <c r="IB5"/>
       <c r="IC5"/>
     </row>
-    <row r="6" spans="1:237" ht="11.4" thickTop="1">
+    <row r="6" spans="1:237" ht="14.25" thickTop="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="321" t="s">
@@ -52500,7 +52473,7 @@
       <c r="IB18"/>
       <c r="IC18"/>
     </row>
-    <row r="19" spans="1:249" ht="11.4" thickBot="1">
+    <row r="19" spans="1:249" ht="14.25" thickBot="1">
       <c r="A19" s="316"/>
       <c r="B19" s="68" t="s">
         <v>158</v>
@@ -52564,19 +52537,19 @@
       <c r="IB19"/>
       <c r="IC19"/>
     </row>
-    <row r="20" spans="1:249" ht="12" thickTop="1">
+    <row r="20" spans="1:249" ht="14.25" thickTop="1">
       <c r="A20" s="128" t="s">
         <v>183</v>
       </c>
       <c r="IC20"/>
     </row>
-    <row r="21" spans="1:249" ht="11.4">
+    <row r="21" spans="1:249">
       <c r="A21" s="129" t="s">
         <v>148</v>
       </c>
       <c r="IC21"/>
     </row>
-    <row r="22" spans="1:249" ht="11.4">
+    <row r="22" spans="1:249">
       <c r="A22" s="30"/>
       <c r="H22" s="37"/>
     </row>
@@ -53362,16 +53335,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53388,10 +53361,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.8"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1">
@@ -53409,7 +53382,7 @@
     <row r="3" spans="1:20">
       <c r="O3" s="81"/>
     </row>
-    <row r="5" spans="1:20" ht="11.4" thickBot="1"/>
+    <row r="5" spans="1:20" ht="14.25" thickBot="1"/>
     <row r="6" spans="1:20" ht="13.5" customHeight="1">
       <c r="A6" s="336" t="s">
         <v>187</v>
@@ -54068,7 +54041,7 @@
         <v>46.6666666666667</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="11.4" thickBot="1">
+    <row r="29" spans="1:9" ht="14.25" thickBot="1">
       <c r="A29" s="244" t="s">
         <v>275</v>
       </c>
@@ -54097,27 +54070,27 @@
         <v>32.4324324324324</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12" thickTop="1">
+    <row r="30" spans="1:9" ht="14.25" thickTop="1">
       <c r="A30" s="126" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="11.4">
+    <row r="31" spans="1:9">
       <c r="A31" s="127" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="11.4">
+    <row r="32" spans="1:9">
       <c r="A32" s="127" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="81" customFormat="1" ht="11.4">
+    <row r="33" spans="1:8" s="81" customFormat="1">
       <c r="A33" s="127" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="11.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="127" t="s">
         <v>149</v>
       </c>
@@ -54129,7 +54102,7 @@
       <c r="F36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="11.4">
+    <row r="37" spans="1:8">
       <c r="B37" s="127"/>
     </row>
   </sheetData>
@@ -54188,6 +54161,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="dokument" ma:contentTypeID="0x010100361443839E954C488E1554F766430BDE" ma:contentTypeVersion="37" ma:contentTypeDescription="Skapa ett nytt dokument." ma:contentTypeScope="" ma:versionID="ec0867efc9d878e75742a5b73fddae48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dd3acd59-a8d8-42b1-950d-eec6c247243c" xmlns:ns3="343f6c91-b5b3-4dff-89ad-5fc55ccc8930" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f4ea334ff345e29c5775f0a2fd1174f" ns2:_="" ns3:_="">
     <xsd:import namespace="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
@@ -54520,15 +54502,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
@@ -54547,6 +54520,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2BDD971-BADF-427E-9579-B824215A28B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -54563,12 +54544,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>